--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735B254A-067B-4F7F-88C6-F10D6C71B1DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="locations" sheetId="2" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="locations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -248,15 +268,9 @@
     <t>Birthday Parties</t>
   </si>
   <si>
-    <t>birthdayparties</t>
-  </si>
-  <si>
     <t>partieseventssub</t>
   </si>
   <si>
-    <t>Camp Programs</t>
-  </si>
-  <si>
     <t>campprograms</t>
   </si>
   <si>
@@ -327,26 +341,33 @@
   </si>
   <si>
     <t>london</t>
+  </si>
+  <si>
+    <t>Camps</t>
+  </si>
+  <si>
+    <t>kids-birthday-parties</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -356,56 +377,61 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -595,35 +621,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="15.43"/>
-    <col customWidth="1" min="4" max="4" width="14.86"/>
-    <col customWidth="1" min="5" max="5" width="15.86"/>
-    <col customWidth="1" min="6" max="6" width="16.14"/>
-    <col customWidth="1" min="7" max="7" width="10.57"/>
-    <col customWidth="1" min="8" max="8" width="8.71"/>
-    <col customWidth="1" min="9" max="9" width="38.29"/>
-    <col customWidth="1" min="10" max="10" width="67.43"/>
-    <col customWidth="1" min="11" max="13" width="15.57"/>
-    <col customWidth="1" min="14" max="16" width="8.71"/>
-    <col customWidth="1" min="17" max="17" width="41.29"/>
-    <col customWidth="1" min="18" max="27" width="8.71"/>
+    <col min="1" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" customWidth="1"/>
+    <col min="10" max="10" width="67.44140625" customWidth="1"/>
+    <col min="11" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.33203125" customWidth="1"/>
+    <col min="18" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,9 +704,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="27.75" customHeight="1">
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -697,9 +725,9 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -718,9 +746,9 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
@@ -739,10 +767,10 @@
       </c>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
@@ -780,9 +808,9 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
@@ -801,9 +829,9 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -822,18 +850,21 @@
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="b">
         <v>1</v>
@@ -843,15 +874,15 @@
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -876,15 +907,15 @@
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>40</v>
@@ -909,15 +940,15 @@
       </c>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>44</v>
@@ -933,15 +964,15 @@
       </c>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>46</v>
@@ -966,15 +997,15 @@
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>50</v>
@@ -990,15 +1021,15 @@
       </c>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>52</v>
@@ -1011,15 +1042,15 @@
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>54</v>
@@ -1032,15 +1063,15 @@
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>56</v>
@@ -1053,15 +1084,15 @@
       </c>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>58</v>
@@ -1074,18 +1105,18 @@
       </c>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>61</v>
@@ -1104,18 +1135,18 @@
       </c>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>65</v>
@@ -1137,15 +1168,15 @@
       </c>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>69</v>
@@ -1158,15 +1189,15 @@
       </c>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>72</v>
@@ -1179,15 +1210,15 @@
       </c>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>74</v>
@@ -1203,15 +1234,15 @@
       </c>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>76</v>
@@ -1224,4175 +1255,4172 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G26" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G27" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G29" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="G30" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G31" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G32" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G33" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G34" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q84" s="3"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q85" s="3"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q86" s="3"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q88" s="3"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q89" s="3"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q90" s="3"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q91" s="3"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q92" s="3"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q93" s="3"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q94" s="3"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q99" s="3"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q100" s="3"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q101" s="3"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q102" s="3"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q103" s="3"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q104" s="3"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q108" s="3"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q110" s="3"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q111" s="3"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q116" s="3"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q117" s="3"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q118" s="3"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q119" s="3"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q120" s="3"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q121" s="3"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q122" s="3"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q123" s="3"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q124" s="3"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q125" s="3"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q126" s="3"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q127" s="3"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q128" s="3"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q129" s="3"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q130" s="3"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q131" s="3"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q132" s="3"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q134" s="3"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q135" s="3"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q136" s="3"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q137" s="3"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q138" s="3"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q139" s="3"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q140" s="3"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q141" s="3"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q142" s="3"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q143" s="3"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q144" s="3"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q145" s="3"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q146" s="3"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q147" s="3"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q148" s="3"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q149" s="3"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q150" s="3"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q151" s="3"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q152" s="3"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q153" s="3"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q154" s="3"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q155" s="3"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q156" s="3"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q157" s="3"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q158" s="3"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q159" s="3"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q160" s="3"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q161" s="3"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q162" s="3"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q163" s="3"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q164" s="3"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q165" s="3"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q166" s="3"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q167" s="3"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q168" s="3"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q169" s="3"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q170" s="3"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q171" s="3"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q172" s="3"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q173" s="3"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q174" s="3"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q175" s="3"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q176" s="3"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q177" s="3"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q178" s="3"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q179" s="3"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q180" s="3"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q181" s="3"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q182" s="3"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q183" s="3"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q184" s="3"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q185" s="3"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q186" s="3"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q187" s="3"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q188" s="3"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q189" s="3"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q190" s="3"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q191" s="3"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q192" s="3"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q193" s="3"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q194" s="3"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q195" s="3"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q196" s="3"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q197" s="3"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q198" s="3"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q199" s="3"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q200" s="3"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q201" s="3"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q202" s="3"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q203" s="3"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q204" s="3"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q205" s="3"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q206" s="3"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q207" s="3"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q208" s="3"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q209" s="3"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q210" s="3"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q211" s="3"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q212" s="3"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q213" s="3"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q214" s="3"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q215" s="3"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q216" s="3"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q217" s="3"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q218" s="3"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q219" s="3"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q220" s="3"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q221" s="3"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q222" s="3"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q223" s="3"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q224" s="3"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q225" s="3"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q226" s="3"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q227" s="3"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q228" s="3"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q229" s="3"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q230" s="3"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q231" s="3"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q232" s="3"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q233" s="3"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q234" s="3"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q235" s="3"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q236" s="3"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q237" s="3"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q238" s="3"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q239" s="3"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q240" s="3"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q241" s="3"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q242" s="3"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q243" s="3"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q244" s="3"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q245" s="3"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q246" s="3"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q247" s="3"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q248" s="3"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q249" s="3"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q250" s="3"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q251" s="3"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q252" s="3"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q253" s="3"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q254" s="3"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q255" s="3"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q256" s="3"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q257" s="3"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q258" s="3"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q259" s="3"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q260" s="3"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q261" s="3"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q262" s="3"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q263" s="3"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q264" s="3"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q265" s="3"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q266" s="3"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q267" s="3"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q268" s="3"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q269" s="3"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q270" s="3"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q271" s="3"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q272" s="3"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q273" s="3"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q274" s="3"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q275" s="3"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q276" s="3"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q277" s="3"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q278" s="3"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q279" s="3"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q280" s="3"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q281" s="3"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q282" s="3"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q283" s="3"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q284" s="3"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q285" s="3"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q286" s="3"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q287" s="3"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q288" s="3"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q289" s="3"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q290" s="3"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q291" s="3"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q292" s="3"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q293" s="3"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q294" s="3"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q295" s="3"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q296" s="3"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q297" s="3"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q298" s="3"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q299" s="3"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q300" s="3"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q301" s="3"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q302" s="3"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q303" s="3"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q304" s="3"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q305" s="3"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q306" s="3"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q307" s="3"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q308" s="3"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q309" s="3"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q310" s="3"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q311" s="3"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q312" s="3"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q313" s="3"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q314" s="3"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q315" s="3"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q316" s="3"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q317" s="3"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q318" s="3"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q319" s="3"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q320" s="3"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q321" s="3"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q322" s="3"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q323" s="3"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q324" s="3"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q325" s="3"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q326" s="3"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q327" s="3"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q328" s="3"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q329" s="3"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q330" s="3"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q331" s="3"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q332" s="3"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q333" s="3"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q334" s="3"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q335" s="3"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q336" s="3"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q337" s="3"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q338" s="3"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q339" s="3"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q340" s="3"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q341" s="3"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q342" s="3"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q343" s="3"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q344" s="3"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q345" s="3"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q346" s="3"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q347" s="3"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q348" s="3"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q349" s="3"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q350" s="3"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q351" s="3"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q352" s="3"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q353" s="3"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q354" s="3"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q355" s="3"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q356" s="3"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q357" s="3"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q358" s="3"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q359" s="3"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q360" s="3"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q361" s="3"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q362" s="3"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q363" s="3"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q364" s="3"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q365" s="3"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q366" s="3"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q367" s="3"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q368" s="3"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q369" s="3"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q370" s="3"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q371" s="3"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q372" s="3"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q373" s="3"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q374" s="3"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q375" s="3"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q376" s="3"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q377" s="3"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q378" s="3"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q379" s="3"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q380" s="3"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q381" s="3"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q382" s="3"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q383" s="3"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q384" s="3"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q385" s="3"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q386" s="3"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q387" s="3"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q388" s="3"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q389" s="3"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q390" s="3"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q391" s="3"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q392" s="3"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q393" s="3"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q394" s="3"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q395" s="3"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q396" s="3"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q397" s="3"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q398" s="3"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q399" s="3"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q400" s="3"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q401" s="3"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q402" s="3"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q403" s="3"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q404" s="3"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q405" s="3"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q406" s="3"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q407" s="3"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q408" s="3"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q409" s="3"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q410" s="3"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q411" s="3"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q412" s="3"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q413" s="3"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q414" s="3"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q415" s="3"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q416" s="3"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q417" s="3"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q418" s="3"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q419" s="3"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q420" s="3"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q421" s="3"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q422" s="3"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q423" s="3"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q424" s="3"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q425" s="3"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q426" s="3"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q427" s="3"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q428" s="3"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q429" s="3"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q430" s="3"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q431" s="3"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q432" s="3"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q433" s="3"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q434" s="3"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q435" s="3"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q436" s="3"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q437" s="3"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q438" s="3"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q439" s="3"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q440" s="3"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q441" s="3"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q442" s="3"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q443" s="3"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q444" s="3"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q445" s="3"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q446" s="3"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q447" s="3"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q448" s="3"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q449" s="3"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q450" s="3"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q451" s="3"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q452" s="3"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q453" s="3"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q454" s="3"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q455" s="3"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q456" s="3"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q457" s="3"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q458" s="3"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q459" s="3"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q460" s="3"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q461" s="3"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q462" s="3"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q463" s="3"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q464" s="3"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q465" s="3"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q466" s="3"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q467" s="3"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q468" s="3"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q469" s="3"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q470" s="3"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q471" s="3"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q472" s="3"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q473" s="3"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q474" s="3"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q475" s="3"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q476" s="3"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q477" s="3"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q478" s="3"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q479" s="3"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q480" s="3"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q481" s="3"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q482" s="3"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q483" s="3"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q484" s="3"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q485" s="3"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q486" s="3"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q487" s="3"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q488" s="3"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q489" s="3"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q490" s="3"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q491" s="3"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q492" s="3"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q493" s="3"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q494" s="3"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q495" s="3"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q496" s="3"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q497" s="3"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q498" s="3"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q499" s="3"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q500" s="3"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q501" s="3"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q502" s="3"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q503" s="3"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q504" s="3"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q505" s="3"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q506" s="3"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q507" s="3"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q508" s="3"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q509" s="3"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q510" s="3"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q511" s="3"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q512" s="3"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q513" s="3"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q514" s="3"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q515" s="3"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q516" s="3"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q517" s="3"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q518" s="3"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q519" s="3"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q520" s="3"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q521" s="3"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q522" s="3"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q523" s="3"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q524" s="3"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q525" s="3"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q526" s="3"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q527" s="3"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q528" s="3"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q529" s="3"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q530" s="3"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q531" s="3"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q532" s="3"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q533" s="3"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q534" s="3"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q535" s="3"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q536" s="3"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q537" s="3"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q538" s="3"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q539" s="3"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q540" s="3"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q541" s="3"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q542" s="3"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q543" s="3"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q544" s="3"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q545" s="3"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q546" s="3"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q547" s="3"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q548" s="3"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q549" s="3"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q550" s="3"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q551" s="3"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q552" s="3"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q553" s="3"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q554" s="3"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q555" s="3"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q556" s="3"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q557" s="3"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q558" s="3"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q559" s="3"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q560" s="3"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q561" s="3"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q562" s="3"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q563" s="3"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q564" s="3"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q565" s="3"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q566" s="3"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q567" s="3"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q568" s="3"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q569" s="3"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q570" s="3"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q571" s="3"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q572" s="3"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q573" s="3"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q574" s="3"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q575" s="3"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q576" s="3"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q577" s="3"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q578" s="3"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q579" s="3"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q580" s="3"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q581" s="3"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q582" s="3"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q583" s="3"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q584" s="3"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q585" s="3"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q586" s="3"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q587" s="3"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q588" s="3"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q589" s="3"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q590" s="3"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q591" s="3"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q592" s="3"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q593" s="3"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q594" s="3"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q595" s="3"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q596" s="3"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q597" s="3"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q598" s="3"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q599" s="3"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q600" s="3"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q601" s="3"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q602" s="3"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q603" s="3"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q604" s="3"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q605" s="3"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q606" s="3"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q607" s="3"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q608" s="3"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q609" s="3"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q610" s="3"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q611" s="3"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q612" s="3"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q613" s="3"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q614" s="3"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q615" s="3"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q616" s="3"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q617" s="3"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q618" s="3"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q619" s="3"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q620" s="3"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q621" s="3"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q622" s="3"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q623" s="3"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q624" s="3"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q625" s="3"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q626" s="3"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q627" s="3"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q628" s="3"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q629" s="3"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q630" s="3"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q631" s="3"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q632" s="3"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q633" s="3"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q634" s="3"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q635" s="3"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q636" s="3"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q637" s="3"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q638" s="3"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q639" s="3"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q640" s="3"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q641" s="3"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q642" s="3"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q643" s="3"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q644" s="3"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q645" s="3"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q646" s="3"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q647" s="3"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q648" s="3"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q649" s="3"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q650" s="3"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q651" s="3"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q652" s="3"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q653" s="3"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q654" s="3"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q655" s="3"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q656" s="3"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q657" s="3"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q658" s="3"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q659" s="3"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q660" s="3"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q661" s="3"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q662" s="3"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q663" s="3"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q664" s="3"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q665" s="3"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q666" s="3"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q667" s="3"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q668" s="3"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q669" s="3"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q670" s="3"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q671" s="3"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q672" s="3"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q673" s="3"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q674" s="3"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q675" s="3"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q676" s="3"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q677" s="3"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q678" s="3"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q679" s="3"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q680" s="3"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q681" s="3"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q682" s="3"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q683" s="3"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q684" s="3"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q685" s="3"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q686" s="3"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q687" s="3"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q688" s="3"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q689" s="3"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q690" s="3"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q691" s="3"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q692" s="3"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q693" s="3"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q694" s="3"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q695" s="3"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q696" s="3"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q697" s="3"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q698" s="3"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q699" s="3"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q700" s="3"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q701" s="3"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q702" s="3"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q703" s="3"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q704" s="3"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q705" s="3"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q706" s="3"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q707" s="3"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q708" s="3"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q709" s="3"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q710" s="3"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q711" s="3"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q712" s="3"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q713" s="3"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q714" s="3"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q715" s="3"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q716" s="3"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q717" s="3"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q718" s="3"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q719" s="3"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q720" s="3"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q721" s="3"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q722" s="3"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q723" s="3"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q724" s="3"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q725" s="3"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q726" s="3"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q727" s="3"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q728" s="3"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q729" s="3"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q730" s="3"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q731" s="3"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q732" s="3"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q733" s="3"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q734" s="3"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q735" s="3"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q736" s="3"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q737" s="3"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q738" s="3"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q739" s="3"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q740" s="3"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q741" s="3"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q742" s="3"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q743" s="3"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q744" s="3"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q745" s="3"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q746" s="3"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q747" s="3"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q748" s="3"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q749" s="3"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q750" s="3"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q751" s="3"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q752" s="3"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q753" s="3"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q754" s="3"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q755" s="3"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q756" s="3"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q757" s="3"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q758" s="3"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q759" s="3"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q760" s="3"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q761" s="3"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q762" s="3"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q763" s="3"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q764" s="3"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q765" s="3"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q766" s="3"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q767" s="3"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q768" s="3"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q769" s="3"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q770" s="3"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q771" s="3"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q772" s="3"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q773" s="3"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q774" s="3"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q775" s="3"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q776" s="3"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q777" s="3"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q778" s="3"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q779" s="3"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q780" s="3"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q781" s="3"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q782" s="3"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q783" s="3"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q784" s="3"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q785" s="3"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q786" s="3"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q787" s="3"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q788" s="3"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q789" s="3"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q790" s="3"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q791" s="3"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q792" s="3"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q793" s="3"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q794" s="3"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q795" s="3"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q796" s="3"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q797" s="3"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q798" s="3"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q799" s="3"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q800" s="3"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q801" s="3"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q802" s="3"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q803" s="3"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q804" s="3"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q805" s="3"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q806" s="3"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q807" s="3"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q808" s="3"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q809" s="3"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q810" s="3"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q811" s="3"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q812" s="3"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q813" s="3"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q814" s="3"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q815" s="3"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q816" s="3"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q817" s="3"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q818" s="3"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q819" s="3"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q820" s="3"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q821" s="3"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q822" s="3"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q823" s="3"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q824" s="3"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q825" s="3"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q826" s="3"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q827" s="3"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q828" s="3"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q829" s="3"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q830" s="3"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q831" s="3"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q832" s="3"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q833" s="3"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q834" s="3"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q835" s="3"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q836" s="3"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q837" s="3"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q838" s="3"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q839" s="3"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q840" s="3"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q841" s="3"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q842" s="3"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q843" s="3"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q844" s="3"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q845" s="3"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q846" s="3"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q847" s="3"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q848" s="3"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q849" s="3"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q850" s="3"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q851" s="3"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q852" s="3"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q853" s="3"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q854" s="3"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q855" s="3"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q856" s="3"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q857" s="3"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q858" s="3"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q859" s="3"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q860" s="3"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q861" s="3"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q862" s="3"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q863" s="3"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q864" s="3"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q865" s="3"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q866" s="3"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q867" s="3"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q868" s="3"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q869" s="3"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q870" s="3"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q871" s="3"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q872" s="3"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q873" s="3"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q874" s="3"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q875" s="3"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q876" s="3"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q877" s="3"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q878" s="3"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q879" s="3"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q880" s="3"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q881" s="3"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q882" s="3"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q883" s="3"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q884" s="3"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q885" s="3"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q886" s="3"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q887" s="3"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q888" s="3"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q889" s="3"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q890" s="3"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q891" s="3"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q892" s="3"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q893" s="3"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q894" s="3"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q895" s="3"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q896" s="3"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q897" s="3"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q898" s="3"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q899" s="3"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q900" s="3"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q901" s="3"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q902" s="3"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q903" s="3"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q904" s="3"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q905" s="3"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q906" s="3"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q907" s="3"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q908" s="3"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q909" s="3"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q910" s="3"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q911" s="3"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q912" s="3"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q913" s="3"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q914" s="3"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q915" s="3"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q916" s="3"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q917" s="3"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q918" s="3"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q919" s="3"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q920" s="3"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q921" s="3"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q922" s="3"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q923" s="3"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q924" s="3"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q925" s="3"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q926" s="3"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q927" s="3"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q928" s="3"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q929" s="3"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q930" s="3"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q931" s="3"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q932" s="3"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q933" s="3"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q934" s="3"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q935" s="3"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q936" s="3"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q937" s="3"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q938" s="3"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q939" s="3"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q940" s="3"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q941" s="3"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q942" s="3"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q943" s="3"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q944" s="3"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q945" s="3"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q946" s="3"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q947" s="3"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q948" s="3"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q949" s="3"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q950" s="3"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q951" s="3"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q952" s="3"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q953" s="3"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q954" s="3"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q955" s="3"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q956" s="3"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q957" s="3"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q958" s="3"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q959" s="3"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q960" s="3"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q961" s="3"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q962" s="3"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q963" s="3"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q964" s="3"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q965" s="3"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q966" s="3"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q967" s="3"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q968" s="3"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q969" s="3"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q970" s="3"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q971" s="3"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q972" s="3"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q973" s="3"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q974" s="3"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q975" s="3"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q976" s="3"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q977" s="3"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q978" s="3"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q979" s="3"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q980" s="3"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q981" s="3"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q982" s="3"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q983" s="3"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q984" s="3"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q985" s="3"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q986" s="3"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q987" s="3"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q988" s="3"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q989" s="3"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q990" s="3"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q991" s="3"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q992" s="3"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q993" s="3"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q994" s="3"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q995" s="3"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q996" s="3"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q997" s="3"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q998" s="3"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q999" s="3"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1000" s="3"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.29"/>
-    <col customWidth="1" min="2" max="2" width="19.57"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735B254A-067B-4F7F-88C6-F10D6C71B1DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E452755D-62B3-4679-B667-D0CE31ABD683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="locations" sheetId="2" r:id="rId2"/>
+    <sheet name="packages" sheetId="3" r:id="rId3"/>
+    <sheet name="config" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
   <si>
     <t>location</t>
   </si>
@@ -163,9 +165,6 @@
     <t>assets/img/service/slide6-Slam-Bball.jpg</t>
   </si>
   <si>
-    <t>Dodgeball</t>
-  </si>
-  <si>
     <t>dodgeball</t>
   </si>
   <si>
@@ -337,9 +336,6 @@
     <t>locations</t>
   </si>
   <si>
-    <t>burlington</t>
-  </si>
-  <si>
     <t>london</t>
   </si>
   <si>
@@ -347,13 +343,103 @@
   </si>
   <si>
     <t>kids-birthday-parties</t>
+  </si>
+  <si>
+    <t>plantitle</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>includes</t>
+  </si>
+  <si>
+    <t>Rookie</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>min 8 Jumpers, 2 Pizzas,3 Pitchers,Aero T-Shirt for guest of owner,45 min party rooom, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin</t>
+  </si>
+  <si>
+    <t>min 12 Jumpers, 3 Pizzas,3 Pitchers,Aero T-Shirt for guest of owner,45 min party rooom, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin</t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+  </si>
+  <si>
+    <t>min 18 Jumpers, 4 Pizzas,3 Pitchers,Aero T-Shirt for guest of owner,45 min party rooom, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin</t>
+  </si>
+  <si>
+    <t>min 30 Jumpers, 7 Pizzas,3 Pitchers,Aero T-Shirt for guest of owner,45 min party rooom, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin</t>
+  </si>
+  <si>
+    <t>pkg</t>
+  </si>
+  <si>
+    <t>addon</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;b&gt;Take to the air where it all started for us!&lt;/b&gt;&lt;/center&gt;
+Open jumping is time spent enjoying our massive trampoline areas at Aerosports. Bounce off the banked walls or race down the trampoline track for hours of gravity defying fun.
+&lt;br/&gt;
+Try some flipping and twisting to really get extreme but always remember to jump safely!</t>
+  </si>
+  <si>
+    <t>london,windosor,stcatherine</t>
+  </si>
+  <si>
+    <t>stcatherines</t>
+  </si>
+  <si>
+    <t>windsor</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phoneno</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>shortimage</t>
+  </si>
+  <si>
+    <t>2679 Bristol Cir, Oakville, ON L6H 6Z8</t>
+  </si>
+  <si>
+    <t>7654 Tecumseh Rd E, Windsor, ON N8T 1E9</t>
+  </si>
+  <si>
+    <t>784 Wharncliffe Rd S, London, ON N6J 2N4</t>
+  </si>
+  <si>
+    <t>birthdayAddons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +456,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -401,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -411,6 +510,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,13 +739,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
@@ -905,6 +1015,9 @@
       <c r="M9" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="O9" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -951,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
@@ -969,13 +1082,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>34</v>
@@ -984,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>37</v>
@@ -1002,13 +1115,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>34</v>
@@ -1026,13 +1139,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>34</v>
@@ -1047,13 +1160,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>34</v>
@@ -1068,13 +1181,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -1085,17 +1198,20 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
@@ -1107,19 +1223,19 @@
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>34</v>
@@ -1128,28 +1244,28 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>34</v>
@@ -1158,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>37</v>
@@ -1173,16 +1289,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G20" s="2" t="b">
         <v>1</v>
@@ -1194,16 +1310,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1">
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="2" t="b">
         <v>1</v>
@@ -1215,16 +1331,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="2" t="b">
         <v>1</v>
@@ -1239,16 +1355,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="2" t="b">
         <v>1</v>
@@ -1260,16 +1376,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2" t="b">
         <v>1</v>
@@ -1281,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="2" t="b">
         <v>1</v>
@@ -1302,16 +1418,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G26" s="2" t="b">
         <v>1</v>
@@ -1323,16 +1439,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" s="2" t="b">
         <v>1</v>
@@ -1344,16 +1460,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" s="2" t="b">
         <v>1</v>
@@ -1365,16 +1481,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" s="2" t="b">
         <v>1</v>
@@ -1386,16 +1502,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G30" s="2" t="b">
         <v>1</v>
@@ -1407,16 +1523,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" s="2" t="b">
         <v>1</v>
@@ -1428,16 +1544,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1">
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="2" t="b">
         <v>1</v>
@@ -1449,16 +1565,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1">
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2" t="b">
         <v>1</v>
@@ -1470,16 +1586,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="2" t="b">
         <v>1</v>
@@ -4392,49 +4508,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
+    <col min="3" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5421,6 +5606,148 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74A06B6-E470-407A-8311-046CE194EC98}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="68.21875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>350</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>450</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4">
+        <v>650</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DC0B6A-2378-41E1-ADF3-86B2828ED3F9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E452755D-62B3-4679-B667-D0CE31ABD683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9FA2A1-E92F-4643-A9A0-F12C8BE23479}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
   <si>
     <t>location</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>joust</t>
-  </si>
-  <si>
-    <t>Kids Zone</t>
   </si>
   <si>
     <t>kidszone</t>
@@ -433,6 +430,33 @@
   </si>
   <si>
     <t>birthdayAddons</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Do the dunk of your dreams!&lt;/b&gt;&lt;br/&gt;
+It’s easy to load up from the free throw line when you’ve got the spring of a trampoline to help! Catch some incredible air and try some completely new moves on our court.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Duck and dive in dodgeball!&lt;/b&gt;&lt;br/&gt;
+Trampolines take the fun of dodgeball to a whole new level!  Jump on a game of pick up and test your skills. Our court monitors are always there to ensure fair play and that a good time is had by all.</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>arcade</t>
+  </si>
+  <si>
+    <t>attractionsub</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Gaming Is Good For You!&lt;/b&gt;&lt;br/&gt;
+When it’s time to take a break, grab some tokens and play some incredibly fun games with your friends in our arcade. Many games encourage active play between friends like basketball, air hockey and more.</t>
+  </si>
+  <si>
+    <t>The Drop Zone is an arena for trying new tricks. Get the biggest air you can. Pose mid-air for a photo. Then land nice and softly.</t>
+  </si>
+  <si>
+    <t>Drop Zone</t>
   </si>
 </sst>
 </file>
@@ -500,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -522,6 +546,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1012,11 +1037,14 @@
       <c r="J9" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -1048,8 +1076,14 @@
       <c r="J10" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="M10" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -1075,6 +1109,9 @@
       <c r="M11" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="O11" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1111,6 +1148,9 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -1135,6 +1175,9 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -1156,6 +1199,9 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -1177,17 +1223,20 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -1195,23 +1244,26 @@
       <c r="G16" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="O16" t="s">
+        <v>137</v>
+      </c>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
@@ -1223,19 +1275,19 @@
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>34</v>
@@ -1244,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>34</v>
@@ -1274,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>37</v>
@@ -1285,23 +1337,32 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
+      <c r="A20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="11">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="2" t="b">
+      <c r="C20" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" t="b">
         <v>1</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="O20" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="Q20" s="3"/>
     </row>
@@ -1310,16 +1371,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1">
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="2" t="b">
         <v>1</v>
@@ -1331,22 +1392,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="Q22" s="3"/>
     </row>
@@ -1355,19 +1413,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2" t="b">
         <v>1</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
@@ -1376,16 +1437,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2" t="b">
         <v>1</v>
@@ -1397,16 +1458,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2" t="b">
         <v>1</v>
@@ -1418,16 +1479,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G26" s="2" t="b">
         <v>1</v>
@@ -1439,16 +1500,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="2" t="b">
         <v>1</v>
@@ -1460,16 +1521,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="2" t="b">
         <v>1</v>
@@ -1477,20 +1538,20 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
+      <c r="B29" s="11">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="2" t="b">
         <v>1</v>
@@ -1502,16 +1563,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G30" s="2" t="b">
         <v>1</v>
@@ -1523,16 +1584,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="2" t="b">
         <v>1</v>
@@ -1544,16 +1605,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1">
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="2" t="b">
         <v>1</v>
@@ -1565,16 +1626,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1">
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="2" t="b">
         <v>1</v>
@@ -1586,16 +1647,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="2" t="b">
         <v>1</v>
@@ -1603,6 +1664,24 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4499,6 +4578,9 @@
     </row>
     <row r="1000" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1000" s="3"/>
+    </row>
+    <row r="1001" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q1001" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4510,8 +4592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4526,39 +4608,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -4569,10 +4651,10 @@
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -4583,10 +4665,10 @@
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4597,10 +4679,10 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5629,89 +5711,89 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>350</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>450</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>650</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -5739,12 +5821,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750E2D5B-E707-47B7-B362-81B816E09AF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EF8C32-582F-498E-B85C-09A17AA7F4F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="locations" sheetId="2" r:id="rId2"/>
-    <sheet name="birthday packages" sheetId="3" r:id="rId3"/>
-    <sheet name="config" sheetId="4" r:id="rId4"/>
-    <sheet name="faq" sheetId="5" r:id="rId5"/>
+    <sheet name="blogs" sheetId="6" r:id="rId2"/>
+    <sheet name="blogsreviews" sheetId="7" r:id="rId3"/>
+    <sheet name="locations" sheetId="2" r:id="rId4"/>
+    <sheet name="birthday packages" sheetId="3" r:id="rId5"/>
+    <sheet name="config" sheetId="4" r:id="rId6"/>
+    <sheet name="faq" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="209">
   <si>
     <t>location</t>
   </si>
@@ -44,9 +46,6 @@
     <t>pagetype</t>
   </si>
   <si>
-    <t>hascontent</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -77,12 +76,6 @@
     <t>Seoheader</t>
   </si>
   <si>
-    <t>Parties &amp; Events</t>
-  </si>
-  <si>
-    <t>partiesevents</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -96,12 +89,6 @@
   </si>
   <si>
     <t>programs</t>
-  </si>
-  <si>
-    <t>Pricing +Promos</t>
-  </si>
-  <si>
-    <t>pricingpromos</t>
   </si>
   <si>
     <t>Groups &amp; Events</t>
@@ -263,9 +250,6 @@
   </si>
   <si>
     <t>kids-birthday-parties</t>
-  </si>
-  <si>
-    <t>partieseventssub</t>
   </si>
   <si>
     <t>Camps</t>
@@ -767,12 +751,216 @@
   <si>
     <t>When it’s time to take a break, grab some tokens and play some incredibly fun games with your friends in our arcade.</t>
   </si>
+  <si>
+    <t>assets/img/events/christmas-party.jpg,assets/img/events/corporate_party.jpg,assets/img/events/christmas-party.jpg</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>shortdesc</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>postdate</t>
+  </si>
+  <si>
+    <t>views</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>htmldesc</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>Reasons for taking your kids to Indoor Playground</t>
+  </si>
+  <si>
+    <t>Reasons-for-taking-your-kids-to-Indoor-Playground</t>
+  </si>
+  <si>
+    <t>assets/img/blog/list/1.jpg</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Indoor playground is not a new thing,&lt;br/&gt;&lt;br/&gt;1. Alternative to outdoor play settings&lt;br&gt;Indoor playgrounds prove to be a good alternative way for outdoor playgrounds because kids may not be allowed to play outside on bad weather days. They may be locked up in homes, and then they express their displeasure by reacting with their parents. Compared to outdoor playground, indoor playgrounds are suitable and flexible on rainy or snowy days, and the weather condition will no longer be a problem, kids will not be robbed of a day’s play even. Also, the indoor playgrounds are much more interactive and creative as compared to the outdoor play areas.&lt;br/&gt;2. Safety of children&lt;br/&gt;There is no doubt that child safety is one of biggest concerns of parents. To let children play and exercise, indoor playgrounds prove to be safest. Because indoor playgrounds offer safe play equipment such as inflatable slides, obstacle courses, attractive toy setups that keep the children occupied in playing and parents need not worry about them. Moreover, there will be limited chances of serious injuries and chances of fights among the children compared to outdoor activity. So that the level of security in indoor playgrounds is much higher, and parents can be at ease that their children are in safe hands.&lt;br/&gt;3. Physical and mental health&lt;br/&gt;Playing in an indoor playground provide a lot of physical and psychological benefits to children. Their confidence improves and with it, as well as their ability to self-expression and imagination. Physical activity in the indoor playgrounds may also lead to better physical development. As the indoor playgrounds come in a variety of designs, therefore, it is up to you to decide which setting may prove to be best for your child where he or she may gain maximum health benefits. If you are looking for an indoor playground for your kids now, you could give Koala Kids a try.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;text-align:center;'&gt;&lt;span style='font-family:"Arial",sans-serif;color:black;'&gt;4 Fun Corporate Team-Building Activities Everyone Will Enjoy&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Are your team members feeling stressed lately? Are your team members not feeling as happy at work this week than they did a week ago?&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Plan a team outing. Plan in a way that encourages team building activities. It is important to give members a spring in their step.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;To increase the team bond, you should plan an outing. You can take your team members to a great place to get to know one another.&lt;/span&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&lt;br&gt;&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;These are four ideas for team building and team outings.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;1. Room Escape Games&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Try a team bonding activity that allows team members to have fun and use logic. These games combine entertainment and creativity to test a wide range of skills. These games require patience, teamwork, and logic. It&amp;apos;s great fun and the team bonds and gels well. Take them to escape games.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;2. Kayaking and canoeing&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Canoeing or kayaking are great activities for any season, whether it&amp;apos;s spring or summer. You don&amp;apos;t have to worry about renting kayaks or canoes. You can kayak or canoe with anyone you like, even if you don&amp;apos;t always work with them in the office. You will find fun, bonding, teamwork, and all of these things in equal amounts.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;3. Trampoline Parks&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Take your team trampoline parks! You can enjoy a variety of exciting and unique activities here. Members can jump at their own pace. They can bounce off walls. It is possible to fly and flip through the air. You will have unique experiences playing basketball and trampoline dodgeball. These parks are perfect for having fun and bonding with your family.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;4. Group painting&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;There is no better way to get rid of all the tedium and fatigue your team members are feeling than with a surge in creativity. Enjoy the group painting experience and encourage them to participate. Your team members can harness the power and creativity of colors to let their imaginations run wild on the canvas. Your team members will have a lot of fun creating art.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Conclusion&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;There are many options for team outing venues, and you should choose the one that best suits your needs. Plan your next corporate event to make your employees feel motivated.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;You can increase your team&amp;apos;s morale and create an engaging, energetic atmosphere outside your office. We can help you create a customized corporate events that meets your needs. This will allow you to get your creative juices flowing and encourage team collaboration!&amp;nbsp;&lt;/span&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;Aerosports Trampoline Park&amp;nbsp;&lt;/span&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;offers a variety of options for companies and corporations to meet every goal.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;text-align:center;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;5 Awesome Fun Activities for Kids at Trampoline Park&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;What is the best place to keep your kids safe when it is cold? Is it possible to keep them inside and not let their energy go to waste?&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;It&amp;apos;s a great idea to take the children to Trampoline Park every day. There are so many fun activities that will keep them busy.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&lt;br&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;ol start="1" style="margin-bottom:0cm;margin-top:0cm;" type="1"&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Jumping&lt;/span&gt;&lt;/strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;&amp;nbsp;The trampolines are vibrant in a variety of colors and provide a great platform for exchanging energy.&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Basketball&lt;/span&gt;&lt;/strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;&amp;nbsp;Let your true sportsmanship shine through while you dribble the ball or put it in the basket, while you play basketball.&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Dodgeball&lt;/span&gt;&lt;/strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;&amp;nbsp;Another entertaining option that keeps children wanting more.&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Climbing -&lt;/span&gt;&lt;/strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;&amp;nbsp;Help your child conquer fear of heights in a safe and secure environment.&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:     normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:baseline;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;AirFit&lt;/span&gt;&lt;/strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;&amp;nbsp;is a session that is more than just exercise.&lt;/span&gt;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Is trampoline park just for fun?&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Your child will love Trampoline Park.&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="margin-bottom:0cm;margin-top:0cm;" type="disc"&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Be confident&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Independent&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Social&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Smart&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:     normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Persistent&lt;/span&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;How can you ensure safety in trampoline parks?&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&lt;br&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="margin-bottom:0cm;margin-top:0cm;" type="disc"&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Sign the waiver bond&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Be sure to keep your child away from sharp edges and accessories&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Comfortable clothes are important&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Landing should be safe&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Safety devices must be worn&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:     normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Each activity should be monitored.&lt;/span&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Why trampoline parks?&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&lt;br&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="margin-bottom:0cm;margin-top:0cm;" type="disc"&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;More than just having fun&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;There is no age limit&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:     baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Learn and master management skills through a platform&lt;/span&gt;&lt;/li&gt;
+    &lt;li style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:     normal;font-size:15px;font-family:"Calibri",sans-serif;color:#414141;background:white;vertical-align:baseline;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;background:white;'&gt;Increases overall growth and development&lt;/span&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;For more information visit us&amp;nbsp;&lt;/span&gt;&lt;a href="https://www.aerosportsparks.ca"&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;https://www.aerosportsparks.ca&lt;/span&gt;&lt;/a&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;or contact us @ +1-905-829-2989&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;text-align:center;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;Trampoline Benefits Which Came for Free and You weren&amp;apos;t Aware&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Did you know that trampolining can be a great exercise activity? Trampoline workouts are a great option if you&amp;apos;re looking for fun and effective exercise or if you don&amp;apos;t like your routine that requires high-impact moves.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Jump exercises&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Jump workouts can tighten and tone the body, strengthen your core, and burn calories. You can get the same cardio benefits as running, but without stressing your joints.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Keep your legs at shoulder width. Slowly bounce and don&amp;apos;t lock your knees. You can start to go higher in the air if you get your pace up. This exercise should be done for five minutes. Once your heart rate has risen, you can continue to the next exercise.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Prancing&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Once your body has warmed up, you can start prancing. Try prancing instead of bouncing. Bring your knees up to 10 inches. Keep your toes down. This exercise is easier on a trampoline because your heart rate will increase, but the trampoline flexibility will make it easy for your feet, leg muscles and joints.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Now you can transition to light jogging. It is possible to keep at it for a while; the ideal time to jog is approximately 20 minutes. For upper body exercises, you can add light weights.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;strong&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Jump extremely&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;Jumping should be done at a high level. You should jump higher and higher, bringing your feet to your seat or bringing your knees to your chest. To ease into the exercise, you can use a stability bar. You will be able to burn more calories by this point. This is because the more you rise back, the harder it is for your muscles to adjust when you come down.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:14px;font-family:"Arial",sans-serif;color:#414141;background:white;'&gt;The best trampoline recreation centres should be visited such as Aerosports Trampoline Park since they offer the best environment where you can have fun and exercise by jumping on trampolines.&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:"Times New Roman",serif;'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style='margin-top:0cm;margin-right:0cm;margin-bottom:12.0pt;margin-left:0cm;line-height:normal;font-size:15px;font-family:"Calibri",sans-serif;'&gt;&lt;span style='font-size:16px;font-family:</t>
+  </si>
+  <si>
+    <t>4 Fun Corporate Team-Building Activities Everyone Will Enjoy</t>
+  </si>
+  <si>
+    <t>4-Fun-Corporate-Team-Building-Activities-Everyone-Will-Enjoy</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>trampoline, activities,kids</t>
+  </si>
+  <si>
+    <t>j.preeta</t>
+  </si>
+  <si>
+    <t>m.pristo</t>
+  </si>
+  <si>
+    <t>assets/img/blog/list/2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;title&gt;Windsor ON Freestyle Jump  | Aerosports Trampoline Park+&lt;/title&gt;
+  &lt;meta name='description' content="Aerosports offers a variety of exciting trampoline park attractions and programs in Windsor ON, including Freestyle Jump . Visit our page to find out more!"/&gt;
+      </t>
+  </si>
+  <si>
+    <t>ygyggyg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +1008,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -829,7 +1030,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -837,27 +1038,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -882,8 +1071,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1097,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA997"/>
+  <dimension ref="A1:P995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1111,17 +1307,16 @@
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="38.33203125" customWidth="1"/>
-    <col min="10" max="10" width="67.44140625" customWidth="1"/>
-    <col min="11" max="13" width="15.5546875" customWidth="1"/>
-    <col min="14" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="41.33203125" customWidth="1"/>
-    <col min="18" max="27" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" customWidth="1"/>
+    <col min="9" max="9" width="67.44140625" customWidth="1"/>
+    <col min="10" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="41.33203125" customWidth="1"/>
+    <col min="17" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,16 +1362,13 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -1187,1528 +1379,1381 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="G2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>170</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" t="s">
-        <v>176</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>178</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>165</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" t="s">
+        <v>173</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="B14" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" t="s">
-        <v>179</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>165</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>174</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="J15" t="s">
-        <v>180</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" t="s">
-        <v>181</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" s="1">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>57</v>
+      <c r="H17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="1">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="N19" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>150</v>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1">
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="1">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="N24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="J28" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>29</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="1">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="9">
+        <v>34</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="9">
+        <v>6</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11">
-        <v>34</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="11">
-        <v>6</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q59" s="2"/>
-    </row>
-    <row r="60" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q69" s="2"/>
-    </row>
-    <row r="70" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q71" s="2"/>
-    </row>
-    <row r="72" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q72" s="2"/>
-    </row>
-    <row r="73" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q81" s="2"/>
-    </row>
-    <row r="82" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q83" s="2"/>
-    </row>
-    <row r="84" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q85" s="2"/>
-    </row>
-    <row r="86" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q88" s="2"/>
-    </row>
-    <row r="89" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q94" s="2"/>
-    </row>
-    <row r="95" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q95" s="2"/>
-    </row>
-    <row r="96" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q96" s="2"/>
-    </row>
-    <row r="97" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q97" s="2"/>
-    </row>
-    <row r="98" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q98" s="2"/>
-    </row>
-    <row r="99" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q99" s="2"/>
-    </row>
-    <row r="100" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q100" s="2"/>
-    </row>
-    <row r="101" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q101" s="2"/>
-    </row>
-    <row r="102" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q102" s="2"/>
-    </row>
-    <row r="103" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q103" s="2"/>
-    </row>
-    <row r="104" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q104" s="2"/>
-    </row>
-    <row r="105" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q105" s="2"/>
-    </row>
-    <row r="106" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q106" s="2"/>
-    </row>
-    <row r="107" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q107" s="2"/>
-    </row>
-    <row r="108" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q108" s="2"/>
-    </row>
-    <row r="109" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q109" s="2"/>
-    </row>
-    <row r="110" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q110" s="2"/>
-    </row>
-    <row r="111" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q111" s="2"/>
-    </row>
-    <row r="112" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q112" s="2"/>
-    </row>
-    <row r="113" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q113" s="2"/>
-    </row>
-    <row r="114" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q114" s="2"/>
-    </row>
-    <row r="115" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q115" s="2"/>
-    </row>
-    <row r="116" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q116" s="2"/>
-    </row>
-    <row r="117" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q117" s="2"/>
-    </row>
-    <row r="118" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q118" s="2"/>
-    </row>
-    <row r="119" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q119" s="2"/>
-    </row>
-    <row r="120" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q120" s="2"/>
-    </row>
-    <row r="121" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q121" s="2"/>
-    </row>
-    <row r="122" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q122" s="2"/>
-    </row>
-    <row r="123" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q123" s="2"/>
-    </row>
-    <row r="124" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q124" s="2"/>
-    </row>
-    <row r="125" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q125" s="2"/>
-    </row>
-    <row r="126" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q126" s="2"/>
-    </row>
-    <row r="127" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q127" s="2"/>
-    </row>
-    <row r="128" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q128" s="2"/>
-    </row>
-    <row r="129" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q129" s="2"/>
-    </row>
-    <row r="130" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q130" s="2"/>
-    </row>
-    <row r="131" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q131" s="2"/>
-    </row>
-    <row r="132" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q132" s="2"/>
-    </row>
-    <row r="133" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q133" s="2"/>
-    </row>
-    <row r="134" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q134" s="2"/>
-    </row>
-    <row r="135" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q135" s="2"/>
-    </row>
-    <row r="136" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q136" s="2"/>
-    </row>
-    <row r="137" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q137" s="2"/>
-    </row>
-    <row r="138" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q138" s="2"/>
-    </row>
-    <row r="139" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q139" s="2"/>
-    </row>
-    <row r="140" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q140" s="2"/>
-    </row>
-    <row r="141" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q141" s="2"/>
-    </row>
-    <row r="142" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q142" s="2"/>
-    </row>
-    <row r="143" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q143" s="2"/>
-    </row>
-    <row r="144" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q144" s="2"/>
-    </row>
-    <row r="145" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q145" s="2"/>
-    </row>
-    <row r="146" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q146" s="2"/>
-    </row>
-    <row r="147" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q147" s="2"/>
-    </row>
-    <row r="148" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q148" s="2"/>
-    </row>
-    <row r="149" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q149" s="2"/>
-    </row>
-    <row r="150" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q150" s="2"/>
-    </row>
-    <row r="151" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q151" s="2"/>
-    </row>
-    <row r="152" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q152" s="2"/>
-    </row>
-    <row r="153" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q153" s="2"/>
-    </row>
-    <row r="154" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q154" s="2"/>
-    </row>
-    <row r="155" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q155" s="2"/>
-    </row>
-    <row r="156" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q156" s="2"/>
-    </row>
-    <row r="157" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q157" s="2"/>
-    </row>
-    <row r="158" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q158" s="2"/>
-    </row>
-    <row r="159" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q159" s="2"/>
-    </row>
-    <row r="160" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q160" s="2"/>
-    </row>
-    <row r="161" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q161" s="2"/>
-    </row>
-    <row r="162" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q162" s="2"/>
-    </row>
-    <row r="163" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q163" s="2"/>
-    </row>
-    <row r="164" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q164" s="2"/>
-    </row>
-    <row r="165" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q165" s="2"/>
-    </row>
-    <row r="166" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q166" s="2"/>
-    </row>
-    <row r="167" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q167" s="2"/>
-    </row>
-    <row r="168" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q168" s="2"/>
-    </row>
-    <row r="169" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q169" s="2"/>
-    </row>
-    <row r="170" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q170" s="2"/>
-    </row>
-    <row r="171" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q171" s="2"/>
-    </row>
-    <row r="172" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q172" s="2"/>
-    </row>
-    <row r="173" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q173" s="2"/>
-    </row>
-    <row r="174" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q174" s="2"/>
-    </row>
-    <row r="175" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q175" s="2"/>
-    </row>
-    <row r="176" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q176" s="2"/>
-    </row>
-    <row r="177" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q177" s="2"/>
-    </row>
-    <row r="178" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q178" s="2"/>
-    </row>
-    <row r="179" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q179" s="2"/>
-    </row>
-    <row r="180" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q180" s="2"/>
-    </row>
-    <row r="181" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q181" s="2"/>
-    </row>
-    <row r="182" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q182" s="2"/>
-    </row>
-    <row r="183" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q183" s="2"/>
-    </row>
-    <row r="184" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q184" s="2"/>
-    </row>
-    <row r="185" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q185" s="2"/>
-    </row>
-    <row r="186" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q186" s="2"/>
-    </row>
-    <row r="187" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q187" s="2"/>
-    </row>
-    <row r="188" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q188" s="2"/>
-    </row>
-    <row r="189" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q189" s="2"/>
-    </row>
-    <row r="190" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q190" s="2"/>
-    </row>
-    <row r="191" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q191" s="2"/>
-    </row>
-    <row r="192" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q192" s="2"/>
-    </row>
-    <row r="193" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q193" s="2"/>
-    </row>
-    <row r="194" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q194" s="2"/>
-    </row>
-    <row r="195" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q195" s="2"/>
-    </row>
-    <row r="196" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q196" s="2"/>
-    </row>
-    <row r="197" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q197" s="2"/>
-    </row>
-    <row r="198" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q198" s="2"/>
-    </row>
-    <row r="199" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q199" s="2"/>
-    </row>
-    <row r="200" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q200" s="2"/>
-    </row>
-    <row r="201" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q201" s="2"/>
-    </row>
-    <row r="202" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q202" s="2"/>
-    </row>
-    <row r="203" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q203" s="2"/>
-    </row>
-    <row r="204" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q204" s="2"/>
-    </row>
-    <row r="205" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q205" s="2"/>
-    </row>
-    <row r="206" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q206" s="2"/>
-    </row>
-    <row r="207" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q207" s="2"/>
-    </row>
-    <row r="208" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q208" s="2"/>
-    </row>
-    <row r="209" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q209" s="2"/>
-    </row>
-    <row r="210" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q210" s="2"/>
-    </row>
-    <row r="211" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q211" s="2"/>
-    </row>
-    <row r="212" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q212" s="2"/>
-    </row>
-    <row r="213" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q213" s="2"/>
-    </row>
-    <row r="214" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q214" s="2"/>
-    </row>
-    <row r="215" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q215" s="2"/>
-    </row>
-    <row r="216" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q216" s="2"/>
-    </row>
-    <row r="217" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q217" s="2"/>
-    </row>
-    <row r="218" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q218" s="2"/>
-    </row>
-    <row r="219" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q219" s="2"/>
-    </row>
-    <row r="220" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q220" s="2"/>
-    </row>
-    <row r="221" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q221" s="2"/>
-    </row>
-    <row r="222" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q222" s="2"/>
-    </row>
-    <row r="223" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q223" s="2"/>
-    </row>
-    <row r="224" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q224" s="2"/>
-    </row>
-    <row r="225" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q225" s="2"/>
-    </row>
-    <row r="226" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q226" s="2"/>
-    </row>
-    <row r="227" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q227" s="2"/>
-    </row>
-    <row r="228" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q228" s="2"/>
-    </row>
-    <row r="229" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q229" s="2"/>
-    </row>
-    <row r="230" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q230" s="2"/>
-    </row>
-    <row r="231" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q231" s="2"/>
-    </row>
-    <row r="232" spans="17:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q232" s="2"/>
-    </row>
-    <row r="233" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>65</v>
+      </c>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P62" s="2"/>
+    </row>
+    <row r="63" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P63" s="2"/>
+    </row>
+    <row r="64" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P64" s="2"/>
+    </row>
+    <row r="65" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P65" s="2"/>
+    </row>
+    <row r="66" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P66" s="2"/>
+    </row>
+    <row r="67" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P67" s="2"/>
+    </row>
+    <row r="68" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P69" s="2"/>
+    </row>
+    <row r="70" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P70" s="2"/>
+    </row>
+    <row r="71" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P71" s="2"/>
+    </row>
+    <row r="72" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P79" s="2"/>
+    </row>
+    <row r="80" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P85" s="2"/>
+    </row>
+    <row r="86" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P87" s="2"/>
+    </row>
+    <row r="88" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P89" s="2"/>
+    </row>
+    <row r="90" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P91" s="2"/>
+    </row>
+    <row r="92" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P92" s="2"/>
+    </row>
+    <row r="93" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P93" s="2"/>
+    </row>
+    <row r="94" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P95" s="2"/>
+    </row>
+    <row r="96" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P96" s="2"/>
+    </row>
+    <row r="97" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P97" s="2"/>
+    </row>
+    <row r="98" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P98" s="2"/>
+    </row>
+    <row r="99" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P99" s="2"/>
+    </row>
+    <row r="100" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P100" s="2"/>
+    </row>
+    <row r="101" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P101" s="2"/>
+    </row>
+    <row r="102" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P102" s="2"/>
+    </row>
+    <row r="103" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P103" s="2"/>
+    </row>
+    <row r="104" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P104" s="2"/>
+    </row>
+    <row r="105" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P105" s="2"/>
+    </row>
+    <row r="106" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P106" s="2"/>
+    </row>
+    <row r="107" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P108" s="2"/>
+    </row>
+    <row r="109" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P109" s="2"/>
+    </row>
+    <row r="110" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P110" s="2"/>
+    </row>
+    <row r="111" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P111" s="2"/>
+    </row>
+    <row r="112" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P112" s="2"/>
+    </row>
+    <row r="113" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P113" s="2"/>
+    </row>
+    <row r="114" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P114" s="2"/>
+    </row>
+    <row r="115" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P115" s="2"/>
+    </row>
+    <row r="116" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P116" s="2"/>
+    </row>
+    <row r="117" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P117" s="2"/>
+    </row>
+    <row r="118" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P118" s="2"/>
+    </row>
+    <row r="119" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P119" s="2"/>
+    </row>
+    <row r="120" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P120" s="2"/>
+    </row>
+    <row r="121" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P121" s="2"/>
+    </row>
+    <row r="122" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P122" s="2"/>
+    </row>
+    <row r="123" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P123" s="2"/>
+    </row>
+    <row r="124" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P124" s="2"/>
+    </row>
+    <row r="125" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P125" s="2"/>
+    </row>
+    <row r="126" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P126" s="2"/>
+    </row>
+    <row r="127" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P127" s="2"/>
+    </row>
+    <row r="128" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P128" s="2"/>
+    </row>
+    <row r="129" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P129" s="2"/>
+    </row>
+    <row r="130" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P130" s="2"/>
+    </row>
+    <row r="131" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P131" s="2"/>
+    </row>
+    <row r="132" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P132" s="2"/>
+    </row>
+    <row r="133" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P133" s="2"/>
+    </row>
+    <row r="134" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P134" s="2"/>
+    </row>
+    <row r="135" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P135" s="2"/>
+    </row>
+    <row r="136" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P136" s="2"/>
+    </row>
+    <row r="137" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P137" s="2"/>
+    </row>
+    <row r="138" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P138" s="2"/>
+    </row>
+    <row r="139" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P139" s="2"/>
+    </row>
+    <row r="140" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P140" s="2"/>
+    </row>
+    <row r="141" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P141" s="2"/>
+    </row>
+    <row r="142" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P142" s="2"/>
+    </row>
+    <row r="143" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P143" s="2"/>
+    </row>
+    <row r="144" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P144" s="2"/>
+    </row>
+    <row r="145" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P145" s="2"/>
+    </row>
+    <row r="146" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P146" s="2"/>
+    </row>
+    <row r="147" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P147" s="2"/>
+    </row>
+    <row r="148" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P148" s="2"/>
+    </row>
+    <row r="149" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P149" s="2"/>
+    </row>
+    <row r="150" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P150" s="2"/>
+    </row>
+    <row r="151" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P151" s="2"/>
+    </row>
+    <row r="152" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P152" s="2"/>
+    </row>
+    <row r="153" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P153" s="2"/>
+    </row>
+    <row r="154" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P154" s="2"/>
+    </row>
+    <row r="155" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P155" s="2"/>
+    </row>
+    <row r="156" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P156" s="2"/>
+    </row>
+    <row r="157" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P157" s="2"/>
+    </row>
+    <row r="158" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P158" s="2"/>
+    </row>
+    <row r="159" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P159" s="2"/>
+    </row>
+    <row r="160" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P160" s="2"/>
+    </row>
+    <row r="161" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P161" s="2"/>
+    </row>
+    <row r="162" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P162" s="2"/>
+    </row>
+    <row r="163" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P163" s="2"/>
+    </row>
+    <row r="164" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P164" s="2"/>
+    </row>
+    <row r="165" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P165" s="2"/>
+    </row>
+    <row r="166" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P166" s="2"/>
+    </row>
+    <row r="167" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P167" s="2"/>
+    </row>
+    <row r="168" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P168" s="2"/>
+    </row>
+    <row r="169" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P169" s="2"/>
+    </row>
+    <row r="170" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P170" s="2"/>
+    </row>
+    <row r="171" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P171" s="2"/>
+    </row>
+    <row r="172" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P172" s="2"/>
+    </row>
+    <row r="173" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P173" s="2"/>
+    </row>
+    <row r="174" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P174" s="2"/>
+    </row>
+    <row r="175" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P175" s="2"/>
+    </row>
+    <row r="176" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P176" s="2"/>
+    </row>
+    <row r="177" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P177" s="2"/>
+    </row>
+    <row r="178" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P178" s="2"/>
+    </row>
+    <row r="179" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P179" s="2"/>
+    </row>
+    <row r="180" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P180" s="2"/>
+    </row>
+    <row r="181" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P181" s="2"/>
+    </row>
+    <row r="182" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P182" s="2"/>
+    </row>
+    <row r="183" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P183" s="2"/>
+    </row>
+    <row r="184" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P184" s="2"/>
+    </row>
+    <row r="185" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P185" s="2"/>
+    </row>
+    <row r="186" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P186" s="2"/>
+    </row>
+    <row r="187" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P187" s="2"/>
+    </row>
+    <row r="188" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P188" s="2"/>
+    </row>
+    <row r="189" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P189" s="2"/>
+    </row>
+    <row r="190" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P190" s="2"/>
+    </row>
+    <row r="191" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P191" s="2"/>
+    </row>
+    <row r="192" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P192" s="2"/>
+    </row>
+    <row r="193" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P193" s="2"/>
+    </row>
+    <row r="194" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P194" s="2"/>
+    </row>
+    <row r="195" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P195" s="2"/>
+    </row>
+    <row r="196" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P196" s="2"/>
+    </row>
+    <row r="197" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P197" s="2"/>
+    </row>
+    <row r="198" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P198" s="2"/>
+    </row>
+    <row r="199" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P199" s="2"/>
+    </row>
+    <row r="200" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P200" s="2"/>
+    </row>
+    <row r="201" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P201" s="2"/>
+    </row>
+    <row r="202" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P202" s="2"/>
+    </row>
+    <row r="203" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P203" s="2"/>
+    </row>
+    <row r="204" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P204" s="2"/>
+    </row>
+    <row r="205" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P205" s="2"/>
+    </row>
+    <row r="206" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P206" s="2"/>
+    </row>
+    <row r="207" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P207" s="2"/>
+    </row>
+    <row r="208" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P208" s="2"/>
+    </row>
+    <row r="209" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P209" s="2"/>
+    </row>
+    <row r="210" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P210" s="2"/>
+    </row>
+    <row r="211" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P211" s="2"/>
+    </row>
+    <row r="212" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P212" s="2"/>
+    </row>
+    <row r="213" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P213" s="2"/>
+    </row>
+    <row r="214" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P214" s="2"/>
+    </row>
+    <row r="215" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P215" s="2"/>
+    </row>
+    <row r="216" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P216" s="2"/>
+    </row>
+    <row r="217" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P217" s="2"/>
+    </row>
+    <row r="218" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P218" s="2"/>
+    </row>
+    <row r="219" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P219" s="2"/>
+    </row>
+    <row r="220" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P220" s="2"/>
+    </row>
+    <row r="221" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P221" s="2"/>
+    </row>
+    <row r="222" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P222" s="2"/>
+    </row>
+    <row r="223" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P223" s="2"/>
+    </row>
+    <row r="224" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P224" s="2"/>
+    </row>
+    <row r="225" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P225" s="2"/>
+    </row>
+    <row r="226" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P226" s="2"/>
+    </row>
+    <row r="227" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P227" s="2"/>
+    </row>
+    <row r="228" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P228" s="2"/>
+    </row>
+    <row r="229" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P229" s="2"/>
+    </row>
+    <row r="230" spans="16:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P230" s="2"/>
+    </row>
+    <row r="231" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3464,20 +3509,172 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J28" r:id="rId1" display="https://www.aerosportsparks.ca/oakville/wp-content/uploads/sites/2/2018/07/corporate-party-1.jpg" xr:uid="{5924ADD5-274B-4368-BAE0-F9F1EF74F177}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968D6640-405C-4288-9C59-5CFA2CF1BACA}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="106" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="17">
+        <v>44336</v>
+      </c>
+      <c r="K2">
+        <v>232</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="17">
+        <v>44682</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E16EB4E-FEC4-47F8-8BA0-6F2AEF810FAC}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3491,39 +3688,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>108</v>
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3534,10 +3731,10 @@
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3548,10 +3745,10 @@
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3562,10 +3759,10 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4575,12 +4772,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4596,90 +4793,90 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>114</v>
+      <c r="B1" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="5">
+        <v>113</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="3">
         <v>350</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="5">
+        <v>116</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="3">
         <v>450</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="5">
+        <v>118</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="3">
         <v>650</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3">
         <v>1000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7675,12 +7872,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7692,129 +7889,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>151</v>
+      <c r="B1" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
         <v>155</v>
-      </c>
-      <c r="C7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+    </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8799,7 +9017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8FE775-A503-4431-B9AE-FDB80BA6C2B8}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ECCB61-F6AD-4277-B718-E56430364CD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82334353-F6F5-4D6A-BC9B-8D3355D46416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="358">
   <si>
     <t>location</t>
   </si>
@@ -569,58 +569,6 @@
   </si>
   <si>
     <t>SAFETY INFORMATION</t>
-  </si>
-  <si>
-    <t>&lt;div class="width960"&gt;
-                                    &lt;h3&gt;Assumption of risk&lt;/h3&gt;
-&lt;p&gt;Participation in trampoline activities is an inherently dangerous recreational activity and involves a level of risk that each participant must evaluate on their own. By using this facility, you are assuming a risk of serious injury or death.&lt;/p&gt;
-&lt;p&gt;For safety, you should be in good health and free from high blood pressure, heart, back or neck problems, motion sickness, or other conditions that could be aggravated by jumping on a trampoline. Expectant mothers should not jump.&lt;/p&gt;
-&lt;p&gt;WARNING! Catastrophic injury, paralysis or even death may result from failing to follow the rules below and due to inherent risks, sometimes even if all rules are followed.&lt;/p&gt;
-&lt;h3&gt;Liability Waiver&lt;/h3&gt;
-&lt;p&gt;By using the equipment and property at this facility, all guest of Aerosports are bound by the liability waiver and release set forth in the terms of the Agreement that must be executed upon admittance to this facility. Those under the age of 18 must have the Agreement completed and signed by their parent or legal guardian.&lt;/p&gt;
-&lt;h3&gt;Somersaults not recommended&lt;/h3&gt;
-&lt;p&gt;Landing on the head or neck can cause serious injury, paralysis or death, even when landing in the middle of the mat. Jumpers must maintain total control of their bodies while jumping.&lt;/p&gt;
-&lt;h3&gt;Do not double bounce&lt;/h3&gt;
-&lt;p&gt;Do not double bounce.&lt;/p&gt;
-&lt;h3&gt;Wear appropriate clothing&lt;/h3&gt;
-&lt;p&gt;Clothes must be free of hanging zippers, belts, strings and remove jewelry. Empty pockets and have nothing in mouth (e.g. gum, candy or other).&lt;/p&gt;
-&lt;p&gt;It’s our policy that kids under 46 inches must stay in the Little Air area, but still have access to single lane obstacles like the foam pits.&lt;/p&gt;
-&lt;h3&gt;No diving into foam pits&lt;/h3&gt;
-&lt;p&gt;No diving into the foam pits.&lt;/p&gt;
-&lt;h3&gt;Be Alert&lt;/h3&gt;
-&lt;p&gt;Be aware and considerate of those around you. Jump with people that are of similar size.&lt;/p&gt;
-&lt;h3&gt;No Climbing&lt;/h3&gt;
-&lt;p&gt;Do not climb on walls or netting and do not touch basketball apparatus.&lt;/p&gt;
-&lt;h3&gt;No Drugs&lt;/h3&gt;
-&lt;p&gt;Do not use a trampoline when under the influence of alcohol or drugs.&lt;/p&gt;
-&lt;h3&gt;No Rough-Housing&lt;/h3&gt;
-&lt;p&gt;No tackling, pushing or other activity that may unnecessarily interfere with the jumping or concentration of another participant.&lt;/p&gt;
-&lt;p&gt;This is a listing of our general rules. It is not a all inclusive list, and the rules are subject.&lt;/p&gt;
-                                &lt;!--&lt;h3&gt;Assumption of risk&lt;/h3&gt;
-                                &lt;p&gt;Participation in trampoline activities is an inherently dangerous recreational activity and involves a level of risk that each participant must evaluate on their own. By using this facility, you are assuming a risk of serious injury or death.&lt;/p&gt;
-                                &lt;p&gt;For safety, you should be in good health and free from high blood pressure, heart, back or neck problems, motion sickness, or other conditions that could be aggravated by jumping on a trampoline. Expectant mothers should not jump.&lt;/p&gt;
-                                &lt;p&gt;WARNING! Catastrophic injury, paralysis or even death may result from failing to follow the rules below and due to inherent risks, sometimes even if all rules are followed.&lt;/p&gt;
-                                &lt;h3&gt;Liability Waiver&lt;/h3&gt;
-                                &lt;p&gt;By using the equipment and property at this facility, all guest of Aerosports are bound by the liability waiver and release set forth in the terms of the Agreement that must be executed upon admittance to this facility. Those under the age of 18 must have the Agreement completed and signed by their parent or legal guardian.&lt;/p&gt;
-                                &lt;h3&gt;Somersaults not recommended&lt;/h3&gt;
-                                &lt;p&gt;Landing on the head or neck can cause serious injury, paralysis or death, even when landing in the middle of the mat. Jumpers must maintain total control of their bodies while jumping.&lt;/p&gt;
-                                &lt;h3&gt;Do not double bounce&lt;/h3&gt;
-                                &lt;p&gt;Do not double bounce.&lt;/p&gt;
-                                &lt;h3&gt;Wear appropriate clothing&lt;/h3&gt;
-                                &lt;p&gt;Clothes must be free of hanging zippers, belts, strings and remove jewelry. Empty pockets and have nothing in mouth (e.g. gum, candy or other).&lt;/p&gt;
-                                &lt;p&gt;Kids under 46 inches  have access to single lane obstacles like the foam pits.&lt;/p&gt;
-                                &lt;h3&gt;No diving into foam pits&lt;/h3&gt;
-                                &lt;p&gt;No diving into the foam pits.&lt;/p&gt;
-                                &lt;h3&gt;Be Alert&lt;/h3&gt;
-                                &lt;p&gt;Be aware and considerate of those around you. Jump with people that are of similar size.&lt;/p&gt;
-                                &lt;h3&gt;No Climbing&lt;/h3&gt;
-                                &lt;p&gt;Do not climb on walls or netting and do not touch basketball apparatus.&lt;/p&gt;
-                                &lt;h3&gt;No Drugs&lt;/h3&gt;
-                                &lt;p&gt;Do not use a trampoline when under the influence of alcohol or drugs.&lt;/p&gt;
-                                &lt;h3&gt;No Rough-Housing&lt;/h3&gt;
-                                &lt;p&gt;No tackling, pushing or other activity that may unnecessarily interfere with the jumping or concentration of another participant.&lt;/p&gt;
-                                &lt;p&gt;This is a listing of our general rules. It is not a all inclusive list, and the rules are subject.&lt;/p&gt;--&gt;
-                            &lt;/div&gt;</t>
   </si>
   <si>
     <t>Careers</t>
@@ -1172,9 +1120,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Oakville</t>
-  </si>
-  <si>
     <t>2679 Bristol Cir, Oakville, ON L6H 6Z8</t>
   </si>
   <si>
@@ -1522,12 +1467,24 @@
     <t>camps</t>
   </si>
   <si>
+    <t>&lt;h3&gt;Assumption of risk&lt;/h3&gt;Participation in trampoline activities is an inherently dangerous recreational activity and involves a level of risk that each participant must evaluate on their own. By using this facility, you are assuming a risk of serious injury or death.For safety, you should be in good health and free from high blood pressure, heart, back or neck problems, motion sickness, or other conditions that could be aggravated by jumping on a trampoline. Expectant mothers should not jump.WARNING! Catastrophic injury, paralysis or even death may result from failing to follow the rules below and due to inherent risks, sometimes even if all rules are followed.&lt;h3&gt;Liability Waiver&lt;/h3&gt;By using the equipment and property at this facility, all guest of Aerosports are bound by the liability waiver and release set forth in the terms of the Agreement that must be executed upon admittance to this facility. Those under the age of 18 must have the Agreement completed and signed by their parent or legal guardian.&lt;h3&gt;Somersaults not recommended&lt;/h3&gt;Landing on the head or neck can cause serious injury, paralysis or death, even when landing in the middle of the mat. Jumpers must maintain total control of their bodies while jumping.&lt;h3&gt;Do not double bounce&lt;/h3&gt;Do not double bounce.&lt;h3&gt;Wear appropriate clothing&lt;/h3&gt;Clothes must be free of hanging zippers, belts, strings and remove jewelry. Empty pockets and have nothing in mouth (e.g. gum, candy or other).It’s our policy that kids under 46 inches must stay in the Little Air area, but still have access to single lane obstacles like the foam pits.&lt;h3&gt;No diving into foam pits&lt;/h3&gt;No diving into the foam pits.&lt;h3&gt;Be Alert&lt;/h3&gt;Be aware and considerate of those around you. Jump with people that are of similar size.&lt;h3&gt;No Climbing&lt;/h3&gt;Do not climb on walls or netting and do not touch basketball apparatus.&lt;h3&gt;No Drugs&lt;/h3&gt;Do not use a trampoline when under the influence of alcohol or drugs.&lt;h3&gt;No Rough-Housing&lt;/h3&gt;No tackling, pushing or other activity that may unnecessarily interfere with the jumping or concentration of another participant.This is a listing of our general rules. It is not a all inclusive list, and the rules are subject.</t>
+  </si>
+  <si>
+    <t>contact-us</t>
+  </si>
+  <si>
+    <t>homepagecounter</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
     <t>Aerosports Camp is an exciting full day camp for active kids ages 6 to 12. With instructor-led activities like age-appropriate exercise and Ultimate Dodgeball, campers are sure to have fun and head home ready for bed. 
-Sessions will be led and monitored by experienced Aerosports personnel and include a full lunch and snacks. Campers will dive into sports, team building, crafts, outdoor play, cooperative games and of course, TONS of bouncing!
-Camps start dates:
-June 10th, 2022
-December 20th - 24th, 2022
-December 27th - 31st, 2022</t>
+Sessions will be led and monitored by experienced Aerosports personnel and include a full lunch and snacks. Campers will dive into sports, team building, crafts, outdoor play, cooperative games and of course, TONS of bouncing!&lt;br/&gt;
+Camps start dates:&lt;br/&gt;
+June 10th, 2022&lt;br/&gt;
+December 20th - 24th, 2022&lt;br/&gt;
+December 27th - 31st, 2022&lt;br/&gt;</t>
   </si>
 </sst>
 </file>
@@ -1920,9 +1877,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1003"/>
+  <dimension ref="A1:T1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
@@ -2104,7 +2061,7 @@
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2140,7 +2097,7 @@
         <v>39</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K39" si="0">"assets/image/banner/"&amp;E6&amp;".png"</f>
+        <f t="shared" ref="K6:K38" si="0">"assets/image/banner/"&amp;E6&amp;".png"</f>
         <v>assets/image/banner/groups-events.png</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -2220,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>49</v>
@@ -2253,7 +2210,7 @@
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B10" s="1">
         <v>1000</v>
@@ -2302,7 +2259,7 @@
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B11" s="1">
         <v>1001</v>
@@ -2314,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>49</v>
@@ -2352,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>49</v>
@@ -2398,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>49</v>
@@ -2442,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>49</v>
@@ -2479,7 +2436,7 @@
     </row>
     <row r="15" spans="1:20" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B15" s="1">
         <v>12</v>
@@ -2522,7 +2479,7 @@
     </row>
     <row r="16" spans="1:20" ht="14.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -2534,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>49</v>
@@ -2568,7 +2525,7 @@
     </row>
     <row r="17" spans="1:20" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B17" s="1">
         <v>1002</v>
@@ -2580,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>49</v>
@@ -2606,7 +2563,7 @@
     </row>
     <row r="18" spans="1:20" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B18" s="1">
         <v>15</v>
@@ -2618,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>49</v>
@@ -2652,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2722,7 +2679,7 @@
     </row>
     <row r="21" spans="1:20" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B21" s="1">
         <v>18</v>
@@ -2832,7 +2789,7 @@
         <v>assets/image/banner/safety-information.png</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -2843,26 +2800,26 @@
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/careers.png</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -2873,19 +2830,19 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2895,7 +2852,7 @@
         <v>28</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -2906,23 +2863,23 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>154</v>
+        <v>354</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/Contact-us.png</v>
+        <v>assets/image/banner/contact-us.png</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -2933,19 +2890,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="K27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2955,7 +2912,7 @@
         <v>43</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -2966,29 +2923,29 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="J28" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="K28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/lock-in.png</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -2999,30 +2956,30 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H29" s="1"/>
       <c r="J29" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/AeroFIt.png</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -3030,86 +2987,86 @@
     </row>
     <row r="30" spans="1:20" ht="14.25" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="K30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/glow.png</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B31" s="1">
         <v>1003</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="K31" s="1" t="str">
         <f t="shared" ref="K31" si="1">"assets/image/banner/"&amp;E31&amp;".png"</f>
         <v>assets/image/banner/glow.png</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1">
@@ -3117,26 +3074,26 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="K32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/toddler time.png</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -3144,59 +3101,62 @@
     </row>
     <row r="33" spans="1:19" ht="14.25" customHeight="1">
       <c r="B33" s="1">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>175</v>
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K33" s="1" t="str">
-        <f t="shared" ref="K33" si="2">"assets/image/banner/"&amp;E33&amp;".png"</f>
-        <v>assets/image/banner/toddler time.png</v>
+        <f t="shared" si="0"/>
+        <v>assets/image/banner/corporateparties.png</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="B34" s="1">
-        <v>30</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>178</v>
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/corporateparties.png</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>182</v>
+        <v>assets/image/banner/schoolgroups.png</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -3204,31 +3164,31 @@
     </row>
     <row r="35" spans="1:19" ht="14.25" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="1">
-        <v>31</v>
+        <v>349</v>
+      </c>
+      <c r="B35" s="3">
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="K35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/schoolgroups.png</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="9" t="s">
         <v>186</v>
       </c>
       <c r="Q35" s="2"/>
@@ -3236,33 +3196,30 @@
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B36" s="3">
-        <v>35</v>
+      <c r="B36" s="1">
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/schoolgroups.png</v>
+        <v>assets/image/banner/fundraising.png</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -3270,29 +3227,29 @@
     </row>
     <row r="37" spans="1:19" ht="14.25" customHeight="1">
       <c r="B37" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/fundraising.png</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>191</v>
+        <v>assets/image/banner/facilityrental.png</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -3300,57 +3257,32 @@
     </row>
     <row r="38" spans="1:19" ht="14.25" customHeight="1">
       <c r="B38" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D38" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/facilityrental.png</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>195</v>
+        <v>assets/image/banner/locations.png</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19" ht="14.25" customHeight="1">
-      <c r="B39" s="1">
-        <v>34</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="1">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>assets/image/banner/locations.png</v>
-      </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -4340,8 +4272,7 @@
       <c r="R236" s="2"/>
       <c r="S236" s="2"/>
     </row>
-    <row r="237" spans="17:19" ht="14.25" customHeight="1">
-      <c r="Q237" s="2"/>
+    <row r="237" spans="17:19" ht="15.75" customHeight="1">
       <c r="R237" s="2"/>
       <c r="S237" s="2"/>
     </row>
@@ -7404,10 +7335,6 @@
     <row r="1002" spans="18:19" ht="15.75" customHeight="1">
       <c r="R1002" s="2"/>
       <c r="S1002" s="2"/>
-    </row>
-    <row r="1003" spans="18:19" ht="15.75" customHeight="1">
-      <c r="R1003" s="2"/>
-      <c r="S1003" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7435,136 +7362,136 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="K2" s="6">
         <v>232</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="B4" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1">
@@ -11561,7 +11488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -11570,13 +11499,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1"/>
@@ -12588,9 +12517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12603,22 +12530,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -12629,98 +12556,98 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>242</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>248</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>255</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1"/>
@@ -13737,7 +13664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -13752,10 +13681,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
@@ -13763,10 +13692,10 @@
         <v>118</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
@@ -13774,10 +13703,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
@@ -13785,10 +13714,10 @@
         <v>118</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
@@ -13796,10 +13725,10 @@
         <v>118</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
@@ -13807,10 +13736,10 @@
         <v>118</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
@@ -13818,10 +13747,10 @@
         <v>118</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
@@ -13829,10 +13758,10 @@
         <v>118</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
@@ -13840,10 +13769,10 @@
         <v>118</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
@@ -13851,10 +13780,10 @@
         <v>118</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
@@ -13862,10 +13791,10 @@
         <v>118</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
@@ -13873,10 +13802,10 @@
         <v>118</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
@@ -13884,10 +13813,10 @@
         <v>118</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
@@ -13895,10 +13824,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
@@ -13906,10 +13835,10 @@
         <v>118</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
@@ -13917,10 +13846,10 @@
         <v>118</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -13928,10 +13857,10 @@
         <v>118</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -13939,10 +13868,10 @@
         <v>118</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -13950,151 +13879,151 @@
         <v>118</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="B27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>292</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
@@ -14102,42 +14031,42 @@
         <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
@@ -14145,7 +14074,7 @@
         <v>118</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -14153,47 +14082,47 @@
         <v>118</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="B43" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="B45" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
@@ -14201,46 +14130,53 @@
         <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>314</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B51" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C51" t="s">
+        <v>356</v>
+      </c>
+    </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
@@ -15225,19 +15161,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -15247,16 +15183,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D2" s="1">
         <v>350</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
@@ -15264,16 +15200,16 @@
         <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D3" s="1">
         <v>450</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
@@ -15281,16 +15217,16 @@
         <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D4" s="1">
         <v>650</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
@@ -15298,169 +15234,169 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D6" s="1">
         <v>300</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D7" s="1">
         <v>560</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D8" s="1">
         <v>400</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" s="1">
         <v>300</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D10" s="1">
         <v>560</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D11" s="1">
         <v>400</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D12" s="1">
         <v>300</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D13" s="1">
         <v>560</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D14" s="1">
         <v>400</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82334353-F6F5-4D6A-BC9B-8D3355D46416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F64496-DF24-4C87-84EF-BCCBA76551F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="361">
   <si>
     <t>location</t>
   </si>
@@ -1378,9 +1378,6 @@
     <t>Rookie</t>
   </si>
   <si>
-    <t>pkg</t>
-  </si>
-  <si>
     <t>upto 8 Jumpers, 2 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 9 non jumpers, $50 if bring your own food</t>
   </si>
   <si>
@@ -1409,9 +1406,6 @@
   </si>
   <si>
     <t>Super Jump</t>
-  </si>
-  <si>
-    <t>Min 20 Jumpers, 4 large 1 topping Pizzas,5 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $30 per additional jumper, No charges for parents</t>
   </si>
   <si>
     <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour, 60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $40 per additional jumper, No charges for parents, Aero glow T-shirt for all guests</t>
@@ -1476,15 +1470,42 @@
     <t>homepagecounter</t>
   </si>
   <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
-    <t>Aerosports Camp is an exciting full day camp for active kids ages 6 to 12. With instructor-led activities like age-appropriate exercise and Ultimate Dodgeball, campers are sure to have fun and head home ready for bed. 
+    <t>130;Trampolines,27000;Square Feet,4;Party Rooms,6;Fun Attractions</t>
+  </si>
+  <si>
+    <t>Icecream Sunday Bar</t>
+  </si>
+  <si>
+    <t>Min 20 Jumpers, 4 large 1 topping Pizzas,5 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $28 per additional jumper, No charges for parents</t>
+  </si>
+  <si>
+    <t>Toddler</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 6 Jumpers, All jumpers to be 0-6 yrs, 1 large 1 topping Pizzas,1 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $20 per additional jumper, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosports Camp is an exciting full day camp for active kids ages 6 to 12. With instructor-led activities like age-appropriate exercise and Ultimate Dodgeball, campers are sure to have fun and head home ready for bed. 
 Sessions will be led and monitored by experienced Aerosports personnel and include a full lunch and snacks. Campers will dive into sports, team building, crafts, outdoor play, cooperative games and of course, TONS of bouncing!&lt;br/&gt;
 Camps start dates:&lt;br/&gt;
-June 10th, 2022&lt;br/&gt;
+July 4-8, 2022&lt;br/&gt;
+July 18-22, 2022&lt;br/&gt;
+Aug 1-5, 2022&lt;br/&gt;
+Aug 15-19, 2022&lt;br/&gt;
+Aug 29-Sep 2, 2022&lt;br/&gt;
 December 20th - 24th, 2022&lt;br/&gt;
-December 27th - 31st, 2022&lt;br/&gt;</t>
+December 27th - 31st, 2022&lt;br/&gt;&lt;br/&gt;
+&lt;h6&gt;Pricing:&lt;/h6&gt; $65 a day&lt;br/&gt;
+         $300 a week&lt;br/&gt;&lt;/br&gt;
+&lt;b&gt;Timings:&lt;/b&gt; 8:30 AM to 3:30PM&lt;br/&gt;&lt;br/&gt;
+&lt;h6&gt;Terms &amp; Conditions:&lt;/h6&gt; 
+1. All jumpers need to have a valid waiver on file&lt;br/&gt;
+2. Lunch can be included for an additonal $5.50+ tax/day&lt;/br&gt;
+3. Early drop off and/or late pick up is available for $10+ tax&lt;/br&gt;
+         </t>
   </si>
 </sst>
 </file>
@@ -1879,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="K21" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2177,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>49</v>
@@ -2210,7 +2231,7 @@
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B10" s="1">
         <v>1000</v>
@@ -2259,7 +2280,7 @@
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B11" s="1">
         <v>1001</v>
@@ -2271,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>49</v>
@@ -2299,6 +2320,9 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -2309,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>49</v>
@@ -2355,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>49</v>
@@ -2399,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>49</v>
@@ -2436,7 +2460,7 @@
     </row>
     <row r="15" spans="1:20" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B15" s="1">
         <v>12</v>
@@ -2479,7 +2503,7 @@
     </row>
     <row r="16" spans="1:20" ht="14.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -2491,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>49</v>
@@ -2525,7 +2549,7 @@
     </row>
     <row r="17" spans="1:20" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" s="1">
         <v>1002</v>
@@ -2537,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>49</v>
@@ -2563,7 +2587,7 @@
     </row>
     <row r="18" spans="1:20" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B18" s="1">
         <v>15</v>
@@ -2575,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>49</v>
@@ -2609,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2679,7 +2703,7 @@
     </row>
     <row r="21" spans="1:20" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B21" s="1">
         <v>18</v>
@@ -2789,7 +2813,7 @@
         <v>assets/image/banner/safety-information.png</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -2869,7 +2893,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>144</v>
@@ -2896,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>33</v>
@@ -2912,7 +2936,7 @@
         <v>43</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -2929,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>158</v>
@@ -2962,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>158</v>
@@ -3018,7 +3042,7 @@
         <v>assets/image/banner/glow.png</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -3164,7 +3188,7 @@
     </row>
     <row r="35" spans="1:19" ht="14.25" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B35" s="3">
         <v>35</v>
@@ -11488,8 +11512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -12517,7 +12541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12580,7 +12606,7 @@
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>244</v>
@@ -13662,10 +13688,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -13887,7 +13913,7 @@
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>265</v>
@@ -13898,7 +13924,7 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>265</v>
@@ -13909,7 +13935,7 @@
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>265</v>
@@ -13920,7 +13946,7 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>265</v>
@@ -13931,7 +13957,7 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>265</v>
@@ -13942,7 +13968,7 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>265</v>
@@ -13952,19 +13978,22 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B26" s="1" t="s">
-        <v>290</v>
+      <c r="A26" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>292</v>
+      <c r="C27" s="20" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -13972,7 +14001,7 @@
         <v>290</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -13980,26 +14009,26 @@
         <v>290</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="B30" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>295</v>
+      <c r="C30" s="19" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>296</v>
+      <c r="C31" s="21" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -14007,7 +14036,7 @@
         <v>290</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -14015,7 +14044,7 @@
         <v>290</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -14023,26 +14052,26 @@
         <v>290</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="B35" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
@@ -14050,31 +14079,31 @@
         <v>290</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="B38" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>303</v>
+      <c r="C38" s="19" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="B39" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B40" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -14086,11 +14115,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B42" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>307</v>
+      <c r="A42" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
@@ -14098,7 +14127,7 @@
         <v>306</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
@@ -14106,7 +14135,7 @@
         <v>306</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
@@ -14114,7 +14143,7 @@
         <v>306</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
@@ -14122,62 +14151,69 @@
         <v>306</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B47" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>350</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C50" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B51" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C51" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C52" t="s">
+        <v>354</v>
+      </c>
+    </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="55" spans="1:3" ht="14.25" customHeight="1"/>
@@ -14376,7 +14412,7 @@
     <row r="248" ht="14.25" customHeight="1"/>
     <row r="249" ht="14.25" customHeight="1"/>
     <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
     <row r="252" ht="15.75" customHeight="1"/>
     <row r="253" ht="15.75" customHeight="1"/>
     <row r="254" ht="15.75" customHeight="1"/>
@@ -15126,12 +15162,13 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C48" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C49" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C50" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C48" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C49" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C50" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C51" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -15142,8 +15179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -15186,13 +15223,13 @@
         <v>323</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D2" s="1">
         <v>350</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
@@ -15200,16 +15237,16 @@
         <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D3" s="1">
         <v>450</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
@@ -15217,16 +15254,16 @@
         <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D4" s="1">
         <v>650</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
@@ -15234,67 +15271,67 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D6" s="1">
         <v>300</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D7" s="1">
         <v>560</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D8" s="1">
         <v>400</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
@@ -15302,16 +15339,16 @@
         <v>317</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D9" s="1">
         <v>300</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
@@ -15319,16 +15356,16 @@
         <v>317</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D10" s="1">
         <v>560</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1">
@@ -15339,13 +15376,13 @@
         <v>166</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D11" s="1">
         <v>400</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
@@ -15353,16 +15390,16 @@
         <v>250</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D12" s="1">
         <v>300</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
@@ -15370,16 +15407,16 @@
         <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D13" s="1">
         <v>560</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
@@ -15390,17 +15427,31 @@
         <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D14" s="1">
         <v>400</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
-      <c r="F15" s="2"/>
+      <c r="A15" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="3">
+        <v>120</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="F16" s="2"/>

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F64496-DF24-4C87-84EF-BCCBA76551F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63BB491-35DE-4605-B4D9-59E4550F62F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="364">
   <si>
     <t>location</t>
   </si>
@@ -1506,6 +1506,15 @@
 2. Lunch can be included for an additonal $5.50+ tax/day&lt;/br&gt;
 3. Early drop off and/or late pick up is available for $10+ tax&lt;/br&gt;
          </t>
+  </si>
+  <si>
+    <t>Waiver</t>
+  </si>
+  <si>
+    <t>waiver</t>
+  </si>
+  <si>
+    <t>aboutsub</t>
   </si>
 </sst>
 </file>
@@ -1900,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K21" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2118,7 +2127,7 @@
         <v>39</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K38" si="0">"assets/image/banner/"&amp;E6&amp;".png"</f>
+        <f t="shared" ref="K6:K39" si="0">"assets/image/banner/"&amp;E6&amp;".png"</f>
         <v>assets/image/banner/groups-events.png</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -3307,6 +3316,28 @@
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19" ht="14.25" customHeight="1">
+      <c r="B39" s="3">
+        <v>35</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/image/banner/waiver.png</v>
+      </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -12541,8 +12572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -13690,8 +13721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63BB491-35DE-4605-B4D9-59E4550F62F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46FE43E-2493-49C7-94AE-1C6C9D717C06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="389">
   <si>
     <t>location</t>
   </si>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>AERO JOUST</t>
-  </si>
-  <si>
-    <t>assets/img/service/slide7-FoamPits.jpg</t>
   </si>
   <si>
     <t>assets/image/attractions/slide7-FoamPits.jpg</t>
@@ -750,9 +747,6 @@
   </si>
   <si>
     <t>Toddler Time</t>
-  </si>
-  <si>
-    <t>toddler time</t>
   </si>
   <si>
     <t>TODDLER TIME</t>
@@ -1150,9 +1144,6 @@
     <t>partystcatherines@aerosportsparks.ca</t>
   </si>
   <si>
-    <t>St. Catherine</t>
-  </si>
-  <si>
     <t>/assets/image/location/st.-catherines.png</t>
   </si>
   <si>
@@ -1409,9 +1400,6 @@
   </si>
   <si>
     <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour, 60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $40 per additional jumper, No charges for parents, Aero glow T-shirt for all guests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AeroFoam </t>
   </si>
   <si>
     <t>aeroslam</t>
@@ -1508,20 +1496,122 @@
          </t>
   </si>
   <si>
-    <t>Waiver</t>
-  </si>
-  <si>
     <t>waiver</t>
   </si>
   <si>
-    <t>aboutsub</t>
+    <t>https://waiver.roller.app/aerosportswindsor/</t>
+  </si>
+  <si>
+    <t>https://waiver.roller.app/aerosportsoakville/</t>
+  </si>
+  <si>
+    <t>https://waiver.roller.app/aerosportsstcatherine</t>
+  </si>
+  <si>
+    <t>https://waiver.roller.app/aerosportslondon/</t>
+  </si>
+  <si>
+    <t>http://aerosportsoakville.pfestore.com/areas/The_Park/Default.aspx</t>
+  </si>
+  <si>
+    <t>https://skyzonewindsor.centeredgeonline.com/</t>
+  </si>
+  <si>
+    <t>https://skyzonelondon.centeredgeonline.com/areas/areas</t>
+  </si>
+  <si>
+    <t>estorem</t>
+  </si>
+  <si>
+    <t>waiverm</t>
+  </si>
+  <si>
+    <t>https://skyzonelondon.centeredgeonline.com/waivers</t>
+  </si>
+  <si>
+    <t>https://aerosportsoakville.pfestore.com/waiver/</t>
+  </si>
+  <si>
+    <t>AeroFoam</t>
+  </si>
+  <si>
+    <t>toddler-time</t>
+  </si>
+  <si>
+    <t>6-Trampoline-Facts-that-will-Knock-Your-Jump-Socks-Off</t>
+  </si>
+  <si>
+    <t>St. Catharines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosports Camp is an exciting full day camp for active kids ages 6 to 12. With instructor-led activities like age-appropriate exercise and Ultimate Dodgeball, campers are sure to have fun and head home ready for bed. 
+Sessions will be led and monitored by experienced Aerosports personnel and include a full lunch and snacks. Campers will dive into sports, team building, crafts, outdoor play, cooperative games and of course, TONS of bouncing!&lt;br/&gt;
+Camps start dates:&lt;br/&gt;
+July 11-15, 2022&lt;br/&gt;
+July 25-29, 2022&lt;br/&gt;
+Aug 8-12, 2022&lt;br/&gt;
+Aug 22-26, 2022&lt;br/&gt;
+December 26th - 30th, 2022&lt;br/&gt;
+Jan 2nd - 6th 2023&lt;br/&gt;&lt;br/&gt;
+&lt;h6&gt;Pricing:&lt;/h6&gt; $65 a day&lt;br/&gt;
+         $300 a week&lt;br/&gt;&lt;/br&gt;
+&lt;b&gt;Timings:&lt;/b&gt; 8:30 AM to 3:30PM&lt;br/&gt;&lt;br/&gt;
+&lt;h6&gt;Terms &amp; Conditions:&lt;/h6&gt; 
+1. All jumpers need to have a valid waiver on file&lt;br/&gt;
+2. Early drop off and/or late pick up is available for $10+ tax each&lt;/br&gt;
+         </t>
+  </si>
+  <si>
+    <t>london,windsor</t>
+  </si>
+  <si>
+    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $30 per additional jumper, No charges for parents, Weekday price: $275</t>
+  </si>
+  <si>
+    <t>Min 20 Jumpers, 4 large 1 topping Pizzas,5 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $28 per additional jumper, No charges for parents. Weekday Price: $600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 6 Jumpers, All jumpers to be 0-6 yrs, 2 large 2 topping Pizzas, Juiceboxes,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $23 per additional jumper, </t>
+  </si>
+  <si>
+    <t>https://skyzonestcatharines.centeredgeonline.com/areas/areas</t>
+  </si>
+  <si>
+    <t>https://skyzonestcatharines.centeredgeonline.com/waivers</t>
+  </si>
+  <si>
+    <t>corporate-parties</t>
+  </si>
+  <si>
+    <t>facility-rental</t>
+  </si>
+  <si>
+    <t>fund-raising</t>
+  </si>
+  <si>
+    <t>Pricing + Promos</t>
+  </si>
+  <si>
+    <t>pricing-promos</t>
+  </si>
+  <si>
+    <t>PRICING AND PROMOS</t>
+  </si>
+  <si>
+    <t>DJ Night</t>
+  </si>
+  <si>
+    <t>dj-night</t>
+  </si>
+  <si>
+    <t>D J NIGHT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1612,6 +1702,29 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF383838"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1645,10 +1758,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1692,8 +1806,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1907,27 +2027,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1002"/>
+  <dimension ref="A1:T1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="47.5546875" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" customWidth="1"/>
-    <col min="10" max="10" width="77" customWidth="1"/>
-    <col min="11" max="11" width="56.109375" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="14" max="16" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="47.5546875" customWidth="1"/>
+    <col min="10" max="10" width="43.44140625" customWidth="1"/>
+    <col min="11" max="11" width="77" customWidth="1"/>
+    <col min="12" max="12" width="56.109375" customWidth="1"/>
+    <col min="13" max="14" width="15.5546875" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" customWidth="1"/>
     <col min="17" max="17" width="41.33203125" customWidth="1"/>
     <col min="18" max="18" width="19.6640625" customWidth="1"/>
     <col min="19" max="19" width="25.88671875" customWidth="1"/>
@@ -1942,40 +2062,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
@@ -1998,31 +2118,33 @@
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2032,24 +2154,27 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="2"/>
@@ -2057,23 +2182,26 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q4" s="2"/>
@@ -2081,29 +2209,32 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q5" s="2"/>
@@ -2111,26 +2242,29 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K39" si="0">"assets/image/banner/"&amp;E6&amp;".png"</f>
+      <c r="L6" s="1" t="str">
+        <f t="shared" ref="L6:L41" si="0">"assets/image/banner/"&amp;F6&amp;".png"</f>
         <v>assets/image/banner/groups-events.png</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q6" s="2"/>
@@ -2138,26 +2272,29 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:20" ht="14.25" customHeight="1">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="L7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/aboutus.png</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q7" s="2"/>
@@ -2168,26 +2305,29 @@
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="1" t="str">
+      <c r="L8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/blogs.png</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -2197,1192 +2337,1341 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="14.25" customHeight="1">
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="1" t="str">
+      <c r="L11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/openjumps.png</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="1" t="str">
+      <c r="L12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/aero-hoops.png</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="s">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S12" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="1">
         <v>1001</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="str">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/AeroFoam .png</v>
-      </c>
-      <c r="M11" s="1" t="s">
+        <v>assets/image/banner/AeroFoam.png</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="9" t="s">
+      <c r="O13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="1" t="str">
+      <c r="L14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/aeroslam.png</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2" t="s">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1">
-      <c r="B13" s="1">
+    <row r="15" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="1" t="str">
+      <c r="L15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/dodgeball.png</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2" t="s">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1">
-      <c r="B14" s="1">
+    <row r="16" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="1" t="str">
+      <c r="L16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/ninjawarrior.png</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="s">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="17" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="1" t="str">
+      <c r="L17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/aeroladder.png</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="18" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I18" s="1"/>
+      <c r="J18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="1" t="str">
+      <c r="L18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/aerojoust.png</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2" t="s">
+      <c r="S18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="S16" s="9" t="s">
+    </row>
+    <row r="19" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="1" t="str">
+      <c r="L19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/warpedwalls.png</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="K20" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="1" t="str">
+      <c r="L20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>assets/image/banner/AeroDrop.png</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>assets/image/banner/aerobags.png</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="1">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>assets/image/banner/climb-slide.png</v>
-      </c>
       <c r="O20" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>343</v>
-      </c>
+    <row r="21" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A21" s="1"/>
       <c r="B21" s="1">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" s="1" t="str">
+        <v>112</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/climbingwalls.png</v>
+        <v>assets/image/banner/aerobags.png</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="14.25" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="1">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="1">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>139</v>
+        <v>120</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="1" t="str">
+        <v>122</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/arcade.png</v>
+        <v>assets/image/banner/climb-slide.png</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:20" ht="14.25" customHeight="1">
+    <row r="23" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="B23" s="1">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="1">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>143</v>
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" s="1" t="str">
+        <v>49</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/safety-information.png</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>351</v>
+        <v>assets/image/banner/climbingwalls.png</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" ht="14.25" customHeight="1">
+      <c r="R23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="B24" s="1">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K24" s="1" t="str">
+        <v>49</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/careers.png</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>149</v>
+        <v>assets/image/banner/arcade.png</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:20" ht="14.25" customHeight="1">
+    <row r="25" spans="1:19" ht="14.25" customHeight="1">
       <c r="B25" s="1">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K25" s="1" t="str">
+      <c r="L25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/faq.png</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>152</v>
+        <v>assets/image/banner/safety-information.png</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:20" ht="14.25" customHeight="1">
+    <row r="26" spans="1:19" ht="14.25" customHeight="1">
       <c r="B26" s="1">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="1">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K26" s="1" t="str">
+        <v>143</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/contact-us.png</v>
+        <v>assets/image/banner/careers.png</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:20" ht="14.25" customHeight="1">
+    <row r="27" spans="1:19" ht="14.25" customHeight="1">
       <c r="B27" s="1">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>350</v>
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K27" s="1" t="str">
+        <v>143</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/camps.png</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>43</v>
+        <v>assets/image/banner/faq.png</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:20" ht="14.25" customHeight="1">
+    <row r="28" spans="1:19" ht="14.25" customHeight="1">
       <c r="B28" s="1">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>158</v>
+        <v>41</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" s="1" t="str">
+        <v>143</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/lock-in.png</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>161</v>
+        <v>assets/image/banner/contact-us.png</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:20" ht="14.25" customHeight="1">
+    <row r="29" spans="1:19" ht="14.25" customHeight="1">
       <c r="B29" s="1">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>342</v>
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="J29" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" s="1" t="str">
+        <v>33</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/AeroFIt.png</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>165</v>
+        <v>assets/image/banner/camps.png</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>315</v>
+    <row r="30" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>344</v>
       </c>
       <c r="B30" s="1">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3</v>
+        <v>1004</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" ref="L30" si="1">"assets/image/banner/"&amp;F30&amp;".png"</f>
+        <v>assets/image/banner/camps.png</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="1:19" ht="14.25" customHeight="1">
+      <c r="B31" s="1">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="K30" s="1" t="str">
+      <c r="K31" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/glow.png</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1003</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="K31" s="1" t="str">
-        <f t="shared" ref="K31" si="1">"assets/image/banner/"&amp;E31&amp;".png"</f>
-        <v>assets/image/banner/glow.png</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="14.25" customHeight="1">
+        <v>assets/image/banner/lock-in.png</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>374</v>
+      </c>
       <c r="B32" s="1">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K32" s="1" t="str">
+        <v>157</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="K32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="L32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/toddler time.png</v>
+        <v>assets/image/banner/AeroFIt.png</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="14.25" customHeight="1">
+    <row r="33" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="B33" s="1">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K33" s="1" t="str">
+        <v>157</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/corporateparties.png</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>181</v>
+        <v>assets/image/banner/glow.png</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" ht="14.25" customHeight="1">
+      <c r="T33" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="14.25" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>118</v>
+        <v>314</v>
       </c>
       <c r="B34" s="1">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5</v>
+        <v>1003</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" s="1" t="str">
+        <v>157</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" ref="L34" si="2">"assets/image/banner/"&amp;F34&amp;".png"</f>
+        <v>assets/image/banner/glow.png</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B35" s="1">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/schoolgroups.png</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B35" s="3">
-        <v>35</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="1">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>assets/image/banner/schoolgroups.png</v>
+        <v>assets/image/banner/toddler-time.png</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" ht="14.25" customHeight="1">
+    <row r="36" spans="1:20" ht="14.25" customHeight="1">
       <c r="B36" s="1">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="1">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/image/banner/corporate-parties.png</v>
+      </c>
+      <c r="O36" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>assets/image/banner/fundraising.png</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" customHeight="1">
+    <row r="37" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="B37" s="1">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K37" s="1" t="str">
+        <v>177</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/facilityrental.png</v>
+        <v>assets/image/banner/schoolgroups.png</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="14.25" customHeight="1">
-      <c r="B38" s="1">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="1">
-        <v>6</v>
+    <row r="38" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" s="3">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K38" s="1" t="str">
+        <v>177</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/locations.png</v>
+        <v>assets/image/banner/schoolgroups.png</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="14.25" customHeight="1">
-      <c r="B39" s="3">
-        <v>35</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D39" s="1">
-        <v>6</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K39" s="3" t="str">
+    <row r="39" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B39" s="1">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>assets/image/banner/waiver.png</v>
+        <v>assets/image/banner/fund-raising.png</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="14.25" customHeight="1">
+    <row r="40" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B40" s="1">
+        <v>33</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/image/banner/facility-rental.png</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" ht="14.25" customHeight="1">
+    <row r="41" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B41" s="1">
+        <v>34</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/image/banner/locations.png</v>
+      </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:19" ht="14.25" customHeight="1">
+    <row r="42" spans="1:20" ht="14.25" customHeight="1">
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="1:19" ht="14.25" customHeight="1">
+    <row r="43" spans="1:20" ht="14.25" customHeight="1">
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="1:19" ht="14.25" customHeight="1">
+    <row r="44" spans="1:20" ht="14.25" customHeight="1">
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="14.25" customHeight="1">
+    <row r="45" spans="1:20" ht="14.25" customHeight="1">
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="1:19" ht="14.25" customHeight="1">
+    <row r="46" spans="1:20" ht="14.25" customHeight="1">
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" ht="14.25" customHeight="1">
+    <row r="47" spans="1:20" ht="14.25" customHeight="1">
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" ht="14.25" customHeight="1">
+    <row r="48" spans="1:20" ht="14.25" customHeight="1">
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -4327,11 +4616,13 @@
       <c r="R236" s="2"/>
       <c r="S236" s="2"/>
     </row>
-    <row r="237" spans="17:19" ht="15.75" customHeight="1">
+    <row r="237" spans="17:19" ht="14.25" customHeight="1">
+      <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
       <c r="S237" s="2"/>
     </row>
-    <row r="238" spans="17:19" ht="15.75" customHeight="1">
+    <row r="238" spans="17:19" ht="14.25" customHeight="1">
+      <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
       <c r="S238" s="2"/>
     </row>
@@ -7390,6 +7681,14 @@
     <row r="1002" spans="18:19" ht="15.75" customHeight="1">
       <c r="R1002" s="2"/>
       <c r="S1002" s="2"/>
+    </row>
+    <row r="1003" spans="18:19" ht="15.75" customHeight="1">
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+    </row>
+    <row r="1004" spans="18:19" ht="15.75" customHeight="1">
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7401,7 +7700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7417,136 +7718,136 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="K2" s="6">
         <v>232</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="F3" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="L3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="M3" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="B4" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1">
@@ -11543,9 +11844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -11554,13 +11853,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1"/>
@@ -12573,7 +12872,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -12587,22 +12886,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -12613,98 +12912,98 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>246</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>248</v>
+        <v>372</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1"/>
@@ -13721,8 +14020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -13738,525 +14037,645 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>265</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="B40" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="B45" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>314</v>
+        <v>309</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A54" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B52" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C52" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
+      <c r="B54" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B56" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -15196,22 +15615,25 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C48" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C49" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C50" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C51" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C57" r:id="rId1" xr:uid="{AEBDDC90-4D3F-4905-BA07-16763DD0E9D4}"/>
+    <hyperlink ref="C60" r:id="rId2" xr:uid="{8DFC6E6F-9A66-46B2-AA39-B7518CE1A471}"/>
+    <hyperlink ref="C59" r:id="rId3" xr:uid="{184B9BF2-0212-4B4A-8829-0DBAFB4B506B}"/>
+    <hyperlink ref="C53" r:id="rId4" xr:uid="{6D2CC072-9C27-42B2-A4D7-C68FB19E6F1D}"/>
+    <hyperlink ref="C54" r:id="rId5" xr:uid="{52CF83A6-B133-44D3-A00F-DD83523288B7}"/>
+    <hyperlink ref="C55" r:id="rId6" xr:uid="{44D4D05D-69F3-4DFD-AC8C-16E4E2C0D06D}"/>
+    <hyperlink ref="C52" r:id="rId7" xr:uid="{BF29D34A-5435-4200-970F-AA731BA15361}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -15229,259 +15651,259 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D2" s="1">
         <v>350</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D3" s="1">
         <v>450</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D4" s="1">
         <v>650</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D6" s="1">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D7" s="1">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D8" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D9" s="1">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D10" s="1">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D11" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D12" s="1">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D13" s="1">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>166</v>
+      <c r="A14" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14" s="1">
-        <v>400</v>
+        <v>354</v>
+      </c>
+      <c r="D14" s="3">
+        <v>120</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D15" s="3">
-        <v>120</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>359</v>
+        <v>140</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
@@ -16096,9 +16518,7 @@
     <row r="219" spans="6:6" ht="14.25" customHeight="1">
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="6:6" ht="14.25" customHeight="1">
-      <c r="F220" s="2"/>
-    </row>
+    <row r="220" spans="6:6" ht="15.75" customHeight="1"/>
     <row r="221" spans="6:6" ht="15.75" customHeight="1"/>
     <row r="222" spans="6:6" ht="15.75" customHeight="1"/>
     <row r="223" spans="6:6" ht="15.75" customHeight="1"/>
@@ -16878,7 +17298,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -16887,64 +17306,365 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78187C66-49FB-44FD-9F0F-24738AD0EDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2BD79-D159-4673-A63F-F0F318BE84E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="441">
   <si>
     <t>location</t>
   </si>
@@ -575,73 +575,6 @@
   </si>
   <si>
     <t>faq</t>
-  </si>
-  <si>
-    <t>&lt;div class="entry-content"&gt;
-&lt;h3&gt;&lt;br&gt;&lt;strong&gt;Where are you located?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;We have locations all over the globe. You can find your local park using our &lt;a href="/"&gt;&lt;strong&gt;park locator&lt;/strong&gt;&lt;/a&gt;.&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Are jump socks required?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;All of our continental Ontario locations require jump socks to jump in the trampoline parks. All locations have jump socks available. Jump socks are reusable so be sure to keep yours for future visits! &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Do you have a weight limit? &lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Our trampolines have a 300 pound weight limit.&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Are waivers required? Can they be filled out online?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Waivers are required for every guest to the park including non-jumpers. By clicking on the ‘Online Waiver’ tab, you can fill out the waiver to jump before you go! This will reduce your check-in time, and keep you from waiting in a second line. Keep in mind the waiver needs to be done by a parent or legal guardian for children less than 18 years old. Everyone who enters the facility MUST have a waiver on file with that park. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Can I leave my child(ren) unattended?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;While every child under 18 needs a parent or legal guardian to sign the waiver, children under 10 years old cannot be dropped off without an adult. Please ensure all children understand the rules and regulations of the park before dropping them off to jump. If your child is enrolled and participating in Summer Camp where they will have a teacher present interacting with them at all times they may be dropped off if they are 5 or older. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Do spectators have to pay to watch jumpers?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;While jumpers are required to pay general admission, non-jumpers are never charged admission. During toddler time, one parent or guardian may jump free. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;What can smaller/younger children do at your parks?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Aerosports has a special jumping area for jumpers under 46″ in height! All ages are welcome at Aerosports, as long as you are able to jump and are walking on your own. Little Air jumpers also have access to slam ball, foam pits, slackline, fidget ladder and Little Air area. Little Air is a unique feature that you won’t find anywhere else!&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;What do you have at your parks for older kids/teens?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Older kids and teens are challenged by our ninja obstacle course, dunk lanes, and dodgeball. &amp;nbsp;We also have Aerosports Glow every Friday and Saturday night from 9 to midnight, jumpers older than 9 years old can jump and play in a dance environment complete with party lights and music! &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Where can I find the park rules?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;You can find the park rules on our website by clicking  &lt;a href="{location}/trampoline-park-rules
-"&gt;&lt;strong&gt;here.&lt;/strong&gt;&lt;/a&gt; &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Do you have group rates?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;We sure do! On weekdays, groups of 15 or more receive $2 off one hour and $3 off two hours for each jump ticket purchased. On weekends, groups of 15 or more receive $1 off on hour and $2 off two hours for each jump ticket purchased. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Do you rent out your locations for private events?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;We do offer facility rentals. Our trampoline parks boast the perfect facilities for birthday parties, corporate parties, family reunions and more! Contact our group coordinator to schedule your facility rental today! &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;What are your prices/hours?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Prices vary by location. Find your location using our &lt;a href="{location}/locations"&gt;&lt;strong&gt;park locator&lt;/strong&gt;&lt;/a&gt; to find pricing and other location-specific information. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;At what age do you hire?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;We hire 16 years old and older. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Do you do host birthday parties?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;At Aerosports Trampoline Park, jumpers get more than just a birthday party. Visit our&lt;b&gt; &lt;a href="{location}/kids-birthday-parties"&gt;&lt;strong&gt;party booker&lt;/strong&gt;&lt;/a&gt; &lt;/b&gt;to learn more about the best birthday experience you can imagine!&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;How early should I arrive for my party?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;You and your guests should arrive 15 minutes early, except for those parties booked at the time the park opens. Those parties will check-in when the doors open.&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;What is your cancellation policy?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Parties can be rescheduled for free up to 48 hours before the party. However, a $50 fee will be applied for those rescheduling within 48 hours of the party. If you decide to cancel the party, the $125 party deposit is non-refundable.&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Can all of my guests jump together?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Little Air jumpers under 46 inches are allowed in most areas of the park, but for their safety, they are not allowed on the main court, dodgeball court and some Ninja Course features. There are plenty of areas in the park where big and little jumpers can be together. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Can I bring outside food or drinks to a birthday party?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Aerosports allows limited food items including cake, cupcakes and fruit and veggie platters. All other food and drink must be ordered through Aerosports. Food not on the allowed items list will require a $50 outside food fee. This fee is waived when purchasing a Flippin’ Awesome or The Big Bounce party package.&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Can I have a party during Toddler Time?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;You are able to book a party during toddler time if all the attendees are under 46 inches. &amp;nbsp;With the exception of parents and guardians, guests over 46 inches are not allowed to jump during this dedicated time. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Do you have fundraising opportunities?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;We sure do! Aerosports loves raises funds for a variety of causes and organizations. Your school, troop, team or organization can earn 20% of the night’s jump time sales when hosting a fundraising night at one of our trampoline parks. Contact your local park manager to set up your fundraiser today!&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Can I bring food into the park?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Food is allowed in the park with some of our party packages. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Do you have food available to purchase?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Aerosports does have food available for purchase. All locations have vending machines.&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;What days are the least busy?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Weekends are our busiest days. Mondays and Tuesdays are usually less busy than other days.&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Can my small child come to the park? &lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Aerosports believes that as long as the child can walk, they can jump! We have a dedicated area for jumpers under 46” tall. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Can my kids jump together? &lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Aerosports has a dedicated area for jumpers under 46” tall. Jumpers above 46” use the Open Air areas. If one child is under 46” and one is above 46”, they would not be able to jump together. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Who can attend Toddler Time?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Toddler Time is for jumpers under 46” and their guardians. Every Tuesday and Thursday from 10 AM to noon, Little Air jumpers can use the entire park! &lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Who can attend Aerosports Glow?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Aerosports Glow is for jumpers 3 years or older. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Who can attend Special Time Just for You?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;A Special Time Just for You is for special needs jumpers and their family members only. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;What features do you have?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Aerosports offers a variety of features including, wall-to-wall trampolines, dodgeball, foam pits, ninja courses, slacklines, battle beams, silks, teeter-totter, rock walls, zip lines and more! Keep in mind that features do vary by location. &lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Do you have any deals available?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Aerosports offers daily deals including Family Night on Mondays where families of four to 10 receive 20% off, Twice theTime Tuesday where jumpers enjoy two hours of jumping for the price of one and Wednesday Student Day where students and homeschoolers receive 20% off admission. We also have deals you can only find online. Click &lt;a href="{location}/shop"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to save on your next visit to the park!&lt;br&gt;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Do you sell gift cards?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;We do sell gift cards! You can purchase a physical gift card in your local Aerosports. You can purchase an email gift card over the phone or &lt;a href="{location}/gift-cards"&gt;&lt;strong&gt;online.&lt;/strong&gt;&lt;/a&gt; &lt;br&gt;&lt;/p&gt;
-	&lt;/div&gt;</t>
   </si>
   <si>
     <t>Contact-us</t>
@@ -1306,9 +1239,6 @@
     <t>estore</t>
   </si>
   <si>
-    <t>https://roller.app/aerosportsoakville/products/etsore</t>
-  </si>
-  <si>
     <t>london</t>
   </si>
   <si>
@@ -1330,25 +1260,13 @@
     <t>Rookie</t>
   </si>
   <si>
-    <t>upto 8 Jumpers, 2 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 9 non jumpers, $50 if bring your own food</t>
-  </si>
-  <si>
     <t>Pro</t>
   </si>
   <si>
-    <t>upto 12 Jumpers, 3 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 12 non jumpers,$50 if bring your own food</t>
-  </si>
-  <si>
     <t>Extreme</t>
   </si>
   <si>
-    <t>upto 18 Jumpers, 4 Pizzas,6 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 18 non jumpers,$75 if bring your own food</t>
-  </si>
-  <si>
     <t>Ultimate</t>
-  </si>
-  <si>
-    <t>upto 30 Jumpers, 7 Pizzas,7 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 30 non jumpers, $100 if bring your own food</t>
   </si>
   <si>
     <t>Jump Around</t>
@@ -1763,10 +1681,89 @@
     <t>https://waiver.roller.app/aerosportsstcatharines</t>
   </si>
   <si>
-    <t>https://aerosportsoakville.centeredgeonline.com/waivers</t>
-  </si>
-  <si>
-    <t>https://aerosportsoakville.centeredgeonline.com/areas/areas</t>
+    <t>https://waiver.roller.app/aerosportsoakvillemississauga</t>
+  </si>
+  <si>
+    <t>https://roller.app/aerosportsoakvillemississauga/products/estore</t>
+  </si>
+  <si>
+    <t>upto 8 Jumpers, 2 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 9 non jumpers, $50 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t>upto 12 Jumpers, 3 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 12 non jumpers,$50 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t>upto 18 Jumpers, 4 Pizzas,6 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 18 non jumpers,$75 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t>upto 30 Jumpers, 7 Pizzas,7 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 30 non jumpers, $100 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t>&lt;div class="entry-content"&gt;
+&lt;h3&gt;&lt;br&gt;&lt;strong&gt;Where are you located?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;We have locations all over the globe. You can find your local park using our &lt;a href="/"&gt;&lt;strong&gt;park locator&lt;/strong&gt;&lt;/a&gt;.&lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Are jump socks required?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;All of our continental Ontario locations require jump socks to jump in the trampoline parks. All locations have jump socks available. Jump socks are reusable so be sure to keep yours for future visits! &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Do you have a weight limit? &lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Our trampolines have a 300 pound weight limit.&lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Are waivers required? Can they be filled out online?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Waivers are required for every guest to the park including non-jumpers. By clicking on the ‘Online Waiver’ tab, you can fill out the waiver to jump before you go! This will reduce your check-in time, and keep you from waiting in a second line. Keep in mind the waiver needs to be done by a parent or legal guardian for children less than 18 years old. Everyone who enters the facility MUST have a waiver on file with that park. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Can I leave my child(ren) unattended?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;While every child under 18 needs a parent or legal guardian to sign the waiver, children under 10 years old cannot be dropped off without an adult. Please ensure all children understand the rules and regulations of the park before dropping them off to jump. If your child is enrolled and participating in Summer Camp where they will have a teacher present interacting with them at all times they may be dropped off if they are 5 or older. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Do spectators have to pay to watch jumpers?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;While jumpers are required to pay general admission, non-jumpers are never charged admission. During toddler time, one parent or guardian may jump free. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;What can smaller/younger children do at your parks?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Aerosports has a special jumping area for jumpers under 46″ in height! All ages are welcome at Aerosports, as long as you are able to jump and are walking on your own. Little Air jumpers also have access to slam ball, foam pits, slackline, fidget ladder and Little Air area. Little Air is a unique feature that you won’t find anywhere else!&lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;What do you have at your parks for older kids/teens?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Older kids and teens are challenged by our ninja obstacle course, dunk lanes, and dodgeball. &amp;nbsp;We also have Aerosports Glow every Friday and Saturday night from 9 to midnight, jumpers older than 9 years old can jump and play in a dance environment complete with party lights and music! &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Where can I find the park rules?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;You can find the park rules on our website by clicking  &lt;a href="{location}/trampoline-park-rules
+"&gt;&lt;strong&gt;here.&lt;/strong&gt;&lt;/a&gt; &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Do you have group rates?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;We sure do! On weekdays, groups of 15 or more receive $2 off one hour and $3 off two hours for each jump ticket purchased. On weekends, groups of 15 or more receive $1 off on hour and $2 off two hours for each jump ticket purchased. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Do you rent out your locations for private events?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;We do offer facility rentals. Our trampoline parks boast the perfect facilities for birthday parties, corporate parties, family reunions and more! Contact our group coordinator to schedule your facility rental today! &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;What are your prices/hours?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Prices vary by location. Find your location using our &lt;a href="{location}/locations"&gt;&lt;strong&gt;park locator&lt;/strong&gt;&lt;/a&gt; to find pricing and other location-specific information. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;At what age do you hire?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;We hire 16 years old and older. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Do you do host birthday parties?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;At Aerosports Trampoline Park, jumpers get more than just a birthday party. Visit our&lt;b&gt; &lt;a href="{location}/kids-birthday-parties"&gt;&lt;strong&gt;party booker&lt;/strong&gt;&lt;/a&gt; &lt;/b&gt;to learn more about the best birthday experience you can imagine!&lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;How early should I arrive for my party?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;You and your guests should arrive 15 minutes early, except for those parties booked at the time the park opens. Those parties will check-in when the doors open.&lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;What is your cancellation policy?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Parties can be rescheduled for free up to 48 hours before the party. However, a $50 fee will be applied for those rescheduling within 48 hours of the party. If you decide to cancel the party, the $125 party deposit is non-refundable.&lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Can all of my guests jump together?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Little Air jumpers under 46 inches are allowed in most areas of the park, but for their safety, they are not allowed on the main court, dodgeball court and some Ninja Course features. There are plenty of areas in the park where big and little jumpers can be together. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Can I bring outside food or drinks to a birthday party?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Aerosports allows limited food items including cake &amp; cupcakes. All other food and drink must be ordered through Aerosports. Food not on the allowed items list will require a $50 outside food fee. This fee is waived when purchasing a Flippin’ Awesome or The Big Bounce party package.&lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Can I have a party during Toddler Time?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;You are able to book a party during toddler time if all the attendees are under 46 inches. &amp;nbsp;With the exception of parents and guardians, guests over 46 inches are not allowed to jump during this dedicated time. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Do you have fundraising opportunities?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;We sure do! Aerosports loves raises funds for a variety of causes and organizations. Your school, troop, team or organization can earn 20% of the night’s jump time sales when hosting a fundraising night at one of our trampoline parks. Contact your local park manager to set up your fundraiser today!&lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Can I bring food into the park?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Food is allowed in the park with some of our party packages. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Do you have food available to purchase?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Aerosports does have food available for purchase. All locations have vending machines.&lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;What days are the least busy?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Weekends are our busiest days. Mondays and Tuesdays are usually less busy than other days.&lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Can my small child come to the park? &lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Aerosports believes that as long as the child can walk, they can jump! We have a dedicated area for jumpers under 46” tall. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Can my kids jump together? &lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Aerosports has a dedicated area for jumpers under 46” tall. Jumpers above 46” use the Open Air areas. If one child is under 46” and one is above 46”, they would not be able to jump together. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Who can attend Toddler Time?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Toddler Time is for jumpers under 46” and their guardians. Every Tuesday and Thursday from 10 AM to noon, Little Air jumpers can use the entire park! &lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Who can attend Aerosports Glow?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Aerosports Glow is for jumpers 3 years or older. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Who can attend Special Time Just for You?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;A Special Time Just for You is for special needs jumpers and their family members only. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;What features do you have?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Aerosports offers a variety of features including, wall-to-wall trampolines, dodgeball, foam pits, ninja courses, slacklines, battle beams, silks, teeter-totter, rock walls, zip lines and more! Keep in mind that features do vary by location. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Do you have any deals available?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Currently we do not have any promotion. &lt;br&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;Do you sell gift cards?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;We do sell gift cards! You can purchase a physical gift card in your local Aerosports. You can purchase an email gift card over the phone or &lt;a href="{location}/gift-cards"&gt;&lt;strong&gt;online.&lt;/strong&gt;&lt;/a&gt; &lt;br&gt;&lt;/p&gt;
+	&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2002,9 +1999,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2229,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="K12" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2301,16 +2295,16 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>15</v>
@@ -2464,7 +2458,7 @@
         <v>37</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -2490,7 +2484,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -2520,7 +2514,7 @@
         <v>43</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>44</v>
@@ -2533,26 +2527,26 @@
         <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -2561,25 +2555,25 @@
     <row r="10" spans="1:23" ht="14.25" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L10" s="1"/>
       <c r="T10" s="9"/>
@@ -2589,27 +2583,29 @@
     <row r="11" spans="1:23" ht="14.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="24" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="E11" s="24"/>
+        <v>416</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="F11" s="24" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L11" s="1"/>
       <c r="N11" s="27" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -2618,27 +2614,29 @@
     <row r="12" spans="1:23" ht="14.25" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="28" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="E12" s="24"/>
+        <v>421</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="28" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>362</v>
+        <v>36</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L12" s="1"/>
       <c r="N12" s="29" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -2658,7 +2656,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>46</v>
@@ -2676,7 +2674,7 @@
         <v>50</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>51</v>
@@ -2687,7 +2685,7 @@
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
@@ -2720,7 +2718,7 @@
         <v>57</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>58</v>
@@ -2735,7 +2733,7 @@
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B15" s="1">
         <v>1001</v>
@@ -2750,7 +2748,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>46</v>
@@ -2762,7 +2760,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="N15" s="2"/>
       <c r="T15" s="2"/>
@@ -2790,7 +2788,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>46</v>
@@ -2808,7 +2806,7 @@
         <v>67</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>68</v>
@@ -2835,7 +2833,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>46</v>
@@ -2851,7 +2849,7 @@
         <v>74</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>75</v>
@@ -2878,7 +2876,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>46</v>
@@ -2896,7 +2894,7 @@
         <v>82</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>83</v>
@@ -2911,7 +2909,7 @@
     </row>
     <row r="19" spans="1:22" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B19" s="1">
         <v>12</v>
@@ -2926,7 +2924,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>46</v>
@@ -2938,7 +2936,7 @@
         <v>89</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>90</v>
@@ -2953,7 +2951,7 @@
     </row>
     <row r="20" spans="1:22" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B20" s="1">
         <v>14</v>
@@ -2968,7 +2966,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>46</v>
@@ -2984,7 +2982,7 @@
         <v>96</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>97</v>
@@ -2999,7 +2997,7 @@
     </row>
     <row r="21" spans="1:22" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B21" s="1">
         <v>1002</v>
@@ -3014,7 +3012,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>46</v>
@@ -3028,7 +3026,7 @@
         <v>102</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>103</v>
@@ -3039,7 +3037,7 @@
     </row>
     <row r="22" spans="1:22" ht="14.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B22" s="1">
         <v>15</v>
@@ -3054,7 +3052,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>46</v>
@@ -3066,7 +3064,7 @@
         <v>106</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>107</v>
@@ -3090,7 +3088,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>46</v>
@@ -3102,7 +3100,7 @@
         <v>110</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>111</v>
@@ -3150,7 +3148,7 @@
         <v>120</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>121</v>
@@ -3161,7 +3159,7 @@
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B25" s="1">
         <v>18</v>
@@ -3176,7 +3174,7 @@
         <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>46</v>
@@ -3194,7 +3192,7 @@
         <v>127</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>128</v>
@@ -3224,7 +3222,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>46</v>
@@ -3242,7 +3240,7 @@
         <v>136</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>137</v>
@@ -3274,10 +3272,10 @@
         <v>141</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -3307,7 +3305,7 @@
         <v>144</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>145</v>
@@ -3339,10 +3337,10 @@
         <v>146</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>148</v>
+        <v>440</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3356,22 +3354,22 @@
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -3379,7 +3377,7 @@
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B31" s="1">
         <v>25</v>
@@ -3388,25 +3386,25 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -3414,7 +3412,7 @@
     </row>
     <row r="32" spans="1:22" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B32" s="1">
         <v>1004</v>
@@ -3423,25 +3421,25 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
@@ -3455,28 +3453,28 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="K33" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="L33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -3484,7 +3482,7 @@
     </row>
     <row r="34" spans="1:23" ht="14.25" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B34" s="1">
         <v>27</v>
@@ -3493,29 +3491,29 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I34" s="1"/>
       <c r="K34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N34" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -3523,7 +3521,7 @@
     </row>
     <row r="35" spans="1:23" ht="14.25" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B35" s="1">
         <v>28</v>
@@ -3532,42 +3530,42 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="J35" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="14.25" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B36" s="1">
         <v>1003</v>
@@ -3576,37 +3574,37 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="J36" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="K36" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="L36" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N36" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="14.25" customHeight="1">
@@ -3617,25 +3615,25 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="N37" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -3649,25 +3647,25 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="L38" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="N38" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -3684,25 +3682,25 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -3710,7 +3708,7 @@
     </row>
     <row r="40" spans="1:23" ht="14.25" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B40" s="3">
         <v>35</v>
@@ -3719,25 +3717,25 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -3751,25 +3749,25 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="N41" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -3783,25 +3781,25 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -3816,22 +3814,22 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -7914,136 +7912,136 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="K2" s="6">
         <v>232</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="B4" s="14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1">
@@ -12049,13 +12047,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1"/>
@@ -13067,8 +13065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -13082,22 +13080,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -13111,113 +13109,113 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>432</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="31" t="s">
-        <v>433</v>
+      <c r="F3" s="30" t="s">
+        <v>427</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>432</v>
-      </c>
       <c r="D4" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1"/>
@@ -14236,7 +14234,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -14252,10 +14250,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
@@ -14263,10 +14261,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
@@ -14274,10 +14272,10 @@
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
@@ -14285,10 +14283,10 @@
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
@@ -14296,10 +14294,10 @@
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
@@ -14307,10 +14305,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
@@ -14318,10 +14316,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
@@ -14329,10 +14327,10 @@
         <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
@@ -14340,10 +14338,10 @@
         <v>114</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
@@ -14351,10 +14349,10 @@
         <v>114</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
@@ -14362,10 +14360,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
@@ -14373,10 +14371,10 @@
         <v>114</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
@@ -14384,10 +14382,10 @@
         <v>114</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
@@ -14395,10 +14393,10 @@
         <v>114</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
@@ -14406,10 +14404,10 @@
         <v>114</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
@@ -14417,10 +14415,10 @@
         <v>114</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -14428,10 +14426,10 @@
         <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -14439,10 +14437,10 @@
         <v>114</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -14450,162 +14448,162 @@
         <v>114</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="B27" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>277</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -14613,42 +14611,42 @@
         <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="B40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -14656,7 +14654,7 @@
         <v>114</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
@@ -14664,47 +14662,47 @@
         <v>114</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="B43" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="B45" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
@@ -14712,43 +14710,43 @@
         <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>441</v>
+        <v>298</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
@@ -14756,51 +14754,51 @@
         <v>114</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>300</v>
+        <v>342</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="B56" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C56" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
@@ -14808,43 +14806,43 @@
         <v>114</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>440</v>
+        <v>343</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
@@ -14852,43 +14850,43 @@
         <v>114</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>440</v>
+        <v>338</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>439</v>
+        <v>338</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1"/>
@@ -15832,13 +15830,11 @@
   <hyperlinks>
     <hyperlink ref="C60" r:id="rId1" xr:uid="{8DFC6E6F-9A66-46B2-AA39-B7518CE1A471}"/>
     <hyperlink ref="C59" r:id="rId2" xr:uid="{184B9BF2-0212-4B4A-8829-0DBAFB4B506B}"/>
-    <hyperlink ref="C52" r:id="rId3" xr:uid="{BF29D34A-5435-4200-970F-AA731BA15361}"/>
-    <hyperlink ref="C64" r:id="rId4" xr:uid="{77ADD4DC-E139-43A4-951D-1150FE5DD3DA}"/>
-    <hyperlink ref="C62" r:id="rId5" xr:uid="{F1C53A20-610E-4F4B-AD97-5B55E8DAAC36}"/>
-    <hyperlink ref="C48" r:id="rId6" xr:uid="{3C8E397B-333A-4DBC-84F2-456283CDB0F8}"/>
+    <hyperlink ref="C64" r:id="rId3" xr:uid="{77ADD4DC-E139-43A4-951D-1150FE5DD3DA}"/>
+    <hyperlink ref="C62" r:id="rId4" xr:uid="{F1C53A20-610E-4F4B-AD97-5B55E8DAAC36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId7"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -15847,7 +15843,7 @@
   <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -15865,19 +15861,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -15887,16 +15883,16 @@
         <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D2" s="1">
         <v>350</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>308</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
@@ -15904,16 +15900,16 @@
         <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D3" s="1">
         <v>450</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>310</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
@@ -15921,16 +15917,16 @@
         <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D4" s="1">
         <v>650</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>312</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
@@ -15938,186 +15934,186 @@
         <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D6" s="1">
         <v>325</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D8" s="1">
         <v>300</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D9" s="1">
         <v>560</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D10" s="1">
         <v>400</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D11" s="1">
         <v>300</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D12" s="1">
         <v>560</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D13" s="1">
         <v>400</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D14" s="3">
         <v>120</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D15" s="3">
         <v>140</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
@@ -17522,8 +17518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -17591,7 +17587,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
@@ -17602,7 +17598,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
@@ -17610,10 +17606,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
@@ -17621,7 +17617,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C12" t="s">
         <v>114</v>
@@ -17632,7 +17628,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
@@ -17640,7 +17636,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
@@ -17651,7 +17647,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
@@ -17659,10 +17655,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -17670,10 +17666,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -17681,10 +17677,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -17692,7 +17688,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -17715,7 +17711,7 @@
         <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -17758,7 +17754,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -17766,7 +17762,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -17774,7 +17770,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -17782,7 +17778,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -17790,10 +17786,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -17801,10 +17797,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -17812,7 +17808,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -17820,7 +17816,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -17828,7 +17824,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>114</v>
@@ -17839,10 +17835,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -17850,7 +17846,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
@@ -17858,7 +17854,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
@@ -17866,7 +17862,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1"/>

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2BD79-D159-4673-A63F-F0F318BE84E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723EC8F1-45FB-49E3-B463-331C0246B80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="447">
   <si>
     <t>location</t>
   </si>
@@ -601,20 +601,6 @@
     <t>We lock the doors and jump all night long!! </t>
   </si>
   <si>
-    <t>Do you LOVE jumping at Aerosports but hate going home when we close?
-Well then we have the event for you!
-Stay tuned for future dates!
-Stay from 11:45pm to 8am and jump ALL NIGHT LONG for only $45+tax in advance or $55+tax the day of the event.&lt;br/&gt;&lt;br/&gt;
-Ages 10-17
-We have a ton of things planned for the night such as:
-Open Jump
-GLOW jump
-Dodgeball Tournaments
-Warrior Competitions
-Movie Room
-and more!</t>
-  </si>
-  <si>
     <t>Aero FIt</t>
   </si>
   <si>
@@ -640,9 +626,6 @@
   </si>
   <si>
     <t>assets/image/attractions/slide2-Glow.jpg</t>
-  </si>
-  <si>
-    <t>Friday &amp; Saturday Nights... We are different after dark! F</t>
   </si>
   <si>
     <t>Friday &amp; Saturday Nights... We are different after dark! Lasers, music and blacklight transform the whole park into a crazy jumping dance club.
@@ -1194,9 +1177,6 @@
     <t>* Please advise of any food allergies/sensitivities in advance</t>
   </si>
   <si>
-    <t>* All party rooms come pre-decorated with a Happy Birthday theme</t>
-  </si>
-  <si>
     <t>* The party room will be private to your party however the jumping area will be open to all patrons</t>
   </si>
   <si>
@@ -1272,13 +1252,7 @@
     <t>Jump Around</t>
   </si>
   <si>
-    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $30 per additional jumper, No charges for parents</t>
-  </si>
-  <si>
     <t>Super Jump</t>
-  </si>
-  <si>
-    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour, 60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $40 per additional jumper, No charges for parents, Aero glow T-shirt for all guests</t>
   </si>
   <si>
     <t>aeroslam</t>
@@ -1343,16 +1317,10 @@
     <t>Icecream Sunday Bar</t>
   </si>
   <si>
-    <t>Min 20 Jumpers, 4 large 1 topping Pizzas,5 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $28 per additional jumper, No charges for parents</t>
-  </si>
-  <si>
     <t>Toddler</t>
   </si>
   <si>
     <t>Party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 6 Jumpers, All jumpers to be 0-6 yrs, 1 large 1 topping Pizzas,1 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $20 per additional jumper, </t>
   </si>
   <si>
     <t xml:space="preserve">Aerosports Camp is an exciting full day camp for active kids ages 6 to 12. With instructor-led activities like age-appropriate exercise and Ultimate Dodgeball, campers are sure to have fun and head home ready for bed. 
@@ -1405,34 +1373,7 @@
     <t>St. Catharines</t>
   </si>
   <si>
-    <t xml:space="preserve">Aerosports Camp is an exciting full day camp for active kids ages 6 to 12. With instructor-led activities like age-appropriate exercise and Ultimate Dodgeball, campers are sure to have fun and head home ready for bed. 
-Sessions will be led and monitored by experienced Aerosports personnel and include a full lunch and snacks. Campers will dive into sports, team building, crafts, outdoor play, cooperative games and of course, TONS of bouncing!&lt;br/&gt;
-Camps start dates:&lt;br/&gt;
-July 11-15, 2022&lt;br/&gt;
-July 25-29, 2022&lt;br/&gt;
-Aug 8-12, 2022&lt;br/&gt;
-Aug 22-26, 2022&lt;br/&gt;
-December 26th - 30th, 2022&lt;br/&gt;
-Jan 2nd - 6th 2023&lt;br/&gt;&lt;br/&gt;
-&lt;h6&gt;Pricing:&lt;/h6&gt; $65 a day&lt;br/&gt;
-         $300 a week&lt;br/&gt;&lt;/br&gt;
-&lt;b&gt;Timings:&lt;/b&gt; 8:30 AM to 3:30PM&lt;br/&gt;&lt;br/&gt;
-&lt;h6&gt;Terms &amp; Conditions:&lt;/h6&gt; 
-1. All jumpers need to have a valid waiver on file&lt;br/&gt;
-2. Early drop off and/or late pick up is available for $10+ tax each&lt;/br&gt;
-         </t>
-  </si>
-  <si>
     <t>london,windsor</t>
-  </si>
-  <si>
-    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $30 per additional jumper, No charges for parents, Weekday price: $275</t>
-  </si>
-  <si>
-    <t>Min 20 Jumpers, 4 large 1 topping Pizzas,5 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $28 per additional jumper, No charges for parents. Weekday Price: $600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 6 Jumpers, All jumpers to be 0-6 yrs, 2 large 2 topping Pizzas, Juiceboxes,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks, $23 per additional jumper, </t>
   </si>
   <si>
     <t>facility-rental</t>
@@ -1685,18 +1626,6 @@
   </si>
   <si>
     <t>https://roller.app/aerosportsoakvillemississauga/products/estore</t>
-  </si>
-  <si>
-    <t>upto 8 Jumpers, 2 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 9 non jumpers, $50 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
-  </si>
-  <si>
-    <t>upto 12 Jumpers, 3 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 12 non jumpers,$50 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
-  </si>
-  <si>
-    <t>upto 18 Jumpers, 4 Pizzas,6 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 18 non jumpers,$75 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
-  </si>
-  <si>
-    <t>upto 30 Jumpers, 7 Pizzas,7 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Party Invitations, Aerosocks,Prize Wheel Spin, 30 non jumpers, $100 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
   </si>
   <si>
     <t>&lt;div class="entry-content"&gt;
@@ -1764,6 +1693,95 @@
 &lt;h3&gt;&lt;strong&gt;Do you sell gift cards?&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;We do sell gift cards! You can purchase a physical gift card in your local Aerosports. You can purchase an email gift card over the phone or &lt;a href="{location}/gift-cards"&gt;&lt;strong&gt;online.&lt;/strong&gt;&lt;/a&gt; &lt;br&gt;&lt;/p&gt;
 	&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $30 per additional jumper, No charges for parents</t>
+  </si>
+  <si>
+    <t>Min 20 Jumpers, 4 large 1 topping Pizzas,5 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $28 per additional jumper, No charges for parents</t>
+  </si>
+  <si>
+    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour, 60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $40 per additional jumper, No charges for parents, Aero glow T-shirt for all guests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 6 Jumpers, All jumpers to be 0-6 yrs, 1 large 1 topping Pizzas,1 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $20 per additional jumper, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 6 Jumpers, All jumpers to be 0-6 yrs, 2 large 2 topping Pizzas, Juiceboxes,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $23 per additional jumper, </t>
+  </si>
+  <si>
+    <t>Min 20 Jumpers, 4 large 1 topping Pizzas,5 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $28 per additional jumper, No charges for parents. Weekday Price: $600</t>
+  </si>
+  <si>
+    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $30 per additional jumper, No charges for parents, Weekday price: $275</t>
+  </si>
+  <si>
+    <t>* All party rooms comes with basic decoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosports Camp is an exciting full day camp for active kids ages 6 to 12. With instructor-led activities like age-appropriate exercise and Ultimate Dodgeball, campers are sure to have fun and head home ready for bed. 
+Sessions will be led and monitored by experienced Aerosports personnel and include snacks. Campers will dive into sports, team building, crafts, outdoor play, cooperative games and of course, TONS of bouncing!&lt;br/&gt;
+Camps start dates:&lt;br/&gt;
+July 11-15, 2022&lt;br/&gt;
+July 25-29, 2022&lt;br/&gt;
+Aug 8-12, 2022&lt;br/&gt;
+Aug 22-26, 2022&lt;br/&gt;
+December 26th - 30th, 2022&lt;br/&gt;
+Jan 2nd - 6th 2023&lt;br/&gt;&lt;br/&gt;
+&lt;h6&gt;Pricing:&lt;/h6&gt; $65 a day&lt;br/&gt;
+         $300 a week&lt;br/&gt;&lt;/br&gt;
+&lt;b&gt;Timings:&lt;/b&gt; 8:30 AM to 3:30PM&lt;br/&gt;&lt;br/&gt;
+&lt;h6&gt;Terms &amp; Conditions:&lt;/h6&gt; 
+1. All jumpers need to have a valid waiver on file&lt;br/&gt;
+2. Early drop off and/or late pick up is available for $10+ tax each&lt;/br&gt;
+         </t>
+  </si>
+  <si>
+    <t>Friday Night... We are different after dark!</t>
+  </si>
+  <si>
+    <t>Friday &amp; Saturday Nights... We are different after dark!</t>
+  </si>
+  <si>
+    <t>upto 30 Jumpers, 7 Pizzas,7 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks,Prize Wheel Spin, 30 non jumpers, $100 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t>upto 18 Jumpers, 4 Pizzas,6 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks,Prize Wheel Spin, 18 non jumpers,$75 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t>upto 12 Jumpers, 3 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks,Prize Wheel Spin, 12 non jumpers,$50 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t>upto 8 Jumpers, 2 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,1 free hour jump pass,45 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks,Prize Wheel Spin, 9 non jumpers, $50 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>G-CJJLRQ2Q2Y</t>
+  </si>
+  <si>
+    <t>G-D5W5H2N64H</t>
+  </si>
+  <si>
+    <t>G-KWJLE4VJRW</t>
+  </si>
+  <si>
+    <t>G-L59BND7FS0</t>
+  </si>
+  <si>
+    <t>Do you LOVE jumping at Aerosports but hate going home when we close?
+Well then we have the event for you!
+Stay tuned for future dates!
+Stay from 10:00pm to 7am and jump ALL NIGHT LONG for only $59.99+tax in advance or $74.99+tax the day of the event.&lt;br/&gt;&lt;br/&gt;
+Ages 10-17
+We have a ton of things planned for the night such as:
+Open Jump
+GLOW jump
+Dodgeball Tournaments
+Warrior Competitions
+Movie Room
+and more!</t>
   </si>
 </sst>
 </file>
@@ -2223,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1006"/>
   <sheetViews>
-    <sheetView topLeftCell="K12" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2295,16 +2313,16 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>15</v>
@@ -2458,7 +2476,7 @@
         <v>37</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -2484,7 +2502,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -2514,7 +2532,7 @@
         <v>43</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>44</v>
@@ -2527,26 +2545,26 @@
         <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -2555,25 +2573,25 @@
     <row r="10" spans="1:23" ht="14.25" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="L10" s="1"/>
       <c r="T10" s="9"/>
@@ -2583,29 +2601,29 @@
     <row r="11" spans="1:23" ht="14.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="24" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="L11" s="1"/>
       <c r="N11" s="27" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -2614,29 +2632,29 @@
     <row r="12" spans="1:23" ht="14.25" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="28" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="L12" s="1"/>
       <c r="N12" s="29" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -2656,7 +2674,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>46</v>
@@ -2674,7 +2692,7 @@
         <v>50</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>51</v>
@@ -2685,7 +2703,7 @@
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
@@ -2718,7 +2736,7 @@
         <v>57</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>58</v>
@@ -2733,7 +2751,7 @@
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B15" s="1">
         <v>1001</v>
@@ -2748,7 +2766,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>46</v>
@@ -2760,7 +2778,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="N15" s="2"/>
       <c r="T15" s="2"/>
@@ -2788,7 +2806,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>46</v>
@@ -2806,7 +2824,7 @@
         <v>67</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>68</v>
@@ -2833,7 +2851,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>46</v>
@@ -2849,7 +2867,7 @@
         <v>74</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>75</v>
@@ -2876,7 +2894,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>46</v>
@@ -2894,7 +2912,7 @@
         <v>82</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>83</v>
@@ -2909,7 +2927,7 @@
     </row>
     <row r="19" spans="1:22" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B19" s="1">
         <v>12</v>
@@ -2924,7 +2942,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>46</v>
@@ -2936,7 +2954,7 @@
         <v>89</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>90</v>
@@ -2951,7 +2969,7 @@
     </row>
     <row r="20" spans="1:22" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B20" s="1">
         <v>14</v>
@@ -2966,7 +2984,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>46</v>
@@ -2982,7 +3000,7 @@
         <v>96</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>97</v>
@@ -2997,7 +3015,7 @@
     </row>
     <row r="21" spans="1:22" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B21" s="1">
         <v>1002</v>
@@ -3012,7 +3030,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>46</v>
@@ -3026,7 +3044,7 @@
         <v>102</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>103</v>
@@ -3037,7 +3055,7 @@
     </row>
     <row r="22" spans="1:22" ht="14.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B22" s="1">
         <v>15</v>
@@ -3052,7 +3070,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>46</v>
@@ -3064,7 +3082,7 @@
         <v>106</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>107</v>
@@ -3088,7 +3106,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>46</v>
@@ -3100,7 +3118,7 @@
         <v>110</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>111</v>
@@ -3148,7 +3166,7 @@
         <v>120</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>121</v>
@@ -3159,7 +3177,7 @@
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B25" s="1">
         <v>18</v>
@@ -3174,7 +3192,7 @@
         <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>46</v>
@@ -3192,7 +3210,7 @@
         <v>127</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>128</v>
@@ -3222,7 +3240,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>46</v>
@@ -3240,7 +3258,7 @@
         <v>136</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>137</v>
@@ -3272,10 +3290,10 @@
         <v>141</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -3305,7 +3323,7 @@
         <v>144</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>145</v>
@@ -3337,10 +3355,10 @@
         <v>146</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3360,7 +3378,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>140</v>
@@ -3369,7 +3387,7 @@
         <v>149</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -3377,7 +3395,7 @@
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B31" s="1">
         <v>25</v>
@@ -3392,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>31</v>
@@ -3401,10 +3419,10 @@
         <v>151</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -3412,7 +3430,7 @@
     </row>
     <row r="32" spans="1:22" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B32" s="1">
         <v>1004</v>
@@ -3427,7 +3445,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>31</v>
@@ -3436,10 +3454,10 @@
         <v>151</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
@@ -3459,7 +3477,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>153</v>
@@ -3471,10 +3489,10 @@
         <v>155</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>156</v>
+        <v>446</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -3482,7 +3500,7 @@
     </row>
     <row r="34" spans="1:23" ht="14.25" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B34" s="1">
         <v>27</v>
@@ -3491,29 +3509,29 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I34" s="1"/>
       <c r="K34" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N34" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -3521,7 +3539,7 @@
     </row>
     <row r="35" spans="1:23" ht="14.25" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B35" s="1">
         <v>28</v>
@@ -3530,42 +3548,42 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="K35" s="11" t="s">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="14.25" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B36" s="1">
         <v>1003</v>
@@ -3574,37 +3592,37 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="K36" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="N36" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="14.25" customHeight="1">
@@ -3615,25 +3633,25 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -3647,25 +3665,25 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="N38" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -3682,25 +3700,25 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -3708,7 +3726,7 @@
     </row>
     <row r="40" spans="1:23" ht="14.25" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B40" s="3">
         <v>35</v>
@@ -3717,25 +3735,25 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="N40" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -3749,25 +3767,25 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -3781,25 +3799,25 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -3814,22 +3832,22 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -7912,136 +7930,136 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="K2" s="6">
         <v>232</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="F3" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="L3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="M3" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="B4" s="14" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1">
@@ -12038,7 +12056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12047,13 +12067,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1"/>
@@ -13063,10 +13083,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -13078,24 +13098,24 @@
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -13103,132 +13123,147 @@
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1">
+      <c r="K1" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>234</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>237</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>239</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="30" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+        <v>320</v>
+      </c>
+      <c r="K3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>241</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>243</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="30" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+        <v>296</v>
+      </c>
+      <c r="K4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="30" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1"/>
+        <v>297</v>
+      </c>
+      <c r="K5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -14233,8 +14268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -14250,10 +14285,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
@@ -14261,10 +14296,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
@@ -14272,10 +14307,10 @@
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
@@ -14283,10 +14318,10 @@
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
@@ -14294,10 +14329,10 @@
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
@@ -14305,10 +14340,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
@@ -14316,10 +14351,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
@@ -14327,10 +14362,10 @@
         <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
@@ -14338,10 +14373,10 @@
         <v>114</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
@@ -14349,10 +14384,10 @@
         <v>114</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
@@ -14360,10 +14395,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
@@ -14371,10 +14406,10 @@
         <v>114</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
@@ -14382,10 +14417,10 @@
         <v>114</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
@@ -14393,10 +14428,10 @@
         <v>114</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
@@ -14404,10 +14439,10 @@
         <v>114</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
@@ -14415,10 +14450,10 @@
         <v>114</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -14426,10 +14461,10 @@
         <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -14437,10 +14472,10 @@
         <v>114</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -14448,162 +14483,163 @@
         <v>114</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="B28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>276</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>284</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -14611,42 +14647,42 @@
         <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="B40" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -14654,7 +14690,7 @@
         <v>114</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
@@ -14662,47 +14698,47 @@
         <v>114</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="B45" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
@@ -14710,43 +14746,43 @@
         <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
@@ -14754,51 +14790,51 @@
         <v>114</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="B56" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
@@ -14806,43 +14842,43 @@
         <v>114</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
@@ -14850,43 +14886,43 @@
         <v>114</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1"/>
@@ -15843,7 +15879,7 @@
   <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -15861,19 +15897,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -15883,16 +15919,16 @@
         <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D2" s="1">
         <v>350</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
@@ -15900,16 +15936,16 @@
         <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D3" s="1">
         <v>450</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
@@ -15917,10 +15953,10 @@
         <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D4" s="1">
         <v>650</v>
@@ -15934,186 +15970,186 @@
         <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D6" s="1">
         <v>325</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D8" s="1">
         <v>300</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D9" s="1">
         <v>560</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D10" s="1">
         <v>400</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>312</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D11" s="1">
         <v>300</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D12" s="1">
         <v>560</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D13" s="1">
         <v>400</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>312</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D14" s="3">
         <v>120</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D15" s="3">
         <v>140</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
@@ -17587,7 +17623,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
@@ -17598,7 +17634,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
@@ -17606,10 +17642,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
@@ -17617,7 +17653,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
         <v>114</v>
@@ -17628,7 +17664,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
@@ -17636,7 +17672,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
@@ -17647,7 +17683,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
@@ -17655,10 +17691,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -17666,10 +17702,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -17677,10 +17713,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -17688,7 +17724,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -17711,7 +17747,7 @@
         <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -17754,7 +17790,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -17762,7 +17798,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -17770,7 +17806,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -17778,7 +17814,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -17786,10 +17822,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -17797,10 +17833,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -17808,7 +17844,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -17816,7 +17852,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -17824,7 +17860,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>114</v>
@@ -17835,10 +17871,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -17846,7 +17882,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
@@ -17854,7 +17890,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
@@ -17862,7 +17898,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1"/>

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EB0839-6245-4672-9BF5-BA2CEBB48C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BBAFC4-9495-43D1-AB98-F7A1F5964E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1844,13 +1844,13 @@
     <t>* All party rooms comes with basic decoration (baloons, birthday banner)</t>
   </si>
   <si>
-    <t xml:space="preserve">Min 18 Jumpers, $30 each for additional jumpers, 4 Pizzas (10 slices each pizza),6 re-fillable Pitchers, Every 5 add-on jumpers get additional pizza (Jumpers to be added 1 days prior to event), Aero T-Shirt for guest of honour, Dedicated Party host, 2 hours Park Access including 45 min party room, Digital Party Invitations, Aero Socks to all jumpers, Prize Wheel Spin, $50 if bring your own food (No fee for cake cup-cakes water-bottles cookies donutes coffe sendwitch and platter wraps) , Plates cups &amp; cutlery, Basic decoration, Private party room of more than 40 people capacity,$300 weekdays price excluding friday,No charges for parents / guests if they are not jumping    </t>
-  </si>
-  <si>
     <t>* All jumpers must have a completed liability waiver on file in order to jump. Anyone under the age of 18 must have the waiver signed by their own parent or legal guardian. Anyone 18 or older can sign for themselves with a valid photo ID (must have picture and date of birth). Waivers can be signed either online through our website or at our waiver station at the park - hard copies are not available. Even if parents are not jumping but they have a child who is they are required to sign a waiver with their details as well. Once signed, waivers are valid for 1 year</t>
   </si>
   <si>
     <t>*Icecream Sunday Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 18 Jumpers, $30 each for additional jumpers, 4 Pizzas (10 slices each pizza),6 re-fillable Pitchers, Every 5 add-on jumpers get additional pizza (Jumpers to be added 1 days prior to event), Aero T-Shirt for guest of honour, Dedicated Party host, 2 hours Park Access including 45 min party room, Digital Party Invitations, Aero Socks to all jumpers, Prize Wheel Spin, $50 if bring your own food (No fee for cake cup-cakes water-bottles cookies donutes coffe sendwitch and platter wraps) , Plates cups &amp; cutlery, Basic decoration, Private party room of more than 40 people capacity,$600 weekdays price excluding friday,No charges for parents / guests if they are not jumping    </t>
   </si>
 </sst>
 </file>
@@ -2344,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -14631,7 +14631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+    <sheetView topLeftCell="C11" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -14902,7 +14902,7 @@
         <v>245</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -14999,7 +14999,7 @@
         <v>268</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -16203,8 +16203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -16287,7 +16287,7 @@
         <v>650</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmanglesh\source\repos\manglesh1\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BBAFC4-9495-43D1-AB98-F7A1F5964E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B11A28-F4FB-4147-B056-3AED44176631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="faq" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="471">
   <si>
     <t>location</t>
   </si>
@@ -998,9 +999,6 @@
     <t>* Catered items are to be placed through Aerosports 7 days in advance.</t>
   </si>
   <si>
-    <t>* Chips (Choice of Doritos &amp; Lays Regular): $5.00/Bowl</t>
-  </si>
-  <si>
     <t>* Birthday Invitations (15): $5</t>
   </si>
   <si>
@@ -1011,9 +1009,6 @@
   </si>
   <si>
     <t>* Birthday Pizza - $23</t>
-  </si>
-  <si>
-    <t>* Pitcher of popcorn : $5.50</t>
   </si>
   <si>
     <t>birthday-rules</t>
@@ -1508,24 +1503,6 @@
 &lt;h3&gt;&lt;strong&gt;Do you sell gift cards?&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;We do sell gift cards! You can purchase a physical gift card in your local Aerosports. You can purchase an email gift card over the phone or &lt;a href="{location}/gift-cards"&gt;&lt;strong&gt;online.&lt;/strong&gt;&lt;/a&gt; &lt;br&gt;&lt;/p&gt;
 	&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $30 per additional jumper, No charges for parents</t>
-  </si>
-  <si>
-    <t>Min 20 Jumpers, 4 large 1 topping Pizzas,5 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $28 per additional jumper, No charges for parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 6 Jumpers, All jumpers to be 0-6 yrs, 1 large 1 topping Pizzas,1 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $20 per additional jumper, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 6 Jumpers, All jumpers to be 0-6 yrs, 2 large 2 topping Pizzas, Juiceboxes,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $23 per additional jumper, </t>
-  </si>
-  <si>
-    <t>Min 20 Jumpers, 4 large 1 topping Pizzas,5 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $28 per additional jumper, No charges for parents. Weekday Price: $600</t>
-  </si>
-  <si>
-    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $30 per additional jumper, No charges for parents, Weekday price: $275</t>
   </si>
   <si>
     <t xml:space="preserve">Aerosports Camp is an exciting full day camp for active kids ages 6 to 12. With instructor-led activities like age-appropriate exercise and Ultimate Dodgeball, campers are sure to have fun and head home ready for bed. 
@@ -1769,9 +1746,6 @@
 Enjoy a variety of snack options and beverages at our Fuel Zone (available for purchase, not included in program admission unless otherwise stated).</t>
   </si>
   <si>
-    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour, 60 min party Room, dedicated Party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $40 per additional jumper, No charges for parents, Aero glow T-shirt for all guests, This is available only on Friday 7PM</t>
-  </si>
-  <si>
     <t>Friday Night Jam</t>
   </si>
   <si>
@@ -1823,12 +1797,6 @@
     <t>xoakvill</t>
   </si>
   <si>
-    <t>upto 12 Jumpers, $30 each for additional jumpers, 3 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,45 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks,Prize Wheel Spin, 12 non jumpers,$50 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
-  </si>
-  <si>
-    <t>upto 30 Jumpers, $30 each for additional jumpers, 7 Pizzas,7 Pitchers,Aero T-Shirt for guest of honour,45 min party Room, dedicated Party host, 2 hours Park Access,Digital Party Invitations, Aerosocks,Prize Wheel Spin, 30 non jumpers, $100 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
-  </si>
-  <si>
     <t>* Any food or drink changes except third party vendors food must be occurred within 1 day advance.</t>
   </si>
   <si>
@@ -1838,9 +1806,6 @@
     <t>* Parties can be rescheduled/Cancelled up to 7 days prior to the date of booking or the amount paid will be put on a gift card to be used as a store credit if the party needs to be cancelled. If event is cancelled within 72 hours prior to event, $75 cancellation fee will be applied.</t>
   </si>
   <si>
-    <t>Min 8 Jumpers, $30 for each additional jumpers, 2 Pizzas (10 slices each pizza),4 re-fillable Pitchers, Every 5 add-on jumpers get additional pizza (Jumpers to be added 1 days prior to event), Aero T-Shirt for guest of honour, Dedicated Party host, 2 hours Park Access including 45 min party room, Digital Party Invitations, Aero Socks to each jumpers, Prize Wheel Spin, $50 if bring your own food (No fee for cake cup-cakes water-bottles cookies donutes coffe sendwitch and platter wraps) , Plates cups &amp; cutlery, Basic decoration, Private party room of 18-20 people capacity, $300 weekdays price excluding friday,No charges for parents / guests if they are not jumping</t>
-  </si>
-  <si>
     <t>* All party rooms comes with basic decoration (baloons, birthday banner)</t>
   </si>
   <si>
@@ -1850,7 +1815,68 @@
     <t>*Icecream Sunday Bar</t>
   </si>
   <si>
-    <t xml:space="preserve">Min 18 Jumpers, $30 each for additional jumpers, 4 Pizzas (10 slices each pizza),6 re-fillable Pitchers, Every 5 add-on jumpers get additional pizza (Jumpers to be added 1 days prior to event), Aero T-Shirt for guest of honour, Dedicated Party host, 2 hours Park Access including 45 min party room, Digital Party Invitations, Aero Socks to all jumpers, Prize Wheel Spin, $50 if bring your own food (No fee for cake cup-cakes water-bottles cookies donutes coffe sendwitch and platter wraps) , Plates cups &amp; cutlery, Basic decoration, Private party room of more than 40 people capacity,$600 weekdays price excluding friday,No charges for parents / guests if they are not jumping    </t>
+    <t>Min 8 Jumpers, $30 for each additional jumpers, 2 Pizzas (10 slices each pizza) from ,4 re-fillable Pitchers, Every 5 add-on jumpers get additional pizza (Jumpers to be added 1 days prior to event), Aero T-Shirt for guest of honour, Jumbo sparklers to glow party, bday crown / hat for guest of honour, Prize Wheel Spin, Dedicated Party host to manage your party, 2 hours Park Access including 45 min party room, Digital Party Invitations, Aero Socks to each jumpers,  $50 if bring your own food (No fee for cake cup-cakes water-bottles cookies donuts coffee sandwiches and  wraps-platter) , Plates cups candles napkins lighter &amp; cutlery, Basic decoration, Private party room of 18-20 people capacity, $300 weekdays price excluding friday,No charges for parents / guests if they are not jumping</t>
+  </si>
+  <si>
+    <t>upto 12 Jumpers, $30 each for additional jumpers, 3 Pizzas,4 Pitchers,Aero T-Shirt for guest of honour,45 min party Room, Dedicated Party host to manage your party host, 2 hours Park Access,Digital Party Invitations, Aerosocks,Prize Wheel Spin, 12 non jumpers,$50 if bring your own food (cup-cake &amp; cake no fee) , plates cups candles &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 18 Jumpers, $30 each for additional jumpers, 4 Pizzas (10 slices each pizza),6 re-fillable Pitchers, Every 5 add-on jumpers get additional pizza (Jumpers to be added 1 days prior to event), Aero T-Shirt for guest of honour, Jumbo sparklers to glow party, bday crown / hat for guest of honour, Prize Wheel Spin, Dedicated Party host to manage your party host, 2 hours Park Access including 45 min party room, Digital Party Invitations, Aero Socks to all jumpers, Prize Wheel Spin, $100 if bring your own food (No fee for cake cup-cakes water-bottles cookies donuts coffee sandwiches and wraps-platter) , Plates cups napkins candles lighter &amp; cutlery, Basic decoration, Private party room of more than 40 people capacity,$600 weekdays price excluding friday,No charges for parents / guests if they are not jumping    </t>
+  </si>
+  <si>
+    <t>upto 30 Jumpers, $30 each for additional jumpers, 7 Pizzas,7 Pitchers,Aero T-Shirt for guest of honour,45 min party Room, Dedicated Party host to manage your party host, 2 hours Park Access,Digital Party Invitations, Aerosocks,Prize Wheel Spin, 30 non jumpers, $100 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, Dedicated Party host to manage your party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $30 per additional jumper, No charges for parents</t>
+  </si>
+  <si>
+    <t>Min 20 Jumpers, 4 large 1 topping Pizzas,5 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, Dedicated Party host to manage your party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $28 per additional jumper, No charges for parents</t>
+  </si>
+  <si>
+    <t>Min 10 Jumpers, 2 large 1 topping Pizzas,3 Pitchers,Aero T-Shirt for guest of honour, 60 min party Room, Dedicated Party host to manage your party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $40 per additional jumper, No charges for parents, Aero glow T-shirt for all guests, This is available only on Friday 7PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 6 Jumpers, All jumpers to be 0-6 yrs, 1 large 1 topping Pizzas,1 Pitchers,Aero T-Shirt for guest of honour,60 min party Room, Dedicated Party host to manage your party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $20 per additional jumper, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 6 Jumpers, All jumpers to be 0-6 yrs, 2 large 2 topping Pizzas, Juiceboxes,Aero T-Shirt for guest of honour,60 min party Room, Dedicated Party host to manage your party host, 60 mins of Jumping,Digital Party Invitations, Aerosocks, $23 per additional jumper, </t>
+  </si>
+  <si>
+    <t>oakville,london,windsor</t>
+  </si>
+  <si>
+    <t>xxt-catharines</t>
+  </si>
+  <si>
+    <t>* Chips (Choice of Doritos &amp; Lays Regular): $5.25/Bowl</t>
+  </si>
+  <si>
+    <t>Min 10 Jumpers, $30 for each additional jumpers, 2 Pizzas (10 slices each pizza) from ,3 Pitchers of pop drinks, Every 5 add-on jumpers get additional pizza (Jumpers to be added 1 days prior to event), Aero T-Shirt for guest of honour, Dedicated Party host to manage your party, 2 hours Park Access including 60 min party room, Digital Party Invitations, Aero Socks to each jumpers,  Plates cups candles napkins lighter &amp; cutlery, Private party room of 30-40 people capacity, $275 weekdays price monday to thursday,No charges for parents / guests if they are not jumping,</t>
+  </si>
+  <si>
+    <t>Min 20 Jumpers, $30 for each additional jumpers, 4 Pizzas (10 slices each pizza) from ,5 Pitchers of pop drinks, Every 5 add-on jumpers get additional pizza (Jumpers to be added 1 days prior to event), Aero T-Shirt for guest of honour, Dedicated Party host to manage your party, 2 hours Park Access including 60 min party room, Digital Party Invitations, Aero Socks to each jumpers,  Plates cups candles napkins lighter &amp; cutlery, Private party room of 30-40 people capacity, $500 weekdays price monday to thursday,No charges for parents / guests if they are not jumping,</t>
+  </si>
+  <si>
+    <t>* Pitcher of pop : $5.50</t>
+  </si>
+  <si>
+    <t>homepage-birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;KIDS PARTY PACKAGE &lt;/h3&gt;
+                    &lt;p&gt;We feature a full assortment of birthday party packages, options and add-ons that are sure to impress boys and girls of all ages. Aerosports Oakville – Mississauga hosts 3 private party rooms as well as a large corporate room that fits up to 175 guests.&lt;/p&gt;
+                        &lt;p&gt;Our birthday party guests love Aerosports aerial experience and incredible park features! We’ve recently added Canada’s largest Ninja Warrior Course and a fantastic Climb + Slide Kid Zone. Check them out below!&lt;/p&gt;
+                    &lt;p&gt;Best of all, our trained party staff make it a complete breeze for parents and ensure our guests are always following our safety rules. Parents and supervision can choose to jump or relax in our comfortable perimeter wifi lounges.                        
+                        With all this, there’s no wonder we are one the best birthday party places in the ONTARIO!&lt;/p&gt;
+                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;KIDS PARTY PACKAGE &lt;/h3&gt;
+                    &lt;p&gt;We feature a full assortment of birthday party packages, options and add-ons that are sure to impress boys and girls of all ages. Aerosports St Catharines hosts 5 private party rooms can accomodate  parties upto 60 guests&lt;/p&gt;
+                        &lt;p&gt;Our birthday party guests love Aerosports aerial experience and incredible park features! We’ve recently added Canada’s largest Ninja Warrior Course and a fantastic Climb + Slide Kid Zone. Check them out below!&lt;/p&gt;
+                    &lt;p&gt;Best of all, our trained party staff make it a complete breeze for parents and ensure our guests are always following our safety rules. Parents and supervision can choose to jump or relax in our comfortable perimeter wifi lounges.                        
+                        With all this, there’s no wonder we are one the best birthday party places in the ONTARIO!&lt;/p&gt;
+                    </t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2126,6 +2152,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2344,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1009"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2398,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -2419,16 +2448,16 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>15</v>
@@ -2506,7 +2535,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="M3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -2532,7 +2561,7 @@
         <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -2588,7 +2617,7 @@
         <v>37</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -2614,7 +2643,7 @@
         <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -2644,7 +2673,7 @@
         <v>43</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>44</v>
@@ -2657,26 +2686,26 @@
         <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
@@ -2685,28 +2714,28 @@
     <row r="10" spans="1:24" ht="14.25" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="M10" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -2715,31 +2744,31 @@
     <row r="11" spans="1:24" ht="14.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="M11" t="s">
+        <v>419</v>
+      </c>
+      <c r="O11" s="25" t="s">
         <v>387</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="M11" t="s">
-        <v>427</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>389</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -2748,31 +2777,31 @@
     <row r="12" spans="1:24" ht="14.25" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -2792,7 +2821,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>46</v>
@@ -2811,7 +2840,7 @@
         <v>50</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>51</v>
@@ -2822,7 +2851,7 @@
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
@@ -2856,7 +2885,7 @@
         <v>57</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>58</v>
@@ -2871,7 +2900,7 @@
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B15" s="1">
         <v>1001</v>
@@ -2886,7 +2915,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>46</v>
@@ -2899,7 +2928,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O15" s="2"/>
       <c r="U15" s="2"/>
@@ -2927,7 +2956,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>46</v>
@@ -2946,7 +2975,7 @@
         <v>67</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>68</v>
@@ -2973,7 +3002,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>46</v>
@@ -2984,13 +3013,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>73</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>74</v>
@@ -3017,7 +3046,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>46</v>
@@ -3036,7 +3065,7 @@
         <v>81</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>82</v>
@@ -3051,7 +3080,7 @@
     </row>
     <row r="19" spans="1:23" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B19" s="1">
         <v>12</v>
@@ -3066,7 +3095,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>46</v>
@@ -3078,7 +3107,7 @@
         <v>88</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>89</v>
@@ -3093,7 +3122,7 @@
     </row>
     <row r="20" spans="1:23" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B20" s="1">
         <v>14</v>
@@ -3108,7 +3137,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>46</v>
@@ -3125,7 +3154,7 @@
         <v>95</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>96</v>
@@ -3140,7 +3169,7 @@
     </row>
     <row r="21" spans="1:23" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B21" s="1">
         <v>1002</v>
@@ -3155,7 +3184,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>46</v>
@@ -3170,7 +3199,7 @@
         <v>101</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>102</v>
@@ -3181,7 +3210,7 @@
     </row>
     <row r="22" spans="1:23" ht="14.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B22" s="1">
         <v>15</v>
@@ -3196,7 +3225,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>46</v>
@@ -3208,7 +3237,7 @@
         <v>105</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>106</v>
@@ -3232,7 +3261,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>46</v>
@@ -3244,7 +3273,7 @@
         <v>109</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>110</v>
@@ -3293,7 +3322,7 @@
         <v>119</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>120</v>
@@ -3304,7 +3333,7 @@
     </row>
     <row r="25" spans="1:23" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B25" s="1">
         <v>18</v>
@@ -3319,7 +3348,7 @@
         <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>46</v>
@@ -3338,7 +3367,7 @@
         <v>126</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>127</v>
@@ -3353,7 +3382,7 @@
     </row>
     <row r="26" spans="1:23" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>462</v>
       </c>
       <c r="B26" s="1">
         <v>19</v>
@@ -3368,7 +3397,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>46</v>
@@ -3387,7 +3416,7 @@
         <v>135</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>136</v>
@@ -3419,10 +3448,10 @@
         <v>140</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -3452,7 +3481,7 @@
         <v>143</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>144</v>
@@ -3484,10 +3513,10 @@
         <v>145</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -3507,7 +3536,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>139</v>
@@ -3516,7 +3545,7 @@
         <v>148</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -3524,7 +3553,7 @@
     </row>
     <row r="31" spans="1:23" ht="14.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B31" s="1">
         <v>25</v>
@@ -3539,7 +3568,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>31</v>
@@ -3548,10 +3577,10 @@
         <v>150</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -3559,7 +3588,7 @@
     </row>
     <row r="32" spans="1:23" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B32" s="1">
         <v>1004</v>
@@ -3574,7 +3603,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>31</v>
@@ -3583,10 +3612,10 @@
         <v>150</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -3607,7 +3636,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>152</v>
@@ -3616,16 +3645,16 @@
         <v>153</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>154</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -3633,7 +3662,7 @@
     </row>
     <row r="34" spans="1:24" ht="14.25" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B34" s="1">
         <v>27</v>
@@ -3648,7 +3677,7 @@
         <v>28</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>152</v>
@@ -3658,16 +3687,16 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="21" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>157</v>
       </c>
       <c r="M34" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -3675,7 +3704,7 @@
     </row>
     <row r="35" spans="1:24" ht="14.25" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B35" s="1">
         <v>27</v>
@@ -3690,7 +3719,7 @@
         <v>28</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>152</v>
@@ -3700,13 +3729,13 @@
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="21" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>157</v>
       </c>
       <c r="M35" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>158</v>
@@ -3717,7 +3746,7 @@
     </row>
     <row r="36" spans="1:24" ht="14.25" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B36" s="1">
         <v>28</v>
@@ -3744,13 +3773,13 @@
         <v>162</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -3761,7 +3790,7 @@
     </row>
     <row r="37" spans="1:24" ht="14.25" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B37" s="1">
         <v>1003</v>
@@ -3788,10 +3817,10 @@
         <v>162</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O37" s="9" t="s">
         <v>163</v>
@@ -3805,7 +3834,7 @@
     </row>
     <row r="38" spans="1:24" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B38" s="1">
         <v>29</v>
@@ -3820,7 +3849,7 @@
         <v>28</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>152</v>
@@ -3829,10 +3858,10 @@
         <v>166</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -3840,7 +3869,7 @@
     </row>
     <row r="39" spans="1:24" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B39" s="1">
         <v>1005</v>
@@ -3855,7 +3884,7 @@
         <v>28</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>152</v>
@@ -3864,7 +3893,7 @@
         <v>166</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O39" s="9" t="s">
         <v>167</v>
@@ -3884,31 +3913,31 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>152</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
@@ -3928,7 +3957,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>170</v>
@@ -3937,10 +3966,10 @@
         <v>171</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -3963,7 +3992,7 @@
         <v>36</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>170</v>
@@ -3972,7 +4001,7 @@
         <v>174</v>
       </c>
       <c r="M42" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>175</v>
@@ -3983,7 +4012,7 @@
     </row>
     <row r="43" spans="1:24" ht="14.25" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B43" s="3">
         <v>35</v>
@@ -3998,7 +4027,7 @@
         <v>36</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>170</v>
@@ -4007,7 +4036,7 @@
         <v>174</v>
       </c>
       <c r="M43" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="O43" s="9" t="s">
         <v>176</v>
@@ -4030,7 +4059,7 @@
         <v>36</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>170</v>
@@ -4039,7 +4068,7 @@
         <v>179</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O44" s="9" t="s">
         <v>180</v>
@@ -4062,7 +4091,7 @@
         <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>170</v>
@@ -4071,7 +4100,7 @@
         <v>183</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>184</v>
@@ -4104,7 +4133,7 @@
         <v>187</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -4118,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>42</v>
@@ -4133,7 +4162,7 @@
         <v>43</v>
       </c>
       <c r="M47" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -4147,25 +4176,25 @@
         <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="M48" t="s">
+        <v>419</v>
+      </c>
+      <c r="O48" t="s">
         <v>423</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="M48" t="s">
-        <v>427</v>
-      </c>
-      <c r="O48" t="s">
-        <v>431</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -4173,7 +4202,7 @@
     </row>
     <row r="49" spans="1:23" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B49">
         <v>37</v>
@@ -4182,28 +4211,28 @@
         <v>0</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L49" s="37" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M49" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -8371,12 +8400,12 @@
         <v>213</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="30" customFormat="1" ht="47.4" customHeight="1">
       <c r="B4" s="31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>214</v>
@@ -13468,10 +13497,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1">
@@ -13489,24 +13518,24 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="28" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>231</v>
@@ -13519,30 +13548,30 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="28" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>232</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>235</v>
@@ -13555,30 +13584,30 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="28" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>236</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>239</v>
@@ -13591,25 +13620,25 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="28" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>242</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>240</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1"/>
@@ -14629,10 +14658,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C993"/>
+  <dimension ref="A1:C992"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -14832,13 +14861,13 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>262</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -14847,78 +14876,78 @@
         <v>245</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>267</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -14926,37 +14955,37 @@
         <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -14964,50 +14993,50 @@
         <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
@@ -15015,7 +15044,7 @@
         <v>113</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
@@ -15023,47 +15052,47 @@
         <v>113</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="B40" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="B41" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
@@ -15071,51 +15100,51 @@
         <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
@@ -15123,43 +15152,43 @@
         <v>113</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
@@ -15167,43 +15196,43 @@
         <v>113</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
@@ -15211,49 +15240,89 @@
         <v>113</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>469</v>
+      </c>
+    </row>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -15432,7 +15501,7 @@
     <row r="240" ht="14.25" customHeight="1"/>
     <row r="241" ht="14.25" customHeight="1"/>
     <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
     <row r="244" ht="15.75" customHeight="1"/>
     <row r="245" ht="15.75" customHeight="1"/>
     <row r="246" ht="15.75" customHeight="1"/>
@@ -16182,7 +16251,6 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C52" r:id="rId1" xr:uid="{8DFC6E6F-9A66-46B2-AA39-B7518CE1A471}"/>
@@ -16203,8 +16271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -16222,19 +16290,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -16244,33 +16312,33 @@
         <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D2" s="1">
         <v>350</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D3" s="1">
         <v>450</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
@@ -16278,118 +16346,118 @@
         <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D4" s="1">
         <v>650</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D6" s="1">
         <v>325</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D8" s="1">
         <v>300</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D9" s="1">
         <v>560</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D10" s="1">
         <v>400</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1">
@@ -16397,16 +16465,16 @@
         <v>234</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D11" s="1">
         <v>300</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
@@ -16414,16 +16482,16 @@
         <v>234</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D12" s="1">
         <v>560</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
@@ -16434,47 +16502,47 @@
         <v>159</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D13" s="1">
         <v>400</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D14" s="3">
         <v>120</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>308</v>
+        <v>463</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D15" s="3">
         <v>140</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
@@ -17948,7 +18016,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
@@ -17959,7 +18027,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
@@ -17967,10 +18035,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
@@ -17978,7 +18046,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
         <v>113</v>
@@ -17989,7 +18057,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
@@ -17997,7 +18065,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
@@ -18008,7 +18076,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
@@ -18016,10 +18084,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -18027,10 +18095,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -18038,10 +18106,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -18049,7 +18117,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -18072,7 +18140,7 @@
         <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -18115,7 +18183,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -18123,7 +18191,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -18131,7 +18199,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -18139,7 +18207,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -18150,7 +18218,7 @@
         <v>160</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -18161,7 +18229,7 @@
         <v>160</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -18169,7 +18237,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -18199,7 +18267,7 @@
         <v>173</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="544">
   <si>
     <t>location</t>
   </si>
@@ -1188,33 +1188,105 @@
     <t>Save BIG with our new Aerosports Memberships!</t>
   </si>
   <si>
-    <t>assets/image/lowres-7(1).jpg</t>
-  </si>
-  <si>
-    <t>&lt;H2&gt;Become an Aerosports Member Today!&lt;/H2&gt;
-&lt;H4&gt; !&lt;/H4&gt;                                        
-&lt;Gold Perks
-First Jump FREE
-Cash Discount of $100 OFF Birthday Party Booking
-$10 OFF Jump Times*
-25% OFF Aero Camp
-25% OFF Snack Shack
-25% OFF Merchandise
-1 FREE Water Bottle Per Visit
-25% OFF Sibling Membership
-Monthly Payment: $9.90
-Annual Payment: $99.90
-Platinum Perks
-First Jump FREE
-Cash Discount of $150 OFF a Birthday Party Booking
-$15 OFF Jump Times*
-50% OFF Aero Camp
-50% OFF Snack Shack
-50% OFF Merchandise
-1 FREE water Bottle Per Visit
-25% OFF Sibling Membership
-Monthly Payment: $14.90
-Annual Payment: $149.90</t>
+    <t>assets/image/attractions/details/membership.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE html&gt;
+&lt;html lang="en"&gt;
+&lt;head&gt;
+    &lt;meta charset="UTF-8"&gt;
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
+    &lt;link rel="stylesheet" href="styles.css"&gt;
+    &lt;style&gt;
+        .membership-container {
+            display: flex;
+            flex-direction: column;
+            align-items: center;
+            text-align: center;
+        }
+        .membership-memberships {
+            display: flex;
+            justify-content: space-between;
+            width: 100%;
+            max-width: 800px;
+        }
+        .membership-membership-gold,
+        .membership-membership-platinum {
+            display: flex;
+            flex-direction: column;
+            align-items: center;
+            text-align: center;
+            width: 45%;
+            padding: 20px;
+            border: 1px solid #ccc;
+            border-radius: 5px;
+        }
+        .membership-container-img {
+            display: block;
+            width: 100%;
+            max-width: 200px;
+            margin-bottom: 10px;
+        }
+        .membership-container-heading {
+            font-size: 20px;
+            font-weight: bold;
+            margin-bottom: 10px;
+        }
+        .membership-list {
+            list-style-type: none;
+            padding: 0;
+            margin: 0;
+            text-align: left;
+        }
+        .membership-list li {
+            margin-bottom: 5px;
+        }
+    &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;div class="membership-container"&gt;
+        &lt;h1&gt;Save hundreds of $$$$ with our Aerosports Memberships!&lt;/h1&gt;
+        &lt;p&gt;Our NEW membership program is the &lt;span class="membership-text"&gt;BEST&lt;/span&gt; way to JUMP at Aerosports. &lt;br/&gt;&lt;br/&gt;It offers &lt;span class="membership-text"&gt;HUGE&lt;/span&gt; savings on every visit including a &lt;span class="membership-text"&gt;Cash Discount of up to $150&lt;/span&gt; for a Birthday Party every year! &lt;br/&gt;&lt;br/&gt;Sign up today and your first jump is on us! &lt;span class="membership-text"&gt;( $25 Cash value )&lt;/span&gt;&lt;/p&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;
+        &lt;div class="membership-memberships"&gt;
+            &lt;div class="membership-membership-gold"&gt;
+                &lt;img class="membership-container-img" src="assets/image/attractions/details/membership/gold_membership.jpg" &gt;
+                &lt;h2 class="membership-container-heading"&gt;Gold Member Perks!&lt;/h2&gt;
+                &lt;ul class="membership-list"&gt;
+                    &lt;li&gt;First Jump FREE&lt;/li&gt;
+                    &lt;li&gt;Cash Discount of $100 OFF&lt;/li&gt;
+                    &lt;li&gt;Birthday Party Booking&lt;/li&gt;
+                    &lt;li&gt;$10 OFF Jump Times"&lt;/li&gt;
+                    &lt;li&gt;25% OFF Aero Camp&lt;/li&gt;
+                    &lt;li&gt;25% OFF Snack Shack&lt;/li&gt;
+                    &lt;li&gt;25% OFF Merchandise&lt;/li&gt;
+                    &lt;li&gt;1 FREE Water Bottle Per Visit&lt;/li&gt;
+                    &lt;li&gt;25% OFF Sibling Membership&lt;/li&gt;
+                &lt;/ul&gt;
+                &lt;p&gt;Monthly Payment: $9.90&lt;/p&gt;
+                &lt;p&gt;Annual Payment: $99.90&lt;/p&gt;
+            &lt;/div&gt;
+            &lt;div class="membership-membership-platinum"&gt;
+                &lt;img class="membership-container-img" src="assets/image/attractions/details/membership/platinum_membership.jpg" &gt;
+                &lt;h2 class="membership-container-heading"&gt;Platinum Member Perks!&lt;/h2&gt;
+                &lt;ul class="membership-list"&gt;
+                    &lt;li&gt;First Jump FREE&lt;/li&gt;
+                    &lt;li&gt;Cash Discount of $150 OFF a&lt;/li&gt;
+                    &lt;li&gt;Birthday Party Booking&lt;/li&gt;
+                    &lt;li&gt;$15 OFF Jump Times "&lt;/li&gt;
+                    &lt;li&gt;50% OFF Aero Camp&lt;/li&gt;
+                    &lt;li&gt;50% OFF Snack Shack&lt;/li&gt;
+                    &lt;li&gt;50% OFF Merchandise&lt;/li&gt;
+                    &lt;li&gt;1 FREE Water Bottle Per Visit&lt;/li&gt;
+                    &lt;li&gt;25% OFF Sibling Membership&lt;/li&gt;
+                &lt;/ul&gt;
+                &lt;p&gt;Monthly Payment: $14.90&lt;/p&gt;
+                &lt;p&gt;Annual Payment: $140&lt;/p&gt;
+            &lt;/div&gt; &lt;div class="col section-button  text-center"&gt;&lt;a class="sigma_btn-custom" href="https://ecom.roller.app/aerosportslondon/londoncheckout/en/home?utm_source=brevo&amp;amp;utm_campaign=Memberships are Here&amp;amp;utm_medium=email" target="_blank" data-btn="1" style="font-style: normal; font-weight: bold; line-height: 1.15; text-decoration: none; word-break: break-word; border-style: solid; word-wrap: break-word; display: block; -webkit-text-size-adjust: none; background-color: #051ef4; border-color: #051ef4; border-radius: 20px; border-width: 0px; color: #ffffff; font-family: arial,helvetica,sans-serif; font-size: 16px; height: 18px; mso-hide: all; padding-bottom: 12px; padding-top: 12px; width: 205px;"&gt; &lt;span&gt;SIGN UP NOW&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;
+        &lt;/div&gt;
+    &lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;
+</t>
   </si>
   <si>
     <t>https://ecom.roller.app/000/memberships/en/home</t>
@@ -1771,10 +1843,10 @@
     <t>0-2; FREE (Paying Adult is Mandatory)</t>
   </si>
   <si>
-    <t>6+;$19.99;$24.99;$28.99;-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-5+;$12;$16;$20;-</t>
+    <t>6+;$19.99;$24.99;$28.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-5+;$12;$16;$20</t>
   </si>
   <si>
     <t>st-catharines,windsor</t>
@@ -1840,9 +1912,9 @@
     <t>Party</t>
   </si>
   <si>
-    <t>Weekday Price (Monday - Thursday) : $300,   Weekend Price ( Friday-Sunday) : $350.;  Introductory Offer : Free Gold Membership ( Retail Price - $99.90 );
-Package Includes,
-Up to 8 jumpers, including the birthday child.;  $35 for each additional jumper.;
+    <t>Weekday Price (Monday - Thursday) : $300,   Weekend Price ( Friday-Sunday) : $350.  Introductory Offer : Free Gold Membership ( Retail Price - $99.90 )
+Package Includes,;
+Up to 8 jumpers, including the birthday child.  $35 for each additional jumper.;
 2 Extra Large Pizzas with 12 slices each. For every 5 additional jumpers, we provide an additional pizza absolutely FREE (Please notify us 1 day prior to the event).;
 2 Pitchers of Pop drinks and unlimited water pitchers. For every 5 additional jumpers, we provide an additional Pitcher absolutely FREE.;
 Private Party Room with a capacity of 18-20 people.;
@@ -1867,9 +1939,9 @@
     <t>Extreme Jump</t>
   </si>
   <si>
-    <t>Weekdays (Monday - Thursday) price: $600,   Weekends ( Friday-Sunday) price: $650. ;  Introductory Offer : Free Platinum Membership ( Retail Price - $149.90 );
-Package Includes,
-Up to 18 jumpers, including the birthday child.;  $35 for each additional jumper.;
+    <t>Weekdays (Monday - Thursday) price: $600,   Weekends ( Friday-Sunday) price: $650.   Introductory Offer : Free Platinum Membership ( Retail Price - $149.90 )
+Package Includes,;
+Up to 18 jumpers, including the birthday child.  $35 for each additional jumper.;
 4 Extra Large Pizzas with 12 slices each. For every 5 additional jumpers, we provide an additional pizza absolutely FREE (Please notify us 1 day prior to the event).;
 4 Pitchers of Pop drinks and unlimited water pitchers. For every 5 additional jumpers, we provide an additional pitcher absolutely FREE.;
 Private Party Room with a capacity of 35-40 people.;
@@ -1901,7 +1973,7 @@
 Free Aerosports Grip Socks will be provided to all jumpers.;
 We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
 Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.                                                                    </t>
+Parents/guests who are not jumping will not be charged.                                                                            </t>
   </si>
   <si>
     <t xml:space="preserve">Weekdays (Monday - Thursday) price: $500 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $600 +tax.;
@@ -1983,7 +2055,7 @@
 Digital Party Invitations will be provided for your convenience.;
 We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
 Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged. ;
+Parents/guests who are not jumping will not be charged.;
 *AeroSocks not included                                                                          </t>
   </si>
   <si>
@@ -2034,7 +2106,7 @@
 Digital Party Invitations will be provided for your convenience.;
 We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
 Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.;
+Parents/guests who are not jumping will not be charged.;     
 *AeroSocks not included in party package                                                                       </t>
   </si>
   <si>
@@ -2247,7 +2319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2256,10 +2328,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -2276,6 +2344,7 @@
     </font>
     <font>
       <u/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
@@ -2431,7 +2500,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2439,67 +2508,63 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2839,7 +2904,7 @@
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2867,7 +2932,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -2905,13 +2970,13 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="Y3" s="5"/>
+      <c r="Y3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="1" t="s">
@@ -2932,7 +2997,7 @@
       <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="U4" s="2"/>
@@ -2968,7 +3033,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3029,7 +3094,7 @@
       <c r="B8" s="1">
         <v>7.0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>0.0</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3060,7 +3125,7 @@
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>1.0</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3091,7 +3156,7 @@
       <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>0.0</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3109,7 +3174,7 @@
       <c r="H10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="U10" s="2"/>
@@ -3121,7 +3186,7 @@
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>0.0</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3139,7 +3204,7 @@
       <c r="H11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -3151,28 +3216,28 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>0.0</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
@@ -3186,7 +3251,7 @@
       <c r="B13" s="1">
         <v>8.0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>1.0</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3211,7 +3276,7 @@
       <c r="K13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>77</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -3231,7 +3296,7 @@
       <c r="B14" s="1">
         <v>1000.0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>1.0</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3280,7 +3345,7 @@
       <c r="B15" s="1">
         <v>1001.0</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>1.0</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3315,13 +3380,13 @@
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="1">
         <v>9.0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>1.0</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3330,7 +3395,7 @@
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3356,7 +3421,7 @@
         <v>104</v>
       </c>
       <c r="U16" s="2"/>
-      <c r="V16" s="10" t="s">
+      <c r="V16" s="9" t="s">
         <v>105</v>
       </c>
       <c r="W16" s="2" t="s">
@@ -3367,7 +3432,7 @@
       <c r="B17" s="1">
         <v>10.0</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>1.0</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3411,7 +3476,7 @@
       <c r="B18" s="1">
         <v>11.0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>1.0</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3460,7 +3525,7 @@
       <c r="B19" s="1">
         <v>12.0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>1.0</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3502,7 +3567,7 @@
       <c r="B20" s="1">
         <v>14.0</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>1.0</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3522,7 +3587,7 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>137</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -3549,7 +3614,7 @@
       <c r="B21" s="1">
         <v>1002.0</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>1.0</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3569,7 +3634,7 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="1" t="s">
         <v>147</v>
       </c>
@@ -3590,7 +3655,7 @@
       <c r="B22" s="1">
         <v>16.0</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>1.0</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3632,7 +3697,7 @@
       <c r="B23" s="1">
         <v>17.0</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>1.0</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3677,7 +3742,7 @@
       <c r="B24" s="1">
         <v>18.0</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>1.0</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3699,7 +3764,7 @@
         <v>172</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>173</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -3726,7 +3791,7 @@
       <c r="B25" s="1">
         <v>19.0</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>1.0</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3748,7 +3813,7 @@
         <v>182</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>183</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -3768,7 +3833,7 @@
       <c r="B26" s="1">
         <v>20.0</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>1.0</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3801,7 +3866,7 @@
       <c r="B27" s="1">
         <v>21.0</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>0.0</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3822,7 +3887,7 @@
       <c r="M27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="11" t="s">
         <v>197</v>
       </c>
       <c r="U27" s="2"/>
@@ -3833,7 +3898,7 @@
       <c r="B28" s="1">
         <v>22.0</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>1.0</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3865,7 +3930,7 @@
       <c r="B29" s="1">
         <v>23.0</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>1.0</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3897,7 +3962,7 @@
       <c r="B30" s="1">
         <v>25.0</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>1.0</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3932,7 +3997,7 @@
       <c r="B31" s="1">
         <v>1004.0</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>1.0</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3965,7 +4030,7 @@
       <c r="B32" s="1">
         <v>26.0</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>1.0</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3983,8 +4048,8 @@
       <c r="H32" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="L32" s="14" t="s">
+      <c r="J32" s="12"/>
+      <c r="L32" s="13" t="s">
         <v>217</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -4004,7 +4069,7 @@
       <c r="B33" s="1">
         <v>27.0</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>1.0</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4023,13 +4088,13 @@
         <v>222</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O33" s="2" t="s">
@@ -4046,7 +4111,7 @@
       <c r="B34" s="1">
         <v>27.0</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>1.0</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4065,13 +4130,13 @@
         <v>222</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O34" s="2" t="s">
@@ -4088,7 +4153,7 @@
       <c r="B35" s="1">
         <v>28.0</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>1.0</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4106,10 +4171,10 @@
       <c r="H35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="13" t="s">
         <v>231</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -4132,7 +4197,7 @@
       <c r="B36" s="1">
         <v>1003.0</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>1.0</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -4150,10 +4215,10 @@
       <c r="H36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="13" t="s">
         <v>235</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -4170,13 +4235,13 @@
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B37" s="1">
         <v>29.0</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>1.0</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -4205,13 +4270,13 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="1">
         <v>29.0</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>1.0</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -4240,13 +4305,13 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B39" s="1">
         <v>1005.0</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>1.0</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -4275,13 +4340,13 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="1">
         <v>1008.0</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>1.0</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4302,7 +4367,7 @@
       <c r="K40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="13" t="s">
         <v>231</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -4319,7 +4384,7 @@
       <c r="B41" s="1">
         <v>30.0</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <v>1.0</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4328,7 +4393,7 @@
       <c r="E41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>246</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -4354,7 +4419,7 @@
       <c r="B42" s="1">
         <v>31.0</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <v>1.0</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -4372,7 +4437,7 @@
       <c r="H42" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O42" s="2" t="s">
@@ -4389,7 +4454,7 @@
       <c r="B43" s="1">
         <v>35.0</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>1.0</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4407,7 +4472,7 @@
       <c r="H43" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O43" s="2" t="s">
@@ -4421,7 +4486,7 @@
       <c r="B44" s="1">
         <v>32.0</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>1.0</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4453,7 +4518,7 @@
       <c r="B45" s="1">
         <v>33.0</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>1.0</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4486,7 +4551,7 @@
       <c r="B46" s="1">
         <v>34.0</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>0.0</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4515,7 +4580,7 @@
       <c r="B47" s="1">
         <v>35.0</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>0.0</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -4533,7 +4598,7 @@
       <c r="H47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="1" t="s">
         <v>33</v>
       </c>
       <c r="U47" s="2"/>
@@ -4544,7 +4609,7 @@
       <c r="B48" s="1">
         <v>36.0</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>0.0</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -4562,10 +4627,10 @@
       <c r="H48" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="O48" s="1" t="s">
         <v>274</v>
       </c>
       <c r="U48" s="2"/>
@@ -4573,34 +4638,34 @@
       <c r="W48" s="2"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>37.0</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>0.0</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="L49" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O49" s="2" t="s">
@@ -4611,37 +4676,41 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="B50" s="1">
+        <v>1100.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="M50" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="16" t="s">
         <v>284</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="Y50" s="6" t="s">
+      <c r="Y50" s="5" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6463,7 +6532,7 @@
       <c r="B2" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -6472,13 +6541,13 @@
       <c r="E2" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>298</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>302</v>
       </c>
       <c r="J2" s="17" t="s">
@@ -6510,7 +6579,7 @@
       <c r="G3" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -9341,10 +9410,10 @@
       <c r="H2" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>340</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -9389,16 +9458,16 @@
       <c r="J3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>349</v>
       </c>
       <c r="L3" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>351</v>
       </c>
     </row>
@@ -9431,16 +9500,16 @@
       <c r="J4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>359</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -9476,19 +9545,19 @@
       <c r="J5" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>365</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="1" t="s">
         <v>368</v>
       </c>
     </row>
@@ -10957,7 +11026,7 @@
       <c r="B44" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>418</v>
       </c>
     </row>
@@ -10968,7 +11037,7 @@
       <c r="B45" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>419</v>
       </c>
     </row>
@@ -10979,7 +11048,7 @@
       <c r="B46" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10990,7 +11059,7 @@
       <c r="B47" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>421</v>
       </c>
     </row>
@@ -10998,7 +11067,7 @@
       <c r="B48" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -11009,7 +11078,7 @@
       <c r="B49" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>425</v>
       </c>
     </row>
@@ -11020,7 +11089,7 @@
       <c r="B50" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>426</v>
       </c>
     </row>
@@ -11053,7 +11122,7 @@
       <c r="B53" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>425</v>
       </c>
     </row>
@@ -11075,7 +11144,7 @@
       <c r="B55" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>431</v>
       </c>
     </row>
@@ -11141,7 +11210,7 @@
       <c r="B61" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="16" t="s">
         <v>438</v>
       </c>
     </row>
@@ -11152,7 +11221,7 @@
       <c r="B62" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="16" t="s">
         <v>439</v>
       </c>
     </row>
@@ -11174,7 +11243,7 @@
       <c r="B64" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -11185,7 +11254,7 @@
       <c r="B65" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -11196,7 +11265,7 @@
       <c r="B66" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -11207,7 +11276,7 @@
       <c r="B67" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -12225,22 +12294,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>454</v>
       </c>
     </row>
@@ -13285,7 +13354,7 @@
       <c r="D2" s="1">
         <v>350.0</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="16" t="s">
         <v>461</v>
       </c>
     </row>
@@ -13319,7 +13388,7 @@
       <c r="D4" s="1">
         <v>650.0</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="16" t="s">
         <v>466</v>
       </c>
     </row>
@@ -13353,7 +13422,7 @@
       <c r="D6" s="1">
         <v>325.0</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="16" t="s">
         <v>469</v>
       </c>
     </row>
@@ -13370,7 +13439,7 @@
       <c r="D7" s="1">
         <v>600.0</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="16" t="s">
         <v>470</v>
       </c>
     </row>
@@ -13387,7 +13456,7 @@
       <c r="D8" s="1">
         <v>300.0</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="16" t="s">
         <v>471</v>
       </c>
     </row>
@@ -13404,7 +13473,7 @@
       <c r="D9" s="1">
         <v>560.0</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="16" t="s">
         <v>472</v>
       </c>
     </row>
@@ -13421,7 +13490,7 @@
       <c r="D10" s="1">
         <v>400.0</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13438,7 +13507,7 @@
       <c r="D11" s="1">
         <v>300.0</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="16" t="s">
         <v>475</v>
       </c>
     </row>
@@ -13455,7 +13524,7 @@
       <c r="D12" s="1">
         <v>560.0</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="16" t="s">
         <v>476</v>
       </c>
     </row>
@@ -13472,7 +13541,7 @@
       <c r="D13" s="1">
         <v>400.0</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -13489,7 +13558,7 @@
       <c r="D14" s="1">
         <v>240.0</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="16" t="s">
         <v>479</v>
       </c>
     </row>
@@ -13506,7 +13575,7 @@
       <c r="D15" s="1">
         <v>240.0</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="16" t="s">
         <v>481</v>
       </c>
     </row>
@@ -14929,7 +14998,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>482</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -14949,7 +15018,7 @@
       <c r="B3" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>487</v>
       </c>
     </row>
@@ -14957,7 +15026,7 @@
       <c r="B4" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>489</v>
       </c>
     </row>
@@ -14966,7 +15035,7 @@
       <c r="B5" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>491</v>
       </c>
     </row>
@@ -14974,7 +15043,7 @@
       <c r="B6" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>493</v>
       </c>
     </row>
@@ -14982,7 +15051,7 @@
       <c r="B7" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>495</v>
       </c>
     </row>
@@ -14993,7 +15062,7 @@
       <c r="B8" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>497</v>
       </c>
     </row>
@@ -15004,7 +15073,7 @@
       <c r="B9" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -15024,7 +15093,7 @@
       <c r="B11" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>501</v>
       </c>
     </row>
@@ -15051,7 +15120,7 @@
       <c r="B14" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15060,7 +15129,7 @@
       <c r="B15" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>509</v>
       </c>
     </row>
@@ -15069,7 +15138,7 @@
       <c r="B16" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>511</v>
       </c>
     </row>
@@ -15163,7 +15232,7 @@
       <c r="B26" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>531</v>
       </c>
     </row>
@@ -15172,7 +15241,7 @@
       <c r="B27" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>533</v>
       </c>
     </row>
@@ -15181,7 +15250,7 @@
       <c r="B28" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>535</v>
       </c>
     </row>
@@ -15190,7 +15259,7 @@
       <c r="B29" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>537</v>
       </c>
     </row>
@@ -15199,7 +15268,7 @@
       <c r="B30" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>539</v>
       </c>
     </row>

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -1262,7 +1262,7 @@
                     &lt;li&gt;1 FREE Water Bottle Per Visit&lt;/li&gt;
                     &lt;li&gt;25% OFF Sibling Membership&lt;/li&gt;
                 &lt;/ul&gt;
-                &lt;p&gt;Monthly Payment: $9.90&lt;/p&gt;
+                &lt;p&gt;Monthly Payment: $9.90&lt;/p&gt;&lt;h4&gt;OR&lt;/h4&gt;
                 &lt;p&gt;Annual Payment: $99.90&lt;/p&gt;
             &lt;/div&gt;
             &lt;div class="membership-membership-platinum"&gt;
@@ -1270,7 +1270,7 @@
                 &lt;h2 class="membership-container-heading"&gt;Platinum Member Perks!&lt;/h2&gt;
                 &lt;ul class="membership-list"&gt;
                     &lt;li&gt;First Jump FREE&lt;/li&gt;
-                    &lt;li&gt;Cash Discount of $150 OFF a&lt;/li&gt;
+                    &lt;li&gt;Cash Discount of $150 OFF&lt;/li&gt;
                     &lt;li&gt;Birthday Party Booking&lt;/li&gt;
                     &lt;li&gt;$15 OFF Jump Times "&lt;/li&gt;
                     &lt;li&gt;50% OFF Aero Camp&lt;/li&gt;
@@ -1279,9 +1279,9 @@
                     &lt;li&gt;1 FREE Water Bottle Per Visit&lt;/li&gt;
                     &lt;li&gt;25% OFF Sibling Membership&lt;/li&gt;
                 &lt;/ul&gt;
-                &lt;p&gt;Monthly Payment: $14.90&lt;/p&gt;
+                &lt;p&gt;Monthly Payment: $14.90&lt;/p&gt;&lt;h4&gt;OR&lt;/h4&gt;
                 &lt;p&gt;Annual Payment: $140&lt;/p&gt;
-            &lt;/div&gt; &lt;div class="col section-button  text-center"&gt;&lt;a class="sigma_btn-custom" href="https://ecom.roller.app/aerosportslondon/londoncheckout/en/home?utm_source=brevo&amp;amp;utm_campaign=Memberships are Here&amp;amp;utm_medium=email" target="_blank" data-btn="1" style="font-style: normal; font-weight: bold; line-height: 1.15; text-decoration: none; word-break: break-word; border-style: solid; word-wrap: break-word; display: block; -webkit-text-size-adjust: none; background-color: #051ef4; border-color: #051ef4; border-radius: 20px; border-width: 0px; color: #ffffff; font-family: arial,helvetica,sans-serif; font-size: 16px; height: 18px; mso-hide: all; padding-bottom: 12px; padding-top: 12px; width: 205px;"&gt; &lt;span&gt;SIGN UP NOW&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;
+            &lt;/div&gt; &lt;div class="col section-button  text-center"&gt;&lt;a id="signup-button" class="sigma_btn-custom" href="https://ecom.roller.app/aerosports{location.url}/memberships/en/home" target="_blank" data-btn="1" style="font-style: normal; font-weight: bold; line-height: 1.15; text-decoration: none; word-break: break-word; border-style: solid; word-wrap: break-word; display: block; -webkit-text-size-adjust: none; background-color: #051ef4; border-color: #051ef4; border-radius: 20px; border-width: 0px; color: #ffffff; font-family: arial,helvetica,sans-serif; font-size: 16px; height: 18px; mso-hide: all; padding-bottom: 12px; padding-top: 12px; width: 205px;"&gt; &lt;span&gt;SIGN UP NOW&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;
         &lt;/div&gt;
     &lt;/div&gt;
 &lt;/body&gt;
@@ -11210,7 +11210,7 @@
       <c r="B61" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="2" t="s">
         <v>438</v>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
       <c r="B62" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="2" t="s">
         <v>439</v>
       </c>
     </row>
@@ -13354,7 +13354,7 @@
       <c r="D2" s="1">
         <v>350.0</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="2" t="s">
         <v>461</v>
       </c>
     </row>
@@ -13388,7 +13388,7 @@
       <c r="D4" s="1">
         <v>650.0</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="2" t="s">
         <v>466</v>
       </c>
     </row>
@@ -13422,7 +13422,7 @@
       <c r="D6" s="1">
         <v>325.0</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="2" t="s">
         <v>469</v>
       </c>
     </row>
@@ -13439,7 +13439,7 @@
       <c r="D7" s="1">
         <v>600.0</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="2" t="s">
         <v>470</v>
       </c>
     </row>
@@ -13456,7 +13456,7 @@
       <c r="D8" s="1">
         <v>300.0</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="2" t="s">
         <v>471</v>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       <c r="D9" s="1">
         <v>560.0</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="2" t="s">
         <v>472</v>
       </c>
     </row>
@@ -13490,7 +13490,7 @@
       <c r="D10" s="1">
         <v>400.0</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13507,7 +13507,7 @@
       <c r="D11" s="1">
         <v>300.0</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="2" t="s">
         <v>475</v>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       <c r="D12" s="1">
         <v>560.0</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="2" t="s">
         <v>476</v>
       </c>
     </row>
@@ -13541,7 +13541,7 @@
       <c r="D13" s="1">
         <v>400.0</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="2" t="s">
         <v>477</v>
       </c>
     </row>
@@ -13558,7 +13558,7 @@
       <c r="D14" s="1">
         <v>240.0</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="2" t="s">
         <v>479</v>
       </c>
     </row>
@@ -13575,7 +13575,7 @@
       <c r="D15" s="1">
         <v>240.0</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="2" t="s">
         <v>481</v>
       </c>
     </row>

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\manglesh1\aerosports\src\assets\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8A1B7-EAA2-4826-A589-3A0C6CE4DD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="blogs" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="blogsreviews" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="locations" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="config" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="promo" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="birthday packages" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="faq" sheetId="8" r:id="rId11"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="blogs" sheetId="2" r:id="rId2"/>
+    <sheet name="blogsreviews" sheetId="3" r:id="rId3"/>
+    <sheet name="locations" sheetId="4" r:id="rId4"/>
+    <sheet name="config" sheetId="5" r:id="rId5"/>
+    <sheet name="promo" sheetId="6" r:id="rId6"/>
+    <sheet name="birthday packages" sheetId="7" r:id="rId7"/>
+    <sheet name="faq" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="545">
   <si>
     <t>location</t>
   </si>
@@ -382,26 +391,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Empty your pockets before entering </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>AeroSlam.No</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> sharp or unauthorized objects allowed on court;Attempt dunks/shots at YOUR OWN RISK;One person per lane;Be aware of your landing position;Land on both feet near the center of the trampoline;Be in control of your body at all times;Follow all park rules and the Team Member’s Instructions</t>
     </r>
@@ -1849,9 +1858,6 @@
     <t xml:space="preserve"> 0-5+;$12;$16;$20</t>
   </si>
   <si>
-    <t>st-catharines,windsor</t>
-  </si>
-  <si>
     <t>home-birthdaysection</t>
   </si>
   <si>
@@ -2314,158 +2320,170 @@
   <si>
     <t xml:space="preserve">We do sell gift cards! You can purchase a physical gift card in your local Aerosports. You can purchase egift cards &lt;a href="{location}/gift-cards"&gt;&lt;strong&gt;online.&lt;/strong&gt;&lt;/a&gt; </t>
   </si>
+  <si>
+    <t xml:space="preserve"> 0-5+;$12;$16;-;-</t>
+  </si>
+  <si>
+    <t>6+;$19.99;$24.99;-;-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF383838"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFA3ACB4"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF383838"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF3C4043"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF3F4448"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2474,7 +2492,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2484,129 +2502,112 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2796,42 +2797,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.86"/>
-    <col customWidth="1" min="2" max="2" width="14.71"/>
-    <col customWidth="1" min="3" max="3" width="9.57"/>
-    <col customWidth="1" min="4" max="4" width="18.29"/>
-    <col customWidth="1" min="5" max="5" width="14.86"/>
-    <col customWidth="1" min="6" max="6" width="21.57"/>
-    <col customWidth="1" min="7" max="7" width="20.0"/>
-    <col customWidth="1" min="8" max="8" width="31.0"/>
-    <col customWidth="1" min="9" max="9" width="5.86"/>
-    <col customWidth="1" min="10" max="10" width="14.57"/>
-    <col customWidth="1" min="11" max="11" width="43.43"/>
-    <col customWidth="1" min="12" max="12" width="77.0"/>
-    <col customWidth="1" min="13" max="13" width="56.14"/>
-    <col customWidth="1" min="14" max="14" width="15.57"/>
-    <col customWidth="1" min="15" max="15" width="255.71"/>
-    <col customWidth="1" min="16" max="20" width="8.71"/>
-    <col customWidth="1" min="21" max="21" width="41.29"/>
-    <col customWidth="1" min="22" max="22" width="19.71"/>
-    <col customWidth="1" min="23" max="23" width="25.86"/>
-    <col customWidth="1" min="24" max="24" width="8.71"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="43.42578125" customWidth="1"/>
+    <col min="12" max="12" width="77" customWidth="1"/>
+    <col min="13" max="13" width="56.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="255.7109375" customWidth="1"/>
+    <col min="16" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="41.28515625" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" customWidth="1"/>
+    <col min="23" max="23" width="25.85546875" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:25" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2908,13 +2911,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:25" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -2949,12 +2952,12 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -2978,12 +2981,12 @@
       <c r="W3" s="2"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
@@ -3004,12 +3007,12 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
@@ -3037,12 +3040,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:25" ht="14.25" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>44</v>
@@ -3063,12 +3066,12 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:25" ht="14.25" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>48</v>
@@ -3089,13 +3092,13 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:25" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
@@ -3121,12 +3124,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:25" ht="14.25" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>57</v>
@@ -3151,13 +3154,13 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:25" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -3181,13 +3184,13 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:25" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>63</v>
@@ -3214,13 +3217,13 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:25" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>68</v>
@@ -3247,12 +3250,12 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:25" ht="14.25" customHeight="1">
       <c r="B13" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>71</v>
@@ -3289,15 +3292,15 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:25" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>81</v>
@@ -3338,15 +3341,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:25" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="1">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>92</v>
@@ -3379,15 +3382,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>99</v>
@@ -3428,12 +3431,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:23" ht="14.25" customHeight="1">
       <c r="B17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>107</v>
@@ -3472,12 +3475,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:23" ht="14.25" customHeight="1">
       <c r="B18" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>116</v>
@@ -3518,15 +3521,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:23" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>126</v>
@@ -3560,15 +3563,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:23" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>134</v>
@@ -3607,15 +3610,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:23" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="1">
-        <v>1002.0</v>
+        <v>1002</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>144</v>
@@ -3648,15 +3651,15 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:23" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B22" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>151</v>
@@ -3690,15 +3693,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:23" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B23" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>160</v>
@@ -3735,15 +3738,15 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:23" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B24" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>169</v>
@@ -3784,15 +3787,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:23" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B25" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>179</v>
@@ -3829,12 +3832,12 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:23" ht="14.25" customHeight="1">
       <c r="B26" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>187</v>
@@ -3861,13 +3864,13 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:23" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>193</v>
@@ -3894,12 +3897,12 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:23" ht="14.25" customHeight="1">
       <c r="B28" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>198</v>
@@ -3926,12 +3929,12 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:23" ht="14.25" customHeight="1">
       <c r="B29" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>202</v>
@@ -3955,15 +3958,15 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" spans="1:23" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>207</v>
@@ -3990,15 +3993,15 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:23" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="1">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>207</v>
@@ -4025,13 +4028,13 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:23" ht="14.25" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>213</v>
@@ -4062,15 +4065,15 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:24" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>220</v>
@@ -4104,15 +4107,15 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:24" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B34" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>220</v>
@@ -4146,15 +4149,15 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:24" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B35" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>228</v>
@@ -4190,15 +4193,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:24" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B36" s="1">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="C36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>228</v>
@@ -4234,15 +4237,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:24" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B37" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>237</v>
@@ -4269,15 +4272,15 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:24" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>237</v>
@@ -4304,15 +4307,15 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:24" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B39" s="1">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>237</v>
@@ -4339,15 +4342,15 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:24" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="1">
-        <v>1008.0</v>
+        <v>1008</v>
       </c>
       <c r="C40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>61</v>
@@ -4380,12 +4383,12 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:24" ht="14.25" customHeight="1">
       <c r="B41" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
@@ -4412,15 +4415,15 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:24" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B42" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>251</v>
@@ -4447,15 +4450,15 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:24" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B43" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>251</v>
@@ -4482,12 +4485,12 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:24" ht="14.25" customHeight="1">
       <c r="B44" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>255</v>
@@ -4514,12 +4517,12 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:24" ht="14.25" customHeight="1">
       <c r="B45" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>260</v>
@@ -4546,13 +4549,13 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:24" ht="14.25" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>265</v>
@@ -4576,12 +4579,12 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:24" ht="14.25" customHeight="1">
       <c r="B47" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>269</v>
@@ -4605,12 +4608,12 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:24" ht="14.25" customHeight="1">
       <c r="B48" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>272</v>
@@ -4637,15 +4640,15 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:25" ht="14.25" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B49" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>276</v>
@@ -4675,15 +4678,15 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:25" ht="14.25" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="1">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="C50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>279</v>
@@ -4704,7 +4707,7 @@
       <c r="M50" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="O50" s="16" t="s">
+      <c r="O50" s="2" t="s">
         <v>284</v>
       </c>
       <c r="U50" s="2"/>
@@ -4714,1005 +4717,1005 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:25" ht="14.25" customHeight="1">
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:25" ht="14.25" customHeight="1">
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:25" ht="14.25" customHeight="1">
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:25" ht="14.25" customHeight="1">
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:25" ht="14.25" customHeight="1">
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:25" ht="14.25" customHeight="1">
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:25" ht="14.25" customHeight="1">
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:25" ht="14.25" customHeight="1">
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:25" ht="14.25" customHeight="1">
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:25" ht="14.25" customHeight="1">
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:25" ht="14.25" customHeight="1">
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:25" ht="14.25" customHeight="1">
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:25" ht="14.25" customHeight="1">
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:25" ht="14.25" customHeight="1">
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="21:23" ht="14.25" customHeight="1">
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="21:23" ht="14.25" customHeight="1">
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="21:23" ht="14.25" customHeight="1">
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="21:23" ht="14.25" customHeight="1">
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="21:23" ht="14.25" customHeight="1">
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="21:23" ht="14.25" customHeight="1">
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="21:23" ht="14.25" customHeight="1">
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="21:23" ht="14.25" customHeight="1">
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="21:23" ht="14.25" customHeight="1">
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="21:23" ht="14.25" customHeight="1">
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="21:23" ht="14.25" customHeight="1">
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="21:23" ht="14.25" customHeight="1">
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="21:23" ht="14.25" customHeight="1">
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="21:23" ht="14.25" customHeight="1">
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="21:23" ht="14.25" customHeight="1">
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="21:23" ht="14.25" customHeight="1">
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="21:23" ht="14.25" customHeight="1">
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="21:23" ht="14.25" customHeight="1">
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="21:23" ht="14.25" customHeight="1">
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="21:23" ht="14.25" customHeight="1">
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="21:23" ht="14.25" customHeight="1">
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="21:23" ht="14.25" customHeight="1">
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="21:23" ht="14.25" customHeight="1">
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="21:23" ht="14.25" customHeight="1">
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="21:23" ht="14.25" customHeight="1">
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="21:23" ht="14.25" customHeight="1">
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="21:23" ht="14.25" customHeight="1">
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="21:23" ht="14.25" customHeight="1">
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="21:23" ht="14.25" customHeight="1">
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="21:23" ht="14.25" customHeight="1">
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="21:23" ht="14.25" customHeight="1">
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="21:23" ht="14.25" customHeight="1">
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="21:23" ht="14.25" customHeight="1">
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="21:23" ht="14.25" customHeight="1">
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="21:23" ht="14.25" customHeight="1">
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="21:23" ht="14.25" customHeight="1">
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="21:23" ht="14.25" customHeight="1">
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="21:23" ht="14.25" customHeight="1">
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="21:23" ht="14.25" customHeight="1">
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="21:23" ht="14.25" customHeight="1">
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="21:23" ht="14.25" customHeight="1">
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="21:23" ht="14.25" customHeight="1">
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="21:23" ht="14.25" customHeight="1">
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="21:23" ht="14.25" customHeight="1">
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="21:23" ht="14.25" customHeight="1">
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="21:23" ht="14.25" customHeight="1">
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="21:23" ht="14.25" customHeight="1">
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="21:23" ht="14.25" customHeight="1">
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="21:23" ht="14.25" customHeight="1">
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="21:23" ht="14.25" customHeight="1">
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="21:23" ht="14.25" customHeight="1">
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="21:23" ht="14.25" customHeight="1">
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="21:23" ht="14.25" customHeight="1">
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="21:23" ht="14.25" customHeight="1">
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="21:23" ht="14.25" customHeight="1">
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="21:23" ht="14.25" customHeight="1">
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="21:23" ht="14.25" customHeight="1">
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="21:23" ht="14.25" customHeight="1">
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="21:23" ht="14.25" customHeight="1">
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="21:23" ht="14.25" customHeight="1">
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="21:23" ht="14.25" customHeight="1">
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="21:23" ht="14.25" customHeight="1">
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="21:23" ht="14.25" customHeight="1">
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="21:23" ht="14.25" customHeight="1">
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="21:23" ht="14.25" customHeight="1">
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="21:23" ht="14.25" customHeight="1">
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="21:23" ht="14.25" customHeight="1">
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="21:23" ht="14.25" customHeight="1">
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="21:23" ht="14.25" customHeight="1">
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="21:23" ht="14.25" customHeight="1">
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="21:23" ht="14.25" customHeight="1">
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="21:23" ht="14.25" customHeight="1">
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="21:23" ht="14.25" customHeight="1">
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="21:23" ht="14.25" customHeight="1">
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="21:23" ht="14.25" customHeight="1">
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="21:23" ht="14.25" customHeight="1">
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="21:23" ht="14.25" customHeight="1">
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="21:23" ht="14.25" customHeight="1">
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="21:23" ht="14.25" customHeight="1">
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="21:23" ht="14.25" customHeight="1">
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="21:23" ht="14.25" customHeight="1">
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="21:23" ht="14.25" customHeight="1">
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="21:23" ht="14.25" customHeight="1">
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="21:23" ht="14.25" customHeight="1">
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="21:23" ht="14.25" customHeight="1">
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="21:23" ht="14.25" customHeight="1">
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="21:23" ht="14.25" customHeight="1">
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="21:23" ht="14.25" customHeight="1">
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="21:23" ht="14.25" customHeight="1">
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="21:23" ht="14.25" customHeight="1">
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="21:23" ht="14.25" customHeight="1">
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="21:23" ht="14.25" customHeight="1">
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="21:23" ht="14.25" customHeight="1">
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="21:23" ht="14.25" customHeight="1">
       <c r="U158" s="2"/>
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="21:23" ht="14.25" customHeight="1">
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="21:23" ht="14.25" customHeight="1">
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="21:23" ht="14.25" customHeight="1">
       <c r="U161" s="2"/>
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="21:23" ht="14.25" customHeight="1">
       <c r="U162" s="2"/>
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="21:23" ht="14.25" customHeight="1">
       <c r="U163" s="2"/>
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="21:23" ht="14.25" customHeight="1">
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="21:23" ht="14.25" customHeight="1">
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="21:23" ht="14.25" customHeight="1">
       <c r="U166" s="2"/>
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="21:23" ht="14.25" customHeight="1">
       <c r="U167" s="2"/>
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="21:23" ht="14.25" customHeight="1">
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="21:23" ht="14.25" customHeight="1">
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="21:23" ht="14.25" customHeight="1">
       <c r="U170" s="2"/>
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="21:23" ht="14.25" customHeight="1">
       <c r="U171" s="2"/>
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="21:23" ht="14.25" customHeight="1">
       <c r="U172" s="2"/>
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="21:23" ht="14.25" customHeight="1">
       <c r="U173" s="2"/>
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="21:23" ht="14.25" customHeight="1">
       <c r="U174" s="2"/>
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="21:23" ht="14.25" customHeight="1">
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="21:23" ht="14.25" customHeight="1">
       <c r="U176" s="2"/>
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="21:23" ht="14.25" customHeight="1">
       <c r="U177" s="2"/>
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="21:23" ht="14.25" customHeight="1">
       <c r="U178" s="2"/>
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="21:23" ht="14.25" customHeight="1">
       <c r="U179" s="2"/>
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="21:23" ht="14.25" customHeight="1">
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="21:23" ht="14.25" customHeight="1">
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="21:23" ht="14.25" customHeight="1">
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="21:23" ht="14.25" customHeight="1">
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="21:23" ht="14.25" customHeight="1">
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="21:23" ht="14.25" customHeight="1">
       <c r="U185" s="2"/>
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="21:23" ht="14.25" customHeight="1">
       <c r="U186" s="2"/>
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="21:23" ht="14.25" customHeight="1">
       <c r="U187" s="2"/>
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="21:23" ht="14.25" customHeight="1">
       <c r="U188" s="2"/>
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="21:23" ht="14.25" customHeight="1">
       <c r="U189" s="2"/>
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="21:23" ht="14.25" customHeight="1">
       <c r="U190" s="2"/>
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="21:23" ht="14.25" customHeight="1">
       <c r="U191" s="2"/>
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="21:23" ht="14.25" customHeight="1">
       <c r="U192" s="2"/>
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="21:23" ht="14.25" customHeight="1">
       <c r="U193" s="2"/>
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="21:23" ht="14.25" customHeight="1">
       <c r="U194" s="2"/>
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="21:23" ht="14.25" customHeight="1">
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="21:23" ht="14.25" customHeight="1">
       <c r="U196" s="2"/>
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="21:23" ht="14.25" customHeight="1">
       <c r="U197" s="2"/>
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="21:23" ht="14.25" customHeight="1">
       <c r="U198" s="2"/>
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="21:23" ht="14.25" customHeight="1">
       <c r="U199" s="2"/>
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="21:23" ht="14.25" customHeight="1">
       <c r="U200" s="2"/>
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="21:23" ht="14.25" customHeight="1">
       <c r="U201" s="2"/>
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="21:23" ht="14.25" customHeight="1">
       <c r="U202" s="2"/>
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="21:23" ht="14.25" customHeight="1">
       <c r="U203" s="2"/>
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="21:23" ht="14.25" customHeight="1">
       <c r="U204" s="2"/>
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="21:23" ht="14.25" customHeight="1">
       <c r="U205" s="2"/>
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="21:23" ht="14.25" customHeight="1">
       <c r="U206" s="2"/>
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="21:23" ht="14.25" customHeight="1">
       <c r="U207" s="2"/>
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="21:23" ht="14.25" customHeight="1">
       <c r="U208" s="2"/>
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="21:23" ht="14.25" customHeight="1">
       <c r="U209" s="2"/>
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="21:23" ht="14.25" customHeight="1">
       <c r="U210" s="2"/>
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="21:23" ht="14.25" customHeight="1">
       <c r="U211" s="2"/>
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="21:23" ht="14.25" customHeight="1">
       <c r="U212" s="2"/>
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="21:23" ht="14.25" customHeight="1">
       <c r="U213" s="2"/>
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="21:23" ht="14.25" customHeight="1">
       <c r="U214" s="2"/>
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="21:23" ht="14.25" customHeight="1">
       <c r="U215" s="2"/>
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="21:23" ht="14.25" customHeight="1">
       <c r="U216" s="2"/>
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="21:23" ht="14.25" customHeight="1">
       <c r="U217" s="2"/>
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="21:23" ht="14.25" customHeight="1">
       <c r="U218" s="2"/>
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="21:23" ht="14.25" customHeight="1">
       <c r="U219" s="2"/>
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="21:23" ht="14.25" customHeight="1">
       <c r="U220" s="2"/>
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="21:23" ht="14.25" customHeight="1">
       <c r="U221" s="2"/>
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="21:23" ht="14.25" customHeight="1">
       <c r="U222" s="2"/>
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="21:23" ht="14.25" customHeight="1">
       <c r="U223" s="2"/>
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="21:23" ht="14.25" customHeight="1">
       <c r="U224" s="2"/>
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="21:23" ht="14.25" customHeight="1">
       <c r="U225" s="2"/>
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="21:23" ht="14.25" customHeight="1">
       <c r="U226" s="2"/>
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="21:23" ht="14.25" customHeight="1">
       <c r="U227" s="2"/>
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="21:23" ht="14.25" customHeight="1">
       <c r="U228" s="2"/>
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="21:23" ht="14.25" customHeight="1">
       <c r="U229" s="2"/>
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="21:23" ht="14.25" customHeight="1">
       <c r="U230" s="2"/>
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="21:23" ht="14.25" customHeight="1">
       <c r="U231" s="2"/>
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="21:23" ht="14.25" customHeight="1">
       <c r="U232" s="2"/>
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="21:23" ht="14.25" customHeight="1">
       <c r="U233" s="2"/>
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="21:23" ht="14.25" customHeight="1">
       <c r="U234" s="2"/>
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="21:23" ht="14.25" customHeight="1">
       <c r="U235" s="2"/>
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="21:23" ht="14.25" customHeight="1">
       <c r="U236" s="2"/>
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="21:23" ht="14.25" customHeight="1">
       <c r="U237" s="2"/>
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="21:23" ht="14.25" customHeight="1">
       <c r="U238" s="2"/>
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="21:23" ht="14.25" customHeight="1">
       <c r="U239" s="2"/>
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="21:23" ht="14.25" customHeight="1">
       <c r="U240" s="2"/>
       <c r="V240" s="2"/>
       <c r="W240" s="2"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="21:23" ht="14.25" customHeight="1">
       <c r="U241" s="2"/>
       <c r="V241" s="2"/>
       <c r="W241" s="2"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="21:23" ht="14.25" customHeight="1">
       <c r="U242" s="2"/>
       <c r="V242" s="2"/>
       <c r="W242" s="2"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="21:23" ht="14.25" customHeight="1">
       <c r="U243" s="2"/>
       <c r="V243" s="2"/>
       <c r="W243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="21:23" ht="15.75" customHeight="1">
       <c r="V244" s="2"/>
       <c r="W244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="21:23" ht="15.75" customHeight="1">
       <c r="V245" s="2"/>
       <c r="W245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="21:23" ht="15.75" customHeight="1">
       <c r="V246" s="2"/>
       <c r="W246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="21:23" ht="15.75" customHeight="1">
       <c r="V247" s="2"/>
       <c r="W247" s="2"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="21:23" ht="15.75" customHeight="1">
       <c r="V248" s="2"/>
       <c r="W248" s="2"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="21:23" ht="15.75" customHeight="1">
       <c r="V249" s="2"/>
       <c r="W249" s="2"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="21:23" ht="15.75" customHeight="1">
       <c r="V250" s="2"/>
       <c r="W250" s="2"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="251" spans="21:23" ht="15.75" customHeight="1"/>
+    <row r="252" spans="21:23" ht="15.75" customHeight="1"/>
+    <row r="253" spans="21:23" ht="15.75" customHeight="1"/>
+    <row r="254" spans="21:23" ht="15.75" customHeight="1"/>
+    <row r="255" spans="21:23" ht="15.75" customHeight="1"/>
+    <row r="256" spans="21:23" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -6459,35 +6462,31 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Y5"/>
-    <hyperlink r:id="rId2" ref="V16"/>
-    <hyperlink r:id="rId3" ref="Y50"/>
+    <hyperlink ref="Y5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Y50" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="10" width="9.86"/>
-    <col customWidth="1" min="11" max="12" width="8.71"/>
-    <col customWidth="1" min="13" max="13" width="106.0"/>
-    <col customWidth="1" min="14" max="26" width="8.71"/>
+    <col min="1" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="106" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6515,7 +6514,7 @@
       <c r="I1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>293</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -6528,7 +6527,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>297</v>
       </c>
@@ -6550,11 +6549,11 @@
       <c r="H2" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>303</v>
       </c>
       <c r="K2" s="1">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>304</v>
@@ -6563,17 +6562,17 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>307</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -6582,7 +6581,7 @@
       <c r="H3" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>310</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -6592,922 +6591,922 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" ht="47.25" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:26" ht="47.25" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="J5" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="J6" s="17"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="J7" s="17"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J7" s="16"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="J8" s="17"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="J9" s="17"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="J10" s="17"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J10" s="16"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="J11" s="17"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="J12" s="17"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="J13" s="17"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J13" s="16"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="J14" s="17"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="J15" s="17"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="J16" s="17"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="J16" s="16"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="J17" s="17"/>
+    <row r="17" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="J18" s="17"/>
+    <row r="18" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="J19" s="17"/>
+    <row r="19" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J19" s="16"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="J20" s="17"/>
+    <row r="20" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="J21" s="17"/>
+    <row r="21" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="J22" s="17"/>
+    <row r="22" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J22" s="16"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="J23" s="17"/>
+    <row r="23" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="J24" s="17"/>
+    <row r="24" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J24" s="16"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="J25" s="17"/>
+    <row r="25" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J25" s="16"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="J26" s="17"/>
+    <row r="26" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J26" s="16"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="J27" s="17"/>
+    <row r="27" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J27" s="16"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="J28" s="17"/>
+    <row r="28" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J28" s="16"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="J29" s="17"/>
+    <row r="29" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J29" s="16"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="J30" s="17"/>
+    <row r="30" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J30" s="16"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="J31" s="17"/>
+    <row r="31" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J31" s="16"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="J32" s="17"/>
+    <row r="32" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J32" s="16"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="J33" s="17"/>
+    <row r="33" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J33" s="16"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="J34" s="17"/>
+    <row r="34" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J34" s="16"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="J35" s="17"/>
+    <row r="35" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J35" s="16"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="J36" s="17"/>
+    <row r="36" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J36" s="16"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="J37" s="17"/>
+    <row r="37" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J37" s="16"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="J38" s="17"/>
+    <row r="38" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J38" s="16"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="J39" s="17"/>
+    <row r="39" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J39" s="16"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="J40" s="17"/>
+    <row r="40" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J40" s="16"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="J41" s="17"/>
+    <row r="41" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J41" s="16"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="J42" s="17"/>
+    <row r="42" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J42" s="16"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="J43" s="17"/>
+    <row r="43" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J43" s="16"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="J44" s="17"/>
+    <row r="44" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J44" s="16"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="J45" s="17"/>
+    <row r="45" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J45" s="16"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="J46" s="17"/>
+    <row r="46" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J46" s="16"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="J47" s="17"/>
+    <row r="47" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J47" s="16"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="J48" s="17"/>
+    <row r="48" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J48" s="16"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="J49" s="17"/>
+    <row r="49" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J49" s="16"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="J50" s="17"/>
+    <row r="50" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J50" s="16"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="J51" s="17"/>
+    <row r="51" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J51" s="16"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="J52" s="17"/>
+    <row r="52" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J52" s="16"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="J53" s="17"/>
+    <row r="53" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J53" s="16"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="J54" s="17"/>
+    <row r="54" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J54" s="16"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="J55" s="17"/>
+    <row r="55" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J55" s="16"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="J56" s="17"/>
+    <row r="56" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J56" s="16"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="J57" s="17"/>
+    <row r="57" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J57" s="16"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="J58" s="17"/>
+    <row r="58" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J58" s="16"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="J59" s="17"/>
+    <row r="59" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J59" s="16"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="J60" s="17"/>
+    <row r="60" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J60" s="16"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="J61" s="17"/>
+    <row r="61" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J61" s="16"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="J62" s="17"/>
+    <row r="62" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J62" s="16"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="J63" s="17"/>
+    <row r="63" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J63" s="16"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="J64" s="17"/>
+    <row r="64" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J64" s="16"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="J65" s="17"/>
+    <row r="65" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J65" s="16"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="J66" s="17"/>
+    <row r="66" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J66" s="16"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="J67" s="17"/>
+    <row r="67" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J67" s="16"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="J68" s="17"/>
+    <row r="68" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J68" s="16"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="J69" s="17"/>
+    <row r="69" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J69" s="16"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="J70" s="17"/>
+    <row r="70" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J70" s="16"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="J71" s="17"/>
+    <row r="71" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J71" s="16"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="J72" s="17"/>
+    <row r="72" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J72" s="16"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="J73" s="17"/>
+    <row r="73" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J73" s="16"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="J74" s="17"/>
+    <row r="74" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J74" s="16"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="J75" s="17"/>
+    <row r="75" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J75" s="16"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="J76" s="17"/>
+    <row r="76" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J76" s="16"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="J77" s="17"/>
+    <row r="77" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J77" s="16"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="J78" s="17"/>
+    <row r="78" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J78" s="16"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="J79" s="17"/>
+    <row r="79" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J79" s="16"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="J80" s="17"/>
+    <row r="80" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J80" s="16"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="J81" s="17"/>
+    <row r="81" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J81" s="16"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="J82" s="17"/>
+    <row r="82" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J82" s="16"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="J83" s="17"/>
+    <row r="83" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J83" s="16"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="J84" s="17"/>
+    <row r="84" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J84" s="16"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="J85" s="17"/>
+    <row r="85" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J85" s="16"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="J86" s="17"/>
+    <row r="86" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J86" s="16"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="J87" s="17"/>
+    <row r="87" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J87" s="16"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="J88" s="17"/>
+    <row r="88" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J88" s="16"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="J89" s="17"/>
+    <row r="89" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J89" s="16"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="J90" s="17"/>
+    <row r="90" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J90" s="16"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="J91" s="17"/>
+    <row r="91" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J91" s="16"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="J92" s="17"/>
+    <row r="92" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J92" s="16"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="J93" s="17"/>
+    <row r="93" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J93" s="16"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="J94" s="17"/>
+    <row r="94" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J94" s="16"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="J95" s="17"/>
+    <row r="95" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J95" s="16"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="J96" s="17"/>
+    <row r="96" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J96" s="16"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="J97" s="17"/>
+    <row r="97" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J97" s="16"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="J98" s="17"/>
+    <row r="98" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J98" s="16"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="J99" s="17"/>
+    <row r="99" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J99" s="16"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="J100" s="17"/>
+    <row r="100" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J100" s="16"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="J101" s="17"/>
+    <row r="101" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J101" s="16"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="J102" s="17"/>
+    <row r="102" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J102" s="16"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="J103" s="17"/>
+    <row r="103" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J103" s="16"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="J104" s="17"/>
+    <row r="104" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J104" s="16"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="J105" s="17"/>
+    <row r="105" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J105" s="16"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="J106" s="17"/>
+    <row r="106" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J106" s="16"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="J107" s="17"/>
+    <row r="107" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J107" s="16"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="J108" s="17"/>
+    <row r="108" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J108" s="16"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="J109" s="17"/>
+    <row r="109" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J109" s="16"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="J110" s="17"/>
+    <row r="110" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J110" s="16"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="J111" s="17"/>
+    <row r="111" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J111" s="16"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="J112" s="17"/>
+    <row r="112" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J112" s="16"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="J113" s="17"/>
+    <row r="113" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J113" s="16"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="J114" s="17"/>
+    <row r="114" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J114" s="16"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="J115" s="17"/>
+    <row r="115" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J115" s="16"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="J116" s="17"/>
+    <row r="116" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J116" s="16"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="J117" s="17"/>
+    <row r="117" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J117" s="16"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="J118" s="17"/>
+    <row r="118" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J118" s="16"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="J119" s="17"/>
+    <row r="119" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J119" s="16"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="J120" s="17"/>
+    <row r="120" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J120" s="16"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="J121" s="17"/>
+    <row r="121" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J121" s="16"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="J122" s="17"/>
+    <row r="122" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J122" s="16"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="J123" s="17"/>
+    <row r="123" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J123" s="16"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="J124" s="17"/>
+    <row r="124" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J124" s="16"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="J125" s="17"/>
+    <row r="125" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J125" s="16"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="J126" s="17"/>
+    <row r="126" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J126" s="16"/>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="J127" s="17"/>
+    <row r="127" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J127" s="16"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="J128" s="17"/>
+    <row r="128" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J128" s="16"/>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="J129" s="17"/>
+    <row r="129" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J129" s="16"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="J130" s="17"/>
+    <row r="130" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J130" s="16"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="J131" s="17"/>
+    <row r="131" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J131" s="16"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="J132" s="17"/>
+    <row r="132" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J132" s="16"/>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="J133" s="17"/>
+    <row r="133" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J133" s="16"/>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="J134" s="17"/>
+    <row r="134" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J134" s="16"/>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="J135" s="17"/>
+    <row r="135" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J135" s="16"/>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="J136" s="17"/>
+    <row r="136" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J136" s="16"/>
       <c r="M136" s="2"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="J137" s="17"/>
+    <row r="137" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J137" s="16"/>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="J138" s="17"/>
+    <row r="138" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J138" s="16"/>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="J139" s="17"/>
+    <row r="139" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J139" s="16"/>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="J140" s="17"/>
+    <row r="140" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J140" s="16"/>
       <c r="M140" s="2"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="J141" s="17"/>
+    <row r="141" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J141" s="16"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="J142" s="17"/>
+    <row r="142" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J142" s="16"/>
       <c r="M142" s="2"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="J143" s="17"/>
+    <row r="143" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J143" s="16"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="J144" s="17"/>
+    <row r="144" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J144" s="16"/>
       <c r="M144" s="2"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="J145" s="17"/>
+    <row r="145" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J145" s="16"/>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="J146" s="17"/>
+    <row r="146" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J146" s="16"/>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="J147" s="17"/>
+    <row r="147" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J147" s="16"/>
       <c r="M147" s="2"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="J148" s="17"/>
+    <row r="148" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J148" s="16"/>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="J149" s="17"/>
+    <row r="149" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J149" s="16"/>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="J150" s="17"/>
+    <row r="150" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J150" s="16"/>
       <c r="M150" s="2"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="J151" s="17"/>
+    <row r="151" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J151" s="16"/>
       <c r="M151" s="2"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="J152" s="17"/>
+    <row r="152" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J152" s="16"/>
       <c r="M152" s="2"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="J153" s="17"/>
+    <row r="153" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J153" s="16"/>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="J154" s="17"/>
+    <row r="154" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J154" s="16"/>
       <c r="M154" s="2"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="J155" s="17"/>
+    <row r="155" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J155" s="16"/>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
-      <c r="J156" s="17"/>
+    <row r="156" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J156" s="16"/>
       <c r="M156" s="2"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
-      <c r="J157" s="17"/>
+    <row r="157" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J157" s="16"/>
       <c r="M157" s="2"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
-      <c r="J158" s="17"/>
+    <row r="158" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J158" s="16"/>
       <c r="M158" s="2"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
-      <c r="J159" s="17"/>
+    <row r="159" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J159" s="16"/>
       <c r="M159" s="2"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
-      <c r="J160" s="17"/>
+    <row r="160" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J160" s="16"/>
       <c r="M160" s="2"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
-      <c r="J161" s="17"/>
+    <row r="161" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J161" s="16"/>
       <c r="M161" s="2"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
-      <c r="J162" s="17"/>
+    <row r="162" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J162" s="16"/>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
-      <c r="J163" s="17"/>
+    <row r="163" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J163" s="16"/>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
-      <c r="J164" s="17"/>
+    <row r="164" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J164" s="16"/>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
-      <c r="J165" s="17"/>
+    <row r="165" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J165" s="16"/>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
-      <c r="J166" s="17"/>
+    <row r="166" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J166" s="16"/>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
-      <c r="J167" s="17"/>
+    <row r="167" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J167" s="16"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
-      <c r="J168" s="17"/>
+    <row r="168" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J168" s="16"/>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
-      <c r="J169" s="17"/>
+    <row r="169" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J169" s="16"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
-      <c r="J170" s="17"/>
+    <row r="170" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J170" s="16"/>
       <c r="M170" s="2"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
-      <c r="J171" s="17"/>
+    <row r="171" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J171" s="16"/>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
-      <c r="J172" s="17"/>
+    <row r="172" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J172" s="16"/>
       <c r="M172" s="2"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
-      <c r="J173" s="17"/>
+    <row r="173" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J173" s="16"/>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
-      <c r="J174" s="17"/>
+    <row r="174" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J174" s="16"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
-      <c r="J175" s="17"/>
+    <row r="175" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J175" s="16"/>
       <c r="M175" s="2"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
-      <c r="J176" s="17"/>
+    <row r="176" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J176" s="16"/>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
-      <c r="J177" s="17"/>
+    <row r="177" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J177" s="16"/>
       <c r="M177" s="2"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
-      <c r="J178" s="17"/>
+    <row r="178" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J178" s="16"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
-      <c r="J179" s="17"/>
+    <row r="179" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J179" s="16"/>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
-      <c r="J180" s="17"/>
+    <row r="180" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J180" s="16"/>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
-      <c r="J181" s="17"/>
+    <row r="181" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J181" s="16"/>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
-      <c r="J182" s="17"/>
+    <row r="182" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J182" s="16"/>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
-      <c r="J183" s="17"/>
+    <row r="183" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J183" s="16"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
-      <c r="J184" s="17"/>
+    <row r="184" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J184" s="16"/>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
-      <c r="J185" s="17"/>
+    <row r="185" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J185" s="16"/>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
-      <c r="J186" s="17"/>
+    <row r="186" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J186" s="16"/>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
-      <c r="J187" s="17"/>
+    <row r="187" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J187" s="16"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
-      <c r="J188" s="17"/>
+    <row r="188" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J188" s="16"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
-      <c r="J189" s="17"/>
+    <row r="189" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J189" s="16"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
-      <c r="J190" s="17"/>
+    <row r="190" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J190" s="16"/>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
-      <c r="J191" s="17"/>
+    <row r="191" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J191" s="16"/>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
-      <c r="J192" s="17"/>
+    <row r="192" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J192" s="16"/>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
-      <c r="J193" s="17"/>
+    <row r="193" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J193" s="16"/>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
-      <c r="J194" s="17"/>
+    <row r="194" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J194" s="16"/>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
-      <c r="J195" s="17"/>
+    <row r="195" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J195" s="16"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
-      <c r="J196" s="17"/>
+    <row r="196" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J196" s="16"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
-      <c r="J197" s="17"/>
+    <row r="197" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J197" s="16"/>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
-      <c r="J198" s="17"/>
+    <row r="198" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J198" s="16"/>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
-      <c r="J199" s="17"/>
+    <row r="199" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J199" s="16"/>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
-      <c r="J200" s="17"/>
+    <row r="200" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J200" s="16"/>
       <c r="M200" s="2"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
-      <c r="J201" s="17"/>
+    <row r="201" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J201" s="16"/>
       <c r="M201" s="2"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
-      <c r="J202" s="17"/>
+    <row r="202" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J202" s="16"/>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
-      <c r="J203" s="17"/>
+    <row r="203" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J203" s="16"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
-      <c r="J204" s="17"/>
+    <row r="204" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J204" s="16"/>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
-      <c r="J205" s="17"/>
+    <row r="205" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J205" s="16"/>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
-      <c r="J206" s="17"/>
+    <row r="206" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J206" s="16"/>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
-      <c r="J207" s="17"/>
+    <row r="207" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J207" s="16"/>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
-      <c r="J208" s="17"/>
+    <row r="208" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J208" s="16"/>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
-      <c r="J209" s="17"/>
+    <row r="209" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J209" s="16"/>
       <c r="M209" s="2"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
-      <c r="J210" s="17"/>
+    <row r="210" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J210" s="16"/>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
-      <c r="J211" s="17"/>
+    <row r="211" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J211" s="16"/>
       <c r="M211" s="2"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
-      <c r="J212" s="17"/>
+    <row r="212" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J212" s="16"/>
       <c r="M212" s="2"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
-      <c r="J213" s="17"/>
+    <row r="213" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J213" s="16"/>
       <c r="M213" s="2"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
-      <c r="J214" s="17"/>
+    <row r="214" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J214" s="16"/>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
-      <c r="J215" s="17"/>
+    <row r="215" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J215" s="16"/>
       <c r="M215" s="2"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
-      <c r="J216" s="17"/>
+    <row r="216" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J216" s="16"/>
       <c r="M216" s="2"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
-      <c r="J217" s="17"/>
+    <row r="217" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J217" s="16"/>
       <c r="M217" s="2"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
-      <c r="J218" s="17"/>
+    <row r="218" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J218" s="16"/>
       <c r="M218" s="2"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
-      <c r="J219" s="17"/>
+    <row r="219" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J219" s="16"/>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
-      <c r="J220" s="17"/>
+    <row r="220" spans="10:13" ht="14.25" customHeight="1">
+      <c r="J220" s="16"/>
       <c r="M220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="10:13" ht="15.75" customHeight="1"/>
+    <row r="222" spans="10:13" ht="15.75" customHeight="1"/>
+    <row r="223" spans="10:13" ht="15.75" customHeight="1"/>
+    <row r="224" spans="10:13" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -8285,27 +8284,23 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="8.71"/>
+    <col min="1" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>319</v>
       </c>
@@ -8316,21 +8311,21 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -9316,34 +9311,30 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.29"/>
-    <col customWidth="1" min="2" max="2" width="53.14"/>
-    <col customWidth="1" min="3" max="3" width="12.43"/>
-    <col customWidth="1" min="4" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="25.57"/>
-    <col customWidth="1" min="7" max="7" width="10.43"/>
-    <col customWidth="1" min="8" max="8" width="13.71"/>
-    <col customWidth="1" min="12" max="12" width="65.43"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>266</v>
       </c>
@@ -9387,21 +9378,21 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:16" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>333</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>335</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>336</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -9416,34 +9407,34 @@
       <c r="L2" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="27" t="s">
         <v>342</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:16" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>344</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>346</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>336</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -9461,7 +9452,7 @@
       <c r="K3" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="28" t="s">
         <v>350</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -9471,21 +9462,21 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>352</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>354</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>336</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -9516,11 +9507,11 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>360</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -9530,7 +9521,7 @@
         <v>362</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>336</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -9548,7 +9539,7 @@
       <c r="K5" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="28" t="s">
         <v>366</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -9561,17 +9552,17 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -10558,42 +10549,40 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="F2"/>
-    <hyperlink r:id="rId3" ref="L2"/>
-    <hyperlink r:id="rId4" ref="D3"/>
-    <hyperlink r:id="rId5" ref="F3"/>
-    <hyperlink r:id="rId6" ref="L3"/>
-    <hyperlink r:id="rId7" ref="D4"/>
-    <hyperlink r:id="rId8" ref="F4"/>
-    <hyperlink r:id="rId9" ref="L4"/>
-    <hyperlink r:id="rId10" ref="F5"/>
-    <hyperlink r:id="rId11" ref="L5"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="L3" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="L4" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="F5" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="L5" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.29"/>
-    <col customWidth="1" min="2" max="2" width="23.71"/>
-    <col customWidth="1" min="3" max="3" width="386.0"/>
-    <col customWidth="1" min="4" max="6" width="8.71"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="386" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10604,366 +10593,366 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="31" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="B28" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="31" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="B36" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="31" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -10971,7 +10960,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>159</v>
       </c>
@@ -10979,7 +10968,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="B39" s="1" t="s">
         <v>411</v>
       </c>
@@ -10987,7 +10976,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="B40" s="1" t="s">
         <v>411</v>
       </c>
@@ -10995,7 +10984,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="B41" s="1" t="s">
         <v>411</v>
       </c>
@@ -11003,7 +10992,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="B42" s="1" t="s">
         <v>411</v>
       </c>
@@ -11011,7 +11000,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="B43" s="1" t="s">
         <v>411</v>
       </c>
@@ -11019,7 +11008,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>159</v>
       </c>
@@ -11030,7 +11019,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -11041,7 +11030,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
@@ -11052,7 +11041,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>226</v>
       </c>
@@ -11063,7 +11052,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="B48" s="1" t="s">
         <v>422</v>
       </c>
@@ -11071,7 +11060,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
@@ -11082,7 +11071,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>80</v>
       </c>
@@ -11093,29 +11082,29 @@
         <v>426</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="28" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="28" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>159</v>
       </c>
@@ -11126,18 +11115,18 @@
         <v>425</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="28" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
@@ -11148,62 +11137,62 @@
         <v>431</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="28" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="28" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="28" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="28" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="28" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -11214,7 +11203,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>159</v>
       </c>
@@ -11225,7 +11214,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>159</v>
       </c>
@@ -11236,7 +11225,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>143</v>
       </c>
@@ -11247,7 +11236,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>143</v>
       </c>
@@ -11258,9 +11247,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>437</v>
@@ -11269,9 +11258,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>437</v>
@@ -11280,66 +11269,86 @@
         <v>442</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C68" s="2" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C69" s="2" t="s">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C70" s="2" t="s">
+    <row r="73" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B74" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="B72" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -11501,8 +11510,8 @@
     <row r="239" ht="14.25" customHeight="1"/>
     <row r="240" ht="14.25" customHeight="1"/>
     <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
     <row r="244" ht="15.75" customHeight="1"/>
     <row r="245" ht="15.75" customHeight="1"/>
     <row r="246" ht="15.75" customHeight="1"/>
@@ -12260,57 +12269,55 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C51"/>
-    <hyperlink r:id="rId2" ref="C52"/>
-    <hyperlink r:id="rId3" ref="C54"/>
-    <hyperlink r:id="rId4" ref="C56"/>
-    <hyperlink r:id="rId5" ref="C57"/>
-    <hyperlink r:id="rId6" ref="C58"/>
-    <hyperlink r:id="rId7" ref="C59"/>
-    <hyperlink r:id="rId8" ref="C60"/>
+    <hyperlink ref="C51" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C54" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C56" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C57" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C58" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C59" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C60" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="4" width="14.29"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
+    <col min="1" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -13294,190 +13301,186 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.29"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="179.43"/>
-    <col customWidth="1" min="7" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="8" width="18.29"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="179.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>350</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D2" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" s="1">
+        <v>450</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D3" s="1">
-        <v>450.0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="1">
+        <v>650</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D4" s="1">
-        <v>650.0</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="D6" s="1">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D7" s="1">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="D8" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D9" s="1">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>226</v>
       </c>
@@ -13485,717 +13488,717 @@
         <v>228</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D10" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" s="1">
+        <v>300</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D11" s="1">
-        <v>300.0</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D12" s="1">
+        <v>560</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D12" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D13" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="1">
+        <v>240</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D14" s="1">
-        <v>240.0</v>
-      </c>
-      <c r="F14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D15" s="1">
+        <v>240</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D15" s="1">
-        <v>240.0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+    </row>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="F16" s="2"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="6:6" ht="14.25" customHeight="1">
       <c r="F17" s="2"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="6:6" ht="14.25" customHeight="1">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="6:6" ht="14.25" customHeight="1">
       <c r="F19" s="2"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="6:6" ht="14.25" customHeight="1">
       <c r="F20" s="2"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="6:6" ht="14.25" customHeight="1">
       <c r="F21" s="2"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="6:6" ht="14.25" customHeight="1">
       <c r="F22" s="2"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="6:6" ht="14.25" customHeight="1">
       <c r="F23" s="2"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="6:6" ht="14.25" customHeight="1">
       <c r="F24" s="2"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="6:6" ht="14.25" customHeight="1">
       <c r="F25" s="2"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="6:6" ht="14.25" customHeight="1">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="6:6" ht="14.25" customHeight="1">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="6:6" ht="14.25" customHeight="1">
       <c r="F28" s="2"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="6:6" ht="14.25" customHeight="1">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="6:6" ht="14.25" customHeight="1">
       <c r="F30" s="2"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="6:6" ht="14.25" customHeight="1">
       <c r="F31" s="2"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="6:6" ht="14.25" customHeight="1">
       <c r="F32" s="2"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="6:6" ht="14.25" customHeight="1">
       <c r="F33" s="2"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="6:6" ht="14.25" customHeight="1">
       <c r="F34" s="2"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="6:6" ht="14.25" customHeight="1">
       <c r="F35" s="2"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="6:6" ht="14.25" customHeight="1">
       <c r="F36" s="2"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="6:6" ht="14.25" customHeight="1">
       <c r="F37" s="2"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="6:6" ht="14.25" customHeight="1">
       <c r="F38" s="2"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="6:6" ht="14.25" customHeight="1">
       <c r="F39" s="2"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="6:6" ht="14.25" customHeight="1">
       <c r="F40" s="2"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="6:6" ht="14.25" customHeight="1">
       <c r="F41" s="2"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="6:6" ht="14.25" customHeight="1">
       <c r="F42" s="2"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="6:6" ht="14.25" customHeight="1">
       <c r="F43" s="2"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="6:6" ht="14.25" customHeight="1">
       <c r="F44" s="2"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="6:6" ht="14.25" customHeight="1">
       <c r="F45" s="2"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="6:6" ht="14.25" customHeight="1">
       <c r="F46" s="2"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="6:6" ht="14.25" customHeight="1">
       <c r="F47" s="2"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="6:6" ht="14.25" customHeight="1">
       <c r="F48" s="2"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="6:6" ht="14.25" customHeight="1">
       <c r="F49" s="2"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="6:6" ht="14.25" customHeight="1">
       <c r="F50" s="2"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="6:6" ht="14.25" customHeight="1">
       <c r="F51" s="2"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="6:6" ht="14.25" customHeight="1">
       <c r="F52" s="2"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="6:6" ht="14.25" customHeight="1">
       <c r="F53" s="2"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="6:6" ht="14.25" customHeight="1">
       <c r="F54" s="2"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="6:6" ht="14.25" customHeight="1">
       <c r="F55" s="2"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="6:6" ht="14.25" customHeight="1">
       <c r="F56" s="2"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="6:6" ht="14.25" customHeight="1">
       <c r="F57" s="2"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="6:6" ht="14.25" customHeight="1">
       <c r="F58" s="2"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="6:6" ht="14.25" customHeight="1">
       <c r="F59" s="2"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="6:6" ht="14.25" customHeight="1">
       <c r="F60" s="2"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="6:6" ht="14.25" customHeight="1">
       <c r="F61" s="2"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="6:6" ht="14.25" customHeight="1">
       <c r="F62" s="2"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="6:6" ht="14.25" customHeight="1">
       <c r="F63" s="2"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="6:6" ht="14.25" customHeight="1">
       <c r="F64" s="2"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="6:6" ht="14.25" customHeight="1">
       <c r="F65" s="2"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="6:6" ht="14.25" customHeight="1">
       <c r="F66" s="2"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="6:6" ht="14.25" customHeight="1">
       <c r="F67" s="2"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="6:6" ht="14.25" customHeight="1">
       <c r="F68" s="2"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="6:6" ht="14.25" customHeight="1">
       <c r="F69" s="2"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="6:6" ht="14.25" customHeight="1">
       <c r="F70" s="2"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="6:6" ht="14.25" customHeight="1">
       <c r="F71" s="2"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="6:6" ht="14.25" customHeight="1">
       <c r="F72" s="2"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="6:6" ht="14.25" customHeight="1">
       <c r="F73" s="2"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="6:6" ht="14.25" customHeight="1">
       <c r="F74" s="2"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="6:6" ht="14.25" customHeight="1">
       <c r="F75" s="2"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="6:6" ht="14.25" customHeight="1">
       <c r="F76" s="2"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="6:6" ht="14.25" customHeight="1">
       <c r="F77" s="2"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="6:6" ht="14.25" customHeight="1">
       <c r="F78" s="2"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="6:6" ht="14.25" customHeight="1">
       <c r="F79" s="2"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="6:6" ht="14.25" customHeight="1">
       <c r="F80" s="2"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="6:6" ht="14.25" customHeight="1">
       <c r="F81" s="2"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="6:6" ht="14.25" customHeight="1">
       <c r="F82" s="2"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="6:6" ht="14.25" customHeight="1">
       <c r="F83" s="2"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="6:6" ht="14.25" customHeight="1">
       <c r="F84" s="2"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="6:6" ht="14.25" customHeight="1">
       <c r="F85" s="2"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="6:6" ht="14.25" customHeight="1">
       <c r="F86" s="2"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="6:6" ht="14.25" customHeight="1">
       <c r="F87" s="2"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="6:6" ht="14.25" customHeight="1">
       <c r="F88" s="2"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="6:6" ht="14.25" customHeight="1">
       <c r="F89" s="2"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="6:6" ht="14.25" customHeight="1">
       <c r="F90" s="2"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="6:6" ht="14.25" customHeight="1">
       <c r="F91" s="2"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="6:6" ht="14.25" customHeight="1">
       <c r="F92" s="2"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="6:6" ht="14.25" customHeight="1">
       <c r="F93" s="2"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="6:6" ht="14.25" customHeight="1">
       <c r="F94" s="2"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="6:6" ht="14.25" customHeight="1">
       <c r="F95" s="2"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="6:6" ht="14.25" customHeight="1">
       <c r="F96" s="2"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="6:6" ht="14.25" customHeight="1">
       <c r="F97" s="2"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="6:6" ht="14.25" customHeight="1">
       <c r="F98" s="2"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="6:6" ht="14.25" customHeight="1">
       <c r="F99" s="2"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="6:6" ht="14.25" customHeight="1">
       <c r="F100" s="2"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="6:6" ht="14.25" customHeight="1">
       <c r="F101" s="2"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="6:6" ht="14.25" customHeight="1">
       <c r="F102" s="2"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="6:6" ht="14.25" customHeight="1">
       <c r="F103" s="2"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="6:6" ht="14.25" customHeight="1">
       <c r="F104" s="2"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="6:6" ht="14.25" customHeight="1">
       <c r="F105" s="2"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="6:6" ht="14.25" customHeight="1">
       <c r="F106" s="2"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="6:6" ht="14.25" customHeight="1">
       <c r="F107" s="2"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="6:6" ht="14.25" customHeight="1">
       <c r="F108" s="2"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="6:6" ht="14.25" customHeight="1">
       <c r="F109" s="2"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="6:6" ht="14.25" customHeight="1">
       <c r="F110" s="2"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="6:6" ht="14.25" customHeight="1">
       <c r="F111" s="2"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="6:6" ht="14.25" customHeight="1">
       <c r="F112" s="2"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="6:6" ht="14.25" customHeight="1">
       <c r="F113" s="2"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="6:6" ht="14.25" customHeight="1">
       <c r="F114" s="2"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="6:6" ht="14.25" customHeight="1">
       <c r="F115" s="2"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="6:6" ht="14.25" customHeight="1">
       <c r="F116" s="2"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="6:6" ht="14.25" customHeight="1">
       <c r="F117" s="2"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="6:6" ht="14.25" customHeight="1">
       <c r="F118" s="2"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="6:6" ht="14.25" customHeight="1">
       <c r="F119" s="2"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="6:6" ht="14.25" customHeight="1">
       <c r="F120" s="2"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="6:6" ht="14.25" customHeight="1">
       <c r="F121" s="2"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="6:6" ht="14.25" customHeight="1">
       <c r="F122" s="2"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="6:6" ht="14.25" customHeight="1">
       <c r="F123" s="2"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="6:6" ht="14.25" customHeight="1">
       <c r="F124" s="2"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="6:6" ht="14.25" customHeight="1">
       <c r="F125" s="2"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="6:6" ht="14.25" customHeight="1">
       <c r="F126" s="2"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="6:6" ht="14.25" customHeight="1">
       <c r="F127" s="2"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="6:6" ht="14.25" customHeight="1">
       <c r="F128" s="2"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="6:6" ht="14.25" customHeight="1">
       <c r="F129" s="2"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="6:6" ht="14.25" customHeight="1">
       <c r="F130" s="2"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="6:6" ht="14.25" customHeight="1">
       <c r="F131" s="2"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="6:6" ht="14.25" customHeight="1">
       <c r="F132" s="2"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="6:6" ht="14.25" customHeight="1">
       <c r="F133" s="2"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="6:6" ht="14.25" customHeight="1">
       <c r="F134" s="2"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="6:6" ht="14.25" customHeight="1">
       <c r="F135" s="2"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="6:6" ht="14.25" customHeight="1">
       <c r="F136" s="2"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="6:6" ht="14.25" customHeight="1">
       <c r="F137" s="2"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="6:6" ht="14.25" customHeight="1">
       <c r="F138" s="2"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="6:6" ht="14.25" customHeight="1">
       <c r="F139" s="2"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="6:6" ht="14.25" customHeight="1">
       <c r="F140" s="2"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="6:6" ht="14.25" customHeight="1">
       <c r="F141" s="2"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="6:6" ht="14.25" customHeight="1">
       <c r="F142" s="2"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="6:6" ht="14.25" customHeight="1">
       <c r="F143" s="2"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="6:6" ht="14.25" customHeight="1">
       <c r="F144" s="2"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="6:6" ht="14.25" customHeight="1">
       <c r="F145" s="2"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="6:6" ht="14.25" customHeight="1">
       <c r="F146" s="2"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="6:6" ht="14.25" customHeight="1">
       <c r="F147" s="2"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="6:6" ht="14.25" customHeight="1">
       <c r="F148" s="2"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="6:6" ht="14.25" customHeight="1">
       <c r="F149" s="2"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="6:6" ht="14.25" customHeight="1">
       <c r="F150" s="2"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="6:6" ht="14.25" customHeight="1">
       <c r="F151" s="2"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="6:6" ht="14.25" customHeight="1">
       <c r="F152" s="2"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="6:6" ht="14.25" customHeight="1">
       <c r="F153" s="2"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="6:6" ht="14.25" customHeight="1">
       <c r="F154" s="2"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="6:6" ht="14.25" customHeight="1">
       <c r="F155" s="2"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="6:6" ht="14.25" customHeight="1">
       <c r="F156" s="2"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="6:6" ht="14.25" customHeight="1">
       <c r="F157" s="2"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="6:6" ht="14.25" customHeight="1">
       <c r="F158" s="2"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="6:6" ht="14.25" customHeight="1">
       <c r="F159" s="2"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="6:6" ht="14.25" customHeight="1">
       <c r="F160" s="2"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="6:6" ht="14.25" customHeight="1">
       <c r="F161" s="2"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="6:6" ht="14.25" customHeight="1">
       <c r="F162" s="2"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="6:6" ht="14.25" customHeight="1">
       <c r="F163" s="2"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="6:6" ht="14.25" customHeight="1">
       <c r="F164" s="2"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="6:6" ht="14.25" customHeight="1">
       <c r="F165" s="2"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="6:6" ht="14.25" customHeight="1">
       <c r="F166" s="2"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="6:6" ht="14.25" customHeight="1">
       <c r="F167" s="2"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="6:6" ht="14.25" customHeight="1">
       <c r="F168" s="2"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="6:6" ht="14.25" customHeight="1">
       <c r="F169" s="2"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="6:6" ht="14.25" customHeight="1">
       <c r="F170" s="2"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="6:6" ht="14.25" customHeight="1">
       <c r="F171" s="2"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="6:6" ht="14.25" customHeight="1">
       <c r="F172" s="2"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="6:6" ht="14.25" customHeight="1">
       <c r="F173" s="2"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="6:6" ht="14.25" customHeight="1">
       <c r="F174" s="2"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="6:6" ht="14.25" customHeight="1">
       <c r="F175" s="2"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="6:6" ht="14.25" customHeight="1">
       <c r="F176" s="2"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="6:6" ht="14.25" customHeight="1">
       <c r="F177" s="2"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="6:6" ht="14.25" customHeight="1">
       <c r="F178" s="2"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="6:6" ht="14.25" customHeight="1">
       <c r="F179" s="2"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="6:6" ht="14.25" customHeight="1">
       <c r="F180" s="2"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="6:6" ht="14.25" customHeight="1">
       <c r="F181" s="2"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="6:6" ht="14.25" customHeight="1">
       <c r="F182" s="2"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="6:6" ht="14.25" customHeight="1">
       <c r="F183" s="2"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="6:6" ht="14.25" customHeight="1">
       <c r="F184" s="2"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="6:6" ht="14.25" customHeight="1">
       <c r="F185" s="2"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="6:6" ht="14.25" customHeight="1">
       <c r="F186" s="2"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="6:6" ht="14.25" customHeight="1">
       <c r="F187" s="2"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="6:6" ht="14.25" customHeight="1">
       <c r="F188" s="2"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="6:6" ht="14.25" customHeight="1">
       <c r="F189" s="2"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="6:6" ht="14.25" customHeight="1">
       <c r="F190" s="2"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="6:6" ht="14.25" customHeight="1">
       <c r="F191" s="2"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="6:6" ht="14.25" customHeight="1">
       <c r="F192" s="2"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="6:6" ht="14.25" customHeight="1">
       <c r="F193" s="2"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="6:6" ht="14.25" customHeight="1">
       <c r="F194" s="2"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="6:6" ht="14.25" customHeight="1">
       <c r="F195" s="2"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="6:6" ht="14.25" customHeight="1">
       <c r="F196" s="2"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="6:6" ht="14.25" customHeight="1">
       <c r="F197" s="2"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="6:6" ht="14.25" customHeight="1">
       <c r="F198" s="2"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="6:6" ht="14.25" customHeight="1">
       <c r="F199" s="2"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="6:6" ht="14.25" customHeight="1">
       <c r="F200" s="2"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="6:6" ht="14.25" customHeight="1">
       <c r="F201" s="2"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="6:6" ht="14.25" customHeight="1">
       <c r="F202" s="2"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="6:6" ht="14.25" customHeight="1">
       <c r="F203" s="2"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="6:6" ht="14.25" customHeight="1">
       <c r="F204" s="2"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="6:6" ht="14.25" customHeight="1">
       <c r="F205" s="2"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="6:6" ht="14.25" customHeight="1">
       <c r="F206" s="2"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="6:6" ht="14.25" customHeight="1">
       <c r="F207" s="2"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="6:6" ht="14.25" customHeight="1">
       <c r="F208" s="2"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="6:6" ht="14.25" customHeight="1">
       <c r="F209" s="2"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="6:6" ht="14.25" customHeight="1">
       <c r="F210" s="2"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="6:6" ht="14.25" customHeight="1">
       <c r="F211" s="2"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="6:6" ht="14.25" customHeight="1">
       <c r="F212" s="2"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="6:6" ht="14.25" customHeight="1">
       <c r="F213" s="2"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="6:6" ht="14.25" customHeight="1">
       <c r="F214" s="2"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="6:6" ht="14.25" customHeight="1">
       <c r="F215" s="2"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="6:6" ht="14.25" customHeight="1">
       <c r="F216" s="2"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="6:6" ht="14.25" customHeight="1">
       <c r="F217" s="2"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="6:6" ht="14.25" customHeight="1">
       <c r="F218" s="2"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="6:6" ht="14.25" customHeight="1">
       <c r="F219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="220" spans="6:6" ht="15.75" customHeight="1"/>
+    <row r="221" spans="6:6" ht="15.75" customHeight="1"/>
+    <row r="222" spans="6:6" ht="15.75" customHeight="1"/>
+    <row r="223" spans="6:6" ht="15.75" customHeight="1"/>
+    <row r="224" spans="6:6" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -14973,940 +14976,936 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.14"/>
-    <col customWidth="1" min="2" max="2" width="47.29"/>
-    <col customWidth="1" min="3" max="3" width="191.0"/>
-    <col customWidth="1" min="4" max="6" width="8.71"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="191" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B3" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B4" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B6" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B7" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="2:2" ht="14.25" customHeight="1">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="2:2" ht="14.25" customHeight="1">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="2:2" ht="14.25" customHeight="1">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="2:2" ht="14.25" customHeight="1">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="2:2" ht="14.25" customHeight="1">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="2:2" ht="14.25" customHeight="1">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="2:2" ht="14.25" customHeight="1">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="2:2" ht="14.25" customHeight="1">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="2:2" ht="14.25" customHeight="1">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="2:2" ht="14.25" customHeight="1">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="2:2" ht="14.25" customHeight="1">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="2:2" ht="14.25" customHeight="1">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="2:2" ht="14.25" customHeight="1">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="2:2" ht="14.25" customHeight="1">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="2:2" ht="14.25" customHeight="1">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="2:2" ht="14.25" customHeight="1">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="2:2" ht="14.25" customHeight="1">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="2:2" ht="14.25" customHeight="1">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="2:2" ht="14.25" customHeight="1">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="2:2" ht="14.25" customHeight="1">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="2:2" ht="14.25" customHeight="1">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="2:2" ht="14.25" customHeight="1">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="2:2" ht="14.25" customHeight="1">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="2:2" ht="14.25" customHeight="1">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="2:2" ht="14.25" customHeight="1">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="2:2" ht="14.25" customHeight="1">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="2:2" ht="14.25" customHeight="1">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="2:2" ht="14.25" customHeight="1">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="2:2" ht="14.25" customHeight="1">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="2:2" ht="14.25" customHeight="1">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="2:2" ht="14.25" customHeight="1">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="2:2" ht="14.25" customHeight="1">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="2:2" ht="14.25" customHeight="1">
       <c r="B81" s="1"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="2:2" ht="14.25" customHeight="1">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="2:2" ht="14.25" customHeight="1">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="2:2" ht="14.25" customHeight="1">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="2:2" ht="14.25" customHeight="1">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="2:2" ht="14.25" customHeight="1">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="2:2" ht="14.25" customHeight="1">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="2:2" ht="14.25" customHeight="1">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="2:2" ht="14.25" customHeight="1">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="2:2" ht="14.25" customHeight="1">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="2:2" ht="14.25" customHeight="1">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="2:2" ht="14.25" customHeight="1">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="2:2" ht="14.25" customHeight="1">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="2:2" ht="14.25" customHeight="1">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="2:2" ht="14.25" customHeight="1">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="2:2" ht="14.25" customHeight="1">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="2:2" ht="14.25" customHeight="1">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="2:2" ht="14.25" customHeight="1">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="2:2" ht="14.25" customHeight="1">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="2:2" ht="14.25" customHeight="1">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="2:2" ht="14.25" customHeight="1">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="2:2" ht="14.25" customHeight="1">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="2:2" ht="14.25" customHeight="1">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="2:2" ht="14.25" customHeight="1">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="2:2" ht="14.25" customHeight="1">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="2:2" ht="14.25" customHeight="1">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="2:2" ht="14.25" customHeight="1">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="2:2" ht="14.25" customHeight="1">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="2:2" ht="14.25" customHeight="1">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="2:2" ht="14.25" customHeight="1">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="2:2" ht="14.25" customHeight="1">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="2:2" ht="14.25" customHeight="1">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="2:2" ht="14.25" customHeight="1">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="2:2" ht="14.25" customHeight="1">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="2:2" ht="14.25" customHeight="1">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="2:2" ht="14.25" customHeight="1">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="2:2" ht="14.25" customHeight="1">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="2:2" ht="14.25" customHeight="1">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="2:2" ht="14.25" customHeight="1">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="2:2" ht="14.25" customHeight="1">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="2:2" ht="14.25" customHeight="1">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="2:2" ht="14.25" customHeight="1">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="2:2" ht="14.25" customHeight="1">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="2:2" ht="14.25" customHeight="1">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="2:2" ht="14.25" customHeight="1">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="2:2" ht="14.25" customHeight="1">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="2:2" ht="14.25" customHeight="1">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="2:2" ht="14.25" customHeight="1">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="2:2" ht="14.25" customHeight="1">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="2:2" ht="14.25" customHeight="1">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="2:2" ht="14.25" customHeight="1">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="2:2" ht="14.25" customHeight="1">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="2:2" ht="14.25" customHeight="1">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="2:2" ht="14.25" customHeight="1">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="2:2" ht="14.25" customHeight="1">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="2:2" ht="14.25" customHeight="1">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="2:2" ht="14.25" customHeight="1">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="2:2" ht="14.25" customHeight="1">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="2:2" ht="14.25" customHeight="1">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="2:2" ht="14.25" customHeight="1">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="2:2" ht="14.25" customHeight="1">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="2:2" ht="14.25" customHeight="1">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="2:2" ht="14.25" customHeight="1">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="2:2" ht="14.25" customHeight="1">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="2:2" ht="14.25" customHeight="1">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="2:2" ht="14.25" customHeight="1">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="2:2" ht="14.25" customHeight="1">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="2:2" ht="14.25" customHeight="1">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="2:2" ht="14.25" customHeight="1">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="2:2" ht="14.25" customHeight="1">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="2:2" ht="14.25" customHeight="1">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="2:2" ht="14.25" customHeight="1">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="2:2" ht="14.25" customHeight="1">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="2:2" ht="14.25" customHeight="1">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="2:2" ht="14.25" customHeight="1">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="2:2" ht="14.25" customHeight="1">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="2:2" ht="14.25" customHeight="1">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="2:2" ht="14.25" customHeight="1">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="2:2" ht="14.25" customHeight="1">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="2:2" ht="14.25" customHeight="1">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="2:2" ht="14.25" customHeight="1">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="2:2" ht="14.25" customHeight="1">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="2:2" ht="14.25" customHeight="1">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="2:2" ht="14.25" customHeight="1">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="2:2" ht="14.25" customHeight="1">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="2:2" ht="14.25" customHeight="1">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="2:2" ht="14.25" customHeight="1">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="2:2" ht="14.25" customHeight="1">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="2:2" ht="14.25" customHeight="1">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="2:2" ht="14.25" customHeight="1">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="2:2" ht="14.25" customHeight="1">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="2:2" ht="14.25" customHeight="1">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="2:2" ht="14.25" customHeight="1">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="2:2" ht="14.25" customHeight="1">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="2:2" ht="14.25" customHeight="1">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="2:2" ht="14.25" customHeight="1">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="2:2" ht="14.25" customHeight="1">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="2:2" ht="14.25" customHeight="1">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="2:2" ht="14.25" customHeight="1">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="2:2" ht="14.25" customHeight="1">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="2:2" ht="14.25" customHeight="1">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="2:2" ht="14.25" customHeight="1">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="2:2" ht="14.25" customHeight="1">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="2:2" ht="14.25" customHeight="1">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="2:2" ht="14.25" customHeight="1">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="2:2" ht="14.25" customHeight="1">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="2:2" ht="14.25" customHeight="1">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="2:2" ht="14.25" customHeight="1">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="2:2" ht="14.25" customHeight="1">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="2:2" ht="14.25" customHeight="1">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="2:2" ht="14.25" customHeight="1">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="2:2" ht="14.25" customHeight="1">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="2:2" ht="14.25" customHeight="1">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="2:2" ht="14.25" customHeight="1">
       <c r="B194" s="1"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="2:2" ht="14.25" customHeight="1">
       <c r="B195" s="1"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="2:2" ht="14.25" customHeight="1">
       <c r="B196" s="1"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="2:2" ht="14.25" customHeight="1">
       <c r="B197" s="1"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="2:2" ht="14.25" customHeight="1">
       <c r="B198" s="1"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="2:2" ht="14.25" customHeight="1">
       <c r="B199" s="1"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="2:2" ht="14.25" customHeight="1">
       <c r="B200" s="1"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="2:2" ht="14.25" customHeight="1">
       <c r="B201" s="1"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="2:2" ht="14.25" customHeight="1">
       <c r="B202" s="1"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="2:2" ht="14.25" customHeight="1">
       <c r="B203" s="1"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="2:2" ht="14.25" customHeight="1">
       <c r="B204" s="1"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="2:2" ht="14.25" customHeight="1">
       <c r="B205" s="1"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="2:2" ht="14.25" customHeight="1">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="2:2" ht="14.25" customHeight="1">
       <c r="B207" s="1"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="2:2" ht="14.25" customHeight="1">
       <c r="B208" s="1"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="2:2" ht="14.25" customHeight="1">
       <c r="B209" s="1"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="2:2" ht="14.25" customHeight="1">
       <c r="B210" s="1"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="2:2" ht="14.25" customHeight="1">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="2:2" ht="14.25" customHeight="1">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="2:2" ht="14.25" customHeight="1">
       <c r="B213" s="1"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="2:2" ht="14.25" customHeight="1">
       <c r="B214" s="1"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="2:2" ht="14.25" customHeight="1">
       <c r="B215" s="1"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="2:2" ht="14.25" customHeight="1">
       <c r="B216" s="1"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="2:2" ht="14.25" customHeight="1">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="2:2" ht="14.25" customHeight="1">
       <c r="B218" s="1"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="2:2" ht="14.25" customHeight="1">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="2:2" ht="14.25" customHeight="1">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="2:2" ht="14.25" customHeight="1">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="2:2" ht="14.25" customHeight="1">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="2:2" ht="14.25" customHeight="1">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="2:2" ht="14.25" customHeight="1">
       <c r="B224" s="1"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="2:2" ht="14.25" customHeight="1">
       <c r="B225" s="1"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="2:2" ht="14.25" customHeight="1">
       <c r="B226" s="1"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="2:2" ht="14.25" customHeight="1">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="2:2" ht="14.25" customHeight="1">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="2:2" ht="14.25" customHeight="1">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="2:2" ht="14.25" customHeight="1">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="2:2" ht="14.25" customHeight="1">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="2:2" ht="14.25" customHeight="1">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="233" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="234" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="235" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="236" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="237" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="238" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="239" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="240" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -16668,9 +16667,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -1,28 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\manglesh1\aerosports\src\assets\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8A1B7-EAA2-4826-A589-3A0C6CE4DD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="blogs" sheetId="2" r:id="rId2"/>
-    <sheet name="blogsreviews" sheetId="3" r:id="rId3"/>
-    <sheet name="locations" sheetId="4" r:id="rId4"/>
-    <sheet name="config" sheetId="5" r:id="rId5"/>
-    <sheet name="promo" sheetId="6" r:id="rId6"/>
-    <sheet name="birthday packages" sheetId="7" r:id="rId7"/>
-    <sheet name="faq" sheetId="8" r:id="rId8"/>
+    <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="blogs" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="blogsreviews" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="locations" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="config" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="promo" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="birthday packages" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="faq" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -391,26 +382,26 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Empty your pockets before entering </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
       </rPr>
       <t>AeroSlam.No</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> sharp or unauthorized objects allowed on court;Attempt dunks/shots at YOUR OWN RISK;One person per lane;Be aware of your landing position;Land on both feet near the center of the trampoline;Be in control of your body at all times;Follow all park rules and the Team Member’s Instructions</t>
     </r>
@@ -1858,6 +1849,12 @@
     <t xml:space="preserve"> 0-5+;$12;$16;$20</t>
   </si>
   <si>
+    <t>6+;$19.99;$24.99;-;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-5+;$12;$16;-;-</t>
+  </si>
+  <si>
     <t>home-birthdaysection</t>
   </si>
   <si>
@@ -2320,170 +2317,158 @@
   <si>
     <t xml:space="preserve">We do sell gift cards! You can purchase a physical gift card in your local Aerosports. You can purchase egift cards &lt;a href="{location}/gift-cards"&gt;&lt;strong&gt;online.&lt;/strong&gt;&lt;/a&gt; </t>
   </si>
-  <si>
-    <t xml:space="preserve"> 0-5+;$12;$16;-;-</t>
-  </si>
-  <si>
-    <t>6+;$19.99;$24.99;-;-</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="28">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF383838"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FFA3ACB4"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF383838"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF3C4043"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF3F4448"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2492,7 +2477,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2502,112 +2487,138 @@
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="37">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2797,44 +2808,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="43.42578125" customWidth="1"/>
-    <col min="12" max="12" width="77" customWidth="1"/>
-    <col min="13" max="13" width="56.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="255.7109375" customWidth="1"/>
-    <col min="16" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="41.28515625" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="35.86"/>
+    <col customWidth="1" min="2" max="2" width="14.71"/>
+    <col customWidth="1" min="3" max="3" width="9.57"/>
+    <col customWidth="1" min="4" max="4" width="18.29"/>
+    <col customWidth="1" min="5" max="5" width="14.86"/>
+    <col customWidth="1" min="6" max="6" width="21.57"/>
+    <col customWidth="1" min="7" max="7" width="20.0"/>
+    <col customWidth="1" min="8" max="8" width="31.0"/>
+    <col customWidth="1" min="9" max="9" width="5.86"/>
+    <col customWidth="1" min="10" max="10" width="14.57"/>
+    <col customWidth="1" min="11" max="11" width="43.43"/>
+    <col customWidth="1" min="12" max="12" width="77.0"/>
+    <col customWidth="1" min="13" max="13" width="56.14"/>
+    <col customWidth="1" min="14" max="14" width="15.57"/>
+    <col customWidth="1" min="15" max="15" width="255.71"/>
+    <col customWidth="1" min="16" max="20" width="8.71"/>
+    <col customWidth="1" min="21" max="21" width="41.29"/>
+    <col customWidth="1" min="22" max="22" width="19.71"/>
+    <col customWidth="1" min="23" max="23" width="25.86"/>
+    <col customWidth="1" min="24" max="24" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2911,13 +2920,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -2952,12 +2961,12 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -2981,12 +2990,12 @@
       <c r="W3" s="2"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
@@ -3007,12 +3016,12 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
@@ -3040,12 +3049,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>44</v>
@@ -3066,12 +3075,12 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>48</v>
@@ -3092,13 +3101,13 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
@@ -3124,12 +3133,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>57</v>
@@ -3154,13 +3163,13 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -3184,13 +3193,13 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>63</v>
@@ -3217,13 +3226,13 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>68</v>
@@ -3250,12 +3259,12 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>71</v>
@@ -3292,15 +3301,15 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="1">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>81</v>
@@ -3341,15 +3350,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="1">
-        <v>1001</v>
+        <v>1001.0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>92</v>
@@ -3382,15 +3391,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>99</v>
@@ -3431,12 +3440,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>107</v>
@@ -3475,12 +3484,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>116</v>
@@ -3521,15 +3530,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>126</v>
@@ -3563,15 +3572,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>134</v>
@@ -3610,15 +3619,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="1">
-        <v>1002</v>
+        <v>1002.0</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>144</v>
@@ -3651,15 +3660,15 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B22" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>151</v>
@@ -3693,15 +3702,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.25" customHeight="1">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B23" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>160</v>
@@ -3738,15 +3747,15 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B24" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>169</v>
@@ -3787,15 +3796,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B25" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>179</v>
@@ -3832,12 +3841,12 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="14.25" customHeight="1">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>187</v>
@@ -3864,13 +3873,13 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>193</v>
@@ -3897,12 +3906,12 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="14.25" customHeight="1">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="B28" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>198</v>
@@ -3929,12 +3938,12 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="B29" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>202</v>
@@ -3958,15 +3967,15 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" ht="13.5" customHeight="1">
+    <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>207</v>
@@ -3993,15 +4002,15 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" ht="14.25" customHeight="1">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="1">
-        <v>1004</v>
+        <v>1004.0</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>207</v>
@@ -4028,13 +4037,13 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" ht="14.25" customHeight="1">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>213</v>
@@ -4065,15 +4074,15 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="14.25" customHeight="1">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>220</v>
@@ -4107,15 +4116,15 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="14.25" customHeight="1">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B34" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>220</v>
@@ -4149,15 +4158,15 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="14.25" customHeight="1">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B35" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>228</v>
@@ -4193,15 +4202,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="14.25" customHeight="1">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B36" s="1">
-        <v>1003</v>
+        <v>1003.0</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>228</v>
@@ -4237,15 +4246,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="14.25" customHeight="1">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B37" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>237</v>
@@ -4272,15 +4281,15 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="14.25" customHeight="1">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>237</v>
@@ -4307,15 +4316,15 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="14.25" customHeight="1">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B39" s="1">
-        <v>1005</v>
+        <v>1005.0</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>237</v>
@@ -4342,15 +4351,15 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="14.25" customHeight="1">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="1">
-        <v>1008</v>
+        <v>1008.0</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>61</v>
@@ -4383,12 +4392,12 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="14.25" customHeight="1">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
@@ -4415,15 +4424,15 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="14.25" customHeight="1">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B42" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>251</v>
@@ -4450,15 +4459,15 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="14.25" customHeight="1">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B43" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>251</v>
@@ -4485,12 +4494,12 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="14.25" customHeight="1">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="B44" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>255</v>
@@ -4517,12 +4526,12 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="14.25" customHeight="1">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="B45" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>260</v>
@@ -4549,13 +4558,13 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="14.25" customHeight="1">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>265</v>
@@ -4579,12 +4588,12 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="14.25" customHeight="1">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="B47" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>269</v>
@@ -4608,12 +4617,12 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="14.25" customHeight="1">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="B48" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>272</v>
@@ -4640,15 +4649,15 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:25" ht="14.25" customHeight="1">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B49" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>276</v>
@@ -4678,15 +4687,15 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:25" ht="14.25" customHeight="1">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="1">
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="C50" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>279</v>
@@ -4717,1005 +4726,1005 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="14.25" customHeight="1">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:25" ht="14.25" customHeight="1">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:25" ht="14.25" customHeight="1">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:25" ht="14.25" customHeight="1">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:25" ht="14.25" customHeight="1">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:25" ht="14.25" customHeight="1">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:25" ht="14.25" customHeight="1">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:25" ht="14.25" customHeight="1">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:25" ht="14.25" customHeight="1">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:25" ht="14.25" customHeight="1">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:25" ht="14.25" customHeight="1">
+    <row r="61" ht="14.25" customHeight="1">
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:25" ht="14.25" customHeight="1">
+    <row r="62" ht="14.25" customHeight="1">
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:25" ht="14.25" customHeight="1">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:25" ht="14.25" customHeight="1">
+    <row r="64" ht="14.25" customHeight="1">
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="21:23" ht="14.25" customHeight="1">
+    <row r="65" ht="14.25" customHeight="1">
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="21:23" ht="14.25" customHeight="1">
+    <row r="66" ht="14.25" customHeight="1">
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="21:23" ht="14.25" customHeight="1">
+    <row r="67" ht="14.25" customHeight="1">
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="21:23" ht="14.25" customHeight="1">
+    <row r="68" ht="14.25" customHeight="1">
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="21:23" ht="14.25" customHeight="1">
+    <row r="69" ht="14.25" customHeight="1">
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="21:23" ht="14.25" customHeight="1">
+    <row r="70" ht="14.25" customHeight="1">
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="21:23" ht="14.25" customHeight="1">
+    <row r="71" ht="14.25" customHeight="1">
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="21:23" ht="14.25" customHeight="1">
+    <row r="72" ht="14.25" customHeight="1">
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="21:23" ht="14.25" customHeight="1">
+    <row r="73" ht="14.25" customHeight="1">
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="21:23" ht="14.25" customHeight="1">
+    <row r="74" ht="14.25" customHeight="1">
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="21:23" ht="14.25" customHeight="1">
+    <row r="75" ht="14.25" customHeight="1">
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="21:23" ht="14.25" customHeight="1">
+    <row r="76" ht="14.25" customHeight="1">
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="21:23" ht="14.25" customHeight="1">
+    <row r="77" ht="14.25" customHeight="1">
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="21:23" ht="14.25" customHeight="1">
+    <row r="78" ht="14.25" customHeight="1">
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="21:23" ht="14.25" customHeight="1">
+    <row r="79" ht="14.25" customHeight="1">
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="21:23" ht="14.25" customHeight="1">
+    <row r="80" ht="14.25" customHeight="1">
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="21:23" ht="14.25" customHeight="1">
+    <row r="81" ht="14.25" customHeight="1">
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="21:23" ht="14.25" customHeight="1">
+    <row r="82" ht="14.25" customHeight="1">
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="21:23" ht="14.25" customHeight="1">
+    <row r="83" ht="14.25" customHeight="1">
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="21:23" ht="14.25" customHeight="1">
+    <row r="84" ht="14.25" customHeight="1">
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="21:23" ht="14.25" customHeight="1">
+    <row r="85" ht="14.25" customHeight="1">
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="21:23" ht="14.25" customHeight="1">
+    <row r="86" ht="14.25" customHeight="1">
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="21:23" ht="14.25" customHeight="1">
+    <row r="87" ht="14.25" customHeight="1">
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="21:23" ht="14.25" customHeight="1">
+    <row r="88" ht="14.25" customHeight="1">
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="21:23" ht="14.25" customHeight="1">
+    <row r="89" ht="14.25" customHeight="1">
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="21:23" ht="14.25" customHeight="1">
+    <row r="90" ht="14.25" customHeight="1">
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="21:23" ht="14.25" customHeight="1">
+    <row r="91" ht="14.25" customHeight="1">
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="21:23" ht="14.25" customHeight="1">
+    <row r="92" ht="14.25" customHeight="1">
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="21:23" ht="14.25" customHeight="1">
+    <row r="93" ht="14.25" customHeight="1">
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="21:23" ht="14.25" customHeight="1">
+    <row r="94" ht="14.25" customHeight="1">
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="21:23" ht="14.25" customHeight="1">
+    <row r="95" ht="14.25" customHeight="1">
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="21:23" ht="14.25" customHeight="1">
+    <row r="96" ht="14.25" customHeight="1">
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="21:23" ht="14.25" customHeight="1">
+    <row r="97" ht="14.25" customHeight="1">
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="21:23" ht="14.25" customHeight="1">
+    <row r="98" ht="14.25" customHeight="1">
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="21:23" ht="14.25" customHeight="1">
+    <row r="99" ht="14.25" customHeight="1">
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="21:23" ht="14.25" customHeight="1">
+    <row r="100" ht="14.25" customHeight="1">
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="21:23" ht="14.25" customHeight="1">
+    <row r="101" ht="14.25" customHeight="1">
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="21:23" ht="14.25" customHeight="1">
+    <row r="102" ht="14.25" customHeight="1">
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="21:23" ht="14.25" customHeight="1">
+    <row r="103" ht="14.25" customHeight="1">
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="21:23" ht="14.25" customHeight="1">
+    <row r="104" ht="14.25" customHeight="1">
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="21:23" ht="14.25" customHeight="1">
+    <row r="105" ht="14.25" customHeight="1">
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="21:23" ht="14.25" customHeight="1">
+    <row r="106" ht="14.25" customHeight="1">
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="21:23" ht="14.25" customHeight="1">
+    <row r="107" ht="14.25" customHeight="1">
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="21:23" ht="14.25" customHeight="1">
+    <row r="108" ht="14.25" customHeight="1">
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="21:23" ht="14.25" customHeight="1">
+    <row r="109" ht="14.25" customHeight="1">
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="21:23" ht="14.25" customHeight="1">
+    <row r="110" ht="14.25" customHeight="1">
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="21:23" ht="14.25" customHeight="1">
+    <row r="111" ht="14.25" customHeight="1">
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="21:23" ht="14.25" customHeight="1">
+    <row r="112" ht="14.25" customHeight="1">
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="21:23" ht="14.25" customHeight="1">
+    <row r="113" ht="14.25" customHeight="1">
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="21:23" ht="14.25" customHeight="1">
+    <row r="114" ht="14.25" customHeight="1">
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="21:23" ht="14.25" customHeight="1">
+    <row r="115" ht="14.25" customHeight="1">
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="21:23" ht="14.25" customHeight="1">
+    <row r="116" ht="14.25" customHeight="1">
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="21:23" ht="14.25" customHeight="1">
+    <row r="117" ht="14.25" customHeight="1">
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="21:23" ht="14.25" customHeight="1">
+    <row r="118" ht="14.25" customHeight="1">
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="21:23" ht="14.25" customHeight="1">
+    <row r="119" ht="14.25" customHeight="1">
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="21:23" ht="14.25" customHeight="1">
+    <row r="120" ht="14.25" customHeight="1">
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="21:23" ht="14.25" customHeight="1">
+    <row r="121" ht="14.25" customHeight="1">
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="21:23" ht="14.25" customHeight="1">
+    <row r="122" ht="14.25" customHeight="1">
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="21:23" ht="14.25" customHeight="1">
+    <row r="123" ht="14.25" customHeight="1">
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="21:23" ht="14.25" customHeight="1">
+    <row r="124" ht="14.25" customHeight="1">
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="21:23" ht="14.25" customHeight="1">
+    <row r="125" ht="14.25" customHeight="1">
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="21:23" ht="14.25" customHeight="1">
+    <row r="126" ht="14.25" customHeight="1">
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="21:23" ht="14.25" customHeight="1">
+    <row r="127" ht="14.25" customHeight="1">
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="21:23" ht="14.25" customHeight="1">
+    <row r="128" ht="14.25" customHeight="1">
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="21:23" ht="14.25" customHeight="1">
+    <row r="129" ht="14.25" customHeight="1">
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="21:23" ht="14.25" customHeight="1">
+    <row r="130" ht="14.25" customHeight="1">
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="21:23" ht="14.25" customHeight="1">
+    <row r="131" ht="14.25" customHeight="1">
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="21:23" ht="14.25" customHeight="1">
+    <row r="132" ht="14.25" customHeight="1">
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="21:23" ht="14.25" customHeight="1">
+    <row r="133" ht="14.25" customHeight="1">
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="21:23" ht="14.25" customHeight="1">
+    <row r="134" ht="14.25" customHeight="1">
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="21:23" ht="14.25" customHeight="1">
+    <row r="135" ht="14.25" customHeight="1">
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="21:23" ht="14.25" customHeight="1">
+    <row r="136" ht="14.25" customHeight="1">
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="21:23" ht="14.25" customHeight="1">
+    <row r="137" ht="14.25" customHeight="1">
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="21:23" ht="14.25" customHeight="1">
+    <row r="138" ht="14.25" customHeight="1">
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="21:23" ht="14.25" customHeight="1">
+    <row r="139" ht="14.25" customHeight="1">
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="21:23" ht="14.25" customHeight="1">
+    <row r="140" ht="14.25" customHeight="1">
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="21:23" ht="14.25" customHeight="1">
+    <row r="141" ht="14.25" customHeight="1">
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="21:23" ht="14.25" customHeight="1">
+    <row r="142" ht="14.25" customHeight="1">
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="21:23" ht="14.25" customHeight="1">
+    <row r="143" ht="14.25" customHeight="1">
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="21:23" ht="14.25" customHeight="1">
+    <row r="144" ht="14.25" customHeight="1">
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="21:23" ht="14.25" customHeight="1">
+    <row r="145" ht="14.25" customHeight="1">
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="21:23" ht="14.25" customHeight="1">
+    <row r="146" ht="14.25" customHeight="1">
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="21:23" ht="14.25" customHeight="1">
+    <row r="147" ht="14.25" customHeight="1">
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="21:23" ht="14.25" customHeight="1">
+    <row r="148" ht="14.25" customHeight="1">
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="21:23" ht="14.25" customHeight="1">
+    <row r="149" ht="14.25" customHeight="1">
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="21:23" ht="14.25" customHeight="1">
+    <row r="150" ht="14.25" customHeight="1">
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="21:23" ht="14.25" customHeight="1">
+    <row r="151" ht="14.25" customHeight="1">
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="21:23" ht="14.25" customHeight="1">
+    <row r="152" ht="14.25" customHeight="1">
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="21:23" ht="14.25" customHeight="1">
+    <row r="153" ht="14.25" customHeight="1">
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="21:23" ht="14.25" customHeight="1">
+    <row r="154" ht="14.25" customHeight="1">
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="21:23" ht="14.25" customHeight="1">
+    <row r="155" ht="14.25" customHeight="1">
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="21:23" ht="14.25" customHeight="1">
+    <row r="156" ht="14.25" customHeight="1">
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="21:23" ht="14.25" customHeight="1">
+    <row r="157" ht="14.25" customHeight="1">
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="21:23" ht="14.25" customHeight="1">
+    <row r="158" ht="14.25" customHeight="1">
       <c r="U158" s="2"/>
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="21:23" ht="14.25" customHeight="1">
+    <row r="159" ht="14.25" customHeight="1">
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="21:23" ht="14.25" customHeight="1">
+    <row r="160" ht="14.25" customHeight="1">
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="21:23" ht="14.25" customHeight="1">
+    <row r="161" ht="14.25" customHeight="1">
       <c r="U161" s="2"/>
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="21:23" ht="14.25" customHeight="1">
+    <row r="162" ht="14.25" customHeight="1">
       <c r="U162" s="2"/>
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="21:23" ht="14.25" customHeight="1">
+    <row r="163" ht="14.25" customHeight="1">
       <c r="U163" s="2"/>
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="21:23" ht="14.25" customHeight="1">
+    <row r="164" ht="14.25" customHeight="1">
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="21:23" ht="14.25" customHeight="1">
+    <row r="165" ht="14.25" customHeight="1">
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="21:23" ht="14.25" customHeight="1">
+    <row r="166" ht="14.25" customHeight="1">
       <c r="U166" s="2"/>
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="21:23" ht="14.25" customHeight="1">
+    <row r="167" ht="14.25" customHeight="1">
       <c r="U167" s="2"/>
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="21:23" ht="14.25" customHeight="1">
+    <row r="168" ht="14.25" customHeight="1">
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="21:23" ht="14.25" customHeight="1">
+    <row r="169" ht="14.25" customHeight="1">
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="21:23" ht="14.25" customHeight="1">
+    <row r="170" ht="14.25" customHeight="1">
       <c r="U170" s="2"/>
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="21:23" ht="14.25" customHeight="1">
+    <row r="171" ht="14.25" customHeight="1">
       <c r="U171" s="2"/>
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="21:23" ht="14.25" customHeight="1">
+    <row r="172" ht="14.25" customHeight="1">
       <c r="U172" s="2"/>
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="21:23" ht="14.25" customHeight="1">
+    <row r="173" ht="14.25" customHeight="1">
       <c r="U173" s="2"/>
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="21:23" ht="14.25" customHeight="1">
+    <row r="174" ht="14.25" customHeight="1">
       <c r="U174" s="2"/>
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="21:23" ht="14.25" customHeight="1">
+    <row r="175" ht="14.25" customHeight="1">
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="21:23" ht="14.25" customHeight="1">
+    <row r="176" ht="14.25" customHeight="1">
       <c r="U176" s="2"/>
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="21:23" ht="14.25" customHeight="1">
+    <row r="177" ht="14.25" customHeight="1">
       <c r="U177" s="2"/>
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="21:23" ht="14.25" customHeight="1">
+    <row r="178" ht="14.25" customHeight="1">
       <c r="U178" s="2"/>
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="21:23" ht="14.25" customHeight="1">
+    <row r="179" ht="14.25" customHeight="1">
       <c r="U179" s="2"/>
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="21:23" ht="14.25" customHeight="1">
+    <row r="180" ht="14.25" customHeight="1">
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="21:23" ht="14.25" customHeight="1">
+    <row r="181" ht="14.25" customHeight="1">
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="21:23" ht="14.25" customHeight="1">
+    <row r="182" ht="14.25" customHeight="1">
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="21:23" ht="14.25" customHeight="1">
+    <row r="183" ht="14.25" customHeight="1">
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="21:23" ht="14.25" customHeight="1">
+    <row r="184" ht="14.25" customHeight="1">
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="21:23" ht="14.25" customHeight="1">
+    <row r="185" ht="14.25" customHeight="1">
       <c r="U185" s="2"/>
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="21:23" ht="14.25" customHeight="1">
+    <row r="186" ht="14.25" customHeight="1">
       <c r="U186" s="2"/>
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="21:23" ht="14.25" customHeight="1">
+    <row r="187" ht="14.25" customHeight="1">
       <c r="U187" s="2"/>
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="21:23" ht="14.25" customHeight="1">
+    <row r="188" ht="14.25" customHeight="1">
       <c r="U188" s="2"/>
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="21:23" ht="14.25" customHeight="1">
+    <row r="189" ht="14.25" customHeight="1">
       <c r="U189" s="2"/>
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="21:23" ht="14.25" customHeight="1">
+    <row r="190" ht="14.25" customHeight="1">
       <c r="U190" s="2"/>
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="21:23" ht="14.25" customHeight="1">
+    <row r="191" ht="14.25" customHeight="1">
       <c r="U191" s="2"/>
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="21:23" ht="14.25" customHeight="1">
+    <row r="192" ht="14.25" customHeight="1">
       <c r="U192" s="2"/>
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="21:23" ht="14.25" customHeight="1">
+    <row r="193" ht="14.25" customHeight="1">
       <c r="U193" s="2"/>
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="21:23" ht="14.25" customHeight="1">
+    <row r="194" ht="14.25" customHeight="1">
       <c r="U194" s="2"/>
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="21:23" ht="14.25" customHeight="1">
+    <row r="195" ht="14.25" customHeight="1">
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="21:23" ht="14.25" customHeight="1">
+    <row r="196" ht="14.25" customHeight="1">
       <c r="U196" s="2"/>
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="21:23" ht="14.25" customHeight="1">
+    <row r="197" ht="14.25" customHeight="1">
       <c r="U197" s="2"/>
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="21:23" ht="14.25" customHeight="1">
+    <row r="198" ht="14.25" customHeight="1">
       <c r="U198" s="2"/>
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="21:23" ht="14.25" customHeight="1">
+    <row r="199" ht="14.25" customHeight="1">
       <c r="U199" s="2"/>
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="21:23" ht="14.25" customHeight="1">
+    <row r="200" ht="14.25" customHeight="1">
       <c r="U200" s="2"/>
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="21:23" ht="14.25" customHeight="1">
+    <row r="201" ht="14.25" customHeight="1">
       <c r="U201" s="2"/>
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="21:23" ht="14.25" customHeight="1">
+    <row r="202" ht="14.25" customHeight="1">
       <c r="U202" s="2"/>
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="21:23" ht="14.25" customHeight="1">
+    <row r="203" ht="14.25" customHeight="1">
       <c r="U203" s="2"/>
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="21:23" ht="14.25" customHeight="1">
+    <row r="204" ht="14.25" customHeight="1">
       <c r="U204" s="2"/>
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="21:23" ht="14.25" customHeight="1">
+    <row r="205" ht="14.25" customHeight="1">
       <c r="U205" s="2"/>
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="21:23" ht="14.25" customHeight="1">
+    <row r="206" ht="14.25" customHeight="1">
       <c r="U206" s="2"/>
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" spans="21:23" ht="14.25" customHeight="1">
+    <row r="207" ht="14.25" customHeight="1">
       <c r="U207" s="2"/>
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="21:23" ht="14.25" customHeight="1">
+    <row r="208" ht="14.25" customHeight="1">
       <c r="U208" s="2"/>
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" spans="21:23" ht="14.25" customHeight="1">
+    <row r="209" ht="14.25" customHeight="1">
       <c r="U209" s="2"/>
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" spans="21:23" ht="14.25" customHeight="1">
+    <row r="210" ht="14.25" customHeight="1">
       <c r="U210" s="2"/>
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" spans="21:23" ht="14.25" customHeight="1">
+    <row r="211" ht="14.25" customHeight="1">
       <c r="U211" s="2"/>
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212" spans="21:23" ht="14.25" customHeight="1">
+    <row r="212" ht="14.25" customHeight="1">
       <c r="U212" s="2"/>
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213" spans="21:23" ht="14.25" customHeight="1">
+    <row r="213" ht="14.25" customHeight="1">
       <c r="U213" s="2"/>
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" spans="21:23" ht="14.25" customHeight="1">
+    <row r="214" ht="14.25" customHeight="1">
       <c r="U214" s="2"/>
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" spans="21:23" ht="14.25" customHeight="1">
+    <row r="215" ht="14.25" customHeight="1">
       <c r="U215" s="2"/>
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216" spans="21:23" ht="14.25" customHeight="1">
+    <row r="216" ht="14.25" customHeight="1">
       <c r="U216" s="2"/>
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" spans="21:23" ht="14.25" customHeight="1">
+    <row r="217" ht="14.25" customHeight="1">
       <c r="U217" s="2"/>
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" spans="21:23" ht="14.25" customHeight="1">
+    <row r="218" ht="14.25" customHeight="1">
       <c r="U218" s="2"/>
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219" spans="21:23" ht="14.25" customHeight="1">
+    <row r="219" ht="14.25" customHeight="1">
       <c r="U219" s="2"/>
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" spans="21:23" ht="14.25" customHeight="1">
+    <row r="220" ht="14.25" customHeight="1">
       <c r="U220" s="2"/>
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221" spans="21:23" ht="14.25" customHeight="1">
+    <row r="221" ht="14.25" customHeight="1">
       <c r="U221" s="2"/>
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
     </row>
-    <row r="222" spans="21:23" ht="14.25" customHeight="1">
+    <row r="222" ht="14.25" customHeight="1">
       <c r="U222" s="2"/>
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
     </row>
-    <row r="223" spans="21:23" ht="14.25" customHeight="1">
+    <row r="223" ht="14.25" customHeight="1">
       <c r="U223" s="2"/>
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
     </row>
-    <row r="224" spans="21:23" ht="14.25" customHeight="1">
+    <row r="224" ht="14.25" customHeight="1">
       <c r="U224" s="2"/>
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
     </row>
-    <row r="225" spans="21:23" ht="14.25" customHeight="1">
+    <row r="225" ht="14.25" customHeight="1">
       <c r="U225" s="2"/>
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226" spans="21:23" ht="14.25" customHeight="1">
+    <row r="226" ht="14.25" customHeight="1">
       <c r="U226" s="2"/>
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227" spans="21:23" ht="14.25" customHeight="1">
+    <row r="227" ht="14.25" customHeight="1">
       <c r="U227" s="2"/>
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228" spans="21:23" ht="14.25" customHeight="1">
+    <row r="228" ht="14.25" customHeight="1">
       <c r="U228" s="2"/>
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229" spans="21:23" ht="14.25" customHeight="1">
+    <row r="229" ht="14.25" customHeight="1">
       <c r="U229" s="2"/>
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230" spans="21:23" ht="14.25" customHeight="1">
+    <row r="230" ht="14.25" customHeight="1">
       <c r="U230" s="2"/>
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231" spans="21:23" ht="14.25" customHeight="1">
+    <row r="231" ht="14.25" customHeight="1">
       <c r="U231" s="2"/>
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232" spans="21:23" ht="14.25" customHeight="1">
+    <row r="232" ht="14.25" customHeight="1">
       <c r="U232" s="2"/>
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233" spans="21:23" ht="14.25" customHeight="1">
+    <row r="233" ht="14.25" customHeight="1">
       <c r="U233" s="2"/>
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234" spans="21:23" ht="14.25" customHeight="1">
+    <row r="234" ht="14.25" customHeight="1">
       <c r="U234" s="2"/>
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235" spans="21:23" ht="14.25" customHeight="1">
+    <row r="235" ht="14.25" customHeight="1">
       <c r="U235" s="2"/>
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236" spans="21:23" ht="14.25" customHeight="1">
+    <row r="236" ht="14.25" customHeight="1">
       <c r="U236" s="2"/>
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237" spans="21:23" ht="14.25" customHeight="1">
+    <row r="237" ht="14.25" customHeight="1">
       <c r="U237" s="2"/>
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238" spans="21:23" ht="14.25" customHeight="1">
+    <row r="238" ht="14.25" customHeight="1">
       <c r="U238" s="2"/>
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239" spans="21:23" ht="14.25" customHeight="1">
+    <row r="239" ht="14.25" customHeight="1">
       <c r="U239" s="2"/>
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240" spans="21:23" ht="14.25" customHeight="1">
+    <row r="240" ht="14.25" customHeight="1">
       <c r="U240" s="2"/>
       <c r="V240" s="2"/>
       <c r="W240" s="2"/>
     </row>
-    <row r="241" spans="21:23" ht="14.25" customHeight="1">
+    <row r="241" ht="14.25" customHeight="1">
       <c r="U241" s="2"/>
       <c r="V241" s="2"/>
       <c r="W241" s="2"/>
     </row>
-    <row r="242" spans="21:23" ht="14.25" customHeight="1">
+    <row r="242" ht="14.25" customHeight="1">
       <c r="U242" s="2"/>
       <c r="V242" s="2"/>
       <c r="W242" s="2"/>
     </row>
-    <row r="243" spans="21:23" ht="14.25" customHeight="1">
+    <row r="243" ht="14.25" customHeight="1">
       <c r="U243" s="2"/>
       <c r="V243" s="2"/>
       <c r="W243" s="2"/>
     </row>
-    <row r="244" spans="21:23" ht="15.75" customHeight="1">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="V244" s="2"/>
       <c r="W244" s="2"/>
     </row>
-    <row r="245" spans="21:23" ht="15.75" customHeight="1">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="V245" s="2"/>
       <c r="W245" s="2"/>
     </row>
-    <row r="246" spans="21:23" ht="15.75" customHeight="1">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="V246" s="2"/>
       <c r="W246" s="2"/>
     </row>
-    <row r="247" spans="21:23" ht="15.75" customHeight="1">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="V247" s="2"/>
       <c r="W247" s="2"/>
     </row>
-    <row r="248" spans="21:23" ht="15.75" customHeight="1">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="V248" s="2"/>
       <c r="W248" s="2"/>
     </row>
-    <row r="249" spans="21:23" ht="15.75" customHeight="1">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="V249" s="2"/>
       <c r="W249" s="2"/>
     </row>
-    <row r="250" spans="21:23" ht="15.75" customHeight="1">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="V250" s="2"/>
       <c r="W250" s="2"/>
     </row>
-    <row r="251" spans="21:23" ht="15.75" customHeight="1"/>
-    <row r="252" spans="21:23" ht="15.75" customHeight="1"/>
-    <row r="253" spans="21:23" ht="15.75" customHeight="1"/>
-    <row r="254" spans="21:23" ht="15.75" customHeight="1"/>
-    <row r="255" spans="21:23" ht="15.75" customHeight="1"/>
-    <row r="256" spans="21:23" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -6462,31 +6471,35 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="V16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Y50" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink r:id="rId1" ref="Y5"/>
+    <hyperlink r:id="rId2" ref="V16"/>
+    <hyperlink r:id="rId3" ref="Y50"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="106" customWidth="1"/>
-    <col min="14" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="9" width="8.71"/>
+    <col customWidth="1" min="10" max="10" width="9.86"/>
+    <col customWidth="1" min="11" max="12" width="8.71"/>
+    <col customWidth="1" min="13" max="13" width="106.0"/>
+    <col customWidth="1" min="14" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6527,7 +6540,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>297</v>
       </c>
@@ -6553,7 +6566,7 @@
         <v>303</v>
       </c>
       <c r="K2" s="1">
-        <v>232</v>
+        <v>232.0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>304</v>
@@ -6562,7 +6575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>306</v>
       </c>
@@ -6591,7 +6604,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="47.25" customHeight="1">
+    <row r="4" ht="47.25" customHeight="1">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>313</v>
@@ -6639,874 +6652,874 @@
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="J5" s="16"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="J6" s="16"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="J7" s="16"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="J8" s="16"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="J9" s="16"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="J10" s="16"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="J11" s="16"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="J12" s="16"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="J13" s="16"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="J14" s="16"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="J15" s="16"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="J16" s="16"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="10:13" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="J17" s="16"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="10:13" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="J18" s="16"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="10:13" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="J19" s="16"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="10:13" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="J20" s="16"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="10:13" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="J21" s="16"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="10:13" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="J22" s="16"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="10:13" ht="14.25" customHeight="1">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="J23" s="16"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="10:13" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="J24" s="16"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="10:13" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="J25" s="16"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="10:13" ht="14.25" customHeight="1">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="J26" s="16"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="10:13" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="J27" s="16"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="10:13" ht="14.25" customHeight="1">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="J28" s="16"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="10:13" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="J29" s="16"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="10:13" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="J30" s="16"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="10:13" ht="14.25" customHeight="1">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="J31" s="16"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="10:13" ht="14.25" customHeight="1">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="J32" s="16"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="10:13" ht="14.25" customHeight="1">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="J33" s="16"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="10:13" ht="14.25" customHeight="1">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="J34" s="16"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="10:13" ht="14.25" customHeight="1">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="J35" s="16"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="10:13" ht="14.25" customHeight="1">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="J36" s="16"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="10:13" ht="14.25" customHeight="1">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="J37" s="16"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="10:13" ht="14.25" customHeight="1">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="J38" s="16"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="10:13" ht="14.25" customHeight="1">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="J39" s="16"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="10:13" ht="14.25" customHeight="1">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="J40" s="16"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="10:13" ht="14.25" customHeight="1">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="J41" s="16"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="10:13" ht="14.25" customHeight="1">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="J42" s="16"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="10:13" ht="14.25" customHeight="1">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="J43" s="16"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="10:13" ht="14.25" customHeight="1">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="J44" s="16"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="10:13" ht="14.25" customHeight="1">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="J45" s="16"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="10:13" ht="14.25" customHeight="1">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="J46" s="16"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="10:13" ht="14.25" customHeight="1">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="J47" s="16"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="10:13" ht="14.25" customHeight="1">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="J48" s="16"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="10:13" ht="14.25" customHeight="1">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="J49" s="16"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="10:13" ht="14.25" customHeight="1">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="J50" s="16"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="10:13" ht="14.25" customHeight="1">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="J51" s="16"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="10:13" ht="14.25" customHeight="1">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="J52" s="16"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="10:13" ht="14.25" customHeight="1">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="J53" s="16"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="10:13" ht="14.25" customHeight="1">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="J54" s="16"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="10:13" ht="14.25" customHeight="1">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="J55" s="16"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="10:13" ht="14.25" customHeight="1">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="J56" s="16"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="10:13" ht="14.25" customHeight="1">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="J57" s="16"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="10:13" ht="14.25" customHeight="1">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="J58" s="16"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="10:13" ht="14.25" customHeight="1">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="J59" s="16"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="10:13" ht="14.25" customHeight="1">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="J60" s="16"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="10:13" ht="14.25" customHeight="1">
+    <row r="61" ht="14.25" customHeight="1">
       <c r="J61" s="16"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="10:13" ht="14.25" customHeight="1">
+    <row r="62" ht="14.25" customHeight="1">
       <c r="J62" s="16"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="10:13" ht="14.25" customHeight="1">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="J63" s="16"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="10:13" ht="14.25" customHeight="1">
+    <row r="64" ht="14.25" customHeight="1">
       <c r="J64" s="16"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="10:13" ht="14.25" customHeight="1">
+    <row r="65" ht="14.25" customHeight="1">
       <c r="J65" s="16"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="10:13" ht="14.25" customHeight="1">
+    <row r="66" ht="14.25" customHeight="1">
       <c r="J66" s="16"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="10:13" ht="14.25" customHeight="1">
+    <row r="67" ht="14.25" customHeight="1">
       <c r="J67" s="16"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="10:13" ht="14.25" customHeight="1">
+    <row r="68" ht="14.25" customHeight="1">
       <c r="J68" s="16"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="10:13" ht="14.25" customHeight="1">
+    <row r="69" ht="14.25" customHeight="1">
       <c r="J69" s="16"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="10:13" ht="14.25" customHeight="1">
+    <row r="70" ht="14.25" customHeight="1">
       <c r="J70" s="16"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="10:13" ht="14.25" customHeight="1">
+    <row r="71" ht="14.25" customHeight="1">
       <c r="J71" s="16"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="10:13" ht="14.25" customHeight="1">
+    <row r="72" ht="14.25" customHeight="1">
       <c r="J72" s="16"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="10:13" ht="14.25" customHeight="1">
+    <row r="73" ht="14.25" customHeight="1">
       <c r="J73" s="16"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="10:13" ht="14.25" customHeight="1">
+    <row r="74" ht="14.25" customHeight="1">
       <c r="J74" s="16"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="10:13" ht="14.25" customHeight="1">
+    <row r="75" ht="14.25" customHeight="1">
       <c r="J75" s="16"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="10:13" ht="14.25" customHeight="1">
+    <row r="76" ht="14.25" customHeight="1">
       <c r="J76" s="16"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="10:13" ht="14.25" customHeight="1">
+    <row r="77" ht="14.25" customHeight="1">
       <c r="J77" s="16"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="10:13" ht="14.25" customHeight="1">
+    <row r="78" ht="14.25" customHeight="1">
       <c r="J78" s="16"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="10:13" ht="14.25" customHeight="1">
+    <row r="79" ht="14.25" customHeight="1">
       <c r="J79" s="16"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="10:13" ht="14.25" customHeight="1">
+    <row r="80" ht="14.25" customHeight="1">
       <c r="J80" s="16"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="10:13" ht="14.25" customHeight="1">
+    <row r="81" ht="14.25" customHeight="1">
       <c r="J81" s="16"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="10:13" ht="14.25" customHeight="1">
+    <row r="82" ht="14.25" customHeight="1">
       <c r="J82" s="16"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="10:13" ht="14.25" customHeight="1">
+    <row r="83" ht="14.25" customHeight="1">
       <c r="J83" s="16"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="10:13" ht="14.25" customHeight="1">
+    <row r="84" ht="14.25" customHeight="1">
       <c r="J84" s="16"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="10:13" ht="14.25" customHeight="1">
+    <row r="85" ht="14.25" customHeight="1">
       <c r="J85" s="16"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="10:13" ht="14.25" customHeight="1">
+    <row r="86" ht="14.25" customHeight="1">
       <c r="J86" s="16"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="10:13" ht="14.25" customHeight="1">
+    <row r="87" ht="14.25" customHeight="1">
       <c r="J87" s="16"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="10:13" ht="14.25" customHeight="1">
+    <row r="88" ht="14.25" customHeight="1">
       <c r="J88" s="16"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="10:13" ht="14.25" customHeight="1">
+    <row r="89" ht="14.25" customHeight="1">
       <c r="J89" s="16"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="10:13" ht="14.25" customHeight="1">
+    <row r="90" ht="14.25" customHeight="1">
       <c r="J90" s="16"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="10:13" ht="14.25" customHeight="1">
+    <row r="91" ht="14.25" customHeight="1">
       <c r="J91" s="16"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="10:13" ht="14.25" customHeight="1">
+    <row r="92" ht="14.25" customHeight="1">
       <c r="J92" s="16"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="10:13" ht="14.25" customHeight="1">
+    <row r="93" ht="14.25" customHeight="1">
       <c r="J93" s="16"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="10:13" ht="14.25" customHeight="1">
+    <row r="94" ht="14.25" customHeight="1">
       <c r="J94" s="16"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="10:13" ht="14.25" customHeight="1">
+    <row r="95" ht="14.25" customHeight="1">
       <c r="J95" s="16"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="10:13" ht="14.25" customHeight="1">
+    <row r="96" ht="14.25" customHeight="1">
       <c r="J96" s="16"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="10:13" ht="14.25" customHeight="1">
+    <row r="97" ht="14.25" customHeight="1">
       <c r="J97" s="16"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="10:13" ht="14.25" customHeight="1">
+    <row r="98" ht="14.25" customHeight="1">
       <c r="J98" s="16"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="10:13" ht="14.25" customHeight="1">
+    <row r="99" ht="14.25" customHeight="1">
       <c r="J99" s="16"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="10:13" ht="14.25" customHeight="1">
+    <row r="100" ht="14.25" customHeight="1">
       <c r="J100" s="16"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="10:13" ht="14.25" customHeight="1">
+    <row r="101" ht="14.25" customHeight="1">
       <c r="J101" s="16"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="10:13" ht="14.25" customHeight="1">
+    <row r="102" ht="14.25" customHeight="1">
       <c r="J102" s="16"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="10:13" ht="14.25" customHeight="1">
+    <row r="103" ht="14.25" customHeight="1">
       <c r="J103" s="16"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="10:13" ht="14.25" customHeight="1">
+    <row r="104" ht="14.25" customHeight="1">
       <c r="J104" s="16"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="10:13" ht="14.25" customHeight="1">
+    <row r="105" ht="14.25" customHeight="1">
       <c r="J105" s="16"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="10:13" ht="14.25" customHeight="1">
+    <row r="106" ht="14.25" customHeight="1">
       <c r="J106" s="16"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="10:13" ht="14.25" customHeight="1">
+    <row r="107" ht="14.25" customHeight="1">
       <c r="J107" s="16"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="10:13" ht="14.25" customHeight="1">
+    <row r="108" ht="14.25" customHeight="1">
       <c r="J108" s="16"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="10:13" ht="14.25" customHeight="1">
+    <row r="109" ht="14.25" customHeight="1">
       <c r="J109" s="16"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="10:13" ht="14.25" customHeight="1">
+    <row r="110" ht="14.25" customHeight="1">
       <c r="J110" s="16"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="10:13" ht="14.25" customHeight="1">
+    <row r="111" ht="14.25" customHeight="1">
       <c r="J111" s="16"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="10:13" ht="14.25" customHeight="1">
+    <row r="112" ht="14.25" customHeight="1">
       <c r="J112" s="16"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="10:13" ht="14.25" customHeight="1">
+    <row r="113" ht="14.25" customHeight="1">
       <c r="J113" s="16"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="10:13" ht="14.25" customHeight="1">
+    <row r="114" ht="14.25" customHeight="1">
       <c r="J114" s="16"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" spans="10:13" ht="14.25" customHeight="1">
+    <row r="115" ht="14.25" customHeight="1">
       <c r="J115" s="16"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="10:13" ht="14.25" customHeight="1">
+    <row r="116" ht="14.25" customHeight="1">
       <c r="J116" s="16"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="10:13" ht="14.25" customHeight="1">
+    <row r="117" ht="14.25" customHeight="1">
       <c r="J117" s="16"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="10:13" ht="14.25" customHeight="1">
+    <row r="118" ht="14.25" customHeight="1">
       <c r="J118" s="16"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="10:13" ht="14.25" customHeight="1">
+    <row r="119" ht="14.25" customHeight="1">
       <c r="J119" s="16"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="10:13" ht="14.25" customHeight="1">
+    <row r="120" ht="14.25" customHeight="1">
       <c r="J120" s="16"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="10:13" ht="14.25" customHeight="1">
+    <row r="121" ht="14.25" customHeight="1">
       <c r="J121" s="16"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" spans="10:13" ht="14.25" customHeight="1">
+    <row r="122" ht="14.25" customHeight="1">
       <c r="J122" s="16"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="10:13" ht="14.25" customHeight="1">
+    <row r="123" ht="14.25" customHeight="1">
       <c r="J123" s="16"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="10:13" ht="14.25" customHeight="1">
+    <row r="124" ht="14.25" customHeight="1">
       <c r="J124" s="16"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="10:13" ht="14.25" customHeight="1">
+    <row r="125" ht="14.25" customHeight="1">
       <c r="J125" s="16"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="10:13" ht="14.25" customHeight="1">
+    <row r="126" ht="14.25" customHeight="1">
       <c r="J126" s="16"/>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" spans="10:13" ht="14.25" customHeight="1">
+    <row r="127" ht="14.25" customHeight="1">
       <c r="J127" s="16"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="10:13" ht="14.25" customHeight="1">
+    <row r="128" ht="14.25" customHeight="1">
       <c r="J128" s="16"/>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" spans="10:13" ht="14.25" customHeight="1">
+    <row r="129" ht="14.25" customHeight="1">
       <c r="J129" s="16"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="10:13" ht="14.25" customHeight="1">
+    <row r="130" ht="14.25" customHeight="1">
       <c r="J130" s="16"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" spans="10:13" ht="14.25" customHeight="1">
+    <row r="131" ht="14.25" customHeight="1">
       <c r="J131" s="16"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="10:13" ht="14.25" customHeight="1">
+    <row r="132" ht="14.25" customHeight="1">
       <c r="J132" s="16"/>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="10:13" ht="14.25" customHeight="1">
+    <row r="133" ht="14.25" customHeight="1">
       <c r="J133" s="16"/>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" spans="10:13" ht="14.25" customHeight="1">
+    <row r="134" ht="14.25" customHeight="1">
       <c r="J134" s="16"/>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" spans="10:13" ht="14.25" customHeight="1">
+    <row r="135" ht="14.25" customHeight="1">
       <c r="J135" s="16"/>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" spans="10:13" ht="14.25" customHeight="1">
+    <row r="136" ht="14.25" customHeight="1">
       <c r="J136" s="16"/>
       <c r="M136" s="2"/>
     </row>
-    <row r="137" spans="10:13" ht="14.25" customHeight="1">
+    <row r="137" ht="14.25" customHeight="1">
       <c r="J137" s="16"/>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" spans="10:13" ht="14.25" customHeight="1">
+    <row r="138" ht="14.25" customHeight="1">
       <c r="J138" s="16"/>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" spans="10:13" ht="14.25" customHeight="1">
+    <row r="139" ht="14.25" customHeight="1">
       <c r="J139" s="16"/>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" spans="10:13" ht="14.25" customHeight="1">
+    <row r="140" ht="14.25" customHeight="1">
       <c r="J140" s="16"/>
       <c r="M140" s="2"/>
     </row>
-    <row r="141" spans="10:13" ht="14.25" customHeight="1">
+    <row r="141" ht="14.25" customHeight="1">
       <c r="J141" s="16"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" spans="10:13" ht="14.25" customHeight="1">
+    <row r="142" ht="14.25" customHeight="1">
       <c r="J142" s="16"/>
       <c r="M142" s="2"/>
     </row>
-    <row r="143" spans="10:13" ht="14.25" customHeight="1">
+    <row r="143" ht="14.25" customHeight="1">
       <c r="J143" s="16"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="10:13" ht="14.25" customHeight="1">
+    <row r="144" ht="14.25" customHeight="1">
       <c r="J144" s="16"/>
       <c r="M144" s="2"/>
     </row>
-    <row r="145" spans="10:13" ht="14.25" customHeight="1">
+    <row r="145" ht="14.25" customHeight="1">
       <c r="J145" s="16"/>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" spans="10:13" ht="14.25" customHeight="1">
+    <row r="146" ht="14.25" customHeight="1">
       <c r="J146" s="16"/>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" spans="10:13" ht="14.25" customHeight="1">
+    <row r="147" ht="14.25" customHeight="1">
       <c r="J147" s="16"/>
       <c r="M147" s="2"/>
     </row>
-    <row r="148" spans="10:13" ht="14.25" customHeight="1">
+    <row r="148" ht="14.25" customHeight="1">
       <c r="J148" s="16"/>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" spans="10:13" ht="14.25" customHeight="1">
+    <row r="149" ht="14.25" customHeight="1">
       <c r="J149" s="16"/>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" spans="10:13" ht="14.25" customHeight="1">
+    <row r="150" ht="14.25" customHeight="1">
       <c r="J150" s="16"/>
       <c r="M150" s="2"/>
     </row>
-    <row r="151" spans="10:13" ht="14.25" customHeight="1">
+    <row r="151" ht="14.25" customHeight="1">
       <c r="J151" s="16"/>
       <c r="M151" s="2"/>
     </row>
-    <row r="152" spans="10:13" ht="14.25" customHeight="1">
+    <row r="152" ht="14.25" customHeight="1">
       <c r="J152" s="16"/>
       <c r="M152" s="2"/>
     </row>
-    <row r="153" spans="10:13" ht="14.25" customHeight="1">
+    <row r="153" ht="14.25" customHeight="1">
       <c r="J153" s="16"/>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" spans="10:13" ht="14.25" customHeight="1">
+    <row r="154" ht="14.25" customHeight="1">
       <c r="J154" s="16"/>
       <c r="M154" s="2"/>
     </row>
-    <row r="155" spans="10:13" ht="14.25" customHeight="1">
+    <row r="155" ht="14.25" customHeight="1">
       <c r="J155" s="16"/>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" spans="10:13" ht="14.25" customHeight="1">
+    <row r="156" ht="14.25" customHeight="1">
       <c r="J156" s="16"/>
       <c r="M156" s="2"/>
     </row>
-    <row r="157" spans="10:13" ht="14.25" customHeight="1">
+    <row r="157" ht="14.25" customHeight="1">
       <c r="J157" s="16"/>
       <c r="M157" s="2"/>
     </row>
-    <row r="158" spans="10:13" ht="14.25" customHeight="1">
+    <row r="158" ht="14.25" customHeight="1">
       <c r="J158" s="16"/>
       <c r="M158" s="2"/>
     </row>
-    <row r="159" spans="10:13" ht="14.25" customHeight="1">
+    <row r="159" ht="14.25" customHeight="1">
       <c r="J159" s="16"/>
       <c r="M159" s="2"/>
     </row>
-    <row r="160" spans="10:13" ht="14.25" customHeight="1">
+    <row r="160" ht="14.25" customHeight="1">
       <c r="J160" s="16"/>
       <c r="M160" s="2"/>
     </row>
-    <row r="161" spans="10:13" ht="14.25" customHeight="1">
+    <row r="161" ht="14.25" customHeight="1">
       <c r="J161" s="16"/>
       <c r="M161" s="2"/>
     </row>
-    <row r="162" spans="10:13" ht="14.25" customHeight="1">
+    <row r="162" ht="14.25" customHeight="1">
       <c r="J162" s="16"/>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" spans="10:13" ht="14.25" customHeight="1">
+    <row r="163" ht="14.25" customHeight="1">
       <c r="J163" s="16"/>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" spans="10:13" ht="14.25" customHeight="1">
+    <row r="164" ht="14.25" customHeight="1">
       <c r="J164" s="16"/>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" spans="10:13" ht="14.25" customHeight="1">
+    <row r="165" ht="14.25" customHeight="1">
       <c r="J165" s="16"/>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" spans="10:13" ht="14.25" customHeight="1">
+    <row r="166" ht="14.25" customHeight="1">
       <c r="J166" s="16"/>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" spans="10:13" ht="14.25" customHeight="1">
+    <row r="167" ht="14.25" customHeight="1">
       <c r="J167" s="16"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" spans="10:13" ht="14.25" customHeight="1">
+    <row r="168" ht="14.25" customHeight="1">
       <c r="J168" s="16"/>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" spans="10:13" ht="14.25" customHeight="1">
+    <row r="169" ht="14.25" customHeight="1">
       <c r="J169" s="16"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" spans="10:13" ht="14.25" customHeight="1">
+    <row r="170" ht="14.25" customHeight="1">
       <c r="J170" s="16"/>
       <c r="M170" s="2"/>
     </row>
-    <row r="171" spans="10:13" ht="14.25" customHeight="1">
+    <row r="171" ht="14.25" customHeight="1">
       <c r="J171" s="16"/>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" spans="10:13" ht="14.25" customHeight="1">
+    <row r="172" ht="14.25" customHeight="1">
       <c r="J172" s="16"/>
       <c r="M172" s="2"/>
     </row>
-    <row r="173" spans="10:13" ht="14.25" customHeight="1">
+    <row r="173" ht="14.25" customHeight="1">
       <c r="J173" s="16"/>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" spans="10:13" ht="14.25" customHeight="1">
+    <row r="174" ht="14.25" customHeight="1">
       <c r="J174" s="16"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" spans="10:13" ht="14.25" customHeight="1">
+    <row r="175" ht="14.25" customHeight="1">
       <c r="J175" s="16"/>
       <c r="M175" s="2"/>
     </row>
-    <row r="176" spans="10:13" ht="14.25" customHeight="1">
+    <row r="176" ht="14.25" customHeight="1">
       <c r="J176" s="16"/>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" spans="10:13" ht="14.25" customHeight="1">
+    <row r="177" ht="14.25" customHeight="1">
       <c r="J177" s="16"/>
       <c r="M177" s="2"/>
     </row>
-    <row r="178" spans="10:13" ht="14.25" customHeight="1">
+    <row r="178" ht="14.25" customHeight="1">
       <c r="J178" s="16"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" spans="10:13" ht="14.25" customHeight="1">
+    <row r="179" ht="14.25" customHeight="1">
       <c r="J179" s="16"/>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" spans="10:13" ht="14.25" customHeight="1">
+    <row r="180" ht="14.25" customHeight="1">
       <c r="J180" s="16"/>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" spans="10:13" ht="14.25" customHeight="1">
+    <row r="181" ht="14.25" customHeight="1">
       <c r="J181" s="16"/>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" spans="10:13" ht="14.25" customHeight="1">
+    <row r="182" ht="14.25" customHeight="1">
       <c r="J182" s="16"/>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" spans="10:13" ht="14.25" customHeight="1">
+    <row r="183" ht="14.25" customHeight="1">
       <c r="J183" s="16"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="10:13" ht="14.25" customHeight="1">
+    <row r="184" ht="14.25" customHeight="1">
       <c r="J184" s="16"/>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" spans="10:13" ht="14.25" customHeight="1">
+    <row r="185" ht="14.25" customHeight="1">
       <c r="J185" s="16"/>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" spans="10:13" ht="14.25" customHeight="1">
+    <row r="186" ht="14.25" customHeight="1">
       <c r="J186" s="16"/>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" spans="10:13" ht="14.25" customHeight="1">
+    <row r="187" ht="14.25" customHeight="1">
       <c r="J187" s="16"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" spans="10:13" ht="14.25" customHeight="1">
+    <row r="188" ht="14.25" customHeight="1">
       <c r="J188" s="16"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" spans="10:13" ht="14.25" customHeight="1">
+    <row r="189" ht="14.25" customHeight="1">
       <c r="J189" s="16"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="10:13" ht="14.25" customHeight="1">
+    <row r="190" ht="14.25" customHeight="1">
       <c r="J190" s="16"/>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" spans="10:13" ht="14.25" customHeight="1">
+    <row r="191" ht="14.25" customHeight="1">
       <c r="J191" s="16"/>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" spans="10:13" ht="14.25" customHeight="1">
+    <row r="192" ht="14.25" customHeight="1">
       <c r="J192" s="16"/>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" spans="10:13" ht="14.25" customHeight="1">
+    <row r="193" ht="14.25" customHeight="1">
       <c r="J193" s="16"/>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" spans="10:13" ht="14.25" customHeight="1">
+    <row r="194" ht="14.25" customHeight="1">
       <c r="J194" s="16"/>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" spans="10:13" ht="14.25" customHeight="1">
+    <row r="195" ht="14.25" customHeight="1">
       <c r="J195" s="16"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" spans="10:13" ht="14.25" customHeight="1">
+    <row r="196" ht="14.25" customHeight="1">
       <c r="J196" s="16"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="10:13" ht="14.25" customHeight="1">
+    <row r="197" ht="14.25" customHeight="1">
       <c r="J197" s="16"/>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" spans="10:13" ht="14.25" customHeight="1">
+    <row r="198" ht="14.25" customHeight="1">
       <c r="J198" s="16"/>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" spans="10:13" ht="14.25" customHeight="1">
+    <row r="199" ht="14.25" customHeight="1">
       <c r="J199" s="16"/>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" spans="10:13" ht="14.25" customHeight="1">
+    <row r="200" ht="14.25" customHeight="1">
       <c r="J200" s="16"/>
       <c r="M200" s="2"/>
     </row>
-    <row r="201" spans="10:13" ht="14.25" customHeight="1">
+    <row r="201" ht="14.25" customHeight="1">
       <c r="J201" s="16"/>
       <c r="M201" s="2"/>
     </row>
-    <row r="202" spans="10:13" ht="14.25" customHeight="1">
+    <row r="202" ht="14.25" customHeight="1">
       <c r="J202" s="16"/>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" spans="10:13" ht="14.25" customHeight="1">
+    <row r="203" ht="14.25" customHeight="1">
       <c r="J203" s="16"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" spans="10:13" ht="14.25" customHeight="1">
+    <row r="204" ht="14.25" customHeight="1">
       <c r="J204" s="16"/>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" spans="10:13" ht="14.25" customHeight="1">
+    <row r="205" ht="14.25" customHeight="1">
       <c r="J205" s="16"/>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" spans="10:13" ht="14.25" customHeight="1">
+    <row r="206" ht="14.25" customHeight="1">
       <c r="J206" s="16"/>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" spans="10:13" ht="14.25" customHeight="1">
+    <row r="207" ht="14.25" customHeight="1">
       <c r="J207" s="16"/>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" spans="10:13" ht="14.25" customHeight="1">
+    <row r="208" ht="14.25" customHeight="1">
       <c r="J208" s="16"/>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" spans="10:13" ht="14.25" customHeight="1">
+    <row r="209" ht="14.25" customHeight="1">
       <c r="J209" s="16"/>
       <c r="M209" s="2"/>
     </row>
-    <row r="210" spans="10:13" ht="14.25" customHeight="1">
+    <row r="210" ht="14.25" customHeight="1">
       <c r="J210" s="16"/>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" spans="10:13" ht="14.25" customHeight="1">
+    <row r="211" ht="14.25" customHeight="1">
       <c r="J211" s="16"/>
       <c r="M211" s="2"/>
     </row>
-    <row r="212" spans="10:13" ht="14.25" customHeight="1">
+    <row r="212" ht="14.25" customHeight="1">
       <c r="J212" s="16"/>
       <c r="M212" s="2"/>
     </row>
-    <row r="213" spans="10:13" ht="14.25" customHeight="1">
+    <row r="213" ht="14.25" customHeight="1">
       <c r="J213" s="16"/>
       <c r="M213" s="2"/>
     </row>
-    <row r="214" spans="10:13" ht="14.25" customHeight="1">
+    <row r="214" ht="14.25" customHeight="1">
       <c r="J214" s="16"/>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" spans="10:13" ht="14.25" customHeight="1">
+    <row r="215" ht="14.25" customHeight="1">
       <c r="J215" s="16"/>
       <c r="M215" s="2"/>
     </row>
-    <row r="216" spans="10:13" ht="14.25" customHeight="1">
+    <row r="216" ht="14.25" customHeight="1">
       <c r="J216" s="16"/>
       <c r="M216" s="2"/>
     </row>
-    <row r="217" spans="10:13" ht="14.25" customHeight="1">
+    <row r="217" ht="14.25" customHeight="1">
       <c r="J217" s="16"/>
       <c r="M217" s="2"/>
     </row>
-    <row r="218" spans="10:13" ht="14.25" customHeight="1">
+    <row r="218" ht="14.25" customHeight="1">
       <c r="J218" s="16"/>
       <c r="M218" s="2"/>
     </row>
-    <row r="219" spans="10:13" ht="14.25" customHeight="1">
+    <row r="219" ht="14.25" customHeight="1">
       <c r="J219" s="16"/>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" spans="10:13" ht="14.25" customHeight="1">
+    <row r="220" ht="14.25" customHeight="1">
       <c r="J220" s="16"/>
       <c r="M220" s="2"/>
     </row>
-    <row r="221" spans="10:13" ht="15.75" customHeight="1"/>
-    <row r="222" spans="10:13" ht="15.75" customHeight="1"/>
-    <row r="223" spans="10:13" ht="15.75" customHeight="1"/>
-    <row r="224" spans="10:13" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -8284,23 +8297,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="6" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="6" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>319</v>
       </c>
@@ -8311,21 +8328,21 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -9311,30 +9328,34 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="65.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="36.29"/>
+    <col customWidth="1" min="2" max="2" width="53.14"/>
+    <col customWidth="1" min="3" max="3" width="12.43"/>
+    <col customWidth="1" min="4" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="25.57"/>
+    <col customWidth="1" min="7" max="7" width="10.43"/>
+    <col customWidth="1" min="8" max="8" width="13.71"/>
+    <col customWidth="1" min="12" max="12" width="65.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>266</v>
       </c>
@@ -9378,7 +9399,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>159</v>
       </c>
@@ -9420,7 +9441,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -9462,7 +9483,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
@@ -9507,7 +9528,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -9552,17 +9573,17 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -10549,40 +10570,42 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="L2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="L3" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="F4" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="L4" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="F5" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="L5" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="F2"/>
+    <hyperlink r:id="rId3" ref="L2"/>
+    <hyperlink r:id="rId4" ref="D3"/>
+    <hyperlink r:id="rId5" ref="F3"/>
+    <hyperlink r:id="rId6" ref="L3"/>
+    <hyperlink r:id="rId7" ref="D4"/>
+    <hyperlink r:id="rId8" ref="F4"/>
+    <hyperlink r:id="rId9" ref="L4"/>
+    <hyperlink r:id="rId10" ref="F5"/>
+    <hyperlink r:id="rId11" ref="L5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C1002"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="386" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="32.29"/>
+    <col customWidth="1" min="2" max="2" width="23.71"/>
+    <col customWidth="1" min="3" max="3" width="386.0"/>
+    <col customWidth="1" min="4" max="6" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10593,7 +10616,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
@@ -10604,7 +10627,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
@@ -10615,7 +10638,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
@@ -10626,7 +10649,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
@@ -10637,7 +10660,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>159</v>
       </c>
@@ -10648,7 +10671,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
@@ -10659,7 +10682,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>159</v>
       </c>
@@ -10670,7 +10693,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
@@ -10681,7 +10704,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>159</v>
       </c>
@@ -10692,7 +10715,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>159</v>
       </c>
@@ -10703,7 +10726,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>159</v>
       </c>
@@ -10714,7 +10737,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>159</v>
       </c>
@@ -10725,7 +10748,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>159</v>
       </c>
@@ -10736,7 +10759,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>159</v>
       </c>
@@ -10747,7 +10770,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>159</v>
       </c>
@@ -10758,7 +10781,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -10769,7 +10792,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>388</v>
       </c>
@@ -10780,7 +10803,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>371</v>
@@ -10789,7 +10812,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>143</v>
       </c>
@@ -10800,7 +10823,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>392</v>
       </c>
@@ -10811,7 +10834,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -10822,7 +10845,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -10833,7 +10856,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -10844,7 +10867,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>226</v>
       </c>
@@ -10855,7 +10878,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>398</v>
       </c>
@@ -10863,7 +10886,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>159</v>
       </c>
@@ -10874,7 +10897,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="B28" s="1" t="s">
         <v>398</v>
       </c>
@@ -10882,7 +10905,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>91</v>
       </c>
@@ -10893,7 +10916,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>398</v>
       </c>
@@ -10901,7 +10924,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>159</v>
       </c>
@@ -10912,7 +10935,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>398</v>
       </c>
@@ -10920,7 +10943,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>398</v>
       </c>
@@ -10928,7 +10951,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>398</v>
       </c>
@@ -10936,7 +10959,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>398</v>
       </c>
@@ -10944,7 +10967,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="B36" s="1" t="s">
         <v>398</v>
       </c>
@@ -10952,7 +10975,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -10960,7 +10983,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>159</v>
       </c>
@@ -10968,7 +10991,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="B39" s="1" t="s">
         <v>411</v>
       </c>
@@ -10976,7 +10999,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="B40" s="1" t="s">
         <v>411</v>
       </c>
@@ -10984,7 +11007,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="1" t="s">
         <v>411</v>
       </c>
@@ -10992,7 +11015,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="B42" s="1" t="s">
         <v>411</v>
       </c>
@@ -11000,7 +11023,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="B43" s="1" t="s">
         <v>411</v>
       </c>
@@ -11008,7 +11031,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>159</v>
       </c>
@@ -11019,7 +11042,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -11030,7 +11053,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
@@ -11041,7 +11064,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>226</v>
       </c>
@@ -11052,7 +11075,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="B48" s="1" t="s">
         <v>422</v>
       </c>
@@ -11060,7 +11083,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
@@ -11071,7 +11094,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>80</v>
       </c>
@@ -11082,7 +11105,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
@@ -11093,7 +11116,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>226</v>
       </c>
@@ -11104,7 +11127,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>159</v>
       </c>
@@ -11115,7 +11138,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>80</v>
       </c>
@@ -11126,7 +11149,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
@@ -11137,7 +11160,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>226</v>
       </c>
@@ -11148,7 +11171,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>159</v>
       </c>
@@ -11159,7 +11182,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>80</v>
       </c>
@@ -11170,7 +11193,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>143</v>
       </c>
@@ -11181,7 +11204,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>226</v>
       </c>
@@ -11192,7 +11215,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1">
+    <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -11203,7 +11226,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1">
+    <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>159</v>
       </c>
@@ -11214,7 +11237,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>159</v>
       </c>
@@ -11225,7 +11248,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1">
+    <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>143</v>
       </c>
@@ -11236,7 +11259,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1">
+    <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>143</v>
       </c>
@@ -11247,8 +11270,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A66" s="1" t="s">
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -11258,8 +11281,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A67" s="1" t="s">
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -11269,86 +11292,132 @@
         <v>442</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A68" s="1" t="s">
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A69" s="1" t="s">
+      <c r="C68" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C69" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
       <c r="B74" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -12273,51 +12342,55 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C51" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C54" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C56" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C57" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C58" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C59" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C60" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink r:id="rId1" ref="C51"/>
+    <hyperlink r:id="rId2" ref="C52"/>
+    <hyperlink r:id="rId3" ref="C54"/>
+    <hyperlink r:id="rId4" ref="C56"/>
+    <hyperlink r:id="rId5" ref="C57"/>
+    <hyperlink r:id="rId6" ref="C58"/>
+    <hyperlink r:id="rId7" ref="C59"/>
+    <hyperlink r:id="rId8" ref="C60"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="3" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="14.29"/>
+    <col customWidth="1" min="5" max="6" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -13301,186 +13374,190 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="179.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="26.29"/>
+    <col customWidth="1" min="2" max="2" width="19.14"/>
+    <col customWidth="1" min="3" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="179.43"/>
+    <col customWidth="1" min="7" max="7" width="8.71"/>
+    <col customWidth="1" min="8" max="8" width="18.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D2" s="1">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="D3" s="1">
-        <v>450</v>
+        <v>450.0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D4" s="1">
-        <v>650</v>
+        <v>650.0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="D5" s="1">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D6" s="1">
-        <v>325</v>
+        <v>325.0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D7" s="1">
-        <v>600</v>
+        <v>600.0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D8" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D9" s="1">
-        <v>560</v>
+        <v>560.0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>226</v>
       </c>
@@ -13488,717 +13565,717 @@
         <v>228</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D10" s="1">
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D11" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D12" s="1">
-        <v>560</v>
+        <v>560.0</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D13" s="1">
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D14" s="1">
-        <v>240</v>
+        <v>240.0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D15" s="1">
-        <v>240</v>
+        <v>240.0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="6:6" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="6:6" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="6:6" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="6:6" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="6:6" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="6:6" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="6:6" ht="14.25" customHeight="1">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="6:6" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="6:6" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="6:6" ht="14.25" customHeight="1">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="6:6" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="6:6" ht="14.25" customHeight="1">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="6:6" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="6:6" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="6:6" ht="14.25" customHeight="1">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="6:6" ht="14.25" customHeight="1">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="6:6" ht="14.25" customHeight="1">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="6:6" ht="14.25" customHeight="1">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="6:6" ht="14.25" customHeight="1">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="6:6" ht="14.25" customHeight="1">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="6:6" ht="14.25" customHeight="1">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="6:6" ht="14.25" customHeight="1">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="6:6" ht="14.25" customHeight="1">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="6:6" ht="14.25" customHeight="1">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="6:6" ht="14.25" customHeight="1">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="6:6" ht="14.25" customHeight="1">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="6:6" ht="14.25" customHeight="1">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="6:6" ht="14.25" customHeight="1">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="6:6" ht="14.25" customHeight="1">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="6:6" ht="14.25" customHeight="1">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="6:6" ht="14.25" customHeight="1">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="6:6" ht="14.25" customHeight="1">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="6:6" ht="14.25" customHeight="1">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="6:6" ht="14.25" customHeight="1">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="6:6" ht="14.25" customHeight="1">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="6:6" ht="14.25" customHeight="1">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="6:6" ht="14.25" customHeight="1">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="6:6" ht="14.25" customHeight="1">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="6:6" ht="14.25" customHeight="1">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="6:6" ht="14.25" customHeight="1">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="6:6" ht="14.25" customHeight="1">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="6:6" ht="14.25" customHeight="1">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="6:6" ht="14.25" customHeight="1">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="6:6" ht="14.25" customHeight="1">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="6:6" ht="14.25" customHeight="1">
+    <row r="61" ht="14.25" customHeight="1">
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="6:6" ht="14.25" customHeight="1">
+    <row r="62" ht="14.25" customHeight="1">
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="6:6" ht="14.25" customHeight="1">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="6:6" ht="14.25" customHeight="1">
+    <row r="64" ht="14.25" customHeight="1">
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="6:6" ht="14.25" customHeight="1">
+    <row r="65" ht="14.25" customHeight="1">
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="6:6" ht="14.25" customHeight="1">
+    <row r="66" ht="14.25" customHeight="1">
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="6:6" ht="14.25" customHeight="1">
+    <row r="67" ht="14.25" customHeight="1">
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="6:6" ht="14.25" customHeight="1">
+    <row r="68" ht="14.25" customHeight="1">
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="6:6" ht="14.25" customHeight="1">
+    <row r="69" ht="14.25" customHeight="1">
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="6:6" ht="14.25" customHeight="1">
+    <row r="70" ht="14.25" customHeight="1">
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="6:6" ht="14.25" customHeight="1">
+    <row r="71" ht="14.25" customHeight="1">
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="6:6" ht="14.25" customHeight="1">
+    <row r="72" ht="14.25" customHeight="1">
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="6:6" ht="14.25" customHeight="1">
+    <row r="73" ht="14.25" customHeight="1">
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="6:6" ht="14.25" customHeight="1">
+    <row r="74" ht="14.25" customHeight="1">
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="6:6" ht="14.25" customHeight="1">
+    <row r="75" ht="14.25" customHeight="1">
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="6:6" ht="14.25" customHeight="1">
+    <row r="76" ht="14.25" customHeight="1">
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="6:6" ht="14.25" customHeight="1">
+    <row r="77" ht="14.25" customHeight="1">
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="6:6" ht="14.25" customHeight="1">
+    <row r="78" ht="14.25" customHeight="1">
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="6:6" ht="14.25" customHeight="1">
+    <row r="79" ht="14.25" customHeight="1">
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="6:6" ht="14.25" customHeight="1">
+    <row r="80" ht="14.25" customHeight="1">
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="6:6" ht="14.25" customHeight="1">
+    <row r="81" ht="14.25" customHeight="1">
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="6:6" ht="14.25" customHeight="1">
+    <row r="82" ht="14.25" customHeight="1">
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="6:6" ht="14.25" customHeight="1">
+    <row r="83" ht="14.25" customHeight="1">
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="6:6" ht="14.25" customHeight="1">
+    <row r="84" ht="14.25" customHeight="1">
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="6:6" ht="14.25" customHeight="1">
+    <row r="85" ht="14.25" customHeight="1">
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="6:6" ht="14.25" customHeight="1">
+    <row r="86" ht="14.25" customHeight="1">
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="6:6" ht="14.25" customHeight="1">
+    <row r="87" ht="14.25" customHeight="1">
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="6:6" ht="14.25" customHeight="1">
+    <row r="88" ht="14.25" customHeight="1">
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="6:6" ht="14.25" customHeight="1">
+    <row r="89" ht="14.25" customHeight="1">
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="6:6" ht="14.25" customHeight="1">
+    <row r="90" ht="14.25" customHeight="1">
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="6:6" ht="14.25" customHeight="1">
+    <row r="91" ht="14.25" customHeight="1">
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="6:6" ht="14.25" customHeight="1">
+    <row r="92" ht="14.25" customHeight="1">
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="6:6" ht="14.25" customHeight="1">
+    <row r="93" ht="14.25" customHeight="1">
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="6:6" ht="14.25" customHeight="1">
+    <row r="94" ht="14.25" customHeight="1">
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="6:6" ht="14.25" customHeight="1">
+    <row r="95" ht="14.25" customHeight="1">
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="6:6" ht="14.25" customHeight="1">
+    <row r="96" ht="14.25" customHeight="1">
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="6:6" ht="14.25" customHeight="1">
+    <row r="97" ht="14.25" customHeight="1">
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="6:6" ht="14.25" customHeight="1">
+    <row r="98" ht="14.25" customHeight="1">
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="6:6" ht="14.25" customHeight="1">
+    <row r="99" ht="14.25" customHeight="1">
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="6:6" ht="14.25" customHeight="1">
+    <row r="100" ht="14.25" customHeight="1">
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="6:6" ht="14.25" customHeight="1">
+    <row r="101" ht="14.25" customHeight="1">
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="6:6" ht="14.25" customHeight="1">
+    <row r="102" ht="14.25" customHeight="1">
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="6:6" ht="14.25" customHeight="1">
+    <row r="103" ht="14.25" customHeight="1">
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="6:6" ht="14.25" customHeight="1">
+    <row r="104" ht="14.25" customHeight="1">
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="6:6" ht="14.25" customHeight="1">
+    <row r="105" ht="14.25" customHeight="1">
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="6:6" ht="14.25" customHeight="1">
+    <row r="106" ht="14.25" customHeight="1">
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="6:6" ht="14.25" customHeight="1">
+    <row r="107" ht="14.25" customHeight="1">
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="6:6" ht="14.25" customHeight="1">
+    <row r="108" ht="14.25" customHeight="1">
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="6:6" ht="14.25" customHeight="1">
+    <row r="109" ht="14.25" customHeight="1">
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="6:6" ht="14.25" customHeight="1">
+    <row r="110" ht="14.25" customHeight="1">
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="6:6" ht="14.25" customHeight="1">
+    <row r="111" ht="14.25" customHeight="1">
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="6:6" ht="14.25" customHeight="1">
+    <row r="112" ht="14.25" customHeight="1">
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="6:6" ht="14.25" customHeight="1">
+    <row r="113" ht="14.25" customHeight="1">
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="6:6" ht="14.25" customHeight="1">
+    <row r="114" ht="14.25" customHeight="1">
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="6:6" ht="14.25" customHeight="1">
+    <row r="115" ht="14.25" customHeight="1">
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="6:6" ht="14.25" customHeight="1">
+    <row r="116" ht="14.25" customHeight="1">
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="6:6" ht="14.25" customHeight="1">
+    <row r="117" ht="14.25" customHeight="1">
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="6:6" ht="14.25" customHeight="1">
+    <row r="118" ht="14.25" customHeight="1">
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="6:6" ht="14.25" customHeight="1">
+    <row r="119" ht="14.25" customHeight="1">
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="6:6" ht="14.25" customHeight="1">
+    <row r="120" ht="14.25" customHeight="1">
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="6:6" ht="14.25" customHeight="1">
+    <row r="121" ht="14.25" customHeight="1">
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="6:6" ht="14.25" customHeight="1">
+    <row r="122" ht="14.25" customHeight="1">
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="6:6" ht="14.25" customHeight="1">
+    <row r="123" ht="14.25" customHeight="1">
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="6:6" ht="14.25" customHeight="1">
+    <row r="124" ht="14.25" customHeight="1">
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="6:6" ht="14.25" customHeight="1">
+    <row r="125" ht="14.25" customHeight="1">
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="6:6" ht="14.25" customHeight="1">
+    <row r="126" ht="14.25" customHeight="1">
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="6:6" ht="14.25" customHeight="1">
+    <row r="127" ht="14.25" customHeight="1">
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="6:6" ht="14.25" customHeight="1">
+    <row r="128" ht="14.25" customHeight="1">
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="6:6" ht="14.25" customHeight="1">
+    <row r="129" ht="14.25" customHeight="1">
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="6:6" ht="14.25" customHeight="1">
+    <row r="130" ht="14.25" customHeight="1">
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="6:6" ht="14.25" customHeight="1">
+    <row r="131" ht="14.25" customHeight="1">
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="6:6" ht="14.25" customHeight="1">
+    <row r="132" ht="14.25" customHeight="1">
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="6:6" ht="14.25" customHeight="1">
+    <row r="133" ht="14.25" customHeight="1">
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="6:6" ht="14.25" customHeight="1">
+    <row r="134" ht="14.25" customHeight="1">
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="6:6" ht="14.25" customHeight="1">
+    <row r="135" ht="14.25" customHeight="1">
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="6:6" ht="14.25" customHeight="1">
+    <row r="136" ht="14.25" customHeight="1">
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="6:6" ht="14.25" customHeight="1">
+    <row r="137" ht="14.25" customHeight="1">
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="6:6" ht="14.25" customHeight="1">
+    <row r="138" ht="14.25" customHeight="1">
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="6:6" ht="14.25" customHeight="1">
+    <row r="139" ht="14.25" customHeight="1">
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="6:6" ht="14.25" customHeight="1">
+    <row r="140" ht="14.25" customHeight="1">
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="6:6" ht="14.25" customHeight="1">
+    <row r="141" ht="14.25" customHeight="1">
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="6:6" ht="14.25" customHeight="1">
+    <row r="142" ht="14.25" customHeight="1">
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="6:6" ht="14.25" customHeight="1">
+    <row r="143" ht="14.25" customHeight="1">
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="6:6" ht="14.25" customHeight="1">
+    <row r="144" ht="14.25" customHeight="1">
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="6:6" ht="14.25" customHeight="1">
+    <row r="145" ht="14.25" customHeight="1">
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="6:6" ht="14.25" customHeight="1">
+    <row r="146" ht="14.25" customHeight="1">
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="6:6" ht="14.25" customHeight="1">
+    <row r="147" ht="14.25" customHeight="1">
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="6:6" ht="14.25" customHeight="1">
+    <row r="148" ht="14.25" customHeight="1">
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="6:6" ht="14.25" customHeight="1">
+    <row r="149" ht="14.25" customHeight="1">
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="6:6" ht="14.25" customHeight="1">
+    <row r="150" ht="14.25" customHeight="1">
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="6:6" ht="14.25" customHeight="1">
+    <row r="151" ht="14.25" customHeight="1">
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="6:6" ht="14.25" customHeight="1">
+    <row r="152" ht="14.25" customHeight="1">
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="6:6" ht="14.25" customHeight="1">
+    <row r="153" ht="14.25" customHeight="1">
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="6:6" ht="14.25" customHeight="1">
+    <row r="154" ht="14.25" customHeight="1">
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="6:6" ht="14.25" customHeight="1">
+    <row r="155" ht="14.25" customHeight="1">
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="6:6" ht="14.25" customHeight="1">
+    <row r="156" ht="14.25" customHeight="1">
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="6:6" ht="14.25" customHeight="1">
+    <row r="157" ht="14.25" customHeight="1">
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="6:6" ht="14.25" customHeight="1">
+    <row r="158" ht="14.25" customHeight="1">
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="6:6" ht="14.25" customHeight="1">
+    <row r="159" ht="14.25" customHeight="1">
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="6:6" ht="14.25" customHeight="1">
+    <row r="160" ht="14.25" customHeight="1">
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="6:6" ht="14.25" customHeight="1">
+    <row r="161" ht="14.25" customHeight="1">
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="6:6" ht="14.25" customHeight="1">
+    <row r="162" ht="14.25" customHeight="1">
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="6:6" ht="14.25" customHeight="1">
+    <row r="163" ht="14.25" customHeight="1">
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="6:6" ht="14.25" customHeight="1">
+    <row r="164" ht="14.25" customHeight="1">
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="6:6" ht="14.25" customHeight="1">
+    <row r="165" ht="14.25" customHeight="1">
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="6:6" ht="14.25" customHeight="1">
+    <row r="166" ht="14.25" customHeight="1">
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="6:6" ht="14.25" customHeight="1">
+    <row r="167" ht="14.25" customHeight="1">
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="6:6" ht="14.25" customHeight="1">
+    <row r="168" ht="14.25" customHeight="1">
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="6:6" ht="14.25" customHeight="1">
+    <row r="169" ht="14.25" customHeight="1">
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="6:6" ht="14.25" customHeight="1">
+    <row r="170" ht="14.25" customHeight="1">
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="6:6" ht="14.25" customHeight="1">
+    <row r="171" ht="14.25" customHeight="1">
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="6:6" ht="14.25" customHeight="1">
+    <row r="172" ht="14.25" customHeight="1">
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="6:6" ht="14.25" customHeight="1">
+    <row r="173" ht="14.25" customHeight="1">
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="6:6" ht="14.25" customHeight="1">
+    <row r="174" ht="14.25" customHeight="1">
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="6:6" ht="14.25" customHeight="1">
+    <row r="175" ht="14.25" customHeight="1">
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="6:6" ht="14.25" customHeight="1">
+    <row r="176" ht="14.25" customHeight="1">
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="6:6" ht="14.25" customHeight="1">
+    <row r="177" ht="14.25" customHeight="1">
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="6:6" ht="14.25" customHeight="1">
+    <row r="178" ht="14.25" customHeight="1">
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="6:6" ht="14.25" customHeight="1">
+    <row r="179" ht="14.25" customHeight="1">
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="6:6" ht="14.25" customHeight="1">
+    <row r="180" ht="14.25" customHeight="1">
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="6:6" ht="14.25" customHeight="1">
+    <row r="181" ht="14.25" customHeight="1">
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="6:6" ht="14.25" customHeight="1">
+    <row r="182" ht="14.25" customHeight="1">
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="6:6" ht="14.25" customHeight="1">
+    <row r="183" ht="14.25" customHeight="1">
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="6:6" ht="14.25" customHeight="1">
+    <row r="184" ht="14.25" customHeight="1">
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="6:6" ht="14.25" customHeight="1">
+    <row r="185" ht="14.25" customHeight="1">
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="6:6" ht="14.25" customHeight="1">
+    <row r="186" ht="14.25" customHeight="1">
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="6:6" ht="14.25" customHeight="1">
+    <row r="187" ht="14.25" customHeight="1">
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="6:6" ht="14.25" customHeight="1">
+    <row r="188" ht="14.25" customHeight="1">
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="6:6" ht="14.25" customHeight="1">
+    <row r="189" ht="14.25" customHeight="1">
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="6:6" ht="14.25" customHeight="1">
+    <row r="190" ht="14.25" customHeight="1">
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="6:6" ht="14.25" customHeight="1">
+    <row r="191" ht="14.25" customHeight="1">
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="6:6" ht="14.25" customHeight="1">
+    <row r="192" ht="14.25" customHeight="1">
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="6:6" ht="14.25" customHeight="1">
+    <row r="193" ht="14.25" customHeight="1">
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="6:6" ht="14.25" customHeight="1">
+    <row r="194" ht="14.25" customHeight="1">
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="6:6" ht="14.25" customHeight="1">
+    <row r="195" ht="14.25" customHeight="1">
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="6:6" ht="14.25" customHeight="1">
+    <row r="196" ht="14.25" customHeight="1">
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="6:6" ht="14.25" customHeight="1">
+    <row r="197" ht="14.25" customHeight="1">
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="6:6" ht="14.25" customHeight="1">
+    <row r="198" ht="14.25" customHeight="1">
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="6:6" ht="14.25" customHeight="1">
+    <row r="199" ht="14.25" customHeight="1">
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="6:6" ht="14.25" customHeight="1">
+    <row r="200" ht="14.25" customHeight="1">
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="6:6" ht="14.25" customHeight="1">
+    <row r="201" ht="14.25" customHeight="1">
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="6:6" ht="14.25" customHeight="1">
+    <row r="202" ht="14.25" customHeight="1">
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="6:6" ht="14.25" customHeight="1">
+    <row r="203" ht="14.25" customHeight="1">
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="6:6" ht="14.25" customHeight="1">
+    <row r="204" ht="14.25" customHeight="1">
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="6:6" ht="14.25" customHeight="1">
+    <row r="205" ht="14.25" customHeight="1">
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="6:6" ht="14.25" customHeight="1">
+    <row r="206" ht="14.25" customHeight="1">
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="6:6" ht="14.25" customHeight="1">
+    <row r="207" ht="14.25" customHeight="1">
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="6:6" ht="14.25" customHeight="1">
+    <row r="208" ht="14.25" customHeight="1">
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="6:6" ht="14.25" customHeight="1">
+    <row r="209" ht="14.25" customHeight="1">
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="6:6" ht="14.25" customHeight="1">
+    <row r="210" ht="14.25" customHeight="1">
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="6:6" ht="14.25" customHeight="1">
+    <row r="211" ht="14.25" customHeight="1">
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="6:6" ht="14.25" customHeight="1">
+    <row r="212" ht="14.25" customHeight="1">
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="6:6" ht="14.25" customHeight="1">
+    <row r="213" ht="14.25" customHeight="1">
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="6:6" ht="14.25" customHeight="1">
+    <row r="214" ht="14.25" customHeight="1">
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="6:6" ht="14.25" customHeight="1">
+    <row r="215" ht="14.25" customHeight="1">
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="6:6" ht="14.25" customHeight="1">
+    <row r="216" ht="14.25" customHeight="1">
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="6:6" ht="14.25" customHeight="1">
+    <row r="217" ht="14.25" customHeight="1">
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="6:6" ht="14.25" customHeight="1">
+    <row r="218" ht="14.25" customHeight="1">
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="6:6" ht="14.25" customHeight="1">
+    <row r="219" ht="14.25" customHeight="1">
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="6:6" ht="15.75" customHeight="1"/>
-    <row r="221" spans="6:6" ht="15.75" customHeight="1"/>
-    <row r="222" spans="6:6" ht="15.75" customHeight="1"/>
-    <row r="223" spans="6:6" ht="15.75" customHeight="1"/>
-    <row r="224" spans="6:6" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -14976,936 +15053,940 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="191" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="30.14"/>
+    <col customWidth="1" min="2" max="2" width="47.29"/>
+    <col customWidth="1" min="3" max="3" width="191.0"/>
+    <col customWidth="1" min="4" max="6" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
-        <v>481</v>
+      <c r="B1" s="36" t="s">
+        <v>483</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" ht="14.25" customHeight="1">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" ht="14.25" customHeight="1">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" ht="14.25" customHeight="1">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" ht="14.25" customHeight="1">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" ht="14.25" customHeight="1">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" ht="14.25" customHeight="1">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" ht="14.25" customHeight="1">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" ht="14.25" customHeight="1">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" ht="14.25" customHeight="1">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" ht="14.25" customHeight="1">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" ht="14.25" customHeight="1">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" ht="14.25" customHeight="1">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" ht="14.25" customHeight="1">
+    <row r="61" ht="14.25" customHeight="1">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" ht="14.25" customHeight="1">
+    <row r="62" ht="14.25" customHeight="1">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" ht="14.25" customHeight="1">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" ht="14.25" customHeight="1">
+    <row r="64" ht="14.25" customHeight="1">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" ht="14.25" customHeight="1">
+    <row r="65" ht="14.25" customHeight="1">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2" ht="14.25" customHeight="1">
+    <row r="66" ht="14.25" customHeight="1">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2" ht="14.25" customHeight="1">
+    <row r="67" ht="14.25" customHeight="1">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="2:2" ht="14.25" customHeight="1">
+    <row r="68" ht="14.25" customHeight="1">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="2:2" ht="14.25" customHeight="1">
+    <row r="69" ht="14.25" customHeight="1">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2" ht="14.25" customHeight="1">
+    <row r="70" ht="14.25" customHeight="1">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2" ht="14.25" customHeight="1">
+    <row r="71" ht="14.25" customHeight="1">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2" ht="14.25" customHeight="1">
+    <row r="72" ht="14.25" customHeight="1">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2" ht="14.25" customHeight="1">
+    <row r="73" ht="14.25" customHeight="1">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2" ht="14.25" customHeight="1">
+    <row r="74" ht="14.25" customHeight="1">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2" ht="14.25" customHeight="1">
+    <row r="75" ht="14.25" customHeight="1">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" ht="14.25" customHeight="1">
+    <row r="76" ht="14.25" customHeight="1">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" ht="14.25" customHeight="1">
+    <row r="77" ht="14.25" customHeight="1">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" ht="14.25" customHeight="1">
+    <row r="78" ht="14.25" customHeight="1">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" ht="14.25" customHeight="1">
+    <row r="79" ht="14.25" customHeight="1">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" ht="14.25" customHeight="1">
+    <row r="80" ht="14.25" customHeight="1">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" ht="14.25" customHeight="1">
+    <row r="81" ht="14.25" customHeight="1">
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="2:2" ht="14.25" customHeight="1">
+    <row r="82" ht="14.25" customHeight="1">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2" ht="14.25" customHeight="1">
+    <row r="83" ht="14.25" customHeight="1">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2" ht="14.25" customHeight="1">
+    <row r="84" ht="14.25" customHeight="1">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2" ht="14.25" customHeight="1">
+    <row r="85" ht="14.25" customHeight="1">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" ht="14.25" customHeight="1">
+    <row r="86" ht="14.25" customHeight="1">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" ht="14.25" customHeight="1">
+    <row r="87" ht="14.25" customHeight="1">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" ht="14.25" customHeight="1">
+    <row r="88" ht="14.25" customHeight="1">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" ht="14.25" customHeight="1">
+    <row r="89" ht="14.25" customHeight="1">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" ht="14.25" customHeight="1">
+    <row r="90" ht="14.25" customHeight="1">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" ht="14.25" customHeight="1">
+    <row r="91" ht="14.25" customHeight="1">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" ht="14.25" customHeight="1">
+    <row r="92" ht="14.25" customHeight="1">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" ht="14.25" customHeight="1">
+    <row r="93" ht="14.25" customHeight="1">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" ht="14.25" customHeight="1">
+    <row r="94" ht="14.25" customHeight="1">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" ht="14.25" customHeight="1">
+    <row r="95" ht="14.25" customHeight="1">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" ht="14.25" customHeight="1">
+    <row r="96" ht="14.25" customHeight="1">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" ht="14.25" customHeight="1">
+    <row r="97" ht="14.25" customHeight="1">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" ht="14.25" customHeight="1">
+    <row r="98" ht="14.25" customHeight="1">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" ht="14.25" customHeight="1">
+    <row r="99" ht="14.25" customHeight="1">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" ht="14.25" customHeight="1">
+    <row r="100" ht="14.25" customHeight="1">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" ht="14.25" customHeight="1">
+    <row r="101" ht="14.25" customHeight="1">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" ht="14.25" customHeight="1">
+    <row r="102" ht="14.25" customHeight="1">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" ht="14.25" customHeight="1">
+    <row r="103" ht="14.25" customHeight="1">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" ht="14.25" customHeight="1">
+    <row r="104" ht="14.25" customHeight="1">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" ht="14.25" customHeight="1">
+    <row r="105" ht="14.25" customHeight="1">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" ht="14.25" customHeight="1">
+    <row r="106" ht="14.25" customHeight="1">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" ht="14.25" customHeight="1">
+    <row r="107" ht="14.25" customHeight="1">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" ht="14.25" customHeight="1">
+    <row r="108" ht="14.25" customHeight="1">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" ht="14.25" customHeight="1">
+    <row r="109" ht="14.25" customHeight="1">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" ht="14.25" customHeight="1">
+    <row r="110" ht="14.25" customHeight="1">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" ht="14.25" customHeight="1">
+    <row r="111" ht="14.25" customHeight="1">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" ht="14.25" customHeight="1">
+    <row r="112" ht="14.25" customHeight="1">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" ht="14.25" customHeight="1">
+    <row r="113" ht="14.25" customHeight="1">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" ht="14.25" customHeight="1">
+    <row r="114" ht="14.25" customHeight="1">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" ht="14.25" customHeight="1">
+    <row r="115" ht="14.25" customHeight="1">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" ht="14.25" customHeight="1">
+    <row r="116" ht="14.25" customHeight="1">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" ht="14.25" customHeight="1">
+    <row r="117" ht="14.25" customHeight="1">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" ht="14.25" customHeight="1">
+    <row r="118" ht="14.25" customHeight="1">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" ht="14.25" customHeight="1">
+    <row r="119" ht="14.25" customHeight="1">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" ht="14.25" customHeight="1">
+    <row r="120" ht="14.25" customHeight="1">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" ht="14.25" customHeight="1">
+    <row r="121" ht="14.25" customHeight="1">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" ht="14.25" customHeight="1">
+    <row r="122" ht="14.25" customHeight="1">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" ht="14.25" customHeight="1">
+    <row r="123" ht="14.25" customHeight="1">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" ht="14.25" customHeight="1">
+    <row r="124" ht="14.25" customHeight="1">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" ht="14.25" customHeight="1">
+    <row r="125" ht="14.25" customHeight="1">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" ht="14.25" customHeight="1">
+    <row r="126" ht="14.25" customHeight="1">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" ht="14.25" customHeight="1">
+    <row r="127" ht="14.25" customHeight="1">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" ht="14.25" customHeight="1">
+    <row r="128" ht="14.25" customHeight="1">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" ht="14.25" customHeight="1">
+    <row r="129" ht="14.25" customHeight="1">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" ht="14.25" customHeight="1">
+    <row r="130" ht="14.25" customHeight="1">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" ht="14.25" customHeight="1">
+    <row r="131" ht="14.25" customHeight="1">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" ht="14.25" customHeight="1">
+    <row r="132" ht="14.25" customHeight="1">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" ht="14.25" customHeight="1">
+    <row r="133" ht="14.25" customHeight="1">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" ht="14.25" customHeight="1">
+    <row r="134" ht="14.25" customHeight="1">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" ht="14.25" customHeight="1">
+    <row r="135" ht="14.25" customHeight="1">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" ht="14.25" customHeight="1">
+    <row r="136" ht="14.25" customHeight="1">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" ht="14.25" customHeight="1">
+    <row r="137" ht="14.25" customHeight="1">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" ht="14.25" customHeight="1">
+    <row r="138" ht="14.25" customHeight="1">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" ht="14.25" customHeight="1">
+    <row r="139" ht="14.25" customHeight="1">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" ht="14.25" customHeight="1">
+    <row r="140" ht="14.25" customHeight="1">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" ht="14.25" customHeight="1">
+    <row r="141" ht="14.25" customHeight="1">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" ht="14.25" customHeight="1">
+    <row r="142" ht="14.25" customHeight="1">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" ht="14.25" customHeight="1">
+    <row r="143" ht="14.25" customHeight="1">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" ht="14.25" customHeight="1">
+    <row r="144" ht="14.25" customHeight="1">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" ht="14.25" customHeight="1">
+    <row r="145" ht="14.25" customHeight="1">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" ht="14.25" customHeight="1">
+    <row r="146" ht="14.25" customHeight="1">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" ht="14.25" customHeight="1">
+    <row r="147" ht="14.25" customHeight="1">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" ht="14.25" customHeight="1">
+    <row r="148" ht="14.25" customHeight="1">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" ht="14.25" customHeight="1">
+    <row r="149" ht="14.25" customHeight="1">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" ht="14.25" customHeight="1">
+    <row r="150" ht="14.25" customHeight="1">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" ht="14.25" customHeight="1">
+    <row r="151" ht="14.25" customHeight="1">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" ht="14.25" customHeight="1">
+    <row r="152" ht="14.25" customHeight="1">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" ht="14.25" customHeight="1">
+    <row r="153" ht="14.25" customHeight="1">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" ht="14.25" customHeight="1">
+    <row r="154" ht="14.25" customHeight="1">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" ht="14.25" customHeight="1">
+    <row r="155" ht="14.25" customHeight="1">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" ht="14.25" customHeight="1">
+    <row r="156" ht="14.25" customHeight="1">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" ht="14.25" customHeight="1">
+    <row r="157" ht="14.25" customHeight="1">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" ht="14.25" customHeight="1">
+    <row r="158" ht="14.25" customHeight="1">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" ht="14.25" customHeight="1">
+    <row r="159" ht="14.25" customHeight="1">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" ht="14.25" customHeight="1">
+    <row r="160" ht="14.25" customHeight="1">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" ht="14.25" customHeight="1">
+    <row r="161" ht="14.25" customHeight="1">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" ht="14.25" customHeight="1">
+    <row r="162" ht="14.25" customHeight="1">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" ht="14.25" customHeight="1">
+    <row r="163" ht="14.25" customHeight="1">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" ht="14.25" customHeight="1">
+    <row r="164" ht="14.25" customHeight="1">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" ht="14.25" customHeight="1">
+    <row r="165" ht="14.25" customHeight="1">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" ht="14.25" customHeight="1">
+    <row r="166" ht="14.25" customHeight="1">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" ht="14.25" customHeight="1">
+    <row r="167" ht="14.25" customHeight="1">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" ht="14.25" customHeight="1">
+    <row r="168" ht="14.25" customHeight="1">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" ht="14.25" customHeight="1">
+    <row r="169" ht="14.25" customHeight="1">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" ht="14.25" customHeight="1">
+    <row r="170" ht="14.25" customHeight="1">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" ht="14.25" customHeight="1">
+    <row r="171" ht="14.25" customHeight="1">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" ht="14.25" customHeight="1">
+    <row r="172" ht="14.25" customHeight="1">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" ht="14.25" customHeight="1">
+    <row r="173" ht="14.25" customHeight="1">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" ht="14.25" customHeight="1">
+    <row r="174" ht="14.25" customHeight="1">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" ht="14.25" customHeight="1">
+    <row r="175" ht="14.25" customHeight="1">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" ht="14.25" customHeight="1">
+    <row r="176" ht="14.25" customHeight="1">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2" ht="14.25" customHeight="1">
+    <row r="177" ht="14.25" customHeight="1">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2" ht="14.25" customHeight="1">
+    <row r="178" ht="14.25" customHeight="1">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2" ht="14.25" customHeight="1">
+    <row r="179" ht="14.25" customHeight="1">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2" ht="14.25" customHeight="1">
+    <row r="180" ht="14.25" customHeight="1">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2" ht="14.25" customHeight="1">
+    <row r="181" ht="14.25" customHeight="1">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2" ht="14.25" customHeight="1">
+    <row r="182" ht="14.25" customHeight="1">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2" ht="14.25" customHeight="1">
+    <row r="183" ht="14.25" customHeight="1">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2" ht="14.25" customHeight="1">
+    <row r="184" ht="14.25" customHeight="1">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2" ht="14.25" customHeight="1">
+    <row r="185" ht="14.25" customHeight="1">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2" ht="14.25" customHeight="1">
+    <row r="186" ht="14.25" customHeight="1">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2" ht="14.25" customHeight="1">
+    <row r="187" ht="14.25" customHeight="1">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2" ht="14.25" customHeight="1">
+    <row r="188" ht="14.25" customHeight="1">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2" ht="14.25" customHeight="1">
+    <row r="189" ht="14.25" customHeight="1">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2" ht="14.25" customHeight="1">
+    <row r="190" ht="14.25" customHeight="1">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2" ht="14.25" customHeight="1">
+    <row r="191" ht="14.25" customHeight="1">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2" ht="14.25" customHeight="1">
+    <row r="192" ht="14.25" customHeight="1">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="2:2" ht="14.25" customHeight="1">
+    <row r="193" ht="14.25" customHeight="1">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:2" ht="14.25" customHeight="1">
+    <row r="194" ht="14.25" customHeight="1">
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="2:2" ht="14.25" customHeight="1">
+    <row r="195" ht="14.25" customHeight="1">
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="2:2" ht="14.25" customHeight="1">
+    <row r="196" ht="14.25" customHeight="1">
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="2:2" ht="14.25" customHeight="1">
+    <row r="197" ht="14.25" customHeight="1">
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="2:2" ht="14.25" customHeight="1">
+    <row r="198" ht="14.25" customHeight="1">
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="2:2" ht="14.25" customHeight="1">
+    <row r="199" ht="14.25" customHeight="1">
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="2:2" ht="14.25" customHeight="1">
+    <row r="200" ht="14.25" customHeight="1">
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="2:2" ht="14.25" customHeight="1">
+    <row r="201" ht="14.25" customHeight="1">
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="2:2" ht="14.25" customHeight="1">
+    <row r="202" ht="14.25" customHeight="1">
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="2:2" ht="14.25" customHeight="1">
+    <row r="203" ht="14.25" customHeight="1">
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="2:2" ht="14.25" customHeight="1">
+    <row r="204" ht="14.25" customHeight="1">
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="2:2" ht="14.25" customHeight="1">
+    <row r="205" ht="14.25" customHeight="1">
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="2:2" ht="14.25" customHeight="1">
+    <row r="206" ht="14.25" customHeight="1">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:2" ht="14.25" customHeight="1">
+    <row r="207" ht="14.25" customHeight="1">
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="2:2" ht="14.25" customHeight="1">
+    <row r="208" ht="14.25" customHeight="1">
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="2:2" ht="14.25" customHeight="1">
+    <row r="209" ht="14.25" customHeight="1">
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="2:2" ht="14.25" customHeight="1">
+    <row r="210" ht="14.25" customHeight="1">
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="2:2" ht="14.25" customHeight="1">
+    <row r="211" ht="14.25" customHeight="1">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="2:2" ht="14.25" customHeight="1">
+    <row r="212" ht="14.25" customHeight="1">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="2:2" ht="14.25" customHeight="1">
+    <row r="213" ht="14.25" customHeight="1">
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="2:2" ht="14.25" customHeight="1">
+    <row r="214" ht="14.25" customHeight="1">
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="2:2" ht="14.25" customHeight="1">
+    <row r="215" ht="14.25" customHeight="1">
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="2:2" ht="14.25" customHeight="1">
+    <row r="216" ht="14.25" customHeight="1">
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="2:2" ht="14.25" customHeight="1">
+    <row r="217" ht="14.25" customHeight="1">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:2" ht="14.25" customHeight="1">
+    <row r="218" ht="14.25" customHeight="1">
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="2:2" ht="14.25" customHeight="1">
+    <row r="219" ht="14.25" customHeight="1">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="2:2" ht="14.25" customHeight="1">
+    <row r="220" ht="14.25" customHeight="1">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="2:2" ht="14.25" customHeight="1">
+    <row r="221" ht="14.25" customHeight="1">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="2:2" ht="14.25" customHeight="1">
+    <row r="222" ht="14.25" customHeight="1">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="2:2" ht="14.25" customHeight="1">
+    <row r="223" ht="14.25" customHeight="1">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="2:2" ht="14.25" customHeight="1">
+    <row r="224" ht="14.25" customHeight="1">
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="2:2" ht="14.25" customHeight="1">
+    <row r="225" ht="14.25" customHeight="1">
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="2:2" ht="14.25" customHeight="1">
+    <row r="226" ht="14.25" customHeight="1">
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="2:2" ht="14.25" customHeight="1">
+    <row r="227" ht="14.25" customHeight="1">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="2:2" ht="14.25" customHeight="1">
+    <row r="228" ht="14.25" customHeight="1">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="2:2" ht="14.25" customHeight="1">
+    <row r="229" ht="14.25" customHeight="1">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="2:2" ht="14.25" customHeight="1">
+    <row r="230" ht="14.25" customHeight="1">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="2:2" ht="14.25" customHeight="1">
+    <row r="231" ht="14.25" customHeight="1">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="2:2" ht="14.25" customHeight="1">
+    <row r="232" ht="14.25" customHeight="1">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="234" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="235" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="236" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="237" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="238" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="239" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="240" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -16667,7 +16748,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\manglesh1\aerosports\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8A1B7-EAA2-4826-A589-3A0C6CE4DD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE8DC0-7FDB-4C6E-AEB8-FF2E2E6A0157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="550">
   <si>
     <t>location</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>assets/image/banner/kids-birthday-parties.png</t>
-  </si>
-  <si>
-    <t>https://ecom.roller.app/000/birthdaypartycheckout/en/home</t>
   </si>
   <si>
     <t>groups-events</t>
@@ -1298,9 +1295,6 @@
 </t>
   </si>
   <si>
-    <t>https://ecom.roller.app/000/memberships/en/home</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -1828,34 +1822,10 @@
     <t>estorebase</t>
   </si>
   <si>
-    <t>https://roller.app/aerosportsoakvillemississauga/products/</t>
-  </si>
-  <si>
-    <t>https://roller.app/aerosportsstcatharines/products/</t>
-  </si>
-  <si>
-    <t>https://roller.app/aerosportslondon/products/</t>
-  </si>
-  <si>
-    <t>https://roller.app/aerosportswindsor/products/</t>
-  </si>
-  <si>
     <t>pricing</t>
   </si>
   <si>
-    <t>6+;-;$25.99;$30.99;$40</t>
-  </si>
-  <si>
-    <t>2-5;-;$20.99;$25.99;</t>
-  </si>
-  <si>
     <t>0-2; FREE (Paying Adult is Mandatory)</t>
-  </si>
-  <si>
-    <t>6+;$19.99;$24.99;$28.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-5+;$12;$16;$20</t>
   </si>
   <si>
     <t>home-birthdaysection</t>
@@ -1877,12 +1847,6 @@
                        Our birthday party guests love Aerosports aerial experience and incredible park features!&lt;/br&gt;
                     Best of all, our trained party staff make it a complete breeze for parents and ensure our guests are always following our safety rules. Parents and supervision can choose to jump or relax in our comfortable perimeter wifi lounges.                        
                         With all this, there’s no wonder we are one the best birthday party places in the ONTARIO!</t>
-  </si>
-  <si>
-    <t>promotion</t>
-  </si>
-  <si>
-    <t>$30 a day</t>
   </si>
   <si>
     <t>promo</t>
@@ -2326,12 +2290,147 @@
   <si>
     <t>6+;$19.99;$24.99;-;-</t>
   </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportsstcatharines/products/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportswindsor/products/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportsoakvillemississauga/birthdayparty/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportslondon/birthdaypartycheckout/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportsstcatharines/birthdayparties/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportswindsor/birthdayparties/en/home</t>
+  </si>
+  <si>
+    <t>kids-birthday-parties-roller-url</t>
+  </si>
+  <si>
+    <t>membership-roller-url</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportslondon/memberships/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportsoakvillemississauga/memberships/en/home</t>
+  </si>
+  <si>
+    <t>6+;$19.99;$24.99;$28.99;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-5+;$12;$16;$20;-</t>
+  </si>
+  <si>
+    <t>6+;-;$25.99;$30.99;-</t>
+  </si>
+  <si>
+    <t>2-5;-;$20.99;$25.99;-</t>
+  </si>
+  <si>
+    <t>london,oakville</t>
+  </si>
+  <si>
+    <t>promotion-popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;style&gt;
+        .membership-container {
+            display: flex;
+            flex-direction: column;
+            text-align: center;
+        }
+        .membership-memberships {
+            display: flex;
+            justify-content: space-between;
+            width: 100%;
+            max-width: 800px;
+        }
+        .membership-membership-gold,
+        .membership-membership-platinum {
+            display: flex;
+            flex-direction: column;
+            align-items: center;
+            text-align: center;
+            width: 45%;
+            padding: 10px;
+            border: 1px solid #ccc;
+            border-radius: 5px;
+        }
+        .membership-container-img {
+            display: block;
+            width: 100%;
+            max-width: 200px;
+            margin-bottom: 10px;
+        }
+        .membership-container-heading {
+            font-size: 20px;
+            font-weight: bold;
+            margin-bottom: 10px;
+        }
+        .membership-list {
+            list-style-type: none;
+            padding: 0;
+            margin: 0;
+            text-align: left;
+        }
+        .membership-list li {
+            margin-bottom: 5px;
+        }
+    &lt;/style&gt;
+    &lt;div class="membership-container"&gt;
+        &lt;h1&gt;Save hundreds of $$$$ with our Aerosports Memberships!&lt;/h1&gt;
+        &lt;p&gt;Our NEW membership program is the &lt;span class="membership-text"&gt;BEST&lt;/span&gt; way to JUMP at Aerosports. &lt;br/&gt;&lt;br/&gt;It offers &lt;span class="membership-text"&gt;HUGE&lt;/span&gt; savings on every visit including a &lt;span class="membership-text"&gt;Cash Discount of up to $150&lt;/span&gt; for a Birthday Party every year! &lt;br/&gt;&lt;br/&gt;Sign up today and your first jump is on us! &lt;span class="membership-text"&gt;( $25 Cash value )&lt;/span&gt;&lt;/p&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;
+        &lt;div class="membership-memberships"&gt;
+            &lt;div class="membership-membership-gold"&gt;
+                &lt;img class="membership-container-img" src="assets/image/attractions/details/membership/gold_membership.jpg" &gt;
+                &lt;h2 class="membership-container-heading"&gt;Gold Member Perks!&lt;/h2&gt;
+                &lt;ul class="membership-list"&gt;
+                    &lt;li&gt;First Jump FREE&lt;/li&gt;
+                    &lt;li&gt;Cash Discount of $100 OFF&lt;/li&gt;
+                    &lt;li&gt;Birthday Party Booking&lt;/li&gt;
+                    &lt;li&gt;$10 OFF Jump Times"&lt;/li&gt;
+                    &lt;li&gt;25% OFF Aero Camp&lt;/li&gt;
+                    &lt;li&gt;25% OFF Snack Shack&lt;/li&gt;
+                    &lt;li&gt;25% OFF Merchandise&lt;/li&gt;
+                    &lt;li&gt;1 FREE Water Bottle Per Visit&lt;/li&gt;
+                    &lt;li&gt;25% OFF Sibling Membership&lt;/li&gt;
+                &lt;/ul&gt;
+                &lt;p&gt;Monthly Payment: $9.90&lt;/p&gt;&lt;h4&gt;OR&lt;/h4&gt;
+                &lt;p&gt;Annual Payment: $99.90&lt;/p&gt;
+            &lt;/div&gt;
+            &lt;div class="membership-membership-platinum"&gt;
+                &lt;img class="membership-container-img" src="assets/image/attractions/details/membership/platinum_membership.jpg" &gt;
+                &lt;h2 class="membership-container-heading"&gt;Platinum Member Perks!&lt;/h2&gt;
+                &lt;ul class="membership-list"&gt;
+                    &lt;li&gt;First Jump FREE&lt;/li&gt;
+                    &lt;li&gt;Cash Discount of $150 OFF&lt;/li&gt;
+                    &lt;li&gt;Birthday Party Booking&lt;/li&gt;
+                    &lt;li&gt;$15 OFF Jump Times "&lt;/li&gt;
+                    &lt;li&gt;50% OFF Aero Camp&lt;/li&gt;
+                    &lt;li&gt;50% OFF Snack Shack&lt;/li&gt;
+                    &lt;li&gt;50% OFF Merchandise&lt;/li&gt;
+                    &lt;li&gt;1 FREE Water Bottle Per Visit&lt;/li&gt;
+                    &lt;li&gt;25% OFF Sibling Membership&lt;/li&gt;
+                &lt;/ul&gt;
+                &lt;p&gt;Monthly Payment: $14.90&lt;/p&gt;&lt;h4&gt;OR&lt;/h4&gt;
+                &lt;p&gt;Annual Payment: $140&lt;/p&gt;
+            &lt;/div&gt; &lt;div class="col section-button  text-center"&gt;&lt;a id="signup-button" class="sigma_btn-custom" href="https://ecom.roller.app/aerosports{location.url}/memberships/en/home" target="_blank" data-btn="1" style="font-style: normal; font-weight: bold; line-height: 1.15; text-decoration: none; word-break: break-word; border-style: solid; word-wrap: break-word; display: block; -webkit-text-size-adjust: none; background-color: #051ef4; border-color: #051ef4; border-radius: 20px; border-width: 0px; color: #ffffff; font-family: arial,helvetica,sans-serif; font-size: 16px; height: 18px; mso-hide: all; padding-bottom: 12px; padding-top: 12px; width: 205px;"&gt; &lt;span&gt;SIGN UP NOW&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;
+        &lt;/div&gt;
+    &lt;/div&gt;
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2352,12 +2451,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF383838"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -2486,6 +2579,19 @@
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2526,10 +2632,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2539,58 +2646,65 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2806,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3018,7 +3132,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3036,31 +3150,29 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="Y5" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y5" s="34"/>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -3068,25 +3180,25 @@
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -3101,54 +3213,54 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="U8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -3157,25 +3269,25 @@
     <row r="10" spans="1:25" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>33</v>
@@ -3187,31 +3299,31 @@
     <row r="11" spans="1:25" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -3219,32 +3331,32 @@
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>67</v>
+      <c r="B12" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -3258,35 +3370,35 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -3294,7 +3406,7 @@
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
@@ -3303,47 +3415,47 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="O14" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1">
         <v>1001</v>
@@ -3352,39 +3464,39 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1">
         <v>9</v>
@@ -3393,42 +3505,42 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="O16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="U16" s="2"/>
+      <c r="V16" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="9" t="s">
+      <c r="W16" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="14.25" customHeight="1">
@@ -3439,40 +3551,40 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="14.25" customHeight="1">
@@ -3483,47 +3595,47 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="O18" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1">
         <v>12</v>
@@ -3532,40 +3644,40 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="O19" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W19" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1">
         <v>14</v>
@@ -3574,45 +3686,45 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="O20" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W20" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1">
         <v>1002</v>
@@ -3621,31 +3733,31 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="O21" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -3653,7 +3765,7 @@
     </row>
     <row r="22" spans="1:23" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="1">
         <v>16</v>
@@ -3662,40 +3774,40 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="O22" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="W22" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="1">
         <v>17</v>
@@ -3704,35 +3816,35 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="O23" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -3740,7 +3852,7 @@
     </row>
     <row r="24" spans="1:23" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="1">
         <v>18</v>
@@ -3749,47 +3861,47 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10" t="s">
+      <c r="L24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="O24" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="W24" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="1">
         <v>19</v>
@@ -3798,35 +3910,35 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1"/>
+      <c r="K25" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10" t="s">
+      <c r="L25" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="O25" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -3840,25 +3952,25 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="O26" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -3873,25 +3985,25 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="O27" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -3905,25 +4017,25 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="O28" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -3937,22 +4049,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -3960,7 +4072,7 @@
     </row>
     <row r="30" spans="1:23" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="1">
         <v>25</v>
@@ -3969,25 +4081,25 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="O30" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -3995,7 +4107,7 @@
     </row>
     <row r="31" spans="1:23" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="1">
         <v>1004</v>
@@ -4004,25 +4116,25 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="O31" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -4037,29 +4149,29 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="11"/>
+      <c r="L32" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="L32" s="13" t="s">
+      <c r="M32" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="O32" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -4067,7 +4179,7 @@
     </row>
     <row r="33" spans="1:24" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="1">
         <v>27</v>
@@ -4076,32 +4188,32 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1"/>
+      <c r="J33" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="14" t="s">
+      <c r="L33" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -4109,7 +4221,7 @@
     </row>
     <row r="34" spans="1:24" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="1">
         <v>27</v>
@@ -4118,32 +4230,32 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1"/>
+      <c r="J34" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="14" t="s">
+      <c r="L34" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -4151,7 +4263,7 @@
     </row>
     <row r="35" spans="1:24" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" s="1">
         <v>28</v>
@@ -4160,42 +4272,42 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K35" s="10" t="s">
+      <c r="L35" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="M35" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="O35" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="1">
         <v>1003</v>
@@ -4204,42 +4316,42 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" s="1">
         <v>29</v>
@@ -4248,25 +4360,25 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="O37" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -4274,7 +4386,7 @@
     </row>
     <row r="38" spans="1:24" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1">
         <v>29</v>
@@ -4283,25 +4395,25 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="O38" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -4309,7 +4421,7 @@
     </row>
     <row r="39" spans="1:24" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" s="1">
         <v>1005</v>
@@ -4318,25 +4430,25 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="O39" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -4344,7 +4456,7 @@
     </row>
     <row r="40" spans="1:24" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1">
         <v>1008</v>
@@ -4353,31 +4465,31 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>231</v>
+        <v>58</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -4391,25 +4503,25 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="O41" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -4417,7 +4529,7 @@
     </row>
     <row r="42" spans="1:24" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" s="1">
         <v>31</v>
@@ -4426,25 +4538,25 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -4452,7 +4564,7 @@
     </row>
     <row r="43" spans="1:24" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="1">
         <v>35</v>
@@ -4461,25 +4573,25 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -4493,25 +4605,25 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="O44" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -4525,25 +4637,25 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="O45" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -4558,22 +4670,22 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -4587,19 +4699,19 @@
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="G47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>33</v>
@@ -4616,25 +4728,25 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -4642,7 +4754,7 @@
     </row>
     <row r="49" spans="1:25" ht="14.25" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B49" s="1">
         <v>37</v>
@@ -4650,29 +4762,29 @@
       <c r="C49" s="1">
         <v>0</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="14" t="s">
         <v>276</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -4680,7 +4792,7 @@
     </row>
     <row r="50" spans="1:25" ht="14.25" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B50" s="1">
         <v>1100</v>
@@ -4689,33 +4801,31 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="O50" s="36" t="s">
         <v>283</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="Y50" s="5" t="s">
-        <v>285</v>
-      </c>
+      <c r="Y50" s="34"/>
     </row>
     <row r="51" spans="1:25" ht="14.25" customHeight="1">
       <c r="U51" s="2"/>
@@ -6462,9 +6572,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="V16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Y50" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="V16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6491,1016 +6599,1016 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>303</v>
       </c>
       <c r="K2" s="1">
         <v>232</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="F3" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="L3" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="M3" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:26" ht="47.25" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="C4" s="18" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="M4" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J5" s="16"/>
+      <c r="J5" s="15"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J6" s="16"/>
+      <c r="J6" s="15"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J7" s="16"/>
+      <c r="J7" s="15"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J8" s="16"/>
+      <c r="J8" s="15"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J9" s="16"/>
+      <c r="J9" s="15"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J10" s="16"/>
+      <c r="J10" s="15"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J11" s="16"/>
+      <c r="J11" s="15"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J12" s="16"/>
+      <c r="J12" s="15"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J13" s="16"/>
+      <c r="J13" s="15"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J14" s="16"/>
+      <c r="J14" s="15"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J15" s="16"/>
+      <c r="J15" s="15"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J16" s="16"/>
+      <c r="J16" s="15"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J17" s="16"/>
+      <c r="J17" s="15"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J18" s="16"/>
+      <c r="J18" s="15"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J19" s="16"/>
+      <c r="J19" s="15"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J20" s="16"/>
+      <c r="J20" s="15"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J21" s="16"/>
+      <c r="J21" s="15"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J22" s="16"/>
+      <c r="J22" s="15"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J23" s="16"/>
+      <c r="J23" s="15"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J24" s="16"/>
+      <c r="J24" s="15"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J25" s="16"/>
+      <c r="J25" s="15"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J26" s="16"/>
+      <c r="J26" s="15"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J27" s="16"/>
+      <c r="J27" s="15"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J28" s="16"/>
+      <c r="J28" s="15"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J29" s="16"/>
+      <c r="J29" s="15"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J30" s="16"/>
+      <c r="J30" s="15"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J31" s="16"/>
+      <c r="J31" s="15"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J32" s="16"/>
+      <c r="J32" s="15"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J33" s="16"/>
+      <c r="J33" s="15"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J34" s="16"/>
+      <c r="J34" s="15"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J35" s="16"/>
+      <c r="J35" s="15"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J36" s="16"/>
+      <c r="J36" s="15"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J37" s="16"/>
+      <c r="J37" s="15"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J38" s="16"/>
+      <c r="J38" s="15"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J39" s="16"/>
+      <c r="J39" s="15"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J40" s="16"/>
+      <c r="J40" s="15"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J41" s="16"/>
+      <c r="J41" s="15"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J42" s="16"/>
+      <c r="J42" s="15"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J43" s="16"/>
+      <c r="J43" s="15"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J44" s="16"/>
+      <c r="J44" s="15"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J45" s="16"/>
+      <c r="J45" s="15"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J46" s="16"/>
+      <c r="J46" s="15"/>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J47" s="16"/>
+      <c r="J47" s="15"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J48" s="16"/>
+      <c r="J48" s="15"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J49" s="16"/>
+      <c r="J49" s="15"/>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J50" s="16"/>
+      <c r="J50" s="15"/>
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J51" s="16"/>
+      <c r="J51" s="15"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J52" s="16"/>
+      <c r="J52" s="15"/>
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J53" s="16"/>
+      <c r="J53" s="15"/>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J54" s="16"/>
+      <c r="J54" s="15"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J55" s="16"/>
+      <c r="J55" s="15"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J56" s="16"/>
+      <c r="J56" s="15"/>
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J57" s="16"/>
+      <c r="J57" s="15"/>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J58" s="16"/>
+      <c r="J58" s="15"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J59" s="16"/>
+      <c r="J59" s="15"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J60" s="16"/>
+      <c r="J60" s="15"/>
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J61" s="16"/>
+      <c r="J61" s="15"/>
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J62" s="16"/>
+      <c r="J62" s="15"/>
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J63" s="16"/>
+      <c r="J63" s="15"/>
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J64" s="16"/>
+      <c r="J64" s="15"/>
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J65" s="16"/>
+      <c r="J65" s="15"/>
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J66" s="16"/>
+      <c r="J66" s="15"/>
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J67" s="16"/>
+      <c r="J67" s="15"/>
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J68" s="16"/>
+      <c r="J68" s="15"/>
       <c r="M68" s="2"/>
     </row>
     <row r="69" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J69" s="16"/>
+      <c r="J69" s="15"/>
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J70" s="16"/>
+      <c r="J70" s="15"/>
       <c r="M70" s="2"/>
     </row>
     <row r="71" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J71" s="16"/>
+      <c r="J71" s="15"/>
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J72" s="16"/>
+      <c r="J72" s="15"/>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J73" s="16"/>
+      <c r="J73" s="15"/>
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J74" s="16"/>
+      <c r="J74" s="15"/>
       <c r="M74" s="2"/>
     </row>
     <row r="75" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J75" s="16"/>
+      <c r="J75" s="15"/>
       <c r="M75" s="2"/>
     </row>
     <row r="76" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J76" s="16"/>
+      <c r="J76" s="15"/>
       <c r="M76" s="2"/>
     </row>
     <row r="77" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J77" s="16"/>
+      <c r="J77" s="15"/>
       <c r="M77" s="2"/>
     </row>
     <row r="78" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J78" s="16"/>
+      <c r="J78" s="15"/>
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J79" s="16"/>
+      <c r="J79" s="15"/>
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J80" s="16"/>
+      <c r="J80" s="15"/>
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J81" s="16"/>
+      <c r="J81" s="15"/>
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J82" s="16"/>
+      <c r="J82" s="15"/>
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J83" s="16"/>
+      <c r="J83" s="15"/>
       <c r="M83" s="2"/>
     </row>
     <row r="84" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J84" s="16"/>
+      <c r="J84" s="15"/>
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J85" s="16"/>
+      <c r="J85" s="15"/>
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J86" s="16"/>
+      <c r="J86" s="15"/>
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J87" s="16"/>
+      <c r="J87" s="15"/>
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J88" s="16"/>
+      <c r="J88" s="15"/>
       <c r="M88" s="2"/>
     </row>
     <row r="89" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J89" s="16"/>
+      <c r="J89" s="15"/>
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J90" s="16"/>
+      <c r="J90" s="15"/>
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J91" s="16"/>
+      <c r="J91" s="15"/>
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J92" s="16"/>
+      <c r="J92" s="15"/>
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J93" s="16"/>
+      <c r="J93" s="15"/>
       <c r="M93" s="2"/>
     </row>
     <row r="94" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J94" s="16"/>
+      <c r="J94" s="15"/>
       <c r="M94" s="2"/>
     </row>
     <row r="95" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J95" s="16"/>
+      <c r="J95" s="15"/>
       <c r="M95" s="2"/>
     </row>
     <row r="96" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J96" s="16"/>
+      <c r="J96" s="15"/>
       <c r="M96" s="2"/>
     </row>
     <row r="97" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J97" s="16"/>
+      <c r="J97" s="15"/>
       <c r="M97" s="2"/>
     </row>
     <row r="98" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J98" s="16"/>
+      <c r="J98" s="15"/>
       <c r="M98" s="2"/>
     </row>
     <row r="99" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J99" s="16"/>
+      <c r="J99" s="15"/>
       <c r="M99" s="2"/>
     </row>
     <row r="100" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J100" s="16"/>
+      <c r="J100" s="15"/>
       <c r="M100" s="2"/>
     </row>
     <row r="101" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J101" s="16"/>
+      <c r="J101" s="15"/>
       <c r="M101" s="2"/>
     </row>
     <row r="102" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J102" s="16"/>
+      <c r="J102" s="15"/>
       <c r="M102" s="2"/>
     </row>
     <row r="103" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J103" s="16"/>
+      <c r="J103" s="15"/>
       <c r="M103" s="2"/>
     </row>
     <row r="104" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J104" s="16"/>
+      <c r="J104" s="15"/>
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J105" s="16"/>
+      <c r="J105" s="15"/>
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J106" s="16"/>
+      <c r="J106" s="15"/>
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J107" s="16"/>
+      <c r="J107" s="15"/>
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J108" s="16"/>
+      <c r="J108" s="15"/>
       <c r="M108" s="2"/>
     </row>
     <row r="109" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J109" s="16"/>
+      <c r="J109" s="15"/>
       <c r="M109" s="2"/>
     </row>
     <row r="110" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J110" s="16"/>
+      <c r="J110" s="15"/>
       <c r="M110" s="2"/>
     </row>
     <row r="111" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J111" s="16"/>
+      <c r="J111" s="15"/>
       <c r="M111" s="2"/>
     </row>
     <row r="112" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J112" s="16"/>
+      <c r="J112" s="15"/>
       <c r="M112" s="2"/>
     </row>
     <row r="113" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J113" s="16"/>
+      <c r="J113" s="15"/>
       <c r="M113" s="2"/>
     </row>
     <row r="114" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J114" s="16"/>
+      <c r="J114" s="15"/>
       <c r="M114" s="2"/>
     </row>
     <row r="115" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J115" s="16"/>
+      <c r="J115" s="15"/>
       <c r="M115" s="2"/>
     </row>
     <row r="116" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J116" s="16"/>
+      <c r="J116" s="15"/>
       <c r="M116" s="2"/>
     </row>
     <row r="117" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J117" s="16"/>
+      <c r="J117" s="15"/>
       <c r="M117" s="2"/>
     </row>
     <row r="118" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J118" s="16"/>
+      <c r="J118" s="15"/>
       <c r="M118" s="2"/>
     </row>
     <row r="119" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J119" s="16"/>
+      <c r="J119" s="15"/>
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J120" s="16"/>
+      <c r="J120" s="15"/>
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J121" s="16"/>
+      <c r="J121" s="15"/>
       <c r="M121" s="2"/>
     </row>
     <row r="122" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J122" s="16"/>
+      <c r="J122" s="15"/>
       <c r="M122" s="2"/>
     </row>
     <row r="123" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J123" s="16"/>
+      <c r="J123" s="15"/>
       <c r="M123" s="2"/>
     </row>
     <row r="124" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J124" s="16"/>
+      <c r="J124" s="15"/>
       <c r="M124" s="2"/>
     </row>
     <row r="125" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J125" s="16"/>
+      <c r="J125" s="15"/>
       <c r="M125" s="2"/>
     </row>
     <row r="126" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J126" s="16"/>
+      <c r="J126" s="15"/>
       <c r="M126" s="2"/>
     </row>
     <row r="127" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J127" s="16"/>
+      <c r="J127" s="15"/>
       <c r="M127" s="2"/>
     </row>
     <row r="128" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J128" s="16"/>
+      <c r="J128" s="15"/>
       <c r="M128" s="2"/>
     </row>
     <row r="129" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J129" s="16"/>
+      <c r="J129" s="15"/>
       <c r="M129" s="2"/>
     </row>
     <row r="130" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J130" s="16"/>
+      <c r="J130" s="15"/>
       <c r="M130" s="2"/>
     </row>
     <row r="131" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J131" s="16"/>
+      <c r="J131" s="15"/>
       <c r="M131" s="2"/>
     </row>
     <row r="132" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J132" s="16"/>
+      <c r="J132" s="15"/>
       <c r="M132" s="2"/>
     </row>
     <row r="133" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J133" s="16"/>
+      <c r="J133" s="15"/>
       <c r="M133" s="2"/>
     </row>
     <row r="134" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J134" s="16"/>
+      <c r="J134" s="15"/>
       <c r="M134" s="2"/>
     </row>
     <row r="135" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J135" s="16"/>
+      <c r="J135" s="15"/>
       <c r="M135" s="2"/>
     </row>
     <row r="136" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J136" s="16"/>
+      <c r="J136" s="15"/>
       <c r="M136" s="2"/>
     </row>
     <row r="137" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J137" s="16"/>
+      <c r="J137" s="15"/>
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J138" s="16"/>
+      <c r="J138" s="15"/>
       <c r="M138" s="2"/>
     </row>
     <row r="139" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J139" s="16"/>
+      <c r="J139" s="15"/>
       <c r="M139" s="2"/>
     </row>
     <row r="140" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J140" s="16"/>
+      <c r="J140" s="15"/>
       <c r="M140" s="2"/>
     </row>
     <row r="141" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J141" s="16"/>
+      <c r="J141" s="15"/>
       <c r="M141" s="2"/>
     </row>
     <row r="142" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J142" s="16"/>
+      <c r="J142" s="15"/>
       <c r="M142" s="2"/>
     </row>
     <row r="143" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J143" s="16"/>
+      <c r="J143" s="15"/>
       <c r="M143" s="2"/>
     </row>
     <row r="144" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J144" s="16"/>
+      <c r="J144" s="15"/>
       <c r="M144" s="2"/>
     </row>
     <row r="145" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J145" s="16"/>
+      <c r="J145" s="15"/>
       <c r="M145" s="2"/>
     </row>
     <row r="146" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J146" s="16"/>
+      <c r="J146" s="15"/>
       <c r="M146" s="2"/>
     </row>
     <row r="147" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J147" s="16"/>
+      <c r="J147" s="15"/>
       <c r="M147" s="2"/>
     </row>
     <row r="148" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J148" s="16"/>
+      <c r="J148" s="15"/>
       <c r="M148" s="2"/>
     </row>
     <row r="149" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J149" s="16"/>
+      <c r="J149" s="15"/>
       <c r="M149" s="2"/>
     </row>
     <row r="150" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J150" s="16"/>
+      <c r="J150" s="15"/>
       <c r="M150" s="2"/>
     </row>
     <row r="151" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J151" s="16"/>
+      <c r="J151" s="15"/>
       <c r="M151" s="2"/>
     </row>
     <row r="152" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J152" s="16"/>
+      <c r="J152" s="15"/>
       <c r="M152" s="2"/>
     </row>
     <row r="153" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J153" s="16"/>
+      <c r="J153" s="15"/>
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J154" s="16"/>
+      <c r="J154" s="15"/>
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J155" s="16"/>
+      <c r="J155" s="15"/>
       <c r="M155" s="2"/>
     </row>
     <row r="156" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J156" s="16"/>
+      <c r="J156" s="15"/>
       <c r="M156" s="2"/>
     </row>
     <row r="157" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J157" s="16"/>
+      <c r="J157" s="15"/>
       <c r="M157" s="2"/>
     </row>
     <row r="158" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J158" s="16"/>
+      <c r="J158" s="15"/>
       <c r="M158" s="2"/>
     </row>
     <row r="159" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J159" s="16"/>
+      <c r="J159" s="15"/>
       <c r="M159" s="2"/>
     </row>
     <row r="160" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J160" s="16"/>
+      <c r="J160" s="15"/>
       <c r="M160" s="2"/>
     </row>
     <row r="161" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J161" s="16"/>
+      <c r="J161" s="15"/>
       <c r="M161" s="2"/>
     </row>
     <row r="162" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J162" s="16"/>
+      <c r="J162" s="15"/>
       <c r="M162" s="2"/>
     </row>
     <row r="163" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J163" s="16"/>
+      <c r="J163" s="15"/>
       <c r="M163" s="2"/>
     </row>
     <row r="164" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J164" s="16"/>
+      <c r="J164" s="15"/>
       <c r="M164" s="2"/>
     </row>
     <row r="165" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J165" s="16"/>
+      <c r="J165" s="15"/>
       <c r="M165" s="2"/>
     </row>
     <row r="166" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J166" s="16"/>
+      <c r="J166" s="15"/>
       <c r="M166" s="2"/>
     </row>
     <row r="167" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J167" s="16"/>
+      <c r="J167" s="15"/>
       <c r="M167" s="2"/>
     </row>
     <row r="168" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J168" s="16"/>
+      <c r="J168" s="15"/>
       <c r="M168" s="2"/>
     </row>
     <row r="169" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J169" s="16"/>
+      <c r="J169" s="15"/>
       <c r="M169" s="2"/>
     </row>
     <row r="170" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J170" s="16"/>
+      <c r="J170" s="15"/>
       <c r="M170" s="2"/>
     </row>
     <row r="171" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J171" s="16"/>
+      <c r="J171" s="15"/>
       <c r="M171" s="2"/>
     </row>
     <row r="172" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J172" s="16"/>
+      <c r="J172" s="15"/>
       <c r="M172" s="2"/>
     </row>
     <row r="173" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J173" s="16"/>
+      <c r="J173" s="15"/>
       <c r="M173" s="2"/>
     </row>
     <row r="174" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J174" s="16"/>
+      <c r="J174" s="15"/>
       <c r="M174" s="2"/>
     </row>
     <row r="175" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J175" s="16"/>
+      <c r="J175" s="15"/>
       <c r="M175" s="2"/>
     </row>
     <row r="176" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J176" s="16"/>
+      <c r="J176" s="15"/>
       <c r="M176" s="2"/>
     </row>
     <row r="177" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J177" s="16"/>
+      <c r="J177" s="15"/>
       <c r="M177" s="2"/>
     </row>
     <row r="178" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J178" s="16"/>
+      <c r="J178" s="15"/>
       <c r="M178" s="2"/>
     </row>
     <row r="179" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J179" s="16"/>
+      <c r="J179" s="15"/>
       <c r="M179" s="2"/>
     </row>
     <row r="180" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J180" s="16"/>
+      <c r="J180" s="15"/>
       <c r="M180" s="2"/>
     </row>
     <row r="181" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J181" s="16"/>
+      <c r="J181" s="15"/>
       <c r="M181" s="2"/>
     </row>
     <row r="182" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J182" s="16"/>
+      <c r="J182" s="15"/>
       <c r="M182" s="2"/>
     </row>
     <row r="183" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J183" s="16"/>
+      <c r="J183" s="15"/>
       <c r="M183" s="2"/>
     </row>
     <row r="184" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J184" s="16"/>
+      <c r="J184" s="15"/>
       <c r="M184" s="2"/>
     </row>
     <row r="185" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J185" s="16"/>
+      <c r="J185" s="15"/>
       <c r="M185" s="2"/>
     </row>
     <row r="186" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J186" s="16"/>
+      <c r="J186" s="15"/>
       <c r="M186" s="2"/>
     </row>
     <row r="187" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J187" s="16"/>
+      <c r="J187" s="15"/>
       <c r="M187" s="2"/>
     </row>
     <row r="188" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J188" s="16"/>
+      <c r="J188" s="15"/>
       <c r="M188" s="2"/>
     </row>
     <row r="189" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J189" s="16"/>
+      <c r="J189" s="15"/>
       <c r="M189" s="2"/>
     </row>
     <row r="190" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J190" s="16"/>
+      <c r="J190" s="15"/>
       <c r="M190" s="2"/>
     </row>
     <row r="191" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J191" s="16"/>
+      <c r="J191" s="15"/>
       <c r="M191" s="2"/>
     </row>
     <row r="192" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J192" s="16"/>
+      <c r="J192" s="15"/>
       <c r="M192" s="2"/>
     </row>
     <row r="193" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J193" s="16"/>
+      <c r="J193" s="15"/>
       <c r="M193" s="2"/>
     </row>
     <row r="194" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J194" s="16"/>
+      <c r="J194" s="15"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J195" s="16"/>
+      <c r="J195" s="15"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J196" s="16"/>
+      <c r="J196" s="15"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J197" s="16"/>
+      <c r="J197" s="15"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J198" s="16"/>
+      <c r="J198" s="15"/>
       <c r="M198" s="2"/>
     </row>
     <row r="199" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J199" s="16"/>
+      <c r="J199" s="15"/>
       <c r="M199" s="2"/>
     </row>
     <row r="200" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J200" s="16"/>
+      <c r="J200" s="15"/>
       <c r="M200" s="2"/>
     </row>
     <row r="201" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J201" s="16"/>
+      <c r="J201" s="15"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J202" s="16"/>
+      <c r="J202" s="15"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J203" s="16"/>
+      <c r="J203" s="15"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J204" s="16"/>
+      <c r="J204" s="15"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J205" s="16"/>
+      <c r="J205" s="15"/>
       <c r="M205" s="2"/>
     </row>
     <row r="206" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J206" s="16"/>
+      <c r="J206" s="15"/>
       <c r="M206" s="2"/>
     </row>
     <row r="207" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J207" s="16"/>
+      <c r="J207" s="15"/>
       <c r="M207" s="2"/>
     </row>
     <row r="208" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J208" s="16"/>
+      <c r="J208" s="15"/>
       <c r="M208" s="2"/>
     </row>
     <row r="209" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J209" s="16"/>
+      <c r="J209" s="15"/>
       <c r="M209" s="2"/>
     </row>
     <row r="210" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J210" s="16"/>
+      <c r="J210" s="15"/>
       <c r="M210" s="2"/>
     </row>
     <row r="211" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J211" s="16"/>
+      <c r="J211" s="15"/>
       <c r="M211" s="2"/>
     </row>
     <row r="212" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J212" s="16"/>
+      <c r="J212" s="15"/>
       <c r="M212" s="2"/>
     </row>
     <row r="213" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J213" s="16"/>
+      <c r="J213" s="15"/>
       <c r="M213" s="2"/>
     </row>
     <row r="214" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J214" s="16"/>
+      <c r="J214" s="15"/>
       <c r="M214" s="2"/>
     </row>
     <row r="215" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J215" s="16"/>
+      <c r="J215" s="15"/>
       <c r="M215" s="2"/>
     </row>
     <row r="216" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J216" s="16"/>
+      <c r="J216" s="15"/>
       <c r="M216" s="2"/>
     </row>
     <row r="217" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J217" s="16"/>
+      <c r="J217" s="15"/>
       <c r="M217" s="2"/>
     </row>
     <row r="218" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J218" s="16"/>
+      <c r="J218" s="15"/>
       <c r="M218" s="2"/>
     </row>
     <row r="219" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J219" s="16"/>
+      <c r="J219" s="15"/>
       <c r="M219" s="2"/>
     </row>
     <row r="220" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J220" s="16"/>
+      <c r="J220" s="15"/>
       <c r="M220" s="2"/>
     </row>
     <row r="221" spans="10:13" ht="15.75" customHeight="1"/>
@@ -8302,13 +8410,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1"/>
@@ -9320,7 +9428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9336,22 +9446,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -9360,196 +9470,196 @@
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="G2" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="26" t="s">
+      <c r="H2" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="P2" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="H3" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="L3" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="H4" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="N5" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1"/>
@@ -10568,10 +10678,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C1002"/>
+  <dimension ref="A1:C1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10587,768 +10697,831 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>371</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>374</v>
+        <v>369</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>375</v>
+        <v>369</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>376</v>
+        <v>369</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>377</v>
+        <v>369</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>378</v>
+        <v>369</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>379</v>
+        <v>369</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>380</v>
+        <v>369</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>381</v>
+        <v>369</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>382</v>
+        <v>369</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>383</v>
+        <v>369</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>384</v>
+        <v>369</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>385</v>
+        <v>369</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>386</v>
+        <v>369</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>387</v>
+        <v>369</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>389</v>
+        <v>369</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>390</v>
+        <v>369</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>391</v>
+        <v>369</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>393</v>
+        <v>369</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>394</v>
+        <v>369</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>395</v>
+        <v>369</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>396</v>
+        <v>369</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>397</v>
+        <v>369</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>398</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>402</v>
+        <v>396</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>403</v>
+        <v>396</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>404</v>
+        <v>396</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>405</v>
+        <v>396</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>406</v>
+        <v>396</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>407</v>
+        <v>396</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>408</v>
+        <v>396</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>409</v>
+        <v>396</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="B40" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="B41" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>418</v>
+        <v>415</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>417</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>420</v>
+        <v>415</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>421</v>
+        <v>415</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="B48" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>424</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>427</v>
+        <v>422</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>428</v>
+        <v>422</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>425</v>
+        <v>427</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>429</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>433</v>
+        <v>430</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>434</v>
+        <v>430</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>435</v>
+        <v>430</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>436</v>
+        <v>430</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>438</v>
+        <v>158</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>439</v>
+        <v>79</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>440</v>
+        <v>142</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>441</v>
+      <c r="A64" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>442</v>
+      <c r="A65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A66" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>441</v>
+      <c r="A66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A67" s="1" t="s">
-        <v>80</v>
+      <c r="A67" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>226</v>
+      <c r="A68" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C68" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C71" s="35" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C69" s="1" t="s">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C72" s="35" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>226</v>
+      <c r="A73" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>446</v>
+        <v>431</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>431</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A80" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>549</v>
+      </c>
+    </row>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -11512,8 +11685,8 @@
     <row r="241" ht="14.25" customHeight="1"/>
     <row r="242" ht="14.25" customHeight="1"/>
     <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
     <row r="246" ht="15.75" customHeight="1"/>
     <row r="247" ht="15.75" customHeight="1"/>
     <row r="248" ht="15.75" customHeight="1"/>
@@ -12271,19 +12444,26 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C51" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
     <hyperlink ref="C54" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
     <hyperlink ref="C56" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C57" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C58" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C59" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C60" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C57" r:id="rId5" xr:uid="{A79E5DF6-1FC2-462F-A994-D273754E1003}"/>
+    <hyperlink ref="C59" r:id="rId6" xr:uid="{683EFE91-C24F-40DF-8F7D-20337B44F147}"/>
+    <hyperlink ref="C60" r:id="rId7" xr:uid="{712DDBC7-A1CF-4E88-9FA8-00C82DDF8110}"/>
+    <hyperlink ref="C61" r:id="rId8" xr:uid="{C6F9F992-4062-4242-AFB6-E3ACF646AFDD}"/>
+    <hyperlink ref="C63" r:id="rId9" xr:uid="{EA6E792B-5293-4F5B-8D22-5380DD38252E}"/>
+    <hyperlink ref="C62" r:id="rId10" xr:uid="{34FCD18F-3D1A-44FC-8461-441522F7FE28}"/>
+    <hyperlink ref="C64" r:id="rId11" xr:uid="{683E8332-CDAF-4B19-99ED-A1813C03EA7E}"/>
+    <hyperlink ref="C66" r:id="rId12" xr:uid="{D6CE589E-D502-43E8-9295-CD7B3579C38F}"/>
+    <hyperlink ref="C65" r:id="rId13" xr:uid="{9BF5073B-B57D-4095-B87C-97C18B6A76D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -12305,19 +12485,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -13327,259 +13507,259 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D2" s="1">
         <v>350</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D3" s="1">
         <v>450</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D4" s="1">
         <v>650</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D6" s="1">
         <v>325</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D8" s="1">
         <v>300</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D9" s="1">
         <v>560</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D10" s="1">
         <v>400</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D11" s="1">
         <v>300</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D12" s="1">
         <v>560</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D13" s="1">
         <v>400</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D14" s="1">
         <v>240</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D15" s="1">
         <v>240</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
@@ -14997,296 +15177,296 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
-        <v>481</v>
+      <c r="B1" s="31" t="s">
+        <v>469</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -1849,10 +1849,10 @@
     <t xml:space="preserve"> 0-5+;$12;$16;$20</t>
   </si>
   <si>
-    <t>6+;$19.99;$24.99;-;-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-5+;$12;$16;-;-</t>
+    <t>6+;$19.99;$24.99;$28.99;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-5+;$12;$16;$20;-</t>
   </si>
   <si>
     <t>home-birthdaysection</t>
@@ -2503,7 +2503,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2565,16 +2565,10 @@
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -11271,7 +11265,7 @@
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -11282,7 +11276,7 @@
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -11293,72 +11287,72 @@
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="32" t="s">
         <v>437</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
+      <c r="Y68" s="32"/>
+      <c r="Z68" s="32"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="32" t="s">
         <v>437</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="32"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="32"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="32"/>
+      <c r="Z69" s="32"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="2" t="s">
@@ -12338,8 +12332,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C51"/>
@@ -15078,7 +15070,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>483</v>
       </c>
       <c r="C1" s="1" t="s">

--- a/aerosports/src/assets/data/menu.xlsx
+++ b/aerosports/src/assets/data/menu.xlsx
@@ -1,28 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\manglesh1\aerosports\src\assets\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE8DC0-7FDB-4C6E-AEB8-FF2E2E6A0157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="blogs" sheetId="2" r:id="rId2"/>
-    <sheet name="blogsreviews" sheetId="3" r:id="rId3"/>
-    <sheet name="locations" sheetId="4" r:id="rId4"/>
-    <sheet name="config" sheetId="5" r:id="rId5"/>
-    <sheet name="promo" sheetId="6" r:id="rId6"/>
-    <sheet name="birthday packages" sheetId="7" r:id="rId7"/>
-    <sheet name="faq" sheetId="8" r:id="rId8"/>
+    <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="blogs" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="blogsreviews" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="locations" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="config" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="promo" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="birthday packages" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="faq" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -388,26 +379,26 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Empty your pockets before entering </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
       </rPr>
       <t>AeroSlam.No</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> sharp or unauthorized objects allowed on court;Attempt dunks/shots at YOUR OWN RISK;One person per lane;Be aware of your landing position;Land on both feet near the center of the trampoline;Be in control of your body at all times;Follow all park rules and the Team Member’s Instructions</t>
     </r>
@@ -1286,7 +1277,7 @@
                     &lt;li&gt;25% OFF Sibling Membership&lt;/li&gt;
                 &lt;/ul&gt;
                 &lt;p&gt;Monthly Payment: $14.90&lt;/p&gt;&lt;h4&gt;OR&lt;/h4&gt;
-                &lt;p&gt;Annual Payment: $140&lt;/p&gt;
+                &lt;p&gt;Annual Payment: $149.90&lt;/p&gt;
             &lt;/div&gt; &lt;div class="col section-button  text-center"&gt;&lt;a id="signup-button" class="sigma_btn-custom" href="https://ecom.roller.app/aerosports{location.url}/memberships/en/home" target="_blank" data-btn="1" style="font-style: normal; font-weight: bold; line-height: 1.15; text-decoration: none; word-break: break-word; border-style: solid; word-wrap: break-word; display: block; -webkit-text-size-adjust: none; background-color: #051ef4; border-color: #051ef4; border-radius: 20px; border-width: 0px; color: #ffffff; font-family: arial,helvetica,sans-serif; font-size: 16px; height: 18px; mso-hide: all; padding-bottom: 12px; padding-top: 12px; width: 205px;"&gt; &lt;span&gt;SIGN UP NOW&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;
         &lt;/div&gt;
     &lt;/div&gt;
@@ -1822,10 +1813,58 @@
     <t>estorebase</t>
   </si>
   <si>
+    <t>https://ecom.roller.app/aerosportsstcatharines/products/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportswindsor/products/en/home</t>
+  </si>
+  <si>
+    <t>kids-birthday-parties-roller-url</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportsoakvillemississauga/birthdayparty/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportsstcatharines/birthdayparties/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportslondon/birthdaypartycheckout/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportswindsor/birthdayparties/en/home</t>
+  </si>
+  <si>
+    <t>membership-roller-url</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportsoakvillemississauga/memberships/en/home</t>
+  </si>
+  <si>
+    <t>https://ecom.roller.app/aerosportslondon/memberships/en/home</t>
+  </si>
+  <si>
     <t>pricing</t>
   </si>
   <si>
+    <t>6+;-;$25.99;$30.99;-</t>
+  </si>
+  <si>
+    <t>2-5;-;$20.99;$25.99;-</t>
+  </si>
+  <si>
     <t>0-2; FREE (Paying Adult is Mandatory)</t>
+  </si>
+  <si>
+    <t>6+;$19.99;$24.99;$28.99;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-5+;$12;$16;$20;-</t>
+  </si>
+  <si>
+    <t>6+;$19.99;$24.99;-;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-5+;$12;$16;-;-</t>
   </si>
   <si>
     <t>home-birthdaysection</t>
@@ -1847,490 +1886,6 @@
                        Our birthday party guests love Aerosports aerial experience and incredible park features!&lt;/br&gt;
                     Best of all, our trained party staff make it a complete breeze for parents and ensure our guests are always following our safety rules. Parents and supervision can choose to jump or relax in our comfortable perimeter wifi lounges.                        
                         With all this, there’s no wonder we are one the best birthday party places in the ONTARIO!</t>
-  </si>
-  <si>
-    <t>promo</t>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>startdate</t>
-  </si>
-  <si>
-    <t>enddate</t>
-  </si>
-  <si>
-    <t>plantitle</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>includes</t>
-  </si>
-  <si>
-    <t>Basic Jump</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Weekday Price (Monday - Thursday) : $300,   Weekend Price ( Friday-Sunday) : $350.  Introductory Offer : Free Gold Membership ( Retail Price - $99.90 )
-Package Includes,;
-Up to 8 jumpers, including the birthday child.  $35 for each additional jumper.;
-2 Extra Large Pizzas with 12 slices each. For every 5 additional jumpers, we provide an additional pizza absolutely FREE (Please notify us 1 day prior to the event).;
-2 Pitchers of Pop drinks and unlimited water pitchers. For every 5 additional jumpers, we provide an additional Pitcher absolutely FREE.;
-Private Party Room with a capacity of 18-20 people.;
-Dedicate Party Host to ensure seamless experience for your special event.;
-Free Aero T-shirt &amp; chance to spin the Price Wheel for the birthday child.;
-Free Digital Party Invitations.;
-Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Free Access to Parents / Guests who are not jumping.;
-2 hours of Park Access, with the first 75 minutes(1 hour 15 minutes) allocated for jumping and the last 45 minutes in a private party room.;
-Bring your own food option available at a $50 charge (No fee for cake, cupcakes, water bottles, cookies, donuts, coffee, sandwiches, and wraps-platter).</t>
-  </si>
-  <si>
-    <t>xoakvill</t>
-  </si>
-  <si>
-    <t>Pro</t>
-  </si>
-  <si>
-    <t>Includes 12 Jumpers, $30 each for additional jumper, 3 Pizzas, 4 re-fillable soft drink pitchers, Aero T-Shirt for birthday child, 45 minutes in a private party room, Dedicated Party host to manage your party host, 2 hours Park Access with the last 45 minutes in the party room, Digital Party Invitations, Aerosocks for all jumpers, Prize Wheel Spin, $50 if bring your own food (cup-cake &amp; cake no fee) , plates cups candles &amp; cutlery, Basic decoration</t>
-  </si>
-  <si>
-    <t>Extreme Jump</t>
-  </si>
-  <si>
-    <t>Weekdays (Monday - Thursday) price: $600,   Weekends ( Friday-Sunday) price: $650.   Introductory Offer : Free Platinum Membership ( Retail Price - $149.90 )
-Package Includes,;
-Up to 18 jumpers, including the birthday child.  $35 for each additional jumper.;
-4 Extra Large Pizzas with 12 slices each. For every 5 additional jumpers, we provide an additional pizza absolutely FREE (Please notify us 1 day prior to the event).;
-4 Pitchers of Pop drinks and unlimited water pitchers. For every 5 additional jumpers, we provide an additional pitcher absolutely FREE.;
-Private Party Room with a capacity of 35-40 people.;
-Dedicate Party Host to ensure seamless experience for your special event.;
-Free Aero T-shirt &amp; chance to spin the Price Wheel for the birthday child.;
-Free Digital Party Invitations.;
-Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Free Access to Parents / Guests who are not jumping.;
-2 hours of Park Access, with the first 75 minutes(1 hour 15 minutes) allocated for jumping and the last 45 minutes in a private party room.;
-Bring your own food option available at a $50 charge (No fee for cake, cupcakes, water bottles, cookies, donuts, coffee, sandwiches, and wraps-platter).</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
-    <t>Includes 30 Jumpers, $30 each for additional jumper, 7 Pizzas,7 Pitchers,Aero T-Shirt for birthday child,45 min party Room, Dedicated Party host to manage your party host, 2 hours Park Access,Digital Party Invitations, Aerosocks,Prize Wheel Spin, 30 non jumpers, $100 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $275+tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $325 +tax.;
-Up to 10 jumpers, including the birthday child.;
-$27.50 (weekday), $32.50 (weekend) for each additional jumper.;
-Enjoy 2 large 2 topping Pizzas with 10 slices each.;
-Quench your thirst with 3 refillable Pitchers of Pop drinks (Including pitcher of water).;
-For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
-The birthday child receives an exclusive Aero T-Shirt.;
-A dedicated Party host will ensure a seamless experience for your party.;
-Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
-Digital Party Invitations will be provided for your convenience.;
-Free Aerosports Grip Socks will be provided to all jumpers.;
-We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $500 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $600 +tax.;
-Up to 20 jumpers, including the birthday child.;
-$25+tax (weekday), and $30+tax (weekend) for each additional jumper.;
-Enjoy 4 large 2 topping Pizzas with 10 slices each.;
-Quench your thirst with 5 refillable Pitchers of Pop drinks (Including pitcher of water).;
-For every 5 additional jumpers, receive an additional extra large pizza (Please notify us 1 day prior to the event).;
-The birthday child receives an exclusive Aero T-Shirt.;
-A dedicated Party host will ensure a seamless experience for your party.;
-Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
-Free Digital Party Invitations will be provided for your convenience.;
-Free Aerosports Grip Socks will be provided to all jumpers.;
-We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $260+tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $300 +tax.;
-Up to 10 jumpers, including the birthday child.;
-$26 +tax (weekday), $30 +tax (weekend) for each additional jumper.;
-Enjoy 2 large 2 topping Pizzas with 10 slices each.;
-Quench your thirst with 3 refillable Pitchers of Pop drinks (Including pitcher of water).;
-For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
-The birthday child receives an exclusive Aero T-Shirt.;
-A dedicated Party host will ensure a seamless experience for your party.;
-Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
-Digital Party Invitations will be provided for your convenience.;
-Free Aerosports Grip Socks will be provided to all jumpers.;
-We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $480 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $560 +tax.;
-Up to 20 jumpers, including the birthday child.;
-$24+tax (weekday), and $28+tax (weekend) for each additional jumper.;
-Enjoy 4 large 2 topping Pizzas with 10 slices each.;
-Quench your thirst with 5 refillable Pitchers of Pop drinks (Including pitcher of water).;
-For every 5 additional jumpers, receive an additional extra large pizza (Please notify us 1 day prior to the event).;
-The birthday child receives an exclusive Aero T-Shirt.;
-A dedicated Party host will ensure a seamless experience for your party.;
-Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
-Free Digital Party Invitations will be provided for your convenience.;
-Free Aerosports Grip Socks will be provided to all jumpers.;
-We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday and Saturday Nights 7-9pm price: $400 +tax.;
-Up to 10 jumpers, including the birthday child.;
-$40 +tax for each additional jumper.;
-Enjoy 2 large 2 topping Pizzas with 10 slices each.;
-Quench your thirst with 3 refillable Pitchers of Pop drinks (Including pitcher of water).;
-For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
-The birthday child receives an exclusive Aero GLOW T-shirt.;
-A dedicated Party host will ensure a seamless experience for your party.;
-Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
-Digital Party Invitations will be provided for your convenience.;
-Free Aerosports Grip Socks will be provided to all jumpers.;
-We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.                                                                            </t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $260+tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $300 +tax.;
-Up to 10 jumpers, including the birthday child.;
-$26 +tax (weekday), $30 +tax (weekend) for each additional jumper.;
-Enjoy 2 large 2 topping Pizzas with 10 slices each.;
-Quench your thirst with 3 refillable Pitchers of Pop drinks (Including pitcher of water).;
-For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
-The birthday child receives an exclusive Aero T-Shirt.;
-A dedicated Party host will ensure a seamless experience for your party.;
-Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
-Digital Party Invitations will be provided for your convenience.;
-We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.;
-*AeroSocks not included                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $480 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $560 +tax.;
-Up to 20 jumpers, including the birthday child.;
-$24+tax (weekday), and $28+tax (weekend) for each additional jumper.;
-Enjoy 4 large 2 topping Pizzas with 10 slices each.;
-Quench your thirst with 5 refillable Pitchers of Pop drinks (Including pitcher of water).;
-For every 5 additional jumpers, receive an additional extra large pizza (Please notify us 1 day prior to the event).;
-The birthday child receives an exclusive Aero T-Shirt.;
-A dedicated Party host will ensure a seamless experience for your party.;
-Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
-Free Digital Party Invitations will be provided for your convenience.;
-We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.;
-*AeroSocks not included                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday Nights 7-9pm price: $400 +tax.;
-Up to 10 jumpers, including the birthday child.;
-$40 +tax for each additional jumper.;
-Enjoy 2 large 2 topping Pizzas with 10 slices each.;
-Quench your thirst with 3 refillable Pitchers of Pop drinks (Including pitcher of water).;
-For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
-The birthday child receives an exclusive Aero GLOW T-shirt.;
-A dedicated Party host will ensure a seamless experience for your party.;
-Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
-Digital Party Invitations will be provided for your convenience.;
-We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.;      
-*AeroSocks not Included                                                                      </t>
-  </si>
-  <si>
-    <t>Toddler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $199 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $240 +tax.;
-Up to 8 jumpers, including the birthday child.;
-$26 for each additional jumper.;
-Enjoy 1 large 2 topping Pizzas with 10 slices each.;
-Quench your thirst with 1 refillable Pitchers of fountain drinks (Including pitcher of water).;
-For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
-The birthday child receives an exclusive Aero T-Shirt.;
-A dedicated Party host will ensure a seamless experience for your party.;
-Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
-Digital Party Invitations will be provided for your convenience.;
-We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.;     
-*AeroSocks not included in party package                                                                       </t>
-  </si>
-  <si>
-    <t>windsor,st-catharines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $199 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $240 +tax.;
-Up to 8 jumpers, including the birthday child.;
-$26 for each additional jumper.;
-Enjoy 1 large 2 topping Pizzas with 10 slices each.;
-Quench your thirst with 1 refillable Pitchers of fountain drinks (Including pitcher of water).;
-For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
-The birthday child receives an exclusive Aero T-Shirt.;
-A dedicated Party host will ensure a seamless experience for your party.;
-Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
-Digital Party Invitations will be provided for your convenience.;
-Free Aerosports Grip Socks will be provided to all jumpers.;
-We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
-Enjoy a Private party room with a capacity of 18-30 people.;
-Parents/guests who are not jumping will not be charged.                                                                            </t>
-  </si>
-  <si>
-    <t>Where are you located?</t>
-  </si>
-  <si>
-    <t>We have locations all over the globe. You can find your local park using our &lt;a href="/"&gt;&lt;strong&gt;park locator&lt;/strong&gt;&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Are Aero socks required?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All of our Ontario locations require Aero socks to jump in the trampoline park, each park has Aero Socks on hand to sell. Aero socks are reusable so be sure to keep yours for future visits! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have a weight limit? </t>
-  </si>
-  <si>
-    <t>Our trampolines have a 300 pound weight limit.</t>
-  </si>
-  <si>
-    <t>Are waivers required? Can they be filled out online?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waivers are required for every guest to the park including non-jumpers. By clicking on the ‘Online Waiver’ tab, you can fill out the waiver to jump before you go! This will reduce your check-in time, and keep you from waiting in a second line. Keep in mind the waiver needs to be done by a parent or legal guardian for children less than 18 years old. Everyone who enters the facility MUST have a waiver on file with that park. </t>
-  </si>
-  <si>
-    <t>Can I leave my child(ren) unattended?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While every child under 18 needs a parent or legal guardian to sign the waiver, children under 10 years old cannot be dropped off without an adult. Please ensure all children understand the rules and regulations of the park before dropping them off to jump. If your child is enrolled and participating in Summer Camp where they will have a staff member present interacting with them at all times they may be dropped off if they are 5 or older. </t>
-  </si>
-  <si>
-    <t>Do spectators have to pay to watch jumpers?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While jumpers are required to pay general admission, non-jumpers are never charged admission. During toddler time, one parent or guardian may jump free. </t>
-  </si>
-  <si>
-    <t>What can smaller/younger children do at your parks?</t>
-  </si>
-  <si>
-    <t>Some Aerosports locations have a special jumping area for little jumper! All ages are welcome at Aerosports, as long as your child can walk they can jump. Toddler jumpers also have access to the entire park. \</t>
-  </si>
-  <si>
-    <t>What do you have at your parks for older kids/teens?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Older kids and teens are challenged by our ninja obstacle course, dunk lanes, and dodgeball. &amp;nbsp;We also have Aerosports Glow every Friday and Saturday night from 7 to 9PM, jumpers older than 9 years old can jump and play in a dance environment complete with party lights and music! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Older kids and teens are challenged by our ninja obstacle course, dunk lanes, and dodgeball. &amp;nbsp;We also have Aerosports Glow every Friday night from 7 to 9PM, jumpers older than 9 years old can jump and play in a dance environment complete with party lights and music! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Older kids and teens are challenged by our ninja obstacle course, dunk lanes, and dodgeball. &amp;nbsp;We also have GLOW every Friday night from 7 to 9PM, jumpers older than 9 years old can jump and play in a dance environment complete with party lights and music! </t>
-  </si>
-  <si>
-    <t>Where can I find the park rules?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can find the park rules on our website by clicking  &lt;a href="{location}/trampoline-park-rules"&gt;&lt;strong&gt;here.&lt;/strong&gt;&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t>Do you have group rates?</t>
-  </si>
-  <si>
-    <t>Jump time is available at special rates for groups of 15 people or more.  Call us to book your event today!</t>
-  </si>
-  <si>
-    <t>Do you rent out your locations for private events?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We do offer facility rentals. Our trampoline parks boast the perfect facilities for birthday parties, corporate parties, family reunions and more! Contact our group coordinator to schedule your facility rental today! </t>
-  </si>
-  <si>
-    <t>What are your prices/hours?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prices vary by location. Find your location using our &lt;a href="{location}/locations"&gt;&lt;strong&gt;park locator&lt;/strong&gt;&lt;/a&gt; to find pricing and other location-specific information. </t>
-  </si>
-  <si>
-    <t>At what age do you hire?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We hire 16 years old and older. </t>
-  </si>
-  <si>
-    <t>Do you host birthday parties?</t>
-  </si>
-  <si>
-    <t>At Aerosports Trampoline Park, jumpers get more than just a birthday party. Visit our&lt;b&gt; &lt;a href="{location}/kids-birthday-parties"&gt;&lt;strong&gt;party booker&lt;/strong&gt;&lt;/a&gt; &lt;/b&gt;to learn more about the best birthday experience you can imagine!</t>
-  </si>
-  <si>
-    <t>How early should I arrive for my party?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You and your guests should arrive 15 minutes early in order to make sure all jumpers have waivers on file.  </t>
-  </si>
-  <si>
-    <t>What is your cancellation policy?</t>
-  </si>
-  <si>
-    <t>Parties can be rescheduled for free up to 48 hours before the party. However, a $50 fee may be applied for those rescheduling within 48 hours of the party. If you decide to cancel the party, the party deposit is non-refundable.</t>
-  </si>
-  <si>
-    <t>Can all of my guests jump together?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumper of all ages can enjoy the park.  Standard park rules must be followed in all areas of the park.  Age/Size seperation may occure in certain areas based on total number of jumper in the park.  </t>
-  </si>
-  <si>
-    <t>Can I bring outside food or drinks to a birthday party?</t>
-  </si>
-  <si>
-    <t>Aerosports allows limited food items including cake &amp; cupcakes. All other food and drink must be ordered through Aerosports. Food not on the allowed items list will require a $50 outside food fee. This fee is waived when purchasing a Flippin’ Awesome or The Big Bounce party package.</t>
-  </si>
-  <si>
-    <t>windsor, london,st-catharines</t>
-  </si>
-  <si>
-    <t>You are albe to bring any food that we do not currently sell in the park.  Please call your locaal park for more specific details.</t>
-  </si>
-  <si>
-    <t>Can I have a party during Toddler Time?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are able to book a party during toddler time if all the attendees are 5 years or younger. &amp;nbsp;With the exception of parents and guardians, jumpers over the age of 5 will not be permitted to jump during this time.  </t>
-  </si>
-  <si>
-    <t>Do you have fundraising opportunities?</t>
-  </si>
-  <si>
-    <t>We sure do! Aerosports loves raises funds for a variety of causes and organizations. Your school, troop, team or organization can earn 20% of the night’s jump time sales when hosting a fundraising night at one of our trampoline parks. Contact your local park manager to set up your fundraiser today!</t>
-  </si>
-  <si>
-    <t>Can I bring food into the park?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food is allowed in the park with some of our party packages. </t>
-  </si>
-  <si>
-    <t>Do you have food available to purchase?</t>
-  </si>
-  <si>
-    <t>Aerosports does have food available for purchase. All locations have a Snack Shack / Concessions section which sells veriety of items like pizza, slush, candy, drinks etc.</t>
-  </si>
-  <si>
-    <t>What days are the least busy?</t>
-  </si>
-  <si>
-    <t>Weekends are our busiest days. Mondays and Tuesdays are usually less busy than other days.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can my small child come to the park? </t>
-  </si>
-  <si>
-    <t>Aerosports believes that as long as the child can walk, they can jump!</t>
-  </si>
-  <si>
-    <t>Who can attend Toddler Time?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toddler Time is offered for jumpers 0-5 years old. Parents are able to jump with their toddler.  Jumpers older then 5 who are not parennts will not be permitted to jump.  </t>
-  </si>
-  <si>
-    <t>Who can attend Aerosports Glow?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosports Glow is for jumpers 3 years or older.  All GLOW jumpers must wear a white or neon coloured shirt.  </t>
-  </si>
-  <si>
-    <t>What features do you have?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosports offers a variety of features including, wall-to-wall trampolines, dodgeball, foam pits, ninja courses, rock walls, zip lines and more! Keep in mind that features do vary by location. </t>
-  </si>
-  <si>
-    <t>Do you have any deals available?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We offer special monthly promotions!  Please follow your local parks social media for regular updates.  </t>
-  </si>
-  <si>
-    <t>Do you sell gift cards?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We do sell gift cards! You can purchase a physical gift card in your local Aerosports. You can purchase egift cards &lt;a href="{location}/gift-cards"&gt;&lt;strong&gt;online.&lt;/strong&gt;&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-5+;$12;$16;-;-</t>
-  </si>
-  <si>
-    <t>6+;$19.99;$24.99;-;-</t>
-  </si>
-  <si>
-    <t>https://ecom.roller.app/aerosportsstcatharines/products/en/home</t>
-  </si>
-  <si>
-    <t>https://ecom.roller.app/aerosportswindsor/products/en/home</t>
-  </si>
-  <si>
-    <t>https://ecom.roller.app/aerosportsoakvillemississauga/birthdayparty/en/home</t>
-  </si>
-  <si>
-    <t>https://ecom.roller.app/aerosportslondon/birthdaypartycheckout/en/home</t>
-  </si>
-  <si>
-    <t>https://ecom.roller.app/aerosportsstcatharines/birthdayparties/en/home</t>
-  </si>
-  <si>
-    <t>https://ecom.roller.app/aerosportswindsor/birthdayparties/en/home</t>
-  </si>
-  <si>
-    <t>kids-birthday-parties-roller-url</t>
-  </si>
-  <si>
-    <t>membership-roller-url</t>
-  </si>
-  <si>
-    <t>https://ecom.roller.app/aerosportslondon/memberships/en/home</t>
-  </si>
-  <si>
-    <t>https://ecom.roller.app/aerosportsoakvillemississauga/memberships/en/home</t>
-  </si>
-  <si>
-    <t>6+;$19.99;$24.99;$28.99;-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-5+;$12;$16;$20;-</t>
-  </si>
-  <si>
-    <t>6+;-;$25.99;$30.99;-</t>
-  </si>
-  <si>
-    <t>2-5;-;$20.99;$25.99;-</t>
   </si>
   <si>
     <t>london,oakville</t>
@@ -2379,6 +1934,10 @@
             margin: 0;
             text-align: left;
         }
+           .membership-h4 {
+            padding: 0 !important;
+            margin: 0 !important;
+        }
         .membership-list li {
             margin-bottom: 5px;
         }
@@ -2401,7 +1960,7 @@
                     &lt;li&gt;1 FREE Water Bottle Per Visit&lt;/li&gt;
                     &lt;li&gt;25% OFF Sibling Membership&lt;/li&gt;
                 &lt;/ul&gt;
-                &lt;p&gt;Monthly Payment: $9.90&lt;/p&gt;&lt;h4&gt;OR&lt;/h4&gt;
+                &lt;p&gt;Monthly Payment: $9.90&lt;/p&gt;&lt;h4 class="membership-h4" style="margin: 0;"&gt;OR&lt;/h4&gt;
                 &lt;p&gt;Annual Payment: $99.90&lt;/p&gt;
             &lt;/div&gt;
             &lt;div class="membership-membership-platinum"&gt;
@@ -2418,179 +1977,602 @@
                     &lt;li&gt;1 FREE Water Bottle Per Visit&lt;/li&gt;
                     &lt;li&gt;25% OFF Sibling Membership&lt;/li&gt;
                 &lt;/ul&gt;
-                &lt;p&gt;Monthly Payment: $14.90&lt;/p&gt;&lt;h4&gt;OR&lt;/h4&gt;
-                &lt;p&gt;Annual Payment: $140&lt;/p&gt;
+                &lt;p&gt;Monthly Payment: $14.90&lt;/p&gt;&lt;h4 class="membership-h4" style="margin: 0;"&gt;OR&lt;/h4&gt;
+                &lt;p&gt;Annual Payment: $149.90&lt;/p&gt;
             &lt;/div&gt; &lt;div class="col section-button  text-center"&gt;&lt;a id="signup-button" class="sigma_btn-custom" href="https://ecom.roller.app/aerosports{location.url}/memberships/en/home" target="_blank" data-btn="1" style="font-style: normal; font-weight: bold; line-height: 1.15; text-decoration: none; word-break: break-word; border-style: solid; word-wrap: break-word; display: block; -webkit-text-size-adjust: none; background-color: #051ef4; border-color: #051ef4; border-radius: 20px; border-width: 0px; color: #ffffff; font-family: arial,helvetica,sans-serif; font-size: 16px; height: 18px; mso-hide: all; padding-bottom: 12px; padding-top: 12px; width: 205px;"&gt; &lt;span&gt;SIGN UP NOW&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;
         &lt;/div&gt;
     &lt;/div&gt;
 </t>
   </si>
+  <si>
+    <t>promo</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>enddate</t>
+  </si>
+  <si>
+    <t>plantitle</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>includes</t>
+  </si>
+  <si>
+    <t>Basic Jump</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Weekday Price (Monday - Thursday) : $300,   Weekend Price ( Friday-Sunday) : $350.  Introductory Offer : Free Gold Membership ( Retail Price - $99.90 )
+Package Includes,;
+Up to 8 jumpers, including the birthday child.  $35 for each additional jumper.;
+2 Extra Large Pizzas with 12 slices each. For every 5 additional jumpers, we provide an additional pizza absolutely FREE (Please notify us 1 day prior to the event).;
+2 Pitchers of Pop drinks and unlimited water pitchers. For every 5 additional jumpers, we provide an additional Pitcher absolutely FREE.;
+Private Party Room with a capacity of 18-20 people.;
+Dedicate Party Host to ensure seamless experience for your special event.;
+Free Aero T-shirt &amp; chance to spin the Price Wheel for the birthday child.;
+Free Digital Party Invitations.;
+Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Free Access to Parents / Guests who are not jumping.;
+2 hours of Park Access, with the first 75 minutes(1 hour 15 minutes) allocated for jumping and the last 45 minutes in a private party room.;
+Bring your own food option available at a $50 charge (No fee for cake, cupcakes, water bottles, cookies, donuts, coffee, sandwiches, and wraps-platter).</t>
+  </si>
+  <si>
+    <t>xoakvill</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Includes 12 Jumpers, $30 each for additional jumper, 3 Pizzas, 4 re-fillable soft drink pitchers, Aero T-Shirt for birthday child, 45 minutes in a private party room, Dedicated Party host to manage your party host, 2 hours Park Access with the last 45 minutes in the party room, Digital Party Invitations, Aerosocks for all jumpers, Prize Wheel Spin, $50 if bring your own food (cup-cake &amp; cake no fee) , plates cups candles &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t>Extreme Jump</t>
+  </si>
+  <si>
+    <t>Weekdays (Monday - Thursday) price: $600,   Weekends ( Friday-Sunday) price: $650.   Introductory Offer : Free Platinum Membership ( Retail Price - $149.90 )
+Package Includes,;
+Up to 18 jumpers, including the birthday child.  $35 for each additional jumper.;
+4 Extra Large Pizzas with 12 slices each. For every 5 additional jumpers, we provide an additional pizza absolutely FREE (Please notify us 1 day prior to the event).;
+4 Pitchers of Pop drinks and unlimited water pitchers. For every 5 additional jumpers, we provide an additional pitcher absolutely FREE.;
+Private Party Room with a capacity of 35-40 people.;
+Dedicate Party Host to ensure seamless experience for your special event.;
+Free Aero T-shirt &amp; chance to spin the Price Wheel for the birthday child.;
+Free Digital Party Invitations.;
+Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Free Access to Parents / Guests who are not jumping.;
+2 hours of Park Access, with the first 75 minutes(1 hour 15 minutes) allocated for jumping and the last 45 minutes in a private party room.;
+Bring your own food option available at a $50 charge (No fee for cake, cupcakes, water bottles, cookies, donuts, coffee, sandwiches, and wraps-platter).</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+  </si>
+  <si>
+    <t>Includes 30 Jumpers, $30 each for additional jumper, 7 Pizzas,7 Pitchers,Aero T-Shirt for birthday child,45 min party Room, Dedicated Party host to manage your party host, 2 hours Park Access,Digital Party Invitations, Aerosocks,Prize Wheel Spin, 30 non jumpers, $100 if bring your own food (cup-cake &amp; cake no fee) , plates cups &amp; cutlery, Basic decoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $275+tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $325 +tax.;
+Up to 10 jumpers, including the birthday child.;
+$27.50 (weekday), $32.50 (weekend) for each additional jumper.;
+Enjoy 2 large 2 topping Pizzas with 10 slices each.;
+Quench your thirst with 3 refillable Pitchers of Pop drinks (Including pitcher of water).;
+For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
+The birthday child receives an exclusive Aero T-Shirt.;
+A dedicated Party host will ensure a seamless experience for your party.;
+Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
+Digital Party Invitations will be provided for your convenience.;
+Free Aerosports Grip Socks will be provided to all jumpers.;
+We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Enjoy a Private party room with a capacity of 18-30 people.;
+Parents/guests who are not jumping will not be charged.                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $500 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $600 +tax.;
+Up to 20 jumpers, including the birthday child.;
+$25+tax (weekday), and $30+tax (weekend) for each additional jumper.;
+Enjoy 4 large 2 topping Pizzas with 10 slices each.;
+Quench your thirst with 5 refillable Pitchers of Pop drinks (Including pitcher of water).;
+For every 5 additional jumpers, receive an additional extra large pizza (Please notify us 1 day prior to the event).;
+The birthday child receives an exclusive Aero T-Shirt.;
+A dedicated Party host will ensure a seamless experience for your party.;
+Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
+Free Digital Party Invitations will be provided for your convenience.;
+Free Aerosports Grip Socks will be provided to all jumpers.;
+We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Enjoy a Private party room with a capacity of 18-30 people.;
+Parents/guests who are not jumping will not be charged.                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $260+tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $300 +tax.;
+Up to 10 jumpers, including the birthday child.;
+$26 +tax (weekday), $30 +tax (weekend) for each additional jumper.;
+Enjoy 2 large 2 topping Pizzas with 10 slices each.;
+Quench your thirst with 3 refillable Pitchers of Pop drinks (Including pitcher of water).;
+For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
+The birthday child receives an exclusive Aero T-Shirt.;
+A dedicated Party host will ensure a seamless experience for your party.;
+Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
+Digital Party Invitations will be provided for your convenience.;
+Free Aerosports Grip Socks will be provided to all jumpers.;
+We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Enjoy a Private party room with a capacity of 18-30 people.;
+Parents/guests who are not jumping will not be charged.                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $480 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $560 +tax.;
+Up to 20 jumpers, including the birthday child.;
+$24+tax (weekday), and $28+tax (weekend) for each additional jumper.;
+Enjoy 4 large 2 topping Pizzas with 10 slices each.;
+Quench your thirst with 5 refillable Pitchers of Pop drinks (Including pitcher of water).;
+For every 5 additional jumpers, receive an additional extra large pizza (Please notify us 1 day prior to the event).;
+The birthday child receives an exclusive Aero T-Shirt.;
+A dedicated Party host will ensure a seamless experience for your party.;
+Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
+Free Digital Party Invitations will be provided for your convenience.;
+Free Aerosports Grip Socks will be provided to all jumpers.;
+We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Enjoy a Private party room with a capacity of 18-30 people.;
+Parents/guests who are not jumping will not be charged.                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday and Saturday Nights 7-9pm price: $400 +tax.;
+Up to 10 jumpers, including the birthday child.;
+$40 +tax for each additional jumper.;
+Enjoy 2 large 2 topping Pizzas with 10 slices each.;
+Quench your thirst with 3 refillable Pitchers of Pop drinks (Including pitcher of water).;
+For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
+The birthday child receives an exclusive Aero GLOW T-shirt.;
+A dedicated Party host will ensure a seamless experience for your party.;
+Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
+Digital Party Invitations will be provided for your convenience.;
+Free Aerosports Grip Socks will be provided to all jumpers.;
+We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Enjoy a Private party room with a capacity of 18-30 people.;
+Parents/guests who are not jumping will not be charged.                                                                            </t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $260+tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $300 +tax.;
+Up to 10 jumpers, including the birthday child.;
+$26 +tax (weekday), $30 +tax (weekend) for each additional jumper.;
+Enjoy 2 large 2 topping Pizzas with 10 slices each.;
+Quench your thirst with 3 refillable Pitchers of Pop drinks (Including pitcher of water).;
+For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
+The birthday child receives an exclusive Aero T-Shirt.;
+A dedicated Party host will ensure a seamless experience for your party.;
+Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
+Digital Party Invitations will be provided for your convenience.;
+We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Enjoy a Private party room with a capacity of 18-30 people.;
+Parents/guests who are not jumping will not be charged.;
+*AeroSocks not included                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $480 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $560 +tax.;
+Up to 20 jumpers, including the birthday child.;
+$24+tax (weekday), and $28+tax (weekend) for each additional jumper.;
+Enjoy 4 large 2 topping Pizzas with 10 slices each.;
+Quench your thirst with 5 refillable Pitchers of Pop drinks (Including pitcher of water).;
+For every 5 additional jumpers, receive an additional extra large pizza (Please notify us 1 day prior to the event).;
+The birthday child receives an exclusive Aero T-Shirt.;
+A dedicated Party host will ensure a seamless experience for your party.;
+Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
+Free Digital Party Invitations will be provided for your convenience.;
+We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Enjoy a Private party room with a capacity of 18-30 people.;
+Parents/guests who are not jumping will not be charged.;
+*AeroSocks not included                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday Nights 7-9pm price: $400 +tax.;
+Up to 10 jumpers, including the birthday child.;
+$40 +tax for each additional jumper.;
+Enjoy 2 large 2 topping Pizzas with 10 slices each.;
+Quench your thirst with 3 refillable Pitchers of Pop drinks (Including pitcher of water).;
+For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
+The birthday child receives an exclusive Aero GLOW T-shirt.;
+A dedicated Party host will ensure a seamless experience for your party.;
+Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
+Digital Party Invitations will be provided for your convenience.;
+We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Enjoy a Private party room with a capacity of 18-30 people.;
+Parents/guests who are not jumping will not be charged.;      
+*AeroSocks not Included                                                                      </t>
+  </si>
+  <si>
+    <t>Toddler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $199 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $240 +tax.;
+Up to 8 jumpers, including the birthday child.;
+$26 for each additional jumper.;
+Enjoy 1 large 2 topping Pizzas with 10 slices each.;
+Quench your thirst with 1 refillable Pitchers of fountain drinks (Including pitcher of water).;
+For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
+The birthday child receives an exclusive Aero T-Shirt.;
+A dedicated Party host will ensure a seamless experience for your party.;
+Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
+Digital Party Invitations will be provided for your convenience.;
+We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Enjoy a Private party room with a capacity of 18-30 people.;
+Parents/guests who are not jumping will not be charged.;     
+*AeroSocks not included in party package                                                                       </t>
+  </si>
+  <si>
+    <t>windsor,st-catharines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekdays (Monday - Thursday) price: $199 +tax,   Weekends ( Friday-Sunday &amp; Holidays) price: $240 +tax.;
+Up to 8 jumpers, including the birthday child.;
+$26 for each additional jumper.;
+Enjoy 1 large 2 topping Pizzas with 10 slices each.;
+Quench your thirst with 1 refillable Pitchers of fountain drinks (Including pitcher of water).;
+For every 5 additional jumpers, receive an additional pizza (Please notify us 1 day prior to the event).;
+The birthday child receives an exclusive Aero T-Shirt.;
+A dedicated Party host will ensure a seamless experience for your party.;
+Your party will have 2 hours of Park Access, with the first 60 minutes allocated for jumping and the last 60 minutes in a private party room.;
+Digital Party Invitations will be provided for your convenience.;
+Free Aerosports Grip Socks will be provided to all jumpers.;
+We provide Free Plates, Cups, Candles, Napkins, Lighter, and Cutlery.;
+Enjoy a Private party room with a capacity of 18-30 people.;
+Parents/guests who are not jumping will not be charged.                                                                            </t>
+  </si>
+  <si>
+    <t>Where are you located?</t>
+  </si>
+  <si>
+    <t>We have locations all over the globe. You can find your local park using our &lt;a href="/"&gt;&lt;strong&gt;park locator&lt;/strong&gt;&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Are Aero socks required?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of our Ontario locations require Aero socks to jump in the trampoline park, each park has Aero Socks on hand to sell. Aero socks are reusable so be sure to keep yours for future visits! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have a weight limit? </t>
+  </si>
+  <si>
+    <t>Our trampolines have a 300 pound weight limit.</t>
+  </si>
+  <si>
+    <t>Are waivers required? Can they be filled out online?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waivers are required for every guest to the park including non-jumpers. By clicking on the ‘Online Waiver’ tab, you can fill out the waiver to jump before you go! This will reduce your check-in time, and keep you from waiting in a second line. Keep in mind the waiver needs to be done by a parent or legal guardian for children less than 18 years old. Everyone who enters the facility MUST have a waiver on file with that park. </t>
+  </si>
+  <si>
+    <t>Can I leave my child(ren) unattended?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While every child under 18 needs a parent or legal guardian to sign the waiver, children under 10 years old cannot be dropped off without an adult. Please ensure all children understand the rules and regulations of the park before dropping them off to jump. If your child is enrolled and participating in Summer Camp where they will have a staff member present interacting with them at all times they may be dropped off if they are 5 or older. </t>
+  </si>
+  <si>
+    <t>Do spectators have to pay to watch jumpers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While jumpers are required to pay general admission, non-jumpers are never charged admission. During toddler time, one parent or guardian may jump free. </t>
+  </si>
+  <si>
+    <t>What can smaller/younger children do at your parks?</t>
+  </si>
+  <si>
+    <t>Some Aerosports locations have a special jumping area for little jumper! All ages are welcome at Aerosports, as long as your child can walk they can jump. Toddler jumpers also have access to the entire park. \</t>
+  </si>
+  <si>
+    <t>What do you have at your parks for older kids/teens?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older kids and teens are challenged by our ninja obstacle course, dunk lanes, and dodgeball. &amp;nbsp;We also have Aerosports Glow every Friday and Saturday night from 7 to 9PM, jumpers older than 9 years old can jump and play in a dance environment complete with party lights and music! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older kids and teens are challenged by our ninja obstacle course, dunk lanes, and dodgeball. &amp;nbsp;We also have Aerosports Glow every Friday night from 7 to 9PM, jumpers older than 9 years old can jump and play in a dance environment complete with party lights and music! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older kids and teens are challenged by our ninja obstacle course, dunk lanes, and dodgeball. &amp;nbsp;We also have GLOW every Friday night from 7 to 9PM, jumpers older than 9 years old can jump and play in a dance environment complete with party lights and music! </t>
+  </si>
+  <si>
+    <t>Where can I find the park rules?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can find the park rules on our website by clicking  &lt;a href="{location}/trampoline-park-rules"&gt;&lt;strong&gt;here.&lt;/strong&gt;&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Do you have group rates?</t>
+  </si>
+  <si>
+    <t>Jump time is available at special rates for groups of 15 people or more.  Call us to book your event today!</t>
+  </si>
+  <si>
+    <t>Do you rent out your locations for private events?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We do offer facility rentals. Our trampoline parks boast the perfect facilities for birthday parties, corporate parties, family reunions and more! Contact our group coordinator to schedule your facility rental today! </t>
+  </si>
+  <si>
+    <t>What are your prices/hours?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prices vary by location. Find your location using our &lt;a href="{location}/locations"&gt;&lt;strong&gt;park locator&lt;/strong&gt;&lt;/a&gt; to find pricing and other location-specific information. </t>
+  </si>
+  <si>
+    <t>At what age do you hire?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We hire 16 years old and older. </t>
+  </si>
+  <si>
+    <t>Do you host birthday parties?</t>
+  </si>
+  <si>
+    <t>At Aerosports Trampoline Park, jumpers get more than just a birthday party. Visit our&lt;b&gt; &lt;a href="{location}/kids-birthday-parties"&gt;&lt;strong&gt;party booker&lt;/strong&gt;&lt;/a&gt; &lt;/b&gt;to learn more about the best birthday experience you can imagine!</t>
+  </si>
+  <si>
+    <t>How early should I arrive for my party?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You and your guests should arrive 15 minutes early in order to make sure all jumpers have waivers on file.  </t>
+  </si>
+  <si>
+    <t>What is your cancellation policy?</t>
+  </si>
+  <si>
+    <t>Parties can be rescheduled for free up to 48 hours before the party. However, a $50 fee may be applied for those rescheduling within 48 hours of the party. If you decide to cancel the party, the party deposit is non-refundable.</t>
+  </si>
+  <si>
+    <t>Can all of my guests jump together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper of all ages can enjoy the park.  Standard park rules must be followed in all areas of the park.  Age/Size seperation may occure in certain areas based on total number of jumper in the park.  </t>
+  </si>
+  <si>
+    <t>Can I bring outside food or drinks to a birthday party?</t>
+  </si>
+  <si>
+    <t>Aerosports allows limited food items including cake &amp; cupcakes. All other food and drink must be ordered through Aerosports. Food not on the allowed items list will require a $50 outside food fee. This fee is waived when purchasing a Flippin’ Awesome or The Big Bounce party package.</t>
+  </si>
+  <si>
+    <t>windsor, london,st-catharines</t>
+  </si>
+  <si>
+    <t>You are albe to bring any food that we do not currently sell in the park.  Please call your locaal park for more specific details.</t>
+  </si>
+  <si>
+    <t>Can I have a party during Toddler Time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are able to book a party during toddler time if all the attendees are 5 years or younger. &amp;nbsp;With the exception of parents and guardians, jumpers over the age of 5 will not be permitted to jump during this time.  </t>
+  </si>
+  <si>
+    <t>Do you have fundraising opportunities?</t>
+  </si>
+  <si>
+    <t>We sure do! Aerosports loves raises funds for a variety of causes and organizations. Your school, troop, team or organization can earn 20% of the night’s jump time sales when hosting a fundraising night at one of our trampoline parks. Contact your local park manager to set up your fundraiser today!</t>
+  </si>
+  <si>
+    <t>Can I bring food into the park?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food is allowed in the park with some of our party packages. </t>
+  </si>
+  <si>
+    <t>Do you have food available to purchase?</t>
+  </si>
+  <si>
+    <t>Aerosports does have food available for purchase. All locations have a Snack Shack / Concessions section which sells veriety of items like pizza, slush, candy, drinks etc.</t>
+  </si>
+  <si>
+    <t>What days are the least busy?</t>
+  </si>
+  <si>
+    <t>Weekends are our busiest days. Mondays and Tuesdays are usually less busy than other days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can my small child come to the park? </t>
+  </si>
+  <si>
+    <t>Aerosports believes that as long as the child can walk, they can jump!</t>
+  </si>
+  <si>
+    <t>Who can attend Toddler Time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toddler Time is offered for jumpers 0-5 years old. Parents are able to jump with their toddler.  Jumpers older then 5 who are not parennts will not be permitted to jump.  </t>
+  </si>
+  <si>
+    <t>Who can attend Aerosports Glow?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosports Glow is for jumpers 3 years or older.  All GLOW jumpers must wear a white or neon coloured shirt.  </t>
+  </si>
+  <si>
+    <t>What features do you have?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosports offers a variety of features including, wall-to-wall trampolines, dodgeball, foam pits, ninja courses, rock walls, zip lines and more! Keep in mind that features do vary by location. </t>
+  </si>
+  <si>
+    <t>Do you have any deals available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We offer special monthly promotions!  Please follow your local parks social media for regular updates.  </t>
+  </si>
+  <si>
+    <t>Do you sell gift cards?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We do sell gift cards! You can purchase a physical gift card in your local Aerosports. You can purchase egift cards &lt;a href="{location}/gift-cards"&gt;&lt;strong&gt;online.&lt;/strong&gt;&lt;/a&gt; </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="28">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF383838"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FFA3ACB4"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF383838"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF3C4043"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF3F4448"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2598,7 +2580,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2608,120 +2590,132 @@
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="35">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2911,44 +2905,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="43.42578125" customWidth="1"/>
-    <col min="12" max="12" width="77" customWidth="1"/>
-    <col min="13" max="13" width="56.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="255.7109375" customWidth="1"/>
-    <col min="16" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="41.28515625" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="35.86"/>
+    <col customWidth="1" min="2" max="2" width="14.71"/>
+    <col customWidth="1" min="3" max="3" width="9.57"/>
+    <col customWidth="1" min="4" max="4" width="18.29"/>
+    <col customWidth="1" min="5" max="5" width="14.86"/>
+    <col customWidth="1" min="6" max="6" width="21.57"/>
+    <col customWidth="1" min="7" max="7" width="20.0"/>
+    <col customWidth="1" min="8" max="8" width="31.0"/>
+    <col customWidth="1" min="9" max="9" width="5.86"/>
+    <col customWidth="1" min="10" max="10" width="14.57"/>
+    <col customWidth="1" min="11" max="11" width="43.43"/>
+    <col customWidth="1" min="12" max="12" width="77.0"/>
+    <col customWidth="1" min="13" max="13" width="56.14"/>
+    <col customWidth="1" min="14" max="14" width="15.57"/>
+    <col customWidth="1" min="15" max="15" width="255.71"/>
+    <col customWidth="1" min="16" max="20" width="8.71"/>
+    <col customWidth="1" min="21" max="21" width="41.29"/>
+    <col customWidth="1" min="22" max="22" width="19.71"/>
+    <col customWidth="1" min="23" max="23" width="25.86"/>
+    <col customWidth="1" min="24" max="24" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3025,13 +3017,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -3066,12 +3058,12 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -3095,12 +3087,12 @@
       <c r="W3" s="2"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
@@ -3121,18 +3113,18 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3150,14 +3142,14 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="Y5" s="34"/>
-    </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1">
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>43</v>
@@ -3178,12 +3170,12 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>47</v>
@@ -3204,13 +3196,13 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>50</v>
@@ -3236,12 +3228,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>56</v>
@@ -3266,13 +3258,13 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>60</v>
@@ -3296,13 +3288,13 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
@@ -3329,27 +3321,27 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>68</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -3362,12 +3354,12 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>70</v>
@@ -3391,7 +3383,7 @@
       <c r="K13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -3404,15 +3396,15 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="1">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>80</v>
@@ -3453,15 +3445,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B15" s="1">
-        <v>1001</v>
+        <v>1001.0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>91</v>
@@ -3494,15 +3486,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>98</v>
@@ -3510,7 +3502,7 @@
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>99</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3536,19 +3528,19 @@
         <v>103</v>
       </c>
       <c r="U16" s="2"/>
-      <c r="V16" s="8" t="s">
+      <c r="V16" s="9" t="s">
         <v>104</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>106</v>
@@ -3587,12 +3579,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>115</v>
@@ -3633,15 +3625,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>125</v>
@@ -3675,15 +3667,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B20" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>133</v>
@@ -3702,7 +3694,7 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="10" t="s">
         <v>136</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -3722,15 +3714,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B21" s="1">
-        <v>1002</v>
+        <v>1002.0</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>143</v>
@@ -3749,7 +3741,7 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="1" t="s">
         <v>146</v>
       </c>
@@ -3763,15 +3755,15 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B22" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>150</v>
@@ -3805,15 +3797,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.25" customHeight="1">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>159</v>
@@ -3850,15 +3842,15 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B24" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>168</v>
@@ -3879,7 +3871,7 @@
         <v>171</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="10" t="s">
         <v>172</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -3899,15 +3891,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B25" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>178</v>
@@ -3928,7 +3920,7 @@
         <v>181</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="10" t="s">
         <v>182</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -3944,12 +3936,12 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="14.25" customHeight="1">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>186</v>
@@ -3976,13 +3968,13 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>192</v>
@@ -4002,19 +3994,19 @@
       <c r="M27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="11" t="s">
         <v>196</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="14.25" customHeight="1">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="B28" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>197</v>
@@ -4041,12 +4033,12 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="B29" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>201</v>
@@ -4070,15 +4062,15 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" ht="13.5" customHeight="1">
+    <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B30" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>206</v>
@@ -4105,15 +4097,15 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" ht="14.25" customHeight="1">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B31" s="1">
-        <v>1004</v>
+        <v>1004.0</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>206</v>
@@ -4140,13 +4132,13 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" ht="14.25" customHeight="1">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>212</v>
@@ -4163,8 +4155,8 @@
       <c r="H32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="L32" s="12" t="s">
+      <c r="J32" s="12"/>
+      <c r="L32" s="13" t="s">
         <v>216</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -4177,15 +4169,15 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="14.25" customHeight="1">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B33" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>219</v>
@@ -4203,10 +4195,10 @@
         <v>221</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="13" t="s">
         <v>223</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -4219,15 +4211,15 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="14.25" customHeight="1">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B34" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>219</v>
@@ -4245,10 +4237,10 @@
         <v>221</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="13" t="s">
         <v>223</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -4261,15 +4253,15 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="14.25" customHeight="1">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B35" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>227</v>
@@ -4286,10 +4278,10 @@
       <c r="H35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="13" t="s">
         <v>230</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -4305,15 +4297,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="14.25" customHeight="1">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B36" s="1">
-        <v>1003</v>
+        <v>1003.0</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>227</v>
@@ -4330,10 +4322,10 @@
       <c r="H36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="13" t="s">
         <v>234</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -4349,15 +4341,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="14.25" customHeight="1">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B37" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>236</v>
@@ -4384,15 +4376,15 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="14.25" customHeight="1">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B38" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>236</v>
@@ -4419,15 +4411,15 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="14.25" customHeight="1">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B39" s="1">
-        <v>1005</v>
+        <v>1005.0</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>236</v>
@@ -4454,15 +4446,15 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="14.25" customHeight="1">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B40" s="1">
-        <v>1008</v>
+        <v>1008.0</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>60</v>
@@ -4482,7 +4474,7 @@
       <c r="K40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="13" t="s">
         <v>230</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -4495,12 +4487,12 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="14.25" customHeight="1">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>244</v>
@@ -4508,7 +4500,7 @@
       <c r="E41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>245</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -4527,15 +4519,15 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="14.25" customHeight="1">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B42" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>250</v>
@@ -4562,15 +4554,15 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="14.25" customHeight="1">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>250</v>
@@ -4597,12 +4589,12 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="14.25" customHeight="1">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="B44" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>254</v>
@@ -4629,12 +4621,12 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="14.25" customHeight="1">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="B45" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>259</v>
@@ -4661,13 +4653,13 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="14.25" customHeight="1">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>264</v>
@@ -4691,12 +4683,12 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="14.25" customHeight="1">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="B47" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>268</v>
@@ -4720,12 +4712,12 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="14.25" customHeight="1">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="B48" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>271</v>
@@ -4752,32 +4744,32 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:25" ht="14.25" customHeight="1">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B49" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="14" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L49" s="14" t="s">
+      <c r="L49" s="15" t="s">
         <v>276</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -4790,21 +4782,21 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:25" ht="14.25" customHeight="1">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B50" s="1">
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="C50" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>278</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="1" t="s">
         <v>279</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -4819,1013 +4811,1013 @@
       <c r="M50" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O50" s="36" t="s">
+      <c r="O50" s="16" t="s">
         <v>283</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="Y50" s="34"/>
-    </row>
-    <row r="51" spans="1:25" ht="14.25" customHeight="1">
+      <c r="Y50" s="5"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:25" ht="14.25" customHeight="1">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:25" ht="14.25" customHeight="1">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:25" ht="14.25" customHeight="1">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:25" ht="14.25" customHeight="1">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:25" ht="14.25" customHeight="1">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:25" ht="14.25" customHeight="1">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:25" ht="14.25" customHeight="1">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:25" ht="14.25" customHeight="1">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:25" ht="14.25" customHeight="1">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:25" ht="14.25" customHeight="1">
+    <row r="61" ht="14.25" customHeight="1">
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:25" ht="14.25" customHeight="1">
+    <row r="62" ht="14.25" customHeight="1">
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:25" ht="14.25" customHeight="1">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:25" ht="14.25" customHeight="1">
+    <row r="64" ht="14.25" customHeight="1">
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="21:23" ht="14.25" customHeight="1">
+    <row r="65" ht="14.25" customHeight="1">
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="21:23" ht="14.25" customHeight="1">
+    <row r="66" ht="14.25" customHeight="1">
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="21:23" ht="14.25" customHeight="1">
+    <row r="67" ht="14.25" customHeight="1">
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="21:23" ht="14.25" customHeight="1">
+    <row r="68" ht="14.25" customHeight="1">
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="21:23" ht="14.25" customHeight="1">
+    <row r="69" ht="14.25" customHeight="1">
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="21:23" ht="14.25" customHeight="1">
+    <row r="70" ht="14.25" customHeight="1">
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="21:23" ht="14.25" customHeight="1">
+    <row r="71" ht="14.25" customHeight="1">
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="21:23" ht="14.25" customHeight="1">
+    <row r="72" ht="14.25" customHeight="1">
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="21:23" ht="14.25" customHeight="1">
+    <row r="73" ht="14.25" customHeight="1">
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="21:23" ht="14.25" customHeight="1">
+    <row r="74" ht="14.25" customHeight="1">
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="21:23" ht="14.25" customHeight="1">
+    <row r="75" ht="14.25" customHeight="1">
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="21:23" ht="14.25" customHeight="1">
+    <row r="76" ht="14.25" customHeight="1">
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="21:23" ht="14.25" customHeight="1">
+    <row r="77" ht="14.25" customHeight="1">
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="21:23" ht="14.25" customHeight="1">
+    <row r="78" ht="14.25" customHeight="1">
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="21:23" ht="14.25" customHeight="1">
+    <row r="79" ht="14.25" customHeight="1">
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="21:23" ht="14.25" customHeight="1">
+    <row r="80" ht="14.25" customHeight="1">
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="21:23" ht="14.25" customHeight="1">
+    <row r="81" ht="14.25" customHeight="1">
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="21:23" ht="14.25" customHeight="1">
+    <row r="82" ht="14.25" customHeight="1">
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="21:23" ht="14.25" customHeight="1">
+    <row r="83" ht="14.25" customHeight="1">
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="21:23" ht="14.25" customHeight="1">
+    <row r="84" ht="14.25" customHeight="1">
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="21:23" ht="14.25" customHeight="1">
+    <row r="85" ht="14.25" customHeight="1">
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="21:23" ht="14.25" customHeight="1">
+    <row r="86" ht="14.25" customHeight="1">
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="21:23" ht="14.25" customHeight="1">
+    <row r="87" ht="14.25" customHeight="1">
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="21:23" ht="14.25" customHeight="1">
+    <row r="88" ht="14.25" customHeight="1">
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="21:23" ht="14.25" customHeight="1">
+    <row r="89" ht="14.25" customHeight="1">
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="21:23" ht="14.25" customHeight="1">
+    <row r="90" ht="14.25" customHeight="1">
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="21:23" ht="14.25" customHeight="1">
+    <row r="91" ht="14.25" customHeight="1">
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="21:23" ht="14.25" customHeight="1">
+    <row r="92" ht="14.25" customHeight="1">
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="21:23" ht="14.25" customHeight="1">
+    <row r="93" ht="14.25" customHeight="1">
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="21:23" ht="14.25" customHeight="1">
+    <row r="94" ht="14.25" customHeight="1">
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="21:23" ht="14.25" customHeight="1">
+    <row r="95" ht="14.25" customHeight="1">
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="21:23" ht="14.25" customHeight="1">
+    <row r="96" ht="14.25" customHeight="1">
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="21:23" ht="14.25" customHeight="1">
+    <row r="97" ht="14.25" customHeight="1">
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="21:23" ht="14.25" customHeight="1">
+    <row r="98" ht="14.25" customHeight="1">
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="21:23" ht="14.25" customHeight="1">
+    <row r="99" ht="14.25" customHeight="1">
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="21:23" ht="14.25" customHeight="1">
+    <row r="100" ht="14.25" customHeight="1">
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="21:23" ht="14.25" customHeight="1">
+    <row r="101" ht="14.25" customHeight="1">
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="21:23" ht="14.25" customHeight="1">
+    <row r="102" ht="14.25" customHeight="1">
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="21:23" ht="14.25" customHeight="1">
+    <row r="103" ht="14.25" customHeight="1">
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="21:23" ht="14.25" customHeight="1">
+    <row r="104" ht="14.25" customHeight="1">
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="21:23" ht="14.25" customHeight="1">
+    <row r="105" ht="14.25" customHeight="1">
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="21:23" ht="14.25" customHeight="1">
+    <row r="106" ht="14.25" customHeight="1">
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="21:23" ht="14.25" customHeight="1">
+    <row r="107" ht="14.25" customHeight="1">
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="21:23" ht="14.25" customHeight="1">
+    <row r="108" ht="14.25" customHeight="1">
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="21:23" ht="14.25" customHeight="1">
+    <row r="109" ht="14.25" customHeight="1">
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="21:23" ht="14.25" customHeight="1">
+    <row r="110" ht="14.25" customHeight="1">
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="21:23" ht="14.25" customHeight="1">
+    <row r="111" ht="14.25" customHeight="1">
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="21:23" ht="14.25" customHeight="1">
+    <row r="112" ht="14.25" customHeight="1">
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="21:23" ht="14.25" customHeight="1">
+    <row r="113" ht="14.25" customHeight="1">
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="21:23" ht="14.25" customHeight="1">
+    <row r="114" ht="14.25" customHeight="1">
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="21:23" ht="14.25" customHeight="1">
+    <row r="115" ht="14.25" customHeight="1">
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="21:23" ht="14.25" customHeight="1">
+    <row r="116" ht="14.25" customHeight="1">
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="21:23" ht="14.25" customHeight="1">
+    <row r="117" ht="14.25" customHeight="1">
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="21:23" ht="14.25" customHeight="1">
+    <row r="118" ht="14.25" customHeight="1">
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="21:23" ht="14.25" customHeight="1">
+    <row r="119" ht="14.25" customHeight="1">
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="21:23" ht="14.25" customHeight="1">
+    <row r="120" ht="14.25" customHeight="1">
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="21:23" ht="14.25" customHeight="1">
+    <row r="121" ht="14.25" customHeight="1">
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="21:23" ht="14.25" customHeight="1">
+    <row r="122" ht="14.25" customHeight="1">
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="21:23" ht="14.25" customHeight="1">
+    <row r="123" ht="14.25" customHeight="1">
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="21:23" ht="14.25" customHeight="1">
+    <row r="124" ht="14.25" customHeight="1">
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="21:23" ht="14.25" customHeight="1">
+    <row r="125" ht="14.25" customHeight="1">
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="21:23" ht="14.25" customHeight="1">
+    <row r="126" ht="14.25" customHeight="1">
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="21:23" ht="14.25" customHeight="1">
+    <row r="127" ht="14.25" customHeight="1">
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="21:23" ht="14.25" customHeight="1">
+    <row r="128" ht="14.25" customHeight="1">
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="21:23" ht="14.25" customHeight="1">
+    <row r="129" ht="14.25" customHeight="1">
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="21:23" ht="14.25" customHeight="1">
+    <row r="130" ht="14.25" customHeight="1">
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="21:23" ht="14.25" customHeight="1">
+    <row r="131" ht="14.25" customHeight="1">
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="21:23" ht="14.25" customHeight="1">
+    <row r="132" ht="14.25" customHeight="1">
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="21:23" ht="14.25" customHeight="1">
+    <row r="133" ht="14.25" customHeight="1">
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="21:23" ht="14.25" customHeight="1">
+    <row r="134" ht="14.25" customHeight="1">
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="21:23" ht="14.25" customHeight="1">
+    <row r="135" ht="14.25" customHeight="1">
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="21:23" ht="14.25" customHeight="1">
+    <row r="136" ht="14.25" customHeight="1">
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="21:23" ht="14.25" customHeight="1">
+    <row r="137" ht="14.25" customHeight="1">
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="21:23" ht="14.25" customHeight="1">
+    <row r="138" ht="14.25" customHeight="1">
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="21:23" ht="14.25" customHeight="1">
+    <row r="139" ht="14.25" customHeight="1">
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="21:23" ht="14.25" customHeight="1">
+    <row r="140" ht="14.25" customHeight="1">
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="21:23" ht="14.25" customHeight="1">
+    <row r="141" ht="14.25" customHeight="1">
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="21:23" ht="14.25" customHeight="1">
+    <row r="142" ht="14.25" customHeight="1">
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="21:23" ht="14.25" customHeight="1">
+    <row r="143" ht="14.25" customHeight="1">
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="21:23" ht="14.25" customHeight="1">
+    <row r="144" ht="14.25" customHeight="1">
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="21:23" ht="14.25" customHeight="1">
+    <row r="145" ht="14.25" customHeight="1">
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="21:23" ht="14.25" customHeight="1">
+    <row r="146" ht="14.25" customHeight="1">
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="21:23" ht="14.25" customHeight="1">
+    <row r="147" ht="14.25" customHeight="1">
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="21:23" ht="14.25" customHeight="1">
+    <row r="148" ht="14.25" customHeight="1">
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="21:23" ht="14.25" customHeight="1">
+    <row r="149" ht="14.25" customHeight="1">
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="21:23" ht="14.25" customHeight="1">
+    <row r="150" ht="14.25" customHeight="1">
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="21:23" ht="14.25" customHeight="1">
+    <row r="151" ht="14.25" customHeight="1">
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="21:23" ht="14.25" customHeight="1">
+    <row r="152" ht="14.25" customHeight="1">
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="21:23" ht="14.25" customHeight="1">
+    <row r="153" ht="14.25" customHeight="1">
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="21:23" ht="14.25" customHeight="1">
+    <row r="154" ht="14.25" customHeight="1">
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="21:23" ht="14.25" customHeight="1">
+    <row r="155" ht="14.25" customHeight="1">
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="21:23" ht="14.25" customHeight="1">
+    <row r="156" ht="14.25" customHeight="1">
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="21:23" ht="14.25" customHeight="1">
+    <row r="157" ht="14.25" customHeight="1">
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="21:23" ht="14.25" customHeight="1">
+    <row r="158" ht="14.25" customHeight="1">
       <c r="U158" s="2"/>
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="21:23" ht="14.25" customHeight="1">
+    <row r="159" ht="14.25" customHeight="1">
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="21:23" ht="14.25" customHeight="1">
+    <row r="160" ht="14.25" customHeight="1">
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="21:23" ht="14.25" customHeight="1">
+    <row r="161" ht="14.25" customHeight="1">
       <c r="U161" s="2"/>
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="21:23" ht="14.25" customHeight="1">
+    <row r="162" ht="14.25" customHeight="1">
       <c r="U162" s="2"/>
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="21:23" ht="14.25" customHeight="1">
+    <row r="163" ht="14.25" customHeight="1">
       <c r="U163" s="2"/>
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="21:23" ht="14.25" customHeight="1">
+    <row r="164" ht="14.25" customHeight="1">
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="21:23" ht="14.25" customHeight="1">
+    <row r="165" ht="14.25" customHeight="1">
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="21:23" ht="14.25" customHeight="1">
+    <row r="166" ht="14.25" customHeight="1">
       <c r="U166" s="2"/>
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="21:23" ht="14.25" customHeight="1">
+    <row r="167" ht="14.25" customHeight="1">
       <c r="U167" s="2"/>
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="21:23" ht="14.25" customHeight="1">
+    <row r="168" ht="14.25" customHeight="1">
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="21:23" ht="14.25" customHeight="1">
+    <row r="169" ht="14.25" customHeight="1">
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="21:23" ht="14.25" customHeight="1">
+    <row r="170" ht="14.25" customHeight="1">
       <c r="U170" s="2"/>
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="21:23" ht="14.25" customHeight="1">
+    <row r="171" ht="14.25" customHeight="1">
       <c r="U171" s="2"/>
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="21:23" ht="14.25" customHeight="1">
+    <row r="172" ht="14.25" customHeight="1">
       <c r="U172" s="2"/>
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="21:23" ht="14.25" customHeight="1">
+    <row r="173" ht="14.25" customHeight="1">
       <c r="U173" s="2"/>
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="21:23" ht="14.25" customHeight="1">
+    <row r="174" ht="14.25" customHeight="1">
       <c r="U174" s="2"/>
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="21:23" ht="14.25" customHeight="1">
+    <row r="175" ht="14.25" customHeight="1">
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="21:23" ht="14.25" customHeight="1">
+    <row r="176" ht="14.25" customHeight="1">
       <c r="U176" s="2"/>
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="21:23" ht="14.25" customHeight="1">
+    <row r="177" ht="14.25" customHeight="1">
       <c r="U177" s="2"/>
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="21:23" ht="14.25" customHeight="1">
+    <row r="178" ht="14.25" customHeight="1">
       <c r="U178" s="2"/>
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="21:23" ht="14.25" customHeight="1">
+    <row r="179" ht="14.25" customHeight="1">
       <c r="U179" s="2"/>
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="21:23" ht="14.25" customHeight="1">
+    <row r="180" ht="14.25" customHeight="1">
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="21:23" ht="14.25" customHeight="1">
+    <row r="181" ht="14.25" customHeight="1">
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="21:23" ht="14.25" customHeight="1">
+    <row r="182" ht="14.25" customHeight="1">
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="21:23" ht="14.25" customHeight="1">
+    <row r="183" ht="14.25" customHeight="1">
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="21:23" ht="14.25" customHeight="1">
+    <row r="184" ht="14.25" customHeight="1">
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="21:23" ht="14.25" customHeight="1">
+    <row r="185" ht="14.25" customHeight="1">
       <c r="U185" s="2"/>
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="21:23" ht="14.25" customHeight="1">
+    <row r="186" ht="14.25" customHeight="1">
       <c r="U186" s="2"/>
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="21:23" ht="14.25" customHeight="1">
+    <row r="187" ht="14.25" customHeight="1">
       <c r="U187" s="2"/>
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="21:23" ht="14.25" customHeight="1">
+    <row r="188" ht="14.25" customHeight="1">
       <c r="U188" s="2"/>
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="21:23" ht="14.25" customHeight="1">
+    <row r="189" ht="14.25" customHeight="1">
       <c r="U189" s="2"/>
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="21:23" ht="14.25" customHeight="1">
+    <row r="190" ht="14.25" customHeight="1">
       <c r="U190" s="2"/>
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="21:23" ht="14.25" customHeight="1">
+    <row r="191" ht="14.25" customHeight="1">
       <c r="U191" s="2"/>
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="21:23" ht="14.25" customHeight="1">
+    <row r="192" ht="14.25" customHeight="1">
       <c r="U192" s="2"/>
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="21:23" ht="14.25" customHeight="1">
+    <row r="193" ht="14.25" customHeight="1">
       <c r="U193" s="2"/>
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="21:23" ht="14.25" customHeight="1">
+    <row r="194" ht="14.25" customHeight="1">
       <c r="U194" s="2"/>
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="21:23" ht="14.25" customHeight="1">
+    <row r="195" ht="14.25" customHeight="1">
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="21:23" ht="14.25" customHeight="1">
+    <row r="196" ht="14.25" customHeight="1">
       <c r="U196" s="2"/>
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="21:23" ht="14.25" customHeight="1">
+    <row r="197" ht="14.25" customHeight="1">
       <c r="U197" s="2"/>
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="21:23" ht="14.25" customHeight="1">
+    <row r="198" ht="14.25" customHeight="1">
       <c r="U198" s="2"/>
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="21:23" ht="14.25" customHeight="1">
+    <row r="199" ht="14.25" customHeight="1">
       <c r="U199" s="2"/>
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="21:23" ht="14.25" customHeight="1">
+    <row r="200" ht="14.25" customHeight="1">
       <c r="U200" s="2"/>
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="21:23" ht="14.25" customHeight="1">
+    <row r="201" ht="14.25" customHeight="1">
       <c r="U201" s="2"/>
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="21:23" ht="14.25" customHeight="1">
+    <row r="202" ht="14.25" customHeight="1">
       <c r="U202" s="2"/>
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="21:23" ht="14.25" customHeight="1">
+    <row r="203" ht="14.25" customHeight="1">
       <c r="U203" s="2"/>
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="21:23" ht="14.25" customHeight="1">
+    <row r="204" ht="14.25" customHeight="1">
       <c r="U204" s="2"/>
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="21:23" ht="14.25" customHeight="1">
+    <row r="205" ht="14.25" customHeight="1">
       <c r="U205" s="2"/>
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="21:23" ht="14.25" customHeight="1">
+    <row r="206" ht="14.25" customHeight="1">
       <c r="U206" s="2"/>
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" spans="21:23" ht="14.25" customHeight="1">
+    <row r="207" ht="14.25" customHeight="1">
       <c r="U207" s="2"/>
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="21:23" ht="14.25" customHeight="1">
+    <row r="208" ht="14.25" customHeight="1">
       <c r="U208" s="2"/>
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" spans="21:23" ht="14.25" customHeight="1">
+    <row r="209" ht="14.25" customHeight="1">
       <c r="U209" s="2"/>
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" spans="21:23" ht="14.25" customHeight="1">
+    <row r="210" ht="14.25" customHeight="1">
       <c r="U210" s="2"/>
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" spans="21:23" ht="14.25" customHeight="1">
+    <row r="211" ht="14.25" customHeight="1">
       <c r="U211" s="2"/>
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212" spans="21:23" ht="14.25" customHeight="1">
+    <row r="212" ht="14.25" customHeight="1">
       <c r="U212" s="2"/>
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213" spans="21:23" ht="14.25" customHeight="1">
+    <row r="213" ht="14.25" customHeight="1">
       <c r="U213" s="2"/>
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" spans="21:23" ht="14.25" customHeight="1">
+    <row r="214" ht="14.25" customHeight="1">
       <c r="U214" s="2"/>
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" spans="21:23" ht="14.25" customHeight="1">
+    <row r="215" ht="14.25" customHeight="1">
       <c r="U215" s="2"/>
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216" spans="21:23" ht="14.25" customHeight="1">
+    <row r="216" ht="14.25" customHeight="1">
       <c r="U216" s="2"/>
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" spans="21:23" ht="14.25" customHeight="1">
+    <row r="217" ht="14.25" customHeight="1">
       <c r="U217" s="2"/>
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" spans="21:23" ht="14.25" customHeight="1">
+    <row r="218" ht="14.25" customHeight="1">
       <c r="U218" s="2"/>
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219" spans="21:23" ht="14.25" customHeight="1">
+    <row r="219" ht="14.25" customHeight="1">
       <c r="U219" s="2"/>
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" spans="21:23" ht="14.25" customHeight="1">
+    <row r="220" ht="14.25" customHeight="1">
       <c r="U220" s="2"/>
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221" spans="21:23" ht="14.25" customHeight="1">
+    <row r="221" ht="14.25" customHeight="1">
       <c r="U221" s="2"/>
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
     </row>
-    <row r="222" spans="21:23" ht="14.25" customHeight="1">
+    <row r="222" ht="14.25" customHeight="1">
       <c r="U222" s="2"/>
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
     </row>
-    <row r="223" spans="21:23" ht="14.25" customHeight="1">
+    <row r="223" ht="14.25" customHeight="1">
       <c r="U223" s="2"/>
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
     </row>
-    <row r="224" spans="21:23" ht="14.25" customHeight="1">
+    <row r="224" ht="14.25" customHeight="1">
       <c r="U224" s="2"/>
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
     </row>
-    <row r="225" spans="21:23" ht="14.25" customHeight="1">
+    <row r="225" ht="14.25" customHeight="1">
       <c r="U225" s="2"/>
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226" spans="21:23" ht="14.25" customHeight="1">
+    <row r="226" ht="14.25" customHeight="1">
       <c r="U226" s="2"/>
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227" spans="21:23" ht="14.25" customHeight="1">
+    <row r="227" ht="14.25" customHeight="1">
       <c r="U227" s="2"/>
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228" spans="21:23" ht="14.25" customHeight="1">
+    <row r="228" ht="14.25" customHeight="1">
       <c r="U228" s="2"/>
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229" spans="21:23" ht="14.25" customHeight="1">
+    <row r="229" ht="14.25" customHeight="1">
       <c r="U229" s="2"/>
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230" spans="21:23" ht="14.25" customHeight="1">
+    <row r="230" ht="14.25" customHeight="1">
       <c r="U230" s="2"/>
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231" spans="21:23" ht="14.25" customHeight="1">
+    <row r="231" ht="14.25" customHeight="1">
       <c r="U231" s="2"/>
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232" spans="21:23" ht="14.25" customHeight="1">
+    <row r="232" ht="14.25" customHeight="1">
       <c r="U232" s="2"/>
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233" spans="21:23" ht="14.25" customHeight="1">
+    <row r="233" ht="14.25" customHeight="1">
       <c r="U233" s="2"/>
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234" spans="21:23" ht="14.25" customHeight="1">
+    <row r="234" ht="14.25" customHeight="1">
       <c r="U234" s="2"/>
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235" spans="21:23" ht="14.25" customHeight="1">
+    <row r="235" ht="14.25" customHeight="1">
       <c r="U235" s="2"/>
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236" spans="21:23" ht="14.25" customHeight="1">
+    <row r="236" ht="14.25" customHeight="1">
       <c r="U236" s="2"/>
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237" spans="21:23" ht="14.25" customHeight="1">
+    <row r="237" ht="14.25" customHeight="1">
       <c r="U237" s="2"/>
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238" spans="21:23" ht="14.25" customHeight="1">
+    <row r="238" ht="14.25" customHeight="1">
       <c r="U238" s="2"/>
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239" spans="21:23" ht="14.25" customHeight="1">
+    <row r="239" ht="14.25" customHeight="1">
       <c r="U239" s="2"/>
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240" spans="21:23" ht="14.25" customHeight="1">
+    <row r="240" ht="14.25" customHeight="1">
       <c r="U240" s="2"/>
       <c r="V240" s="2"/>
       <c r="W240" s="2"/>
     </row>
-    <row r="241" spans="21:23" ht="14.25" customHeight="1">
+    <row r="241" ht="14.25" customHeight="1">
       <c r="U241" s="2"/>
       <c r="V241" s="2"/>
       <c r="W241" s="2"/>
     </row>
-    <row r="242" spans="21:23" ht="14.25" customHeight="1">
+    <row r="242" ht="14.25" customHeight="1">
       <c r="U242" s="2"/>
       <c r="V242" s="2"/>
       <c r="W242" s="2"/>
     </row>
-    <row r="243" spans="21:23" ht="14.25" customHeight="1">
+    <row r="243" ht="14.25" customHeight="1">
       <c r="U243" s="2"/>
       <c r="V243" s="2"/>
       <c r="W243" s="2"/>
     </row>
-    <row r="244" spans="21:23" ht="15.75" customHeight="1">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="V244" s="2"/>
       <c r="W244" s="2"/>
     </row>
-    <row r="245" spans="21:23" ht="15.75" customHeight="1">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="V245" s="2"/>
       <c r="W245" s="2"/>
     </row>
-    <row r="246" spans="21:23" ht="15.75" customHeight="1">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="V246" s="2"/>
       <c r="W246" s="2"/>
     </row>
-    <row r="247" spans="21:23" ht="15.75" customHeight="1">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="V247" s="2"/>
       <c r="W247" s="2"/>
     </row>
-    <row r="248" spans="21:23" ht="15.75" customHeight="1">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="V248" s="2"/>
       <c r="W248" s="2"/>
     </row>
-    <row r="249" spans="21:23" ht="15.75" customHeight="1">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="V249" s="2"/>
       <c r="W249" s="2"/>
     </row>
-    <row r="250" spans="21:23" ht="15.75" customHeight="1">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="V250" s="2"/>
       <c r="W250" s="2"/>
     </row>
-    <row r="251" spans="21:23" ht="15.75" customHeight="1"/>
-    <row r="252" spans="21:23" ht="15.75" customHeight="1"/>
-    <row r="253" spans="21:23" ht="15.75" customHeight="1"/>
-    <row r="254" spans="21:23" ht="15.75" customHeight="1"/>
-    <row r="255" spans="21:23" ht="15.75" customHeight="1"/>
-    <row r="256" spans="21:23" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -6572,29 +6564,33 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="V16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId1" ref="V16"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="106" customWidth="1"/>
-    <col min="14" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="9" width="8.71"/>
+    <col customWidth="1" min="10" max="10" width="9.86"/>
+    <col customWidth="1" min="11" max="12" width="8.71"/>
+    <col customWidth="1" min="13" max="13" width="106.0"/>
+    <col customWidth="1" min="14" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6622,7 +6618,7 @@
       <c r="I1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>291</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -6635,11 +6631,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>296</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -6648,20 +6644,20 @@
       <c r="E2" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>296</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="17" t="s">
         <v>301</v>
       </c>
       <c r="K2" s="1">
-        <v>232</v>
+        <v>232.0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>302</v>
@@ -6670,26 +6666,26 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>305</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="17" t="s">
         <v>308</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -6699,922 +6695,922 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+    <row r="4" ht="47.25" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="21" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J5" s="15"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="J5" s="17"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J6" s="15"/>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="J6" s="17"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J7" s="15"/>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="J7" s="17"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J8" s="15"/>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="J8" s="17"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J9" s="15"/>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="J9" s="17"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J10" s="15"/>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="J10" s="17"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J11" s="15"/>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="J11" s="17"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J12" s="15"/>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="J12" s="17"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J13" s="15"/>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="J13" s="17"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J14" s="15"/>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="J14" s="17"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J15" s="15"/>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="J15" s="17"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="J16" s="15"/>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="J16" s="17"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J17" s="15"/>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="J17" s="17"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J18" s="15"/>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="J18" s="17"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J19" s="15"/>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="J19" s="17"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J20" s="15"/>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="J20" s="17"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J21" s="15"/>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="J21" s="17"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J22" s="15"/>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="J22" s="17"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J23" s="15"/>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="J23" s="17"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J24" s="15"/>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="J24" s="17"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J25" s="15"/>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="J25" s="17"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J26" s="15"/>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="J26" s="17"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J27" s="15"/>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="J27" s="17"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J28" s="15"/>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="J28" s="17"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J29" s="15"/>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="J29" s="17"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J30" s="15"/>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="J30" s="17"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J31" s="15"/>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="J31" s="17"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J32" s="15"/>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="J32" s="17"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J33" s="15"/>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="J33" s="17"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J34" s="15"/>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="J34" s="17"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J35" s="15"/>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="J35" s="17"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J36" s="15"/>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="J36" s="17"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J37" s="15"/>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="J37" s="17"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J38" s="15"/>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="J38" s="17"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J39" s="15"/>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="J39" s="17"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J40" s="15"/>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="J40" s="17"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J41" s="15"/>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="J41" s="17"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J42" s="15"/>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="J42" s="17"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J43" s="15"/>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="J43" s="17"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J44" s="15"/>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="J44" s="17"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J45" s="15"/>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="J45" s="17"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J46" s="15"/>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="J46" s="17"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J47" s="15"/>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="J47" s="17"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J48" s="15"/>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="J48" s="17"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J49" s="15"/>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="J49" s="17"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J50" s="15"/>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="J50" s="17"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J51" s="15"/>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="J51" s="17"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J52" s="15"/>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="J52" s="17"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J53" s="15"/>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="J53" s="17"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J54" s="15"/>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="J54" s="17"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J55" s="15"/>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="J55" s="17"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J56" s="15"/>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="J56" s="17"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J57" s="15"/>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="J57" s="17"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J58" s="15"/>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="J58" s="17"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J59" s="15"/>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="J59" s="17"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J60" s="15"/>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="J60" s="17"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J61" s="15"/>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="J61" s="17"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J62" s="15"/>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="J62" s="17"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J63" s="15"/>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="J63" s="17"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J64" s="15"/>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="J64" s="17"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J65" s="15"/>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="J65" s="17"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J66" s="15"/>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="J66" s="17"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J67" s="15"/>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="J67" s="17"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J68" s="15"/>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="J68" s="17"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J69" s="15"/>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="J69" s="17"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J70" s="15"/>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="J70" s="17"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J71" s="15"/>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="J71" s="17"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J72" s="15"/>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="J72" s="17"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J73" s="15"/>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="J73" s="17"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J74" s="15"/>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="J74" s="17"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J75" s="15"/>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="J75" s="17"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J76" s="15"/>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="J76" s="17"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J77" s="15"/>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="J77" s="17"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J78" s="15"/>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="J78" s="17"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J79" s="15"/>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="J79" s="17"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J80" s="15"/>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="J80" s="17"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J81" s="15"/>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="J81" s="17"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J82" s="15"/>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="J82" s="17"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J83" s="15"/>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="J83" s="17"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J84" s="15"/>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="J84" s="17"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J85" s="15"/>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="J85" s="17"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J86" s="15"/>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="J86" s="17"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J87" s="15"/>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="J87" s="17"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J88" s="15"/>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="J88" s="17"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J89" s="15"/>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="J89" s="17"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J90" s="15"/>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="J90" s="17"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J91" s="15"/>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="J91" s="17"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J92" s="15"/>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="J92" s="17"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J93" s="15"/>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="J93" s="17"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J94" s="15"/>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="J94" s="17"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J95" s="15"/>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="J95" s="17"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J96" s="15"/>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="J96" s="17"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J97" s="15"/>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="J97" s="17"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J98" s="15"/>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="J98" s="17"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J99" s="15"/>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="J99" s="17"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J100" s="15"/>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="J100" s="17"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J101" s="15"/>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="J101" s="17"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J102" s="15"/>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="J102" s="17"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J103" s="15"/>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="J103" s="17"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J104" s="15"/>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="J104" s="17"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J105" s="15"/>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="J105" s="17"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J106" s="15"/>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="J106" s="17"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J107" s="15"/>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="J107" s="17"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J108" s="15"/>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="J108" s="17"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J109" s="15"/>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="J109" s="17"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J110" s="15"/>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="J110" s="17"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J111" s="15"/>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="J111" s="17"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J112" s="15"/>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="J112" s="17"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J113" s="15"/>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="J113" s="17"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J114" s="15"/>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="J114" s="17"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J115" s="15"/>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="J115" s="17"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J116" s="15"/>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="J116" s="17"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J117" s="15"/>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="J117" s="17"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J118" s="15"/>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="J118" s="17"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J119" s="15"/>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="J119" s="17"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J120" s="15"/>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="J120" s="17"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J121" s="15"/>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="J121" s="17"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J122" s="15"/>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="J122" s="17"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J123" s="15"/>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="J123" s="17"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J124" s="15"/>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="J124" s="17"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J125" s="15"/>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="J125" s="17"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J126" s="15"/>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="J126" s="17"/>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J127" s="15"/>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="J127" s="17"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J128" s="15"/>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="J128" s="17"/>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J129" s="15"/>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="J129" s="17"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J130" s="15"/>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="J130" s="17"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J131" s="15"/>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="J131" s="17"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J132" s="15"/>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="J132" s="17"/>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J133" s="15"/>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="J133" s="17"/>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J134" s="15"/>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="J134" s="17"/>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J135" s="15"/>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="J135" s="17"/>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J136" s="15"/>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="J136" s="17"/>
       <c r="M136" s="2"/>
     </row>
-    <row r="137" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J137" s="15"/>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="J137" s="17"/>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J138" s="15"/>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="J138" s="17"/>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J139" s="15"/>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="J139" s="17"/>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J140" s="15"/>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="J140" s="17"/>
       <c r="M140" s="2"/>
     </row>
-    <row r="141" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J141" s="15"/>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="J141" s="17"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J142" s="15"/>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="J142" s="17"/>
       <c r="M142" s="2"/>
     </row>
-    <row r="143" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J143" s="15"/>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="J143" s="17"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J144" s="15"/>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="J144" s="17"/>
       <c r="M144" s="2"/>
     </row>
-    <row r="145" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J145" s="15"/>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="J145" s="17"/>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J146" s="15"/>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="J146" s="17"/>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J147" s="15"/>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="J147" s="17"/>
       <c r="M147" s="2"/>
     </row>
-    <row r="148" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J148" s="15"/>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="J148" s="17"/>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J149" s="15"/>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="J149" s="17"/>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J150" s="15"/>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="J150" s="17"/>
       <c r="M150" s="2"/>
     </row>
-    <row r="151" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J151" s="15"/>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="J151" s="17"/>
       <c r="M151" s="2"/>
     </row>
-    <row r="152" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J152" s="15"/>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="J152" s="17"/>
       <c r="M152" s="2"/>
     </row>
-    <row r="153" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J153" s="15"/>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="J153" s="17"/>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J154" s="15"/>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="J154" s="17"/>
       <c r="M154" s="2"/>
     </row>
-    <row r="155" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J155" s="15"/>
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="J155" s="17"/>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J156" s="15"/>
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="J156" s="17"/>
       <c r="M156" s="2"/>
     </row>
-    <row r="157" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J157" s="15"/>
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="J157" s="17"/>
       <c r="M157" s="2"/>
     </row>
-    <row r="158" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J158" s="15"/>
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="J158" s="17"/>
       <c r="M158" s="2"/>
     </row>
-    <row r="159" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J159" s="15"/>
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="J159" s="17"/>
       <c r="M159" s="2"/>
     </row>
-    <row r="160" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J160" s="15"/>
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="J160" s="17"/>
       <c r="M160" s="2"/>
     </row>
-    <row r="161" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J161" s="15"/>
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="J161" s="17"/>
       <c r="M161" s="2"/>
     </row>
-    <row r="162" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J162" s="15"/>
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="J162" s="17"/>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J163" s="15"/>
+    <row r="163" ht="14.25" customHeight="1">
+      <c r="J163" s="17"/>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J164" s="15"/>
+    <row r="164" ht="14.25" customHeight="1">
+      <c r="J164" s="17"/>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J165" s="15"/>
+    <row r="165" ht="14.25" customHeight="1">
+      <c r="J165" s="17"/>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J166" s="15"/>
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="J166" s="17"/>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J167" s="15"/>
+    <row r="167" ht="14.25" customHeight="1">
+      <c r="J167" s="17"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J168" s="15"/>
+    <row r="168" ht="14.25" customHeight="1">
+      <c r="J168" s="17"/>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J169" s="15"/>
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="J169" s="17"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J170" s="15"/>
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="J170" s="17"/>
       <c r="M170" s="2"/>
     </row>
-    <row r="171" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J171" s="15"/>
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="J171" s="17"/>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J172" s="15"/>
+    <row r="172" ht="14.25" customHeight="1">
+      <c r="J172" s="17"/>
       <c r="M172" s="2"/>
     </row>
-    <row r="173" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J173" s="15"/>
+    <row r="173" ht="14.25" customHeight="1">
+      <c r="J173" s="17"/>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J174" s="15"/>
+    <row r="174" ht="14.25" customHeight="1">
+      <c r="J174" s="17"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J175" s="15"/>
+    <row r="175" ht="14.25" customHeight="1">
+      <c r="J175" s="17"/>
       <c r="M175" s="2"/>
     </row>
-    <row r="176" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J176" s="15"/>
+    <row r="176" ht="14.25" customHeight="1">
+      <c r="J176" s="17"/>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J177" s="15"/>
+    <row r="177" ht="14.25" customHeight="1">
+      <c r="J177" s="17"/>
       <c r="M177" s="2"/>
     </row>
-    <row r="178" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J178" s="15"/>
+    <row r="178" ht="14.25" customHeight="1">
+      <c r="J178" s="17"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J179" s="15"/>
+    <row r="179" ht="14.25" customHeight="1">
+      <c r="J179" s="17"/>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J180" s="15"/>
+    <row r="180" ht="14.25" customHeight="1">
+      <c r="J180" s="17"/>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J181" s="15"/>
+    <row r="181" ht="14.25" customHeight="1">
+      <c r="J181" s="17"/>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J182" s="15"/>
+    <row r="182" ht="14.25" customHeight="1">
+      <c r="J182" s="17"/>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J183" s="15"/>
+    <row r="183" ht="14.25" customHeight="1">
+      <c r="J183" s="17"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J184" s="15"/>
+    <row r="184" ht="14.25" customHeight="1">
+      <c r="J184" s="17"/>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J185" s="15"/>
+    <row r="185" ht="14.25" customHeight="1">
+      <c r="J185" s="17"/>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J186" s="15"/>
+    <row r="186" ht="14.25" customHeight="1">
+      <c r="J186" s="17"/>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J187" s="15"/>
+    <row r="187" ht="14.25" customHeight="1">
+      <c r="J187" s="17"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J188" s="15"/>
+    <row r="188" ht="14.25" customHeight="1">
+      <c r="J188" s="17"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J189" s="15"/>
+    <row r="189" ht="14.25" customHeight="1">
+      <c r="J189" s="17"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J190" s="15"/>
+    <row r="190" ht="14.25" customHeight="1">
+      <c r="J190" s="17"/>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J191" s="15"/>
+    <row r="191" ht="14.25" customHeight="1">
+      <c r="J191" s="17"/>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J192" s="15"/>
+    <row r="192" ht="14.25" customHeight="1">
+      <c r="J192" s="17"/>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J193" s="15"/>
+    <row r="193" ht="14.25" customHeight="1">
+      <c r="J193" s="17"/>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J194" s="15"/>
+    <row r="194" ht="14.25" customHeight="1">
+      <c r="J194" s="17"/>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J195" s="15"/>
+    <row r="195" ht="14.25" customHeight="1">
+      <c r="J195" s="17"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J196" s="15"/>
+    <row r="196" ht="14.25" customHeight="1">
+      <c r="J196" s="17"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J197" s="15"/>
+    <row r="197" ht="14.25" customHeight="1">
+      <c r="J197" s="17"/>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J198" s="15"/>
+    <row r="198" ht="14.25" customHeight="1">
+      <c r="J198" s="17"/>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J199" s="15"/>
+    <row r="199" ht="14.25" customHeight="1">
+      <c r="J199" s="17"/>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J200" s="15"/>
+    <row r="200" ht="14.25" customHeight="1">
+      <c r="J200" s="17"/>
       <c r="M200" s="2"/>
     </row>
-    <row r="201" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J201" s="15"/>
+    <row r="201" ht="14.25" customHeight="1">
+      <c r="J201" s="17"/>
       <c r="M201" s="2"/>
     </row>
-    <row r="202" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J202" s="15"/>
+    <row r="202" ht="14.25" customHeight="1">
+      <c r="J202" s="17"/>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J203" s="15"/>
+    <row r="203" ht="14.25" customHeight="1">
+      <c r="J203" s="17"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J204" s="15"/>
+    <row r="204" ht="14.25" customHeight="1">
+      <c r="J204" s="17"/>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J205" s="15"/>
+    <row r="205" ht="14.25" customHeight="1">
+      <c r="J205" s="17"/>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J206" s="15"/>
+    <row r="206" ht="14.25" customHeight="1">
+      <c r="J206" s="17"/>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J207" s="15"/>
+    <row r="207" ht="14.25" customHeight="1">
+      <c r="J207" s="17"/>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J208" s="15"/>
+    <row r="208" ht="14.25" customHeight="1">
+      <c r="J208" s="17"/>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J209" s="15"/>
+    <row r="209" ht="14.25" customHeight="1">
+      <c r="J209" s="17"/>
       <c r="M209" s="2"/>
     </row>
-    <row r="210" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J210" s="15"/>
+    <row r="210" ht="14.25" customHeight="1">
+      <c r="J210" s="17"/>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J211" s="15"/>
+    <row r="211" ht="14.25" customHeight="1">
+      <c r="J211" s="17"/>
       <c r="M211" s="2"/>
     </row>
-    <row r="212" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J212" s="15"/>
+    <row r="212" ht="14.25" customHeight="1">
+      <c r="J212" s="17"/>
       <c r="M212" s="2"/>
     </row>
-    <row r="213" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J213" s="15"/>
+    <row r="213" ht="14.25" customHeight="1">
+      <c r="J213" s="17"/>
       <c r="M213" s="2"/>
     </row>
-    <row r="214" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J214" s="15"/>
+    <row r="214" ht="14.25" customHeight="1">
+      <c r="J214" s="17"/>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J215" s="15"/>
+    <row r="215" ht="14.25" customHeight="1">
+      <c r="J215" s="17"/>
       <c r="M215" s="2"/>
     </row>
-    <row r="216" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J216" s="15"/>
+    <row r="216" ht="14.25" customHeight="1">
+      <c r="J216" s="17"/>
       <c r="M216" s="2"/>
     </row>
-    <row r="217" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J217" s="15"/>
+    <row r="217" ht="14.25" customHeight="1">
+      <c r="J217" s="17"/>
       <c r="M217" s="2"/>
     </row>
-    <row r="218" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J218" s="15"/>
+    <row r="218" ht="14.25" customHeight="1">
+      <c r="J218" s="17"/>
       <c r="M218" s="2"/>
     </row>
-    <row r="219" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J219" s="15"/>
+    <row r="219" ht="14.25" customHeight="1">
+      <c r="J219" s="17"/>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" spans="10:13" ht="14.25" customHeight="1">
-      <c r="J220" s="15"/>
+    <row r="220" ht="14.25" customHeight="1">
+      <c r="J220" s="17"/>
       <c r="M220" s="2"/>
     </row>
-    <row r="221" spans="10:13" ht="15.75" customHeight="1"/>
-    <row r="222" spans="10:13" ht="15.75" customHeight="1"/>
-    <row r="223" spans="10:13" ht="15.75" customHeight="1"/>
-    <row r="224" spans="10:13" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -8392,23 +8388,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="6" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="6" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>317</v>
       </c>
@@ -8419,21 +8419,21 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -9419,32 +9419,34 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="65.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="36.29"/>
+    <col customWidth="1" min="2" max="2" width="53.14"/>
+    <col customWidth="1" min="3" max="3" width="12.43"/>
+    <col customWidth="1" min="4" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="25.57"/>
+    <col customWidth="1" min="7" max="7" width="10.43"/>
+    <col customWidth="1" min="8" max="8" width="13.71"/>
+    <col customWidth="1" min="12" max="12" width="65.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>265</v>
       </c>
@@ -9488,21 +9490,21 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>331</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>333</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>334</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -9517,34 +9519,34 @@
       <c r="L2" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="28" t="s">
         <v>340</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>342</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>344</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="27" t="s">
         <v>334</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -9562,7 +9564,7 @@
       <c r="K3" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="29" t="s">
         <v>348</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -9572,21 +9574,21 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>350</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>352</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="27" t="s">
         <v>334</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -9617,11 +9619,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>358</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -9631,7 +9633,7 @@
         <v>360</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="27" t="s">
         <v>334</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -9649,7 +9651,7 @@
       <c r="K5" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="29" t="s">
         <v>364</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -9662,17 +9664,17 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -10659,40 +10661,42 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="L2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="L3" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="F4" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="L4" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="F5" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="L5" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="F2"/>
+    <hyperlink r:id="rId3" ref="L2"/>
+    <hyperlink r:id="rId4" ref="D3"/>
+    <hyperlink r:id="rId5" ref="F3"/>
+    <hyperlink r:id="rId6" ref="L3"/>
+    <hyperlink r:id="rId7" ref="D4"/>
+    <hyperlink r:id="rId8" ref="F4"/>
+    <hyperlink r:id="rId9" ref="L4"/>
+    <hyperlink r:id="rId10" ref="F5"/>
+    <hyperlink r:id="rId11" ref="L5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C1004"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="386" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="32.29"/>
+    <col customWidth="1" min="2" max="2" width="23.71"/>
+    <col customWidth="1" min="3" max="3" width="386.0"/>
+    <col customWidth="1" min="4" max="6" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10703,366 +10707,366 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="30" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="30" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="30" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="30" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="30" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="30" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="31" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="30" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="32" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="32" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="32" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="32" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="31" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="31" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="31" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="30" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="30" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="B28" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="30" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="32" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="30" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="30" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="30" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="30" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="30" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="31" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="B36" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="32" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>158</v>
       </c>
@@ -11070,7 +11074,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
@@ -11078,7 +11082,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="B39" s="1" t="s">
         <v>409</v>
       </c>
@@ -11086,7 +11090,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="B40" s="1" t="s">
         <v>409</v>
       </c>
@@ -11094,7 +11098,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="1" t="s">
         <v>409</v>
       </c>
@@ -11102,7 +11106,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="B42" s="1" t="s">
         <v>409</v>
       </c>
@@ -11110,7 +11114,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="B43" s="1" t="s">
         <v>409</v>
       </c>
@@ -11118,51 +11122,51 @@
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="14" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="14" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="B48" s="1" t="s">
         <v>420</v>
       </c>
@@ -11170,356 +11174,356 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="29" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="29" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="29" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="14" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="29" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="29" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C58" s="33" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C58" s="29" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="29" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C60" s="29" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="35" t="s">
-        <v>539</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B61" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="35" t="s">
-        <v>539</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B62" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="35" t="s">
-        <v>539</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B63" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B64" s="35" t="s">
-        <v>539</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B64" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B65" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B66" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight=